--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18100E81-5973-43C3-876B-E9A12311C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2791AF7-4BD4-4F40-9E8C-F826F036AAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="301">
   <si>
     <t>IE</t>
   </si>
@@ -1462,6 +1462,24 @@
   </si>
   <si>
     <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt-AB,RSDSH_Apt-C,RSDSH_Apt-D,RSDSH_Apt-E,RSDSH_Apt-F,RSDSH_Apt-G</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt-AB,RSDSH_Apt-C,RSDSH_Apt-D,RSDSH_Apt-E,RSDSH_Apt-F,RSDSH_Apt-G,RSDWH_Apt</t>
+  </si>
+  <si>
+    <t>RSDSH_Att-AB,RSDSH_Att-C,RSDSH_Att-D,RSDSH_Att-E,RSDSH_Att-F,RSDSH_Att-G</t>
+  </si>
+  <si>
+    <t>RSDSH_Att-AB,RSDSH_Att-C,RSDSH_Att-D,RSDSH_Att-E,RSDSH_Att-F,RSDSH_Att-G,RSDWH_Att</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-AB,RSDSH_Det-C,RSDSH_Det-D,RSDSH_Det-E,RSDSH_Det-F,RSDSH_Det-G</t>
+  </si>
+  <si>
+    <t>RSDSH_Det-AB,RSDSH_Det-C,RSDSH_Det-D,RSDSH_Det-E,RSDSH_Det-F,RSDSH_Det-G,RSDWH_Det</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2829,7 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11717,8 +11735,8 @@
   </sheetPr>
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12860,12 +12878,11 @@
         <f>"R-SW*"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
         <v>R-SW*Apt_COA*</v>
       </c>
-      <c r="C46" s="32" t="str">
-        <f t="shared" ref="C46:C51" si="8">"RSDSH_"&amp;F46&amp;",RSDWH_"&amp;F58</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
+      <c r="C46" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="D46" s="32">
-        <f t="shared" ref="D46:D56" si="9">AVERAGE(D6,D86)</f>
+        <f t="shared" ref="D46:D56" si="8">AVERAGE(D6,D86)</f>
         <v>0.43569133982209951</v>
       </c>
       <c r="F46" s="32" t="s">
@@ -12875,7 +12892,7 @@
         <v>82</v>
       </c>
       <c r="H46" s="32" t="str">
-        <f t="shared" ref="H46:H49" si="10">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
+        <f t="shared" ref="H46:H49" si="9">"R-S*_"&amp;F46&amp;"_"&amp;G46&amp;"*"</f>
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
@@ -12887,12 +12904,11 @@
         <f>"R-SW*"&amp;F47&amp;"_"&amp;G47&amp;"*"</f>
         <v>R-SW*Apt_BDL*</v>
       </c>
-      <c r="C47" s="33" t="str">
+      <c r="C47" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="33">
         <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D47" s="33">
-        <f t="shared" si="9"/>
         <v>4.2254222616694481E-2</v>
       </c>
       <c r="F47" s="33" t="s">
@@ -12902,7 +12918,7 @@
         <v>191</v>
       </c>
       <c r="H47" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
@@ -12914,12 +12930,11 @@
         <f>"R-SW*"&amp;F48&amp;"_"&amp;G48&amp;"*"</f>
         <v>R-SW*Apt_ETH*</v>
       </c>
-      <c r="C48" s="32" t="str">
+      <c r="C48" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="32">
         <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D48" s="32">
-        <f t="shared" si="9"/>
         <v>4.5221363407621576E-2</v>
       </c>
       <c r="F48" s="32" t="s">
@@ -12929,7 +12944,7 @@
         <v>190</v>
       </c>
       <c r="H48" s="32" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
@@ -12941,12 +12956,11 @@
         <f>"R-SW*"&amp;F49&amp;"_"&amp;G49&amp;"*"</f>
         <v>R-SW*Apt_LPG*</v>
       </c>
-      <c r="C49" s="33" t="str">
+      <c r="C49" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D49" s="33">
         <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D49" s="33">
-        <f t="shared" si="9"/>
         <v>9.0652735347130045E-2</v>
       </c>
       <c r="F49" s="33" t="s">
@@ -12956,7 +12970,7 @@
         <v>192</v>
       </c>
       <c r="H49" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
@@ -12968,12 +12982,11 @@
         <f>"R-SW*"&amp;F50&amp;"_"&amp;G50&amp;"*"</f>
         <v>R-SW*Apt_ELC*</v>
       </c>
-      <c r="C50" s="32" t="str">
+      <c r="C50" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="32">
         <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D50" s="32">
-        <f t="shared" si="9"/>
         <v>0.44216237015129278</v>
       </c>
       <c r="F50" s="32" t="s">
@@ -12992,15 +13005,14 @@
         <v>198</v>
       </c>
       <c r="B51" s="33" t="str">
-        <f t="shared" ref="B51:B56" si="11">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="B51:B56" si="10">"R-SW*"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-SW*Apt_KER*</v>
       </c>
-      <c r="C51" s="33" t="str">
+      <c r="C51" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="33">
         <f t="shared" si="8"/>
-        <v>RSDSH_Apt,RSDWH_Att</v>
-      </c>
-      <c r="D51" s="33">
-        <f t="shared" si="9"/>
         <v>9.5574094033833407E-2</v>
       </c>
       <c r="F51" s="33" t="s">
@@ -13010,7 +13022,7 @@
         <v>193</v>
       </c>
       <c r="H51" s="33" t="str">
-        <f t="shared" ref="H51" si="12">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
+        <f t="shared" ref="H51" si="11">"R-S*_"&amp;F51&amp;"_"&amp;G51&amp;"*"</f>
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
@@ -13019,15 +13031,14 @@
         <v>198</v>
       </c>
       <c r="B52" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-SW*Apt_GAS*</v>
       </c>
-      <c r="C52" s="32" t="str">
-        <f>"RSDSH_"&amp;F52&amp;",RSDWH_"&amp;F65</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
+      <c r="C52" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="D52" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>5.005778023052835E-2</v>
       </c>
       <c r="F52" s="32" t="s">
@@ -13046,15 +13057,14 @@
         <v>1</v>
       </c>
       <c r="B53" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-SW*Apt_PEA*</v>
       </c>
-      <c r="C53" s="33" t="str">
-        <f>"RSDSH_"&amp;F53&amp;",RSDWH_"&amp;F66</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
+      <c r="C53" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="D53" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.12445385068331161</v>
       </c>
       <c r="F53" s="33" t="s">
@@ -13073,15 +13083,14 @@
         <v>1</v>
       </c>
       <c r="B54" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-SW*Apt_SMF*</v>
       </c>
-      <c r="C54" s="32" t="str">
-        <f>"RSDSH_"&amp;F54&amp;",RSDWH_"&amp;F67</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
+      <c r="C54" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="D54" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.11858965076383715</v>
       </c>
       <c r="F54" s="32" t="s">
@@ -13100,15 +13109,14 @@
         <v>198</v>
       </c>
       <c r="B55" s="33" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-SW*Apt_WOO*</v>
       </c>
-      <c r="C55" s="33" t="str">
-        <f>"RSDSH_"&amp;F55&amp;",RSDWH_"&amp;F68</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
+      <c r="C55" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="D55" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7.023431639574465E-2</v>
       </c>
       <c r="F55" s="33" t="s">
@@ -13127,15 +13135,14 @@
         <v>198</v>
       </c>
       <c r="B56" s="32" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>R-SW*Apt_HET*</v>
       </c>
-      <c r="C56" s="32" t="str">
-        <f t="shared" ref="C56" si="13">"RSDSH_"&amp;F56&amp;",RSDWH_"&amp;F70</f>
-        <v>RSDSH_Apt,RSDWH_Att</v>
+      <c r="C56" s="32" t="s">
+        <v>296</v>
       </c>
       <c r="D56" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.7931052284335001E-3</v>
       </c>
       <c r="F56" s="32" t="s">
@@ -13169,12 +13176,11 @@
         <f>"R-SW*"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-SW*Att_COA*</v>
       </c>
-      <c r="C58" s="32" t="str">
-        <f>"RSDSH_"&amp;F58&amp;",RSDWH_"&amp;F58</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C58" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D58" s="32">
-        <f t="shared" ref="D58:D63" si="14">AVERAGE(D18,D99)</f>
+        <f t="shared" ref="D58:D63" si="12">AVERAGE(D18,D99)</f>
         <v>0.211103808258606</v>
       </c>
       <c r="F58" s="32" t="s">
@@ -13184,7 +13190,7 @@
         <v>82</v>
       </c>
       <c r="H58" s="32" t="str">
-        <f t="shared" ref="H58:H61" si="15">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
+        <f t="shared" ref="H58:H61" si="13">"R-S*_"&amp;F58&amp;"_"&amp;G58&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
@@ -13196,12 +13202,11 @@
         <f>"R-SW*"&amp;F59&amp;"_"&amp;G59&amp;"*"</f>
         <v>R-SW*Att_BDL*</v>
       </c>
-      <c r="C59" s="33" t="str">
-        <f t="shared" ref="C59:C70" si="16">"RSDSH_"&amp;F59&amp;",RSDWH_"&amp;F59</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C59" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.6789129779838646E-2</v>
       </c>
       <c r="F59" s="33" t="s">
@@ -13211,7 +13216,7 @@
         <v>191</v>
       </c>
       <c r="H59" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
@@ -13223,12 +13228,11 @@
         <f>"R-SW*"&amp;F60&amp;"_"&amp;G60&amp;"*"</f>
         <v>R-SW*Att_ETH*</v>
       </c>
-      <c r="C60" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C60" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D60" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>3.3606164383561649E-2</v>
       </c>
       <c r="F60" s="32" t="s">
@@ -13238,7 +13242,7 @@
         <v>190</v>
       </c>
       <c r="H60" s="32" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
@@ -13250,12 +13254,11 @@
         <f>"R-SW*"&amp;F61&amp;"_"&amp;G61&amp;"*"</f>
         <v>R-SW*Att_LPG*</v>
       </c>
-      <c r="C61" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C61" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D61" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>7.4808754437320241E-2</v>
       </c>
       <c r="F61" s="33" t="s">
@@ -13265,7 +13268,7 @@
         <v>192</v>
       </c>
       <c r="H61" s="33" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
@@ -13277,12 +13280,11 @@
         <f>"R-SW*"&amp;F62&amp;"_"&amp;G62&amp;"*"</f>
         <v>R-SW*Att_ELC*</v>
       </c>
-      <c r="C62" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C62" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D62" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>7.0886712228430571E-2</v>
       </c>
       <c r="F62" s="32" t="s">
@@ -13301,15 +13303,14 @@
         <v>198</v>
       </c>
       <c r="B63" s="33" t="str">
-        <f t="shared" ref="B63:B70" si="17">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="B63:B70" si="14">"R-SW*"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-SW*Att_KER*</v>
       </c>
-      <c r="C63" s="33" t="str">
-        <f>"RSDSH_"&amp;F63&amp;",RSDWH_"&amp;F63</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C63" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D63" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.7341827023040151E-2</v>
       </c>
       <c r="F63" s="33" t="s">
@@ -13319,7 +13320,7 @@
         <v>193</v>
       </c>
       <c r="H63" s="33" t="str">
-        <f t="shared" ref="H63" si="18">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
+        <f t="shared" ref="H63" si="15">"R-S*_"&amp;F63&amp;"_"&amp;G63&amp;"*"</f>
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
@@ -13330,9 +13331,8 @@
       <c r="B64" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="C64" s="33" t="str">
-        <f>"RSDSH_"&amp;F63&amp;",RSDWH_"&amp;F63</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C64" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D64" s="33">
         <f>D63</f>
@@ -13347,12 +13347,11 @@
         <v>198</v>
       </c>
       <c r="B65" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>R-SW*Att_GAS*</v>
       </c>
-      <c r="C65" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C65" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D65" s="32">
         <f>AVERAGE(D25,D105)</f>
@@ -13374,12 +13373,11 @@
         <v>1</v>
       </c>
       <c r="B66" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>R-SW*Att_PEA*</v>
       </c>
-      <c r="C66" s="33" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C66" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D66" s="33">
         <f>AVERAGE(D26,D106)</f>
@@ -13401,12 +13399,11 @@
         <v>1</v>
       </c>
       <c r="B67" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>R-SW*Att_SMF*</v>
       </c>
-      <c r="C67" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C67" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D67" s="32">
         <f>AVERAGE(D27,D107)</f>
@@ -13428,12 +13425,11 @@
         <v>198</v>
       </c>
       <c r="B68" s="33" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>R-SW*Att_WOO*</v>
       </c>
-      <c r="C68" s="33" t="str">
-        <f>"RSDSH_"&amp;F68&amp;",RSDWH_"&amp;F68</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C68" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D68" s="33">
         <f>AVERAGE(D28,D108)</f>
@@ -13457,9 +13453,8 @@
       <c r="B69" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="33" t="str">
-        <f>"RSDSH_"&amp;F68&amp;",RSDWH_"&amp;F68</f>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C69" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D69" s="33">
         <f>D68</f>
@@ -13474,12 +13469,11 @@
         <v>198</v>
       </c>
       <c r="B70" s="32" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>R-SW*Att_HET*</v>
       </c>
-      <c r="C70" s="32" t="str">
-        <f t="shared" si="16"/>
-        <v>RSDSH_Att,RSDWH_Att</v>
+      <c r="C70" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="D70" s="32">
         <f>AVERAGE(D30,D109)</f>
@@ -13516,12 +13510,11 @@
         <f>"R-SW*"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
         <v>R-SW*Det_COA*</v>
       </c>
-      <c r="C72" s="32" t="str">
-        <f>"RSDSH_"&amp;F72&amp;",RSDWH_"&amp;F72</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C72" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D72" s="32">
-        <f t="shared" ref="D72:D77" si="19">AVERAGE(D32,D112)</f>
+        <f t="shared" ref="D72:D77" si="16">AVERAGE(D32,D112)</f>
         <v>0.27265121677642429</v>
       </c>
       <c r="F72" s="32" t="s">
@@ -13531,7 +13524,7 @@
         <v>82</v>
       </c>
       <c r="H72" s="32" t="str">
-        <f t="shared" ref="H72:H76" si="20">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
+        <f t="shared" ref="H72:H76" si="17">"R-S*_"&amp;F72&amp;"_"&amp;G72&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
@@ -13543,12 +13536,11 @@
         <f>"R-SW*"&amp;F73&amp;"_"&amp;G73&amp;"*"</f>
         <v>R-SW*Det_BDL*</v>
       </c>
-      <c r="C73" s="33" t="str">
-        <f t="shared" ref="C73:C84" si="21">"RSDSH_"&amp;F73&amp;",RSDWH_"&amp;F73</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C73" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D73" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2.1164383561643851E-2</v>
       </c>
       <c r="F73" s="33" t="s">
@@ -13558,7 +13550,7 @@
         <v>191</v>
       </c>
       <c r="H73" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
@@ -13570,12 +13562,11 @@
         <f>"R-SW*"&amp;F74&amp;"_"&amp;G74&amp;"*"</f>
         <v>R-SW*Det_ETH*</v>
       </c>
-      <c r="C74" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C74" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D74" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2.3973672945205499E-2</v>
       </c>
       <c r="F74" s="32" t="s">
@@ -13585,7 +13576,7 @@
         <v>190</v>
       </c>
       <c r="H74" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
@@ -13597,12 +13588,11 @@
         <f>"R-SW*"&amp;F75&amp;"_"&amp;G75&amp;"*"</f>
         <v>R-SW*Det_LPG*</v>
       </c>
-      <c r="C75" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C75" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D75" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6.9820820161344596E-2</v>
       </c>
       <c r="F75" s="33" t="s">
@@ -13612,7 +13602,7 @@
         <v>192</v>
       </c>
       <c r="H75" s="33" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
@@ -13624,12 +13614,11 @@
         <f>"R-SW*"&amp;F76&amp;"_"&amp;G76&amp;"*"</f>
         <v>R-SW*Det_ELC*</v>
       </c>
-      <c r="C76" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C76" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D76" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>6.9081677556345755E-2</v>
       </c>
       <c r="F76" s="32" t="s">
@@ -13639,7 +13628,7 @@
         <v>83</v>
       </c>
       <c r="H76" s="32" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
@@ -13648,15 +13637,14 @@
         <v>198</v>
       </c>
       <c r="B77" s="33" t="str">
-        <f t="shared" ref="B77:B84" si="22">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="B77:B84" si="18">"R-SW*"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-SW*Det_KER*</v>
       </c>
-      <c r="C77" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C77" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D77" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>5.1468333134737351E-2</v>
       </c>
       <c r="F77" s="33" t="s">
@@ -13666,7 +13654,7 @@
         <v>193</v>
       </c>
       <c r="H77" s="33" t="str">
-        <f t="shared" ref="H77" si="23">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="H77" si="19">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
@@ -13677,9 +13665,8 @@
       <c r="B78" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C78" s="33" t="str">
-        <f>"RSDSH_"&amp;F77&amp;",RSDWH_"&amp;F77</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C78" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D78" s="33">
         <f>D77</f>
@@ -13694,12 +13681,11 @@
         <v>198</v>
       </c>
       <c r="B79" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>R-SW*Det_GAS*</v>
       </c>
-      <c r="C79" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C79" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D79" s="32">
         <f>AVERAGE(D39,D118)</f>
@@ -13721,12 +13707,11 @@
         <v>1</v>
       </c>
       <c r="B80" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>R-SW*Det_PEA*</v>
       </c>
-      <c r="C80" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C80" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D80" s="33">
         <f>AVERAGE(D40,D119)</f>
@@ -13748,12 +13733,11 @@
         <v>1</v>
       </c>
       <c r="B81" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>R-SW*Det_SMF*</v>
       </c>
-      <c r="C81" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C81" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D81" s="32">
         <f>AVERAGE(D41,D120)</f>
@@ -13775,12 +13759,11 @@
         <v>198</v>
       </c>
       <c r="B82" s="33" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>R-SW*Det_WOO*</v>
       </c>
-      <c r="C82" s="33" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C82" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D82" s="33">
         <f>AVERAGE(D42,D121)</f>
@@ -13804,9 +13787,8 @@
       <c r="B83" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C83" s="33" t="str">
-        <f>"RSDSH_"&amp;F82&amp;",RSDWH_"&amp;F82</f>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C83" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D83" s="33">
         <f>D82</f>
@@ -13821,12 +13803,11 @@
         <v>198</v>
       </c>
       <c r="B84" s="32" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>R-SW*Det_HET*</v>
       </c>
-      <c r="C84" s="32" t="str">
-        <f t="shared" si="21"/>
-        <v>RSDSH_Det,RSDWH_Det</v>
+      <c r="C84" s="32" t="s">
+        <v>300</v>
       </c>
       <c r="D84" s="32">
         <f>AVERAGE(D44,D122)</f>
@@ -13859,7 +13840,7 @@
         <v>1</v>
       </c>
       <c r="B86" s="32" t="str">
-        <f t="shared" ref="B86:B96" si="24">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="B86:B96" si="20">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
       <c r="C86" s="32"/>
@@ -13874,7 +13855,7 @@
         <v>82</v>
       </c>
       <c r="H86" s="32" t="str">
-        <f t="shared" ref="H86:H91" si="25">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
+        <f t="shared" ref="H86:H91" si="21">"R-WH_"&amp;F86&amp;"_"&amp;G86&amp;"*"</f>
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
@@ -13883,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="B87" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
       <c r="C87" s="33"/>
@@ -13898,7 +13879,7 @@
         <v>191</v>
       </c>
       <c r="H87" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
@@ -13907,7 +13888,7 @@
         <v>1</v>
       </c>
       <c r="B88" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
       <c r="C88" s="32"/>
@@ -13922,7 +13903,7 @@
         <v>190</v>
       </c>
       <c r="H88" s="32" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
@@ -13931,7 +13912,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
       <c r="C89" s="33"/>
@@ -13946,7 +13927,7 @@
         <v>192</v>
       </c>
       <c r="H89" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
@@ -13955,7 +13936,7 @@
         <v>244</v>
       </c>
       <c r="B90" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_ELC*</v>
       </c>
       <c r="C90" s="32"/>
@@ -13979,7 +13960,7 @@
         <v>1</v>
       </c>
       <c r="B91" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_KER*</v>
       </c>
       <c r="C91" s="33"/>
@@ -13994,7 +13975,7 @@
         <v>193</v>
       </c>
       <c r="H91" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
@@ -14003,7 +13984,7 @@
         <v>1</v>
       </c>
       <c r="B92" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_GAS*</v>
       </c>
       <c r="C92" s="32"/>
@@ -14027,7 +14008,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_PEA*</v>
       </c>
       <c r="C93" s="33"/>
@@ -14042,7 +14023,7 @@
         <v>110</v>
       </c>
       <c r="H93" s="33" t="str">
-        <f t="shared" ref="H93:H97" si="26">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
+        <f t="shared" ref="H93:H97" si="22">"R-WH_"&amp;F93&amp;"_"&amp;G93&amp;"*"</f>
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
@@ -14051,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
       <c r="C94" s="32"/>
@@ -14066,7 +14047,7 @@
         <v>111</v>
       </c>
       <c r="H94" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
@@ -14075,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="33" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
       <c r="C95" s="33"/>
@@ -14090,7 +14071,7 @@
         <v>195</v>
       </c>
       <c r="H95" s="33" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
@@ -14099,7 +14080,7 @@
         <v>1</v>
       </c>
       <c r="B96" s="32" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="C96" s="32"/>
@@ -14114,7 +14095,7 @@
         <v>84</v>
       </c>
       <c r="H96" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
@@ -14138,7 +14119,7 @@
         <v>231</v>
       </c>
       <c r="H97" s="32" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
@@ -14159,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="B99" s="32" t="str">
-        <f t="shared" ref="B99:B109" si="27">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="B99:B109" si="23">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
       <c r="C99" s="32"/>
@@ -14174,7 +14155,7 @@
         <v>82</v>
       </c>
       <c r="H99" s="32" t="str">
-        <f t="shared" ref="H99:H104" si="28">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
+        <f t="shared" ref="H99:H104" si="24">"R-WH_"&amp;F99&amp;"_"&amp;G99&amp;"*"</f>
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
@@ -14183,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C100" s="33"/>
@@ -14198,7 +14179,7 @@
         <v>191</v>
       </c>
       <c r="H100" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
@@ -14207,7 +14188,7 @@
         <v>1</v>
       </c>
       <c r="B101" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C101" s="32"/>
@@ -14222,7 +14203,7 @@
         <v>190</v>
       </c>
       <c r="H101" s="32" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
@@ -14231,7 +14212,7 @@
         <v>1</v>
       </c>
       <c r="B102" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="C102" s="33"/>
@@ -14246,7 +14227,7 @@
         <v>192</v>
       </c>
       <c r="H102" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
@@ -14255,7 +14236,7 @@
         <v>244</v>
       </c>
       <c r="B103" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_ELC*</v>
       </c>
       <c r="C103" s="32"/>
@@ -14279,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="B104" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_KER*</v>
       </c>
       <c r="C104" s="33"/>
@@ -14294,7 +14275,7 @@
         <v>193</v>
       </c>
       <c r="H104" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
@@ -14303,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="C105" s="32"/>
@@ -14327,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="B106" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_PEA*</v>
       </c>
       <c r="C106" s="33"/>
@@ -14342,7 +14323,7 @@
         <v>110</v>
       </c>
       <c r="H106" s="33" t="str">
-        <f t="shared" ref="H106:H110" si="29">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
+        <f t="shared" ref="H106:H110" si="25">"R-WH_"&amp;F106&amp;"_"&amp;G106&amp;"*"</f>
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
@@ -14351,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="B107" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_SMF*</v>
       </c>
       <c r="C107" s="32"/>
@@ -14366,7 +14347,7 @@
         <v>111</v>
       </c>
       <c r="H107" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
@@ -14375,7 +14356,7 @@
         <v>1</v>
       </c>
       <c r="B108" s="33" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="C108" s="33"/>
@@ -14390,7 +14371,7 @@
         <v>195</v>
       </c>
       <c r="H108" s="33" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
@@ -14399,7 +14380,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="32" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="C109" s="32"/>
@@ -14414,7 +14395,7 @@
         <v>84</v>
       </c>
       <c r="H109" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
@@ -14438,7 +14419,7 @@
         <v>231</v>
       </c>
       <c r="H110" s="32" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="25"/>
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
@@ -14459,7 +14440,7 @@
         <v>1</v>
       </c>
       <c r="B112" s="32" t="str">
-        <f t="shared" ref="B112:B122" si="30">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="B112:B122" si="26">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
       <c r="C112" s="32"/>
@@ -14474,7 +14455,7 @@
         <v>82</v>
       </c>
       <c r="H112" s="32" t="str">
-        <f t="shared" ref="H112:H117" si="31">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
+        <f t="shared" ref="H112:H117" si="27">"R-WH_"&amp;F112&amp;"_"&amp;G112&amp;"*"</f>
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
@@ -14483,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C113" s="33"/>
@@ -14498,7 +14479,7 @@
         <v>191</v>
       </c>
       <c r="H113" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
@@ -14507,7 +14488,7 @@
         <v>1</v>
       </c>
       <c r="B114" s="32" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C114" s="32"/>
@@ -14522,7 +14503,7 @@
         <v>190</v>
       </c>
       <c r="H114" s="32" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
@@ -14531,7 +14512,7 @@
         <v>1</v>
       </c>
       <c r="B115" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="C115" s="33"/>
@@ -14546,7 +14527,7 @@
         <v>192</v>
       </c>
       <c r="H115" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
@@ -14555,7 +14536,7 @@
         <v>244</v>
       </c>
       <c r="B116" s="32" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_ELC*</v>
       </c>
       <c r="C116" s="32"/>
@@ -14579,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="B117" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_KER*</v>
       </c>
       <c r="C117" s="33"/>
@@ -14594,7 +14575,7 @@
         <v>193</v>
       </c>
       <c r="H117" s="33" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
@@ -14603,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="B118" s="32" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C118" s="32"/>
@@ -14627,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_PEA*</v>
       </c>
       <c r="C119" s="33"/>
@@ -14642,7 +14623,7 @@
         <v>110</v>
       </c>
       <c r="H119" s="33" t="str">
-        <f t="shared" ref="H119:H123" si="32">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
+        <f t="shared" ref="H119:H123" si="28">"R-WH_"&amp;F119&amp;"_"&amp;G119&amp;"*"</f>
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
@@ -14651,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="B120" s="32" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_SMF*</v>
       </c>
       <c r="C120" s="32"/>
@@ -14666,7 +14647,7 @@
         <v>111</v>
       </c>
       <c r="H120" s="32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
@@ -14675,7 +14656,7 @@
         <v>1</v>
       </c>
       <c r="B121" s="33" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="C121" s="33"/>
@@ -14690,7 +14671,7 @@
         <v>195</v>
       </c>
       <c r="H121" s="33" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
@@ -14699,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="B122" s="32" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="26"/>
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="C122" s="32"/>
@@ -14714,7 +14695,7 @@
         <v>84</v>
       </c>
       <c r="H122" s="32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
@@ -14738,7 +14719,7 @@
         <v>231</v>
       </c>
       <c r="H123" s="32" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
@@ -14774,7 +14755,7 @@
         <v>83</v>
       </c>
       <c r="H125" s="37" t="str">
-        <f t="shared" ref="H125:H127" si="33">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
+        <f t="shared" ref="H125:H127" si="29">"R-SH_"&amp;F125&amp;"_"&amp;G125&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -14798,7 +14779,7 @@
         <v>83</v>
       </c>
       <c r="H126" s="37" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -14822,7 +14803,7 @@
         <v>83</v>
       </c>
       <c r="H127" s="37" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -14861,7 +14842,7 @@
         <v>83</v>
       </c>
       <c r="H129" s="37" t="str">
-        <f t="shared" ref="H129:H131" si="34">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
+        <f t="shared" ref="H129:H131" si="30">"R-SH_"&amp;F129&amp;"_"&amp;G129&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -14888,7 +14869,7 @@
         <v>83</v>
       </c>
       <c r="H130" s="37" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -14915,7 +14896,7 @@
         <v>83</v>
       </c>
       <c r="H131" s="39" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -14939,9 +14920,8 @@
         <f>"R-HC_"&amp;F133&amp;"_"&amp;G133&amp;"_HPN*"</f>
         <v>R-HC_Apt_ELC_HPN*</v>
       </c>
-      <c r="C133" s="32" t="str">
-        <f>"RSDSH_"&amp;F133</f>
-        <v>RSDSH_Apt</v>
+      <c r="C133" s="33" t="s">
+        <v>295</v>
       </c>
       <c r="D133" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -14954,7 +14934,7 @@
         <v>83</v>
       </c>
       <c r="H133" s="32" t="str">
-        <f t="shared" ref="H133:H135" si="35">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
+        <f t="shared" ref="H133:H135" si="31">"R-SH_"&amp;F133&amp;"_"&amp;G133&amp;"*X1"</f>
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
@@ -14966,9 +14946,8 @@
         <f>"R-HC_"&amp;F134&amp;"_"&amp;G134&amp;"_HPN*"</f>
         <v>R-HC_Att_ELC_HPN*</v>
       </c>
-      <c r="C134" s="32" t="str">
-        <f>"RSDSH_"&amp;F134</f>
-        <v>RSDSH_Att</v>
+      <c r="C134" s="32" t="s">
+        <v>297</v>
       </c>
       <c r="D134" s="32">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H134,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -14981,7 +14960,7 @@
         <v>83</v>
       </c>
       <c r="H134" s="32" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
@@ -14993,9 +14972,8 @@
         <f>"R-HC_"&amp;F135&amp;"_"&amp;G135&amp;"_HPN*"</f>
         <v>R-HC_Det_ELC_HPN*</v>
       </c>
-      <c r="C135" s="38" t="str">
-        <f>"RSDSH_"&amp;F135</f>
-        <v>RSDSH_Det</v>
+      <c r="C135" s="33" t="s">
+        <v>299</v>
       </c>
       <c r="D135" s="38">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -15008,7 +14986,7 @@
         <v>83</v>
       </c>
       <c r="H135" s="38" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
@@ -15025,7 +15003,7 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2791AF7-4BD4-4F40-9E8C-F826F036AAA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40638CFB-F7E5-4082-B830-8C144049B676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="302">
   <si>
     <t>IE</t>
   </si>
@@ -1480,6 +1480,9 @@
   </si>
   <si>
     <t>RSDSH_Det-AB,RSDSH_Det-C,RSDSH_Det-D,RSDSH_Det-E,RSDSH_Det-F,RSDSH_Det-G,RSDWH_Det</t>
+  </si>
+  <si>
+    <t>*1</t>
   </si>
 </sst>
 </file>
@@ -15003,8 +15006,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15310,9 +15313,8 @@
         <f>"R-S*_"&amp;A16&amp;"_*"&amp;B16&amp;"*"</f>
         <v>R-S*_Apt_*HET*</v>
       </c>
-      <c r="G16" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C16,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.3983844218765</v>
+      <c r="G16" s="32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -15596,9 +15598,8 @@
         <f>"R-S*_"&amp;A29&amp;"_*"&amp;B29&amp;"*"</f>
         <v>R-S*_Att_*HET*</v>
       </c>
-      <c r="G29" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C29,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.609499730599684</v>
+      <c r="G29" s="32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -15885,9 +15886,8 @@
         <f>"R-S*_"&amp;A42&amp;"_*"&amp;B42&amp;"*"</f>
         <v>R-S*_Det_*HET*</v>
       </c>
-      <c r="G42" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C42,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.65865731206453</v>
+      <c r="G42" s="32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -16273,9 +16273,8 @@
         <f t="shared" si="4"/>
         <v>R-WH_Apt_HET*</v>
       </c>
-      <c r="G60" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C60,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.3983844218765</v>
+      <c r="G60" s="32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -16582,9 +16581,8 @@
         <f t="shared" si="6"/>
         <v>R-WH_Att_HET*</v>
       </c>
-      <c r="G74" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C74,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.609499730599684</v>
+      <c r="G74" s="32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -16891,9 +16889,8 @@
         <f t="shared" si="9"/>
         <v>R-WH_Det_HET*</v>
       </c>
-      <c r="G88" s="32" t="str">
-        <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C88,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
-        <v>*0.65865731206453</v>
+      <c r="G88" s="32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40638CFB-F7E5-4082-B830-8C144049B676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827E2E81-1BC4-4E9E-987E-4E239E06D5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15006,8 +15006,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15218,8 +15218,8 @@
         <v>182</v>
       </c>
       <c r="F12" s="32" t="str">
-        <f>"R-S*_"&amp;A12&amp;"_"&amp;B12&amp;"*"</f>
-        <v>R-S*_Apt_GAS*</v>
+        <f>"R-S*_"&amp;A12&amp;"_"&amp;B12&amp;",-*HPN*"</f>
+        <v>R-S*_Apt_GAS,-*HPN*</v>
       </c>
       <c r="G12" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C12,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827E2E81-1BC4-4E9E-987E-4E239E06D5BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E8C69-DD82-4ED3-979D-0706F3AD5598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -15006,8 +15006,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15503,8 +15503,8 @@
         <v>182</v>
       </c>
       <c r="F25" s="32" t="str">
-        <f>"R-S*_"&amp;A25&amp;"_"&amp;B25&amp;"*"</f>
-        <v>R-S*_Att_GAS*</v>
+        <f>"R-S*_"&amp;A25&amp;"_"&amp;B25&amp;",-*HPN*"</f>
+        <v>R-S*_Att_GAS,-*HPN*</v>
       </c>
       <c r="G25" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C25,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -15791,8 +15791,8 @@
         <v>182</v>
       </c>
       <c r="F38" s="32" t="str">
-        <f>"R-S*_"&amp;A38&amp;"_"&amp;B38&amp;"*"</f>
-        <v>R-S*_Det_GAS*</v>
+        <f>"R-S*_"&amp;A38&amp;"_"&amp;B38&amp;",-*HPN*"</f>
+        <v>R-S*_Det_GAS,-*HPN*</v>
       </c>
       <c r="G38" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C38,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -16178,8 +16178,8 @@
         <v>1</v>
       </c>
       <c r="F56" s="32" t="str">
-        <f t="shared" si="4"/>
-        <v>R-WH_Apt_GAS*</v>
+        <f>"R-WH_"&amp;A56&amp;"_"&amp;B56&amp;",-*HPN*"</f>
+        <v>R-WH_Apt_GAS,-*HPN*</v>
       </c>
       <c r="G56" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C56,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -16486,8 +16486,8 @@
         <v>1</v>
       </c>
       <c r="F70" s="32" t="str">
-        <f t="shared" si="6"/>
-        <v>R-WH_Att_GAS*</v>
+        <f>"R-WH_"&amp;A70&amp;"_"&amp;B70&amp;",-*HPN*"</f>
+        <v>R-WH_Att_GAS,-*HPN*</v>
       </c>
       <c r="G70" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C70,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -16794,8 +16794,8 @@
         <v>1</v>
       </c>
       <c r="F84" s="32" t="str">
-        <f t="shared" si="9"/>
-        <v>R-WH_Det_GAS*</v>
+        <f>"R-WH_"&amp;A84&amp;"_"&amp;B84&amp;",-*HPN*"</f>
+        <v>R-WH_Det_GAS,-*HPN*</v>
       </c>
       <c r="G84" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C84,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365E8C69-DD82-4ED3-979D-0706F3AD5598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209BB8C2-5FB4-475F-B1F3-D281EBB926D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15006,8 +15006,8 @@
   </sheetPr>
   <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15218,8 +15218,8 @@
         <v>182</v>
       </c>
       <c r="F12" s="32" t="str">
-        <f>"R-S*_"&amp;A12&amp;"_"&amp;B12&amp;",-*HPN*"</f>
-        <v>R-S*_Apt_GAS,-*HPN*</v>
+        <f>"R-S*_"&amp;A12&amp;"_"&amp;B12&amp;"*"</f>
+        <v>R-S*_Apt_GAS*</v>
       </c>
       <c r="G12" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C12,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -15503,8 +15503,8 @@
         <v>182</v>
       </c>
       <c r="F25" s="32" t="str">
-        <f>"R-S*_"&amp;A25&amp;"_"&amp;B25&amp;",-*HPN*"</f>
-        <v>R-S*_Att_GAS,-*HPN*</v>
+        <f>"R-S*_"&amp;A25&amp;"_"&amp;B25&amp;"*"</f>
+        <v>R-S*_Att_GAS*</v>
       </c>
       <c r="G25" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C25,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>
@@ -15791,8 +15791,8 @@
         <v>182</v>
       </c>
       <c r="F38" s="32" t="str">
-        <f>"R-S*_"&amp;A38&amp;"_"&amp;B38&amp;",-*HPN*"</f>
-        <v>R-S*_Det_GAS,-*HPN*</v>
+        <f>"R-S*_"&amp;A38&amp;"_"&amp;B38&amp;"*"</f>
+        <v>R-S*_Det_GAS*</v>
       </c>
       <c r="G38" s="32" t="str">
         <f>IFERROR("*"&amp;AVERAGEIFS('BY-RSD-EFF'!$L$2:$L$100,'BY-RSD-EFF'!$C$2:$C$100,EFF!C38,'BY-RSD-EFF'!$A$2:$A$100,"BASE"),"")</f>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18100E81-5973-43C3-876B-E9A12311C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A823DF-6DC7-48AE-AABA-359BF7F001A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -2813,21 +2813,21 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="43" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="43" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="43" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="43" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="43" customWidth="1"/>
     <col min="13" max="13" width="10" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="43" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="43"/>
+    <col min="14" max="14" width="11.453125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2855,7 +2855,7 @@
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2883,7 +2883,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2911,7 +2911,7 @@
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2939,7 +2939,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -2967,7 +2967,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -2995,7 +2995,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -3023,7 +3023,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -3051,7 +3051,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -3079,7 +3079,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -3107,7 +3107,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -3135,7 +3135,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -3163,7 +3163,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -3191,7 +3191,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -3219,7 +3219,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -3247,7 +3247,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58" t="s">
         <v>277</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -3305,7 +3305,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -3333,7 +3333,7 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
         <v>278</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="Y19" s="42"/>
       <c r="Z19" s="42"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
         <v>279</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
         <v>280</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="Y21" s="42"/>
       <c r="Z21" s="42"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -3457,7 +3457,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="49" t="s">
         <v>281</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49"/>
       <c r="B24" s="57" t="s">
         <v>291</v>
@@ -3519,7 +3519,7 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="49"/>
       <c r="B25" s="57" t="s">
         <v>292</v>
@@ -3549,7 +3549,7 @@
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="49" t="s">
         <v>282</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="57" t="s">
         <v>292</v>
@@ -3611,7 +3611,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -3639,7 +3639,7 @@
       <c r="Y28" s="42"/>
       <c r="Z28" s="42"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49" t="s">
         <v>283</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
         <v>284</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
         <v>286</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
       <c r="B32" s="56" t="s">
         <v>288</v>
@@ -3765,7 +3765,7 @@
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -3793,7 +3793,7 @@
       <c r="Y33" s="42"/>
       <c r="Z33" s="42"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -3821,7 +3821,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -3849,7 +3849,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -3877,7 +3877,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -3905,7 +3905,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -3933,7 +3933,7 @@
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -3961,7 +3961,7 @@
       <c r="Y39" s="42"/>
       <c r="Z39" s="42"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -3989,7 +3989,7 @@
       <c r="Y40" s="42"/>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -4017,7 +4017,7 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -4045,7 +4045,7 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -4073,7 +4073,7 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -4101,7 +4101,7 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -4129,7 +4129,7 @@
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -4157,7 +4157,7 @@
       <c r="Y46" s="42"/>
       <c r="Z46" s="42"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -4185,7 +4185,7 @@
       <c r="Y47" s="42"/>
       <c r="Z47" s="42"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -4213,7 +4213,7 @@
       <c r="Y48" s="42"/>
       <c r="Z48" s="42"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -4241,7 +4241,7 @@
       <c r="Y49" s="42"/>
       <c r="Z49" s="42"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -4269,7 +4269,7 @@
       <c r="Y50" s="42"/>
       <c r="Z50" s="42"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -4297,7 +4297,7 @@
       <c r="Y51" s="42"/>
       <c r="Z51" s="42"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -4325,7 +4325,7 @@
       <c r="Y52" s="42"/>
       <c r="Z52" s="42"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -4353,7 +4353,7 @@
       <c r="Y53" s="42"/>
       <c r="Z53" s="42"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -4381,7 +4381,7 @@
       <c r="Y54" s="42"/>
       <c r="Z54" s="42"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -4409,7 +4409,7 @@
       <c r="Y55" s="42"/>
       <c r="Z55" s="42"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -4437,7 +4437,7 @@
       <c r="Y56" s="42"/>
       <c r="Z56" s="42"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -4465,7 +4465,7 @@
       <c r="Y57" s="42"/>
       <c r="Z57" s="42"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -4493,7 +4493,7 @@
       <c r="Y58" s="42"/>
       <c r="Z58" s="42"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -4521,7 +4521,7 @@
       <c r="Y59" s="42"/>
       <c r="Z59" s="42"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -4549,7 +4549,7 @@
       <c r="Y60" s="42"/>
       <c r="Z60" s="42"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -4577,7 +4577,7 @@
       <c r="Y61" s="42"/>
       <c r="Z61" s="42"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -4605,7 +4605,7 @@
       <c r="Y62" s="42"/>
       <c r="Z62" s="42"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
@@ -4633,7 +4633,7 @@
       <c r="Y63" s="42"/>
       <c r="Z63" s="42"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
@@ -4661,7 +4661,7 @@
       <c r="Y64" s="42"/>
       <c r="Z64" s="42"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -4689,7 +4689,7 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
@@ -4717,7 +4717,7 @@
       <c r="Y66" s="42"/>
       <c r="Z66" s="42"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -4745,7 +4745,7 @@
       <c r="Y67" s="42"/>
       <c r="Z67" s="42"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
@@ -4773,7 +4773,7 @@
       <c r="Y68" s="42"/>
       <c r="Z68" s="42"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -4801,7 +4801,7 @@
       <c r="Y69" s="42"/>
       <c r="Z69" s="42"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -4829,7 +4829,7 @@
       <c r="Y70" s="42"/>
       <c r="Z70" s="42"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
@@ -4857,7 +4857,7 @@
       <c r="Y71" s="42"/>
       <c r="Z71" s="42"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
@@ -4885,7 +4885,7 @@
       <c r="Y72" s="42"/>
       <c r="Z72" s="42"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -4913,7 +4913,7 @@
       <c r="Y73" s="42"/>
       <c r="Z73" s="42"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -4941,7 +4941,7 @@
       <c r="Y74" s="42"/>
       <c r="Z74" s="42"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -4969,7 +4969,7 @@
       <c r="Y75" s="42"/>
       <c r="Z75" s="42"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -4997,7 +4997,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="42"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
@@ -5025,7 +5025,7 @@
       <c r="Y77" s="42"/>
       <c r="Z77" s="42"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -5053,7 +5053,7 @@
       <c r="Y78" s="42"/>
       <c r="Z78" s="42"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
@@ -5081,7 +5081,7 @@
       <c r="Y79" s="42"/>
       <c r="Z79" s="42"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
@@ -5109,7 +5109,7 @@
       <c r="Y80" s="42"/>
       <c r="Z80" s="42"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
@@ -5137,7 +5137,7 @@
       <c r="Y81" s="42"/>
       <c r="Z81" s="42"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
@@ -5165,7 +5165,7 @@
       <c r="Y82" s="42"/>
       <c r="Z82" s="42"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -5193,7 +5193,7 @@
       <c r="Y83" s="42"/>
       <c r="Z83" s="42"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -5221,7 +5221,7 @@
       <c r="Y84" s="42"/>
       <c r="Z84" s="42"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
@@ -5249,7 +5249,7 @@
       <c r="Y85" s="42"/>
       <c r="Z85" s="42"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -5277,7 +5277,7 @@
       <c r="Y86" s="42"/>
       <c r="Z86" s="42"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -5305,7 +5305,7 @@
       <c r="Y87" s="42"/>
       <c r="Z87" s="42"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -5333,7 +5333,7 @@
       <c r="Y88" s="42"/>
       <c r="Z88" s="42"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -5361,7 +5361,7 @@
       <c r="Y89" s="42"/>
       <c r="Z89" s="42"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -5389,7 +5389,7 @@
       <c r="Y90" s="42"/>
       <c r="Z90" s="42"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -5417,7 +5417,7 @@
       <c r="Y91" s="42"/>
       <c r="Z91" s="42"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -5445,7 +5445,7 @@
       <c r="Y92" s="42"/>
       <c r="Z92" s="42"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
@@ -5473,7 +5473,7 @@
       <c r="Y93" s="42"/>
       <c r="Z93" s="42"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -5501,7 +5501,7 @@
       <c r="Y94" s="42"/>
       <c r="Z94" s="42"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -5529,7 +5529,7 @@
       <c r="Y95" s="42"/>
       <c r="Z95" s="42"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -5557,7 +5557,7 @@
       <c r="Y96" s="42"/>
       <c r="Z96" s="42"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
@@ -5585,7 +5585,7 @@
       <c r="Y97" s="42"/>
       <c r="Z97" s="42"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -5613,7 +5613,7 @@
       <c r="Y98" s="42"/>
       <c r="Z98" s="42"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -5671,12 +5671,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8804,9 +8804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8900,9 +8900,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8978,13 +8978,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.12635353241295499</v>
+        <v>0.210589220688259</v>
       </c>
       <c r="M2">
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.210589220688259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9019,13 +9019,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.24100352965976199</v>
+        <v>0.40167254943293601</v>
       </c>
       <c r="M3">
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.40167254943293601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9060,10 +9060,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.29839165082681302</v>
+        <v>0.49731941804468899</v>
       </c>
       <c r="M4">
-        <v>0.29839165082681302</v>
+        <v>0.49731941804468899</v>
       </c>
     </row>
   </sheetData>
@@ -9078,9 +9078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9176,12 +9176,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9257,13 +9257,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.20963817697789</v>
+        <v>0.52409544244472495</v>
       </c>
       <c r="M2">
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.52409544244472495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9298,13 +9298,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.29754218668175703</v>
+        <v>0.74385546670439195</v>
       </c>
       <c r="M3">
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.74385546670439195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9339,10 +9339,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.49011428261671702</v>
+        <v>1.2252857065417899</v>
       </c>
       <c r="M4">
-        <v>0.49011428261671702</v>
+        <v>1.2252857065417899</v>
       </c>
     </row>
   </sheetData>
@@ -9357,9 +9357,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9453,9 +9453,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>1.2457230310998201E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>1.06776419273959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9633,9 +9633,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9731,9 +9731,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9831,16 +9831,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="60.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>44237</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>44232</v>
       </c>
@@ -9905,40 +9905,40 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="8" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10052,12 +10052,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>33</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>43</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>67</v>
       </c>
@@ -10672,43 +10672,43 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10778,7 +10778,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10810,7 +10810,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10830,7 +10830,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -10868,18 +10868,18 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="12.85546875" style="16" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="16"/>
-    <col min="16" max="16" width="11.42578125" style="16" customWidth="1"/>
-    <col min="17" max="25" width="9.140625" style="16"/>
-    <col min="26" max="26" width="11.7109375" style="16" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="5" width="9.1796875" style="16"/>
+    <col min="6" max="6" width="12.81640625" style="16" customWidth="1"/>
+    <col min="7" max="15" width="9.1796875" style="16"/>
+    <col min="16" max="16" width="11.453125" style="16" customWidth="1"/>
+    <col min="17" max="25" width="9.1796875" style="16"/>
+    <col min="26" max="26" width="11.7265625" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:30" ht="23.5" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>85</v>
       </c>
@@ -10925,7 +10925,7 @@
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>68</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
@@ -11067,7 +11067,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
@@ -11097,7 +11097,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
@@ -11121,7 +11121,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>68</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="26" t="s">
         <v>77</v>
       </c>
@@ -11217,7 +11217,7 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
@@ -11241,7 +11241,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
@@ -11337,7 +11337,7 @@
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
@@ -11361,7 +11361,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>68</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="26" t="s">
         <v>77</v>
       </c>
@@ -11457,7 +11457,7 @@
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
@@ -11481,7 +11481,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>68</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="26" t="s">
         <v>77</v>
       </c>
@@ -11577,7 +11577,7 @@
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="L28" s="17" t="s">
         <v>173</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29" s="19" t="s">
         <v>68</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="L30" s="26" t="s">
         <v>77</v>
       </c>
@@ -11640,7 +11640,7 @@
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
     </row>
-    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="L33" s="17" t="s">
         <v>174</v>
       </c>
@@ -11653,7 +11653,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L34" s="19" t="s">
         <v>68</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="L35" s="26" t="s">
         <v>77</v>
       </c>
@@ -11721,33 +11721,33 @@
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="22"/>
+    <col min="10" max="10" width="13.1796875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="22" customWidth="1"/>
     <col min="12" max="12" width="13" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="13" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>243</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>248</v>
       </c>
@@ -11803,7 +11803,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>1.1270833191729201E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>6.7195931921959296E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>244</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>1.18630136986301E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>244</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>1.0896637608966401E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>244</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>0.956481782990526</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>244</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>1</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>244</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="32" t="s">
         <v>1</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>112</v>
       </c>
@@ -12173,7 +12173,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>1</v>
       </c>
@@ -12204,10 +12204,10 @@
       </c>
       <c r="L18" s="32">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.52409544244472495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
         <v>1</v>
       </c>
@@ -12238,10 +12238,10 @@
       </c>
       <c r="L19" s="33">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.74385546670439195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>1</v>
       </c>
@@ -12272,10 +12272,10 @@
       </c>
       <c r="L20" s="32">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.49011428261671702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.2252857065417899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
         <v>244</v>
       </c>
@@ -12306,10 +12306,10 @@
       </c>
       <c r="L21" s="33">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.210589220688259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -12340,10 +12340,10 @@
       </c>
       <c r="L22" s="32">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.40167254943293601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>244</v>
       </c>
@@ -12374,10 +12374,10 @@
       </c>
       <c r="L23" s="33">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.29839165082681302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.49731941804468899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>244</v>
       </c>
@@ -12396,7 +12396,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>244</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>1</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>244</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
         <v>244</v>
       </c>
@@ -12508,7 +12508,7 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>1</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>113</v>
       </c>
@@ -12544,7 +12544,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>1</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>1</v>
       </c>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>1</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>244</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>244</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>244</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>244</v>
       </c>
@@ -12705,7 +12705,7 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>244</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
         <v>1</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>1</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>244</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
         <v>244</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>1</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>251</v>
       </c>
@@ -12852,7 +12852,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>1</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="33" t="s">
         <v>1</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>1</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>198</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>198</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>R-S*_Apt_ELC*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="33" t="s">
         <v>198</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>198</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
         <v>1</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>1</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>198</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>198</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>250</v>
       </c>
@@ -13161,7 +13161,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>1</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>1</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>1</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
         <v>198</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>198</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>R-S*_Att_ELC*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="33" t="s">
         <v>198</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
         <v>198</v>
       </c>
@@ -13342,7 +13342,7 @@
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>198</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>1</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>1</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
         <v>198</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
         <v>198</v>
       </c>
@@ -13469,7 +13469,7 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>198</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>249</v>
       </c>
@@ -13508,7 +13508,7 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>1</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
         <v>1</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>1</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>198</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>198</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
         <v>198</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
         <v>198</v>
       </c>
@@ -13689,7 +13689,7 @@
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
         <v>1</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
         <v>198</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>198</v>
       </c>
@@ -13816,7 +13816,7 @@
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>198</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>115</v>
       </c>
@@ -13854,7 +13854,7 @@
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>1</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>1</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>1</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>1</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>244</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
         <v>1</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>1</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
         <v>1</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>1</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
         <v>1</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>1</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>244</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>116</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>1</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="33" t="s">
         <v>1</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>1</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="33" t="s">
         <v>1</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>244</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="33" t="s">
         <v>1</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>1</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="33" t="s">
         <v>1</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="33" t="s">
         <v>1</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>1</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>244</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>117</v>
       </c>
@@ -14454,7 +14454,7 @@
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>1</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="33" t="s">
         <v>1</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>1</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="33" t="s">
         <v>1</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>244</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="33" t="s">
         <v>1</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>1</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="33" t="s">
         <v>1</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>1</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="33" t="s">
         <v>1</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>1</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>244</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>246</v>
       </c>
@@ -14754,7 +14754,7 @@
       <c r="G124" s="30"/>
       <c r="H124" s="30"/>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>78</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>78</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>78</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>247</v>
       </c>
@@ -14838,7 +14838,7 @@
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>245</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>245</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="38" t="s">
         <v>245</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
         <v>252</v>
       </c>
@@ -14931,7 +14931,7 @@
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>245</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>245</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="38" t="s">
         <v>245</v>
       </c>
@@ -15029,32 +15029,32 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="22"/>
-    <col min="5" max="5" width="11.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="13.7265625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="22"/>
+    <col min="5" max="5" width="11.1796875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="E3" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>79</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -15084,7 +15084,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>109</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>109</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>109</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>109</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>109</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>109</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>109</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>109</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>109</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>109</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>109</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -15370,7 +15370,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>105</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
         <v>105</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>105</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>105</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>105</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>105</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>105</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>105</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>105</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>105</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>105</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>105</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -15656,7 +15656,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>114</v>
       </c>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>114</v>
       </c>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>114</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>114</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>114</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>114</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>114</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>114</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>114</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>114</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>114</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>114</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -15945,7 +15945,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>109</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>105</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>114</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -16024,7 +16024,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>109</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="33" t="s">
         <v>109</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>109</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
         <v>109</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>109</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>109</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>109</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>109</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
         <v>109</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>109</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>109</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>109</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
         <v>109</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -16333,7 +16333,7 @@
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>105</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
         <v>105</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>105</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>105</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>105</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>105</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
         <v>105</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>105</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
         <v>105</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>105</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
         <v>105</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>105</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>105</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -16642,7 +16642,7 @@
       <c r="F76" s="30"/>
       <c r="G76" s="31"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>114</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
         <v>114</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>114</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
         <v>114</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>114</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>114</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>114</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>114</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>114</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>114</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>114</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>114</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>114</v>
       </c>
@@ -16956,12 +16956,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>7.5051369863013695E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>0.45255796882634303</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>6.2549233288808403E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>1.5052975614548401</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>9.0422374429223698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>7.5045615347050301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>3.2373195740855901E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>0.112170033510623</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>0.13251764473730199</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>9.0627195293291204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>9.0196313138344295E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>0.143159113753899</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>0.10316120676872401</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>8.8919330289193299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>0.104359857576634</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>6.6402541005538801E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>0.66825318875216799</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>6.7212328767123297E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>5.8388567987470399E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>4.8794584261943399E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>6.9705277866978901E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>0.100567418678171</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>6.8944308925102102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>5.9040638752358897E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>0.220198275095671</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>6.8778139627583307E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>4.2328767123287703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>7.2518315131287606E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>4.65144570452133E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0.45983560612562002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>4.7947345890410997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>4.6985228618266699E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>5.1032329364559198E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>5.3657823067608502E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>6.8787509731139299E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>2.36315789189348E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>4.4737576657325098E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>0.145588074596397</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18613,12 +18613,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>9.4570753703752605E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>0.41882471081785599</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>1.7227618659613701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>0.183575067201909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>2.0352386019458902E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>2.5069945114006401E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>2.3488908827814098E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>7.8978154557043795E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>4.8787825956958103E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>0.15828050607333199</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>0.14698298838932999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>3.7307426022765301E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>2.4658929270483999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>0.31784775894057798</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>3.7537381358533697E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>0.113204385544111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>3.5032805879028399E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>2.2872893208017001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>4.4978376179101401E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>4.9050090196469498E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>7.0893554801410602E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>7.3631430941555998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>0.119017735973187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0.47278411842156098</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>4.5630448521753401E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>0.13766734761320301</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>3.9151690301129402E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>0.200825091733705</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>4.92788432018662E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>7.0854130591549894E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>0.100420210433235</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>0.13720876081054401</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\times-ireland-model-ILED\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18100E81-5973-43C3-876B-E9A12311C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF60D87-E273-42CE-AB0A-4F4370453A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -2813,21 +2813,21 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="43" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="43" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="43" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="43" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="43" customWidth="1"/>
     <col min="13" max="13" width="10" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="43" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="43"/>
+    <col min="14" max="14" width="11.453125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2855,7 +2855,7 @@
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2883,7 +2883,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2911,7 +2911,7 @@
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2939,7 +2939,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -2967,7 +2967,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -2995,7 +2995,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -3023,7 +3023,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -3051,7 +3051,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -3079,7 +3079,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -3107,7 +3107,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -3135,7 +3135,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -3163,7 +3163,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -3191,7 +3191,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -3219,7 +3219,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -3247,7 +3247,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58" t="s">
         <v>277</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -3305,7 +3305,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -3333,7 +3333,7 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
         <v>278</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="Y19" s="42"/>
       <c r="Z19" s="42"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
         <v>279</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
         <v>280</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="Y21" s="42"/>
       <c r="Z21" s="42"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -3457,7 +3457,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="49" t="s">
         <v>281</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49"/>
       <c r="B24" s="57" t="s">
         <v>291</v>
@@ -3519,7 +3519,7 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="49"/>
       <c r="B25" s="57" t="s">
         <v>292</v>
@@ -3549,7 +3549,7 @@
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="49" t="s">
         <v>282</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="57" t="s">
         <v>292</v>
@@ -3611,7 +3611,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -3639,7 +3639,7 @@
       <c r="Y28" s="42"/>
       <c r="Z28" s="42"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49" t="s">
         <v>283</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
         <v>284</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
         <v>286</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
       <c r="B32" s="56" t="s">
         <v>288</v>
@@ -3765,7 +3765,7 @@
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -3793,7 +3793,7 @@
       <c r="Y33" s="42"/>
       <c r="Z33" s="42"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -3821,7 +3821,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -3849,7 +3849,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -3877,7 +3877,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -3905,7 +3905,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -3933,7 +3933,7 @@
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -3961,7 +3961,7 @@
       <c r="Y39" s="42"/>
       <c r="Z39" s="42"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -3989,7 +3989,7 @@
       <c r="Y40" s="42"/>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -4017,7 +4017,7 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -4045,7 +4045,7 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -4073,7 +4073,7 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -4101,7 +4101,7 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -4129,7 +4129,7 @@
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -4157,7 +4157,7 @@
       <c r="Y46" s="42"/>
       <c r="Z46" s="42"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -4185,7 +4185,7 @@
       <c r="Y47" s="42"/>
       <c r="Z47" s="42"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -4213,7 +4213,7 @@
       <c r="Y48" s="42"/>
       <c r="Z48" s="42"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -4241,7 +4241,7 @@
       <c r="Y49" s="42"/>
       <c r="Z49" s="42"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -4269,7 +4269,7 @@
       <c r="Y50" s="42"/>
       <c r="Z50" s="42"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -4297,7 +4297,7 @@
       <c r="Y51" s="42"/>
       <c r="Z51" s="42"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -4325,7 +4325,7 @@
       <c r="Y52" s="42"/>
       <c r="Z52" s="42"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -4353,7 +4353,7 @@
       <c r="Y53" s="42"/>
       <c r="Z53" s="42"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -4381,7 +4381,7 @@
       <c r="Y54" s="42"/>
       <c r="Z54" s="42"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -4409,7 +4409,7 @@
       <c r="Y55" s="42"/>
       <c r="Z55" s="42"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -4437,7 +4437,7 @@
       <c r="Y56" s="42"/>
       <c r="Z56" s="42"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -4465,7 +4465,7 @@
       <c r="Y57" s="42"/>
       <c r="Z57" s="42"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -4493,7 +4493,7 @@
       <c r="Y58" s="42"/>
       <c r="Z58" s="42"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -4521,7 +4521,7 @@
       <c r="Y59" s="42"/>
       <c r="Z59" s="42"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -4549,7 +4549,7 @@
       <c r="Y60" s="42"/>
       <c r="Z60" s="42"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -4577,7 +4577,7 @@
       <c r="Y61" s="42"/>
       <c r="Z61" s="42"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -4605,7 +4605,7 @@
       <c r="Y62" s="42"/>
       <c r="Z62" s="42"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
@@ -4633,7 +4633,7 @@
       <c r="Y63" s="42"/>
       <c r="Z63" s="42"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
@@ -4661,7 +4661,7 @@
       <c r="Y64" s="42"/>
       <c r="Z64" s="42"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -4689,7 +4689,7 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
@@ -4717,7 +4717,7 @@
       <c r="Y66" s="42"/>
       <c r="Z66" s="42"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -4745,7 +4745,7 @@
       <c r="Y67" s="42"/>
       <c r="Z67" s="42"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
@@ -4773,7 +4773,7 @@
       <c r="Y68" s="42"/>
       <c r="Z68" s="42"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -4801,7 +4801,7 @@
       <c r="Y69" s="42"/>
       <c r="Z69" s="42"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -4829,7 +4829,7 @@
       <c r="Y70" s="42"/>
       <c r="Z70" s="42"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
@@ -4857,7 +4857,7 @@
       <c r="Y71" s="42"/>
       <c r="Z71" s="42"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
@@ -4885,7 +4885,7 @@
       <c r="Y72" s="42"/>
       <c r="Z72" s="42"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -4913,7 +4913,7 @@
       <c r="Y73" s="42"/>
       <c r="Z73" s="42"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -4941,7 +4941,7 @@
       <c r="Y74" s="42"/>
       <c r="Z74" s="42"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -4969,7 +4969,7 @@
       <c r="Y75" s="42"/>
       <c r="Z75" s="42"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -4997,7 +4997,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="42"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
@@ -5025,7 +5025,7 @@
       <c r="Y77" s="42"/>
       <c r="Z77" s="42"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -5053,7 +5053,7 @@
       <c r="Y78" s="42"/>
       <c r="Z78" s="42"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
@@ -5081,7 +5081,7 @@
       <c r="Y79" s="42"/>
       <c r="Z79" s="42"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
@@ -5109,7 +5109,7 @@
       <c r="Y80" s="42"/>
       <c r="Z80" s="42"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
@@ -5137,7 +5137,7 @@
       <c r="Y81" s="42"/>
       <c r="Z81" s="42"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
@@ -5165,7 +5165,7 @@
       <c r="Y82" s="42"/>
       <c r="Z82" s="42"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -5193,7 +5193,7 @@
       <c r="Y83" s="42"/>
       <c r="Z83" s="42"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -5221,7 +5221,7 @@
       <c r="Y84" s="42"/>
       <c r="Z84" s="42"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
@@ -5249,7 +5249,7 @@
       <c r="Y85" s="42"/>
       <c r="Z85" s="42"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -5277,7 +5277,7 @@
       <c r="Y86" s="42"/>
       <c r="Z86" s="42"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -5305,7 +5305,7 @@
       <c r="Y87" s="42"/>
       <c r="Z87" s="42"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -5333,7 +5333,7 @@
       <c r="Y88" s="42"/>
       <c r="Z88" s="42"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -5361,7 +5361,7 @@
       <c r="Y89" s="42"/>
       <c r="Z89" s="42"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -5389,7 +5389,7 @@
       <c r="Y90" s="42"/>
       <c r="Z90" s="42"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -5417,7 +5417,7 @@
       <c r="Y91" s="42"/>
       <c r="Z91" s="42"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -5445,7 +5445,7 @@
       <c r="Y92" s="42"/>
       <c r="Z92" s="42"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
@@ -5473,7 +5473,7 @@
       <c r="Y93" s="42"/>
       <c r="Z93" s="42"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -5501,7 +5501,7 @@
       <c r="Y94" s="42"/>
       <c r="Z94" s="42"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -5529,7 +5529,7 @@
       <c r="Y95" s="42"/>
       <c r="Z95" s="42"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -5557,7 +5557,7 @@
       <c r="Y96" s="42"/>
       <c r="Z96" s="42"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
@@ -5585,7 +5585,7 @@
       <c r="Y97" s="42"/>
       <c r="Z97" s="42"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -5613,7 +5613,7 @@
       <c r="Y98" s="42"/>
       <c r="Z98" s="42"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -5671,12 +5671,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8804,9 +8804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8900,9 +8900,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8978,13 +8978,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.12635353241295499</v>
+        <v>0.210589220688259</v>
       </c>
       <c r="M2">
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.210589220688259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9019,13 +9019,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.24100352965976199</v>
+        <v>0.40167254943293601</v>
       </c>
       <c r="M3">
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.40167254943293601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9060,10 +9060,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.29839165082681302</v>
+        <v>0.49731941804468899</v>
       </c>
       <c r="M4">
-        <v>0.29839165082681302</v>
+        <v>0.49731941804468899</v>
       </c>
     </row>
   </sheetData>
@@ -9078,9 +9078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9176,12 +9176,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9257,13 +9257,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.20963817697789</v>
+        <v>0.52409544244472495</v>
       </c>
       <c r="M2">
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.52409544244472495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9298,13 +9298,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.29754218668175703</v>
+        <v>0.74385546670439195</v>
       </c>
       <c r="M3">
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.74385546670439195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9339,10 +9339,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.49011428261671702</v>
+        <v>1.2252857065417899</v>
       </c>
       <c r="M4">
-        <v>0.49011428261671702</v>
+        <v>1.2252857065417899</v>
       </c>
     </row>
   </sheetData>
@@ -9357,9 +9357,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9453,9 +9453,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>1.2457230310998201E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>1.06776419273959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9633,9 +9633,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9731,9 +9731,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9831,16 +9831,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="60.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>44237</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>44232</v>
       </c>
@@ -9905,40 +9905,40 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="8" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="C3" s="9" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10052,12 +10052,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>33</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>43</v>
       </c>
@@ -10534,7 +10534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
@@ -10590,7 +10590,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>67</v>
       </c>
@@ -10672,43 +10672,43 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10732,7 +10732,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10778,7 +10778,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10810,7 +10810,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10830,7 +10830,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -10868,18 +10868,18 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="12.85546875" style="16" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="16"/>
-    <col min="16" max="16" width="11.42578125" style="16" customWidth="1"/>
-    <col min="17" max="25" width="9.140625" style="16"/>
-    <col min="26" max="26" width="11.7109375" style="16" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="5" width="9.1796875" style="16"/>
+    <col min="6" max="6" width="12.81640625" style="16" customWidth="1"/>
+    <col min="7" max="15" width="9.1796875" style="16"/>
+    <col min="16" max="16" width="11.453125" style="16" customWidth="1"/>
+    <col min="17" max="25" width="9.1796875" style="16"/>
+    <col min="26" max="26" width="11.7265625" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:30" ht="23.5" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>85</v>
       </c>
@@ -10925,7 +10925,7 @@
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>68</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
@@ -11067,7 +11067,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
@@ -11097,7 +11097,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
@@ -11121,7 +11121,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
         <v>68</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="26" t="s">
         <v>77</v>
       </c>
@@ -11217,7 +11217,7 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
@@ -11241,7 +11241,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
@@ -11337,7 +11337,7 @@
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
@@ -11361,7 +11361,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>68</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="26" t="s">
         <v>77</v>
       </c>
@@ -11457,7 +11457,7 @@
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
@@ -11481,7 +11481,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="s">
         <v>68</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="26" t="s">
         <v>77</v>
       </c>
@@ -11577,7 +11577,7 @@
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="L28" s="17" t="s">
         <v>173</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29" s="19" t="s">
         <v>68</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="L30" s="26" t="s">
         <v>77</v>
       </c>
@@ -11640,7 +11640,7 @@
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
     </row>
-    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="L33" s="17" t="s">
         <v>174</v>
       </c>
@@ -11653,7 +11653,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L34" s="19" t="s">
         <v>68</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="L35" s="26" t="s">
         <v>77</v>
       </c>
@@ -11721,33 +11721,33 @@
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.26953125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="22"/>
+    <col min="10" max="10" width="13.1796875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="22" customWidth="1"/>
     <col min="12" max="12" width="13" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="13" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>243</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>248</v>
       </c>
@@ -11803,7 +11803,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>1.1270833191729201E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>6.7195931921959296E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>244</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>1.18630136986301E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>244</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>1.0896637608966401E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>244</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>0.956481782990526</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>244</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>1</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>244</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="32" t="s">
         <v>1</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>112</v>
       </c>
@@ -12173,7 +12173,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="32" t="s">
         <v>1</v>
       </c>
@@ -12204,10 +12204,10 @@
       </c>
       <c r="L18" s="32">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.52409544244472495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
         <v>1</v>
       </c>
@@ -12238,10 +12238,10 @@
       </c>
       <c r="L19" s="33">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.74385546670439195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="32" t="s">
         <v>1</v>
       </c>
@@ -12272,10 +12272,10 @@
       </c>
       <c r="L20" s="32">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.49011428261671702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.2252857065417899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
         <v>244</v>
       </c>
@@ -12306,10 +12306,10 @@
       </c>
       <c r="L21" s="33">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.210589220688259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -12340,10 +12340,10 @@
       </c>
       <c r="L22" s="32">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.40167254943293601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
         <v>244</v>
       </c>
@@ -12374,10 +12374,10 @@
       </c>
       <c r="L23" s="33">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.29839165082681302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.49731941804468899</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>244</v>
       </c>
@@ -12396,7 +12396,7 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>244</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>1</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>244</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
         <v>244</v>
       </c>
@@ -12508,7 +12508,7 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>1</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>113</v>
       </c>
@@ -12544,7 +12544,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>1</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>1</v>
       </c>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>1</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>244</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>244</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>244</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="33" t="s">
         <v>244</v>
       </c>
@@ -12705,7 +12705,7 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="32" t="s">
         <v>244</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
         <v>1</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="32" t="s">
         <v>1</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
         <v>244</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
         <v>244</v>
       </c>
@@ -12817,7 +12817,7 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="32" t="s">
         <v>1</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
         <v>251</v>
       </c>
@@ -12852,7 +12852,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>1</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="33" t="s">
         <v>1</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="32" t="s">
         <v>1</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
         <v>198</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="32" t="s">
         <v>198</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v>R-S*_Apt_ELC*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="33" t="s">
         <v>198</v>
       </c>
@@ -13014,7 +13014,7 @@
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="32" t="s">
         <v>198</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
         <v>1</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>1</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>198</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>198</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
         <v>250</v>
       </c>
@@ -13161,7 +13161,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>1</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>1</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>1</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
         <v>198</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>198</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>R-S*_Att_ELC*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="33" t="s">
         <v>198</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
         <v>198</v>
       </c>
@@ -13342,7 +13342,7 @@
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>198</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>1</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>1</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
         <v>198</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
         <v>198</v>
       </c>
@@ -13469,7 +13469,7 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>198</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
         <v>249</v>
       </c>
@@ -13508,7 +13508,7 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>1</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
         <v>1</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>1</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>198</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="32" t="s">
         <v>198</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
         <v>198</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
         <v>198</v>
       </c>
@@ -13689,7 +13689,7 @@
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
         <v>1</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
         <v>198</v>
       </c>
@@ -13797,7 +13797,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>198</v>
       </c>
@@ -13816,7 +13816,7 @@
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>198</v>
       </c>
@@ -13843,7 +13843,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A85" s="29" t="s">
         <v>115</v>
       </c>
@@ -13854,7 +13854,7 @@
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>1</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>1</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>1</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>1</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>244</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
         <v>1</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="32" t="s">
         <v>1</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
         <v>1</v>
       </c>
@@ -14046,7 +14046,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>1</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
         <v>1</v>
       </c>
@@ -14094,7 +14094,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="32" t="s">
         <v>1</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>244</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>116</v>
       </c>
@@ -14154,7 +14154,7 @@
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="32" t="s">
         <v>1</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="33" t="s">
         <v>1</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="32" t="s">
         <v>1</v>
       </c>
@@ -14226,7 +14226,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="33" t="s">
         <v>1</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="32" t="s">
         <v>244</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A104" s="33" t="s">
         <v>1</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="32" t="s">
         <v>1</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="33" t="s">
         <v>1</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -14370,7 +14370,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="33" t="s">
         <v>1</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="32" t="s">
         <v>1</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="32" t="s">
         <v>244</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A111" s="29" t="s">
         <v>117</v>
       </c>
@@ -14454,7 +14454,7 @@
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="32" t="s">
         <v>1</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="33" t="s">
         <v>1</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="32" t="s">
         <v>1</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="33" t="s">
         <v>1</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="32" t="s">
         <v>244</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="33" t="s">
         <v>1</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="32" t="s">
         <v>1</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="33" t="s">
         <v>1</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="32" t="s">
         <v>1</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="33" t="s">
         <v>1</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="32" t="s">
         <v>1</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="32" t="s">
         <v>244</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
         <v>246</v>
       </c>
@@ -14754,7 +14754,7 @@
       <c r="G124" s="30"/>
       <c r="H124" s="30"/>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>78</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="32" t="s">
         <v>78</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>78</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
         <v>247</v>
       </c>
@@ -14838,7 +14838,7 @@
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="32" t="s">
         <v>245</v>
       </c>
@@ -14865,7 +14865,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="32" t="s">
         <v>245</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="38" t="s">
         <v>245</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
         <v>252</v>
       </c>
@@ -14931,7 +14931,7 @@
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="32" t="s">
         <v>245</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="32" t="s">
         <v>245</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="38" t="s">
         <v>245</v>
       </c>
@@ -15029,32 +15029,32 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="22"/>
-    <col min="5" max="5" width="11.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="13.7265625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="22"/>
+    <col min="5" max="5" width="11.1796875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="E3" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>79</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -15084,7 +15084,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>109</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>109</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>109</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>109</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>109</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>109</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
@@ -15245,7 +15245,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>109</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="32" t="s">
         <v>109</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>109</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>109</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>109</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -15370,7 +15370,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="32" t="s">
         <v>105</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
         <v>105</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
         <v>105</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
         <v>105</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="32" t="s">
         <v>105</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
         <v>105</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>105</v>
       </c>
@@ -15531,7 +15531,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>105</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="32" t="s">
         <v>105</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>105</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>105</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>105</v>
       </c>
@@ -15646,7 +15646,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -15656,7 +15656,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>114</v>
       </c>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>114</v>
       </c>
@@ -15705,7 +15705,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="32" t="s">
         <v>114</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>114</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
         <v>114</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>114</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>114</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="33" t="s">
         <v>114</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="32" t="s">
         <v>114</v>
       </c>
@@ -15866,7 +15866,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
         <v>114</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>114</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="32" t="s">
         <v>114</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -15945,7 +15945,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>109</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="32" t="s">
         <v>105</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>114</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -16024,7 +16024,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="32" t="s">
         <v>109</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="33" t="s">
         <v>109</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="32" t="s">
         <v>109</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
         <v>109</v>
       </c>
@@ -16116,7 +16116,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="32" t="s">
         <v>109</v>
       </c>
@@ -16139,7 +16139,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="32" t="s">
         <v>109</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
         <v>109</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="32" t="s">
         <v>109</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
         <v>109</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="32" t="s">
         <v>109</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
         <v>109</v>
       </c>
@@ -16277,7 +16277,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="32" t="s">
         <v>109</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
         <v>109</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -16333,7 +16333,7 @@
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>105</v>
       </c>
@@ -16356,7 +16356,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
         <v>105</v>
       </c>
@@ -16379,7 +16379,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="32" t="s">
         <v>105</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
         <v>105</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="32" t="s">
         <v>105</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>105</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
         <v>105</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="32" t="s">
         <v>105</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
         <v>105</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="32" t="s">
         <v>105</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
         <v>105</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="32" t="s">
         <v>105</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
         <v>105</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -16642,7 +16642,7 @@
       <c r="F76" s="30"/>
       <c r="G76" s="31"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
         <v>114</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
         <v>114</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="32" t="s">
         <v>114</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
         <v>114</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="32" t="s">
         <v>114</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="32" t="s">
         <v>114</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
         <v>114</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="32" t="s">
         <v>114</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
         <v>114</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="32" t="s">
         <v>114</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
         <v>114</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="32" t="s">
         <v>114</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>114</v>
       </c>
@@ -16956,12 +16956,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17043,7 +17043,7 @@
         <v>7.5051369863013695E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>0.45255796882634303</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>6.2549233288808403E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>1.5052975614548401</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>9.0422374429223698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>7.5045615347050301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>3.2373195740855901E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17330,7 +17330,7 @@
         <v>0.112170033510623</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17371,7 +17371,7 @@
         <v>0.13251764473730199</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>9.0627195293291204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17453,7 +17453,7 @@
         <v>9.0196313138344295E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17494,7 +17494,7 @@
         <v>0.143159113753899</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17535,7 +17535,7 @@
         <v>0.10316120676872401</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>8.8919330289193299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>0.104359857576634</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17658,7 +17658,7 @@
         <v>6.6402541005538801E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17699,7 +17699,7 @@
         <v>0.66825318875216799</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>6.7212328767123297E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>5.8388567987470399E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>4.8794584261943399E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17863,7 +17863,7 @@
         <v>6.9705277866978901E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>0.100567418678171</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -17945,7 +17945,7 @@
         <v>6.8944308925102102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>5.9040638752358897E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18027,7 +18027,7 @@
         <v>0.220198275095671</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>6.8778139627583307E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>4.2328767123287703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18150,7 +18150,7 @@
         <v>7.2518315131287606E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18191,7 +18191,7 @@
         <v>4.65144570452133E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>0.45983560612562002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>4.7947345890410997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18314,7 +18314,7 @@
         <v>4.6985228618266699E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>5.1032329364559198E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>5.3657823067608502E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18437,7 +18437,7 @@
         <v>6.8787509731139299E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>2.36315789189348E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>4.4737576657325098E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>0.145588074596397</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18613,12 +18613,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>9.4570753703752605E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18741,7 +18741,7 @@
         <v>0.41882471081785599</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>1.7227618659613701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18823,7 +18823,7 @@
         <v>0.183575067201909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18864,7 +18864,7 @@
         <v>2.0352386019458902E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>2.5069945114006401E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -18946,7 +18946,7 @@
         <v>2.3488908827814098E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -18987,7 +18987,7 @@
         <v>7.8978154557043795E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>4.8787825956958103E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19069,7 +19069,7 @@
         <v>0.15828050607333199</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19110,7 +19110,7 @@
         <v>0.14698298838932999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19151,7 +19151,7 @@
         <v>3.7307426022765301E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>2.4658929270483999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>0.31784775894057798</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>3.7537381358533697E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>0.113204385544111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19356,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19397,7 +19397,7 @@
         <v>3.5032805879028399E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>2.2872893208017001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>4.4978376179101401E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>4.9050090196469498E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>7.0893554801410602E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>7.3631430941555998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>0.119017735973187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>0.47278411842156098</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19766,7 +19766,7 @@
         <v>4.5630448521753401E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>0.13766734761320301</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -19889,7 +19889,7 @@
         <v>3.9151690301129402E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -19930,7 +19930,7 @@
         <v>0.200825091733705</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -19971,7 +19971,7 @@
         <v>4.92788432018662E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>7.0854130591549894E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20053,7 +20053,7 @@
         <v>0.100420210433235</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20094,7 +20094,7 @@
         <v>0.13720876081054401</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18100E81-5973-43C3-876B-E9A12311C341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB46D3D7-A6EE-48B8-8D99-4EDECE320029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="819" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="295">
   <si>
     <t>IE</t>
   </si>
@@ -2811,23 +2811,23 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="43" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="43" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="43" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="43" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.19921875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.19921875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" style="43" customWidth="1"/>
     <col min="13" max="13" width="10" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="43" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="43"/>
+    <col min="14" max="14" width="11.46484375" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.46484375" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2855,7 +2855,7 @@
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2883,7 +2883,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2911,7 +2911,7 @@
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2939,7 +2939,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -2967,7 +2967,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -2995,7 +2995,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -3023,7 +3023,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -3051,7 +3051,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -3079,7 +3079,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -3107,7 +3107,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -3135,7 +3135,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -3163,7 +3163,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -3191,7 +3191,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -3219,7 +3219,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -3247,7 +3247,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="58" t="s">
         <v>277</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -3305,7 +3305,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -3333,7 +3333,7 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="49" t="s">
         <v>278</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="Y19" s="42"/>
       <c r="Z19" s="42"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="49" t="s">
         <v>279</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="49" t="s">
         <v>280</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="Y21" s="42"/>
       <c r="Z21" s="42"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="49"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -3457,7 +3457,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="49" t="s">
         <v>281</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="49"/>
       <c r="B24" s="57" t="s">
         <v>291</v>
@@ -3519,7 +3519,7 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="49"/>
       <c r="B25" s="57" t="s">
         <v>292</v>
@@ -3549,7 +3549,7 @@
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="49" t="s">
         <v>282</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="49"/>
       <c r="B27" s="57" t="s">
         <v>292</v>
@@ -3611,7 +3611,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="49"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -3639,7 +3639,7 @@
       <c r="Y28" s="42"/>
       <c r="Z28" s="42"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="49" t="s">
         <v>283</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="49" t="s">
         <v>284</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="49" t="s">
         <v>286</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="55"/>
       <c r="B32" s="56" t="s">
         <v>288</v>
@@ -3765,7 +3765,7 @@
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -3793,7 +3793,7 @@
       <c r="Y33" s="42"/>
       <c r="Z33" s="42"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -3821,7 +3821,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -3849,7 +3849,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -3877,7 +3877,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -3905,7 +3905,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -3933,7 +3933,7 @@
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -3961,7 +3961,7 @@
       <c r="Y39" s="42"/>
       <c r="Z39" s="42"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -3989,7 +3989,7 @@
       <c r="Y40" s="42"/>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -4017,7 +4017,7 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -4045,7 +4045,7 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -4073,7 +4073,7 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -4101,7 +4101,7 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -4129,7 +4129,7 @@
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -4157,7 +4157,7 @@
       <c r="Y46" s="42"/>
       <c r="Z46" s="42"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -4185,7 +4185,7 @@
       <c r="Y47" s="42"/>
       <c r="Z47" s="42"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -4213,7 +4213,7 @@
       <c r="Y48" s="42"/>
       <c r="Z48" s="42"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -4241,7 +4241,7 @@
       <c r="Y49" s="42"/>
       <c r="Z49" s="42"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -4269,7 +4269,7 @@
       <c r="Y50" s="42"/>
       <c r="Z50" s="42"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -4297,7 +4297,7 @@
       <c r="Y51" s="42"/>
       <c r="Z51" s="42"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -4325,7 +4325,7 @@
       <c r="Y52" s="42"/>
       <c r="Z52" s="42"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -4353,7 +4353,7 @@
       <c r="Y53" s="42"/>
       <c r="Z53" s="42"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -4381,7 +4381,7 @@
       <c r="Y54" s="42"/>
       <c r="Z54" s="42"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -4409,7 +4409,7 @@
       <c r="Y55" s="42"/>
       <c r="Z55" s="42"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -4437,7 +4437,7 @@
       <c r="Y56" s="42"/>
       <c r="Z56" s="42"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -4465,7 +4465,7 @@
       <c r="Y57" s="42"/>
       <c r="Z57" s="42"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -4493,7 +4493,7 @@
       <c r="Y58" s="42"/>
       <c r="Z58" s="42"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -4521,7 +4521,7 @@
       <c r="Y59" s="42"/>
       <c r="Z59" s="42"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -4549,7 +4549,7 @@
       <c r="Y60" s="42"/>
       <c r="Z60" s="42"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -4577,7 +4577,7 @@
       <c r="Y61" s="42"/>
       <c r="Z61" s="42"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -4605,7 +4605,7 @@
       <c r="Y62" s="42"/>
       <c r="Z62" s="42"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
@@ -4633,7 +4633,7 @@
       <c r="Y63" s="42"/>
       <c r="Z63" s="42"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
@@ -4661,7 +4661,7 @@
       <c r="Y64" s="42"/>
       <c r="Z64" s="42"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -4689,7 +4689,7 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
@@ -4717,7 +4717,7 @@
       <c r="Y66" s="42"/>
       <c r="Z66" s="42"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -4745,7 +4745,7 @@
       <c r="Y67" s="42"/>
       <c r="Z67" s="42"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
@@ -4773,7 +4773,7 @@
       <c r="Y68" s="42"/>
       <c r="Z68" s="42"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -4801,7 +4801,7 @@
       <c r="Y69" s="42"/>
       <c r="Z69" s="42"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -4829,7 +4829,7 @@
       <c r="Y70" s="42"/>
       <c r="Z70" s="42"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
@@ -4857,7 +4857,7 @@
       <c r="Y71" s="42"/>
       <c r="Z71" s="42"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
@@ -4885,7 +4885,7 @@
       <c r="Y72" s="42"/>
       <c r="Z72" s="42"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -4913,7 +4913,7 @@
       <c r="Y73" s="42"/>
       <c r="Z73" s="42"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -4941,7 +4941,7 @@
       <c r="Y74" s="42"/>
       <c r="Z74" s="42"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -4969,7 +4969,7 @@
       <c r="Y75" s="42"/>
       <c r="Z75" s="42"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -4997,7 +4997,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="42"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
@@ -5025,7 +5025,7 @@
       <c r="Y77" s="42"/>
       <c r="Z77" s="42"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -5053,7 +5053,7 @@
       <c r="Y78" s="42"/>
       <c r="Z78" s="42"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
@@ -5081,7 +5081,7 @@
       <c r="Y79" s="42"/>
       <c r="Z79" s="42"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
@@ -5109,7 +5109,7 @@
       <c r="Y80" s="42"/>
       <c r="Z80" s="42"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
@@ -5137,7 +5137,7 @@
       <c r="Y81" s="42"/>
       <c r="Z81" s="42"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
@@ -5165,7 +5165,7 @@
       <c r="Y82" s="42"/>
       <c r="Z82" s="42"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -5193,7 +5193,7 @@
       <c r="Y83" s="42"/>
       <c r="Z83" s="42"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -5221,7 +5221,7 @@
       <c r="Y84" s="42"/>
       <c r="Z84" s="42"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
@@ -5249,7 +5249,7 @@
       <c r="Y85" s="42"/>
       <c r="Z85" s="42"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -5277,7 +5277,7 @@
       <c r="Y86" s="42"/>
       <c r="Z86" s="42"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -5305,7 +5305,7 @@
       <c r="Y87" s="42"/>
       <c r="Z87" s="42"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -5333,7 +5333,7 @@
       <c r="Y88" s="42"/>
       <c r="Z88" s="42"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -5361,7 +5361,7 @@
       <c r="Y89" s="42"/>
       <c r="Z89" s="42"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -5389,7 +5389,7 @@
       <c r="Y90" s="42"/>
       <c r="Z90" s="42"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -5417,7 +5417,7 @@
       <c r="Y91" s="42"/>
       <c r="Z91" s="42"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -5445,7 +5445,7 @@
       <c r="Y92" s="42"/>
       <c r="Z92" s="42"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
@@ -5473,7 +5473,7 @@
       <c r="Y93" s="42"/>
       <c r="Z93" s="42"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -5501,7 +5501,7 @@
       <c r="Y94" s="42"/>
       <c r="Z94" s="42"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -5529,7 +5529,7 @@
       <c r="Y95" s="42"/>
       <c r="Z95" s="42"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -5557,7 +5557,7 @@
       <c r="Y96" s="42"/>
       <c r="Z96" s="42"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
@@ -5585,7 +5585,7 @@
       <c r="Y97" s="42"/>
       <c r="Z97" s="42"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -5613,7 +5613,7 @@
       <c r="Y98" s="42"/>
       <c r="Z98" s="42"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -5671,12 +5671,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8804,9 +8804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8900,9 +8900,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8978,13 +8978,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.12635353241295499</v>
+        <v>0.210589220688259</v>
       </c>
       <c r="M2">
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.210589220688259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9019,13 +9019,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.24100352965976199</v>
+        <v>0.40167254943293601</v>
       </c>
       <c r="M3">
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.40167254943293601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9060,10 +9060,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.29839165082681302</v>
+        <v>0.49731941804468899</v>
       </c>
       <c r="M4">
-        <v>0.29839165082681302</v>
+        <v>0.49731941804468899</v>
       </c>
     </row>
   </sheetData>
@@ -9078,9 +9078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9176,12 +9176,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9257,13 +9257,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.20963817697789</v>
+        <v>0.52409544244472495</v>
       </c>
       <c r="M2">
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.52409544244472495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9298,13 +9298,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.29754218668175703</v>
+        <v>0.74385546670439195</v>
       </c>
       <c r="M3">
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.74385546670439195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9339,10 +9339,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.49011428261671702</v>
+        <v>1.2252857065417899</v>
       </c>
       <c r="M4">
-        <v>0.49011428261671702</v>
+        <v>1.2252857065417899</v>
       </c>
     </row>
   </sheetData>
@@ -9357,9 +9357,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9451,11 +9451,13 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9537,7 +9539,7 @@
         <v>1.2457230310998201E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>1.06776419273959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9633,9 +9635,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9731,9 +9733,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9774,7 +9776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9831,16 +9833,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="60.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -9857,7 +9859,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>44237</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>44232</v>
       </c>
@@ -9883,8 +9885,8 @@
         <v>238</v>
       </c>
       <c r="D5" s="35" t="str">
-        <f>ADDRESS(ROW(AF!A3),COLUMN(AF!A3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J3),COLUMN(AF!J3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J15),COLUMN(AF!J15),4,1)</f>
-        <v>A3,J3,J15</v>
+        <f>ADDRESS(ROW(AF!A3),COLUMN(AF!A3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J3),COLUMN(AF!J3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J17),COLUMN(AF!J17),4,1)</f>
+        <v>A3,J3,J17</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>239</v>
@@ -9905,40 +9907,40 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="8" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.53125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="8"/>
+    <col min="29" max="29" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="C3" s="9" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10052,12 +10054,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -10172,7 +10174,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -10289,7 +10291,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -10406,7 +10408,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -10414,7 +10416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -10462,7 +10464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -10470,7 +10472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
@@ -10486,7 +10488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>33</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -10510,7 +10512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
@@ -10518,7 +10520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>43</v>
       </c>
@@ -10534,7 +10536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
@@ -10542,7 +10544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
@@ -10550,7 +10552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -10558,7 +10560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
@@ -10574,7 +10576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -10582,7 +10584,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
@@ -10590,7 +10592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
@@ -10606,7 +10608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>67</v>
       </c>
@@ -10672,43 +10674,43 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" customWidth="1"/>
+    <col min="8" max="8" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10732,7 +10734,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10778,7 +10780,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10810,7 +10812,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10830,7 +10832,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -10864,22 +10866,22 @@
   </sheetPr>
   <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="12.85546875" style="16" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="16"/>
-    <col min="16" max="16" width="11.42578125" style="16" customWidth="1"/>
-    <col min="17" max="25" width="9.140625" style="16"/>
-    <col min="26" max="26" width="11.7109375" style="16" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="5" width="9.19921875" style="16"/>
+    <col min="6" max="6" width="12.796875" style="16" customWidth="1"/>
+    <col min="7" max="15" width="9.19921875" style="16"/>
+    <col min="16" max="16" width="11.46484375" style="16" customWidth="1"/>
+    <col min="17" max="25" width="9.19921875" style="16"/>
+    <col min="26" max="26" width="11.73046875" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="9.19921875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
@@ -10890,7 +10892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>85</v>
       </c>
@@ -10925,7 +10927,7 @@
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>68</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
@@ -11067,7 +11069,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
@@ -11097,7 +11099,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
@@ -11121,7 +11123,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>68</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="26" t="s">
         <v>77</v>
       </c>
@@ -11217,7 +11219,7 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
@@ -11241,7 +11243,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
@@ -11297,7 +11299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
@@ -11337,7 +11339,7 @@
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
@@ -11361,7 +11363,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="19" t="s">
         <v>68</v>
       </c>
@@ -11417,7 +11419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="26" t="s">
         <v>77</v>
       </c>
@@ -11457,7 +11459,7 @@
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
@@ -11481,7 +11483,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>68</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B25" s="26" t="s">
         <v>77</v>
       </c>
@@ -11577,7 +11579,7 @@
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="L28" s="17" t="s">
         <v>173</v>
       </c>
@@ -11590,7 +11592,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L29" s="19" t="s">
         <v>68</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="L30" s="26" t="s">
         <v>77</v>
       </c>
@@ -11640,7 +11642,7 @@
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
     </row>
-    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="L33" s="17" t="s">
         <v>174</v>
       </c>
@@ -11653,7 +11655,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L34" s="19" t="s">
         <v>68</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="L35" s="26" t="s">
         <v>77</v>
       </c>
@@ -11717,37 +11719,37 @@
   </sheetPr>
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="22"/>
-    <col min="10" max="10" width="13.140625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.265625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.265625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="22"/>
+    <col min="10" max="10" width="13.19921875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="22" customWidth="1"/>
     <col min="12" max="12" width="13" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="22"/>
+    <col min="13" max="16384" width="9.19921875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>243</v>
       </c>
@@ -11755,7 +11757,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -11787,7 +11789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>248</v>
       </c>
@@ -11803,7 +11805,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
@@ -11838,7 +11840,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -11865,15 +11867,15 @@
         <v>78</v>
       </c>
       <c r="K7" s="33" t="str">
-        <f>FillTable!R10</f>
-        <v>R-RSDCK*</v>
+        <f>FillTable!R10&amp;"ELC*"</f>
+        <v>R-RSDCK*ELC*</v>
       </c>
       <c r="L7" s="33">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.1270833191729201E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.2457230310998201E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
@@ -11900,15 +11902,15 @@
         <v>78</v>
       </c>
       <c r="K8" s="32" t="str">
-        <f>FillTable!R15</f>
-        <v>R-RSDCW*</v>
+        <f>FillTable!R10&amp;"GAS*"</f>
+        <v>R-RSDCK*GAS*</v>
       </c>
       <c r="L8" s="32">
-        <f>AVERAGEIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K8,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
-        <v>6.7195931921959296E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K8,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>1.06776419273959E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>244</v>
       </c>
@@ -11935,15 +11937,15 @@
         <v>78</v>
       </c>
       <c r="K9" s="33" t="str">
-        <f>FillTable!R20</f>
-        <v>R-RSDCD*</v>
+        <f>FillTable!R10&amp;"LPG*"</f>
+        <v>R-RSDCK*LPG*</v>
       </c>
       <c r="L9" s="33">
-        <f>AVERAGEIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K9,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
-        <v>1.18630136986301E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K9,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>1.06776273367935E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>244</v>
       </c>
@@ -11970,15 +11972,15 @@
         <v>78</v>
       </c>
       <c r="K10" s="32" t="str">
-        <f>FillTable!R25</f>
-        <v>R-RSDDW*</v>
+        <f>FillTable!R15</f>
+        <v>R-RSDCW*</v>
       </c>
       <c r="L10" s="32">
-        <f>AVERAGEIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K10,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
-        <v>1.0896637608966401E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <f>AVERAGEIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K10,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>6.7195931921959296E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="33" t="s">
         <v>244</v>
       </c>
@@ -12005,15 +12007,15 @@
         <v>78</v>
       </c>
       <c r="K11" s="33" t="str">
-        <f>FillTable!R30</f>
-        <v>R-RSDOE*</v>
+        <f>FillTable!R20</f>
+        <v>R-RSDCD*</v>
       </c>
       <c r="L11" s="33">
-        <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K11,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
-        <v>0.956481782990526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <f>AVERAGEIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K11,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
+        <v>1.18630136986301E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>244</v>
       </c>
@@ -12037,18 +12039,18 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f>FillTable!R35</f>
-        <v>R-RSDOA*</v>
-      </c>
-      <c r="L12" s="32" t="e">
-        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K12,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <f>FillTable!R25</f>
+        <v>R-RSDDW*</v>
+      </c>
+      <c r="L12" s="32">
+        <f>AVERAGEIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K12,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
+        <v>1.0896637608966401E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
@@ -12071,8 +12073,19 @@
         <f>"R-S*_"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
         <v>R-S*_Apt_PEA*</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J13" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="33" t="str">
+        <f>FillTable!R30</f>
+        <v>R-RSDOE*</v>
+      </c>
+      <c r="L13" s="33">
+        <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K13,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
+        <v>0.956481782990526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>1</v>
       </c>
@@ -12095,8 +12108,19 @@
         <f>"R-S*_"&amp;F14&amp;"_"&amp;G14&amp;"*"</f>
         <v>R-S*_Apt_SMF*</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J14" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32" t="str">
+        <f>FillTable!R35</f>
+        <v>R-RSDOA*</v>
+      </c>
+      <c r="L14" s="32" t="e">
+        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K14,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
         <v>244</v>
       </c>
@@ -12119,11 +12143,8 @@
         <f>"R-S*_"&amp;F15&amp;"_"&amp;G15&amp;"*"</f>
         <v>R-S*_Apt_WOO*</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>1</v>
       </c>
@@ -12146,17 +12167,8 @@
         <f>"R-S*_"&amp;F16&amp;"_"&amp;G16&amp;"*"</f>
         <v>R-S*_Apt_HET*</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>112</v>
       </c>
@@ -12167,13 +12179,11 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="J17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J17" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="32" t="s">
         <v>1</v>
       </c>
@@ -12196,18 +12206,17 @@
         <f t="shared" ref="H18:H21" si="2">"R-S*_"&amp;F18&amp;"_"&amp;G18&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" s="32">
-        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="33" t="s">
         <v>1</v>
       </c>
@@ -12230,18 +12239,13 @@
         <f t="shared" si="2"/>
         <v>R-S*_Att_BDL*</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="33">
-        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J19" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="32" t="s">
         <v>1</v>
       </c>
@@ -12268,14 +12272,14 @@
         <v>78</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L20" s="32">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.49011428261671702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.52409544244472495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
         <v>244</v>
       </c>
@@ -12302,14 +12306,14 @@
         <v>78</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L21" s="33">
-        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K21,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>0.74385546670439195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -12336,14 +12340,14 @@
         <v>78</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L22" s="32">
-        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K22,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>1.2252857065417899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="33" t="s">
         <v>244</v>
       </c>
@@ -12370,14 +12374,14 @@
         <v>78</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L23" s="33">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.29839165082681302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.210589220688259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="33" t="s">
         <v>244</v>
       </c>
@@ -12392,11 +12396,18 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J24" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="32">
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K24,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>0.40167254943293601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>244</v>
       </c>
@@ -12419,8 +12430,18 @@
         <f>"R-S*_"&amp;F23&amp;"_"&amp;G25&amp;"*"</f>
         <v>R-S*_Att_GAS*</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="J25" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="33">
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K25,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>0.49731941804468899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
@@ -12444,7 +12465,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
         <v>1</v>
       </c>
@@ -12468,7 +12489,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="33" t="s">
         <v>244</v>
       </c>
@@ -12492,7 +12513,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
         <v>244</v>
       </c>
@@ -12508,7 +12529,7 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="32" t="s">
         <v>1</v>
       </c>
@@ -12532,7 +12553,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>113</v>
       </c>
@@ -12544,7 +12565,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="32" t="s">
         <v>1</v>
       </c>
@@ -12568,7 +12589,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>1</v>
       </c>
@@ -12593,7 +12614,7 @@
       </c>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="32" t="s">
         <v>1</v>
       </c>
@@ -12617,7 +12638,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
         <v>244</v>
       </c>
@@ -12641,7 +12662,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="32" t="s">
         <v>244</v>
       </c>
@@ -12665,7 +12686,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="33" t="s">
         <v>244</v>
       </c>
@@ -12689,7 +12710,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="33" t="s">
         <v>244</v>
       </c>
@@ -12705,7 +12726,7 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="32" t="s">
         <v>244</v>
       </c>
@@ -12729,7 +12750,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="33" t="s">
         <v>1</v>
       </c>
@@ -12753,7 +12774,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="32" t="s">
         <v>1</v>
       </c>
@@ -12777,7 +12798,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="33" t="s">
         <v>244</v>
       </c>
@@ -12801,7 +12822,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="33" t="s">
         <v>244</v>
       </c>
@@ -12817,7 +12838,7 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
     </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="32" t="s">
         <v>1</v>
       </c>
@@ -12841,7 +12862,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>251</v>
       </c>
@@ -12852,7 +12873,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="32" t="s">
         <v>1</v>
       </c>
@@ -12879,7 +12900,7 @@
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="33" t="s">
         <v>1</v>
       </c>
@@ -12906,7 +12927,7 @@
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="32" t="s">
         <v>1</v>
       </c>
@@ -12933,7 +12954,7 @@
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="33" t="s">
         <v>198</v>
       </c>
@@ -12960,7 +12981,7 @@
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="32" t="s">
         <v>198</v>
       </c>
@@ -12987,7 +13008,7 @@
         <v>R-S*_Apt_ELC*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="33" t="s">
         <v>198</v>
       </c>
@@ -13014,7 +13035,7 @@
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="32" t="s">
         <v>198</v>
       </c>
@@ -13041,7 +13062,7 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="33" t="s">
         <v>1</v>
       </c>
@@ -13068,7 +13089,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="32" t="s">
         <v>1</v>
       </c>
@@ -13095,7 +13116,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="33" t="s">
         <v>198</v>
       </c>
@@ -13122,7 +13143,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="32" t="s">
         <v>198</v>
       </c>
@@ -13149,7 +13170,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>250</v>
       </c>
@@ -13161,7 +13182,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="32" t="s">
         <v>1</v>
       </c>
@@ -13188,7 +13209,7 @@
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="s">
         <v>1</v>
       </c>
@@ -13215,7 +13236,7 @@
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="32" t="s">
         <v>1</v>
       </c>
@@ -13242,7 +13263,7 @@
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="33" t="s">
         <v>198</v>
       </c>
@@ -13269,7 +13290,7 @@
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="32" t="s">
         <v>198</v>
       </c>
@@ -13296,7 +13317,7 @@
         <v>R-S*_Att_ELC*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="33" t="s">
         <v>198</v>
       </c>
@@ -13323,7 +13344,7 @@
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="33" t="s">
         <v>198</v>
       </c>
@@ -13342,7 +13363,7 @@
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="32" t="s">
         <v>198</v>
       </c>
@@ -13369,7 +13390,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="33" t="s">
         <v>1</v>
       </c>
@@ -13396,7 +13417,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="32" t="s">
         <v>1</v>
       </c>
@@ -13423,7 +13444,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="33" t="s">
         <v>198</v>
       </c>
@@ -13450,7 +13471,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="33" t="s">
         <v>198</v>
       </c>
@@ -13469,7 +13490,7 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="32" t="s">
         <v>198</v>
       </c>
@@ -13496,7 +13517,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
         <v>249</v>
       </c>
@@ -13508,7 +13529,7 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="32" t="s">
         <v>1</v>
       </c>
@@ -13535,7 +13556,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="33" t="s">
         <v>1</v>
       </c>
@@ -13562,7 +13583,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="32" t="s">
         <v>1</v>
       </c>
@@ -13589,7 +13610,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="33" t="s">
         <v>198</v>
       </c>
@@ -13616,7 +13637,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="32" t="s">
         <v>198</v>
       </c>
@@ -13643,7 +13664,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="33" t="s">
         <v>198</v>
       </c>
@@ -13670,7 +13691,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="33" t="s">
         <v>198</v>
       </c>
@@ -13689,7 +13710,7 @@
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -13716,7 +13737,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="33" t="s">
         <v>1</v>
       </c>
@@ -13743,7 +13764,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
@@ -13770,7 +13791,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="33" t="s">
         <v>198</v>
       </c>
@@ -13797,7 +13818,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="33" t="s">
         <v>198</v>
       </c>
@@ -13816,7 +13837,7 @@
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="32" t="s">
         <v>198</v>
       </c>
@@ -13843,7 +13864,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
         <v>115</v>
       </c>
@@ -13854,7 +13875,7 @@
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="32" t="s">
         <v>1</v>
       </c>
@@ -13878,7 +13899,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="33" t="s">
         <v>1</v>
       </c>
@@ -13902,7 +13923,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="32" t="s">
         <v>1</v>
       </c>
@@ -13926,7 +13947,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="33" t="s">
         <v>1</v>
       </c>
@@ -13950,7 +13971,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="32" t="s">
         <v>244</v>
       </c>
@@ -13974,7 +13995,7 @@
         <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="33" t="s">
         <v>1</v>
       </c>
@@ -13998,7 +14019,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="32" t="s">
         <v>1</v>
       </c>
@@ -14022,7 +14043,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A93" s="33" t="s">
         <v>1</v>
       </c>
@@ -14046,7 +14067,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A94" s="32" t="s">
         <v>1</v>
       </c>
@@ -14070,7 +14091,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A95" s="33" t="s">
         <v>1</v>
       </c>
@@ -14094,7 +14115,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A96" s="32" t="s">
         <v>1</v>
       </c>
@@ -14118,7 +14139,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A97" s="32" t="s">
         <v>244</v>
       </c>
@@ -14142,7 +14163,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A98" s="29" t="s">
         <v>116</v>
       </c>
@@ -14154,7 +14175,7 @@
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A99" s="32" t="s">
         <v>1</v>
       </c>
@@ -14178,7 +14199,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="33" t="s">
         <v>1</v>
       </c>
@@ -14202,7 +14223,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A101" s="32" t="s">
         <v>1</v>
       </c>
@@ -14226,7 +14247,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A102" s="33" t="s">
         <v>1</v>
       </c>
@@ -14250,7 +14271,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A103" s="32" t="s">
         <v>244</v>
       </c>
@@ -14274,7 +14295,7 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A104" s="33" t="s">
         <v>1</v>
       </c>
@@ -14298,7 +14319,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A105" s="32" t="s">
         <v>1</v>
       </c>
@@ -14322,7 +14343,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A106" s="33" t="s">
         <v>1</v>
       </c>
@@ -14346,7 +14367,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -14370,7 +14391,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A108" s="33" t="s">
         <v>1</v>
       </c>
@@ -14394,7 +14415,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A109" s="32" t="s">
         <v>1</v>
       </c>
@@ -14418,7 +14439,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A110" s="32" t="s">
         <v>244</v>
       </c>
@@ -14442,7 +14463,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A111" s="29" t="s">
         <v>117</v>
       </c>
@@ -14454,7 +14475,7 @@
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A112" s="32" t="s">
         <v>1</v>
       </c>
@@ -14478,7 +14499,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A113" s="33" t="s">
         <v>1</v>
       </c>
@@ -14502,7 +14523,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A114" s="32" t="s">
         <v>1</v>
       </c>
@@ -14526,7 +14547,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A115" s="33" t="s">
         <v>1</v>
       </c>
@@ -14550,7 +14571,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A116" s="32" t="s">
         <v>244</v>
       </c>
@@ -14574,7 +14595,7 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A117" s="33" t="s">
         <v>1</v>
       </c>
@@ -14598,7 +14619,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A118" s="32" t="s">
         <v>1</v>
       </c>
@@ -14622,7 +14643,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A119" s="33" t="s">
         <v>1</v>
       </c>
@@ -14646,7 +14667,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A120" s="32" t="s">
         <v>1</v>
       </c>
@@ -14670,7 +14691,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A121" s="33" t="s">
         <v>1</v>
       </c>
@@ -14694,7 +14715,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A122" s="32" t="s">
         <v>1</v>
       </c>
@@ -14718,7 +14739,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A123" s="32" t="s">
         <v>244</v>
       </c>
@@ -14742,7 +14763,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A124" s="29" t="s">
         <v>246</v>
       </c>
@@ -14754,7 +14775,7 @@
       <c r="G124" s="30"/>
       <c r="H124" s="30"/>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A125" s="32" t="s">
         <v>78</v>
       </c>
@@ -14778,7 +14799,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A126" s="32" t="s">
         <v>78</v>
       </c>
@@ -14802,7 +14823,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A127" s="32" t="s">
         <v>78</v>
       </c>
@@ -14826,7 +14847,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A128" s="29" t="s">
         <v>247</v>
       </c>
@@ -14838,7 +14859,7 @@
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A129" s="32" t="s">
         <v>245</v>
       </c>
@@ -14865,7 +14886,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A130" s="32" t="s">
         <v>245</v>
       </c>
@@ -14892,7 +14913,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A131" s="38" t="s">
         <v>245</v>
       </c>
@@ -14919,7 +14940,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A132" s="29" t="s">
         <v>252</v>
       </c>
@@ -14931,7 +14952,7 @@
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A133" s="32" t="s">
         <v>245</v>
       </c>
@@ -14958,7 +14979,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A134" s="32" t="s">
         <v>245</v>
       </c>
@@ -14985,7 +15006,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A135" s="38" t="s">
         <v>245</v>
       </c>
@@ -15029,32 +15050,32 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="22"/>
-    <col min="5" max="5" width="11.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="13.73046875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="22"/>
+    <col min="5" max="5" width="11.19921875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.53125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.46484375" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="E3" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>79</v>
       </c>
@@ -15074,7 +15095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -15084,7 +15105,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>109</v>
       </c>
@@ -15107,7 +15128,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
         <v>109</v>
       </c>
@@ -15130,7 +15151,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>109</v>
       </c>
@@ -15153,7 +15174,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>109</v>
       </c>
@@ -15176,7 +15197,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>109</v>
       </c>
@@ -15199,7 +15220,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="33" t="s">
         <v>109</v>
       </c>
@@ -15222,7 +15243,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
@@ -15245,7 +15266,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
         <v>109</v>
       </c>
@@ -15268,7 +15289,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>109</v>
       </c>
@@ -15291,7 +15312,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
         <v>109</v>
       </c>
@@ -15314,7 +15335,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>109</v>
       </c>
@@ -15337,7 +15358,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="32" t="s">
         <v>109</v>
       </c>
@@ -15360,7 +15381,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -15370,7 +15391,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="32" t="s">
         <v>105</v>
       </c>
@@ -15393,7 +15414,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="33" t="s">
         <v>105</v>
       </c>
@@ -15416,7 +15437,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="32" t="s">
         <v>105</v>
       </c>
@@ -15439,7 +15460,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="33" t="s">
         <v>105</v>
       </c>
@@ -15462,7 +15483,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="32" t="s">
         <v>105</v>
       </c>
@@ -15485,7 +15506,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="33" t="s">
         <v>105</v>
       </c>
@@ -15508,7 +15529,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>105</v>
       </c>
@@ -15531,7 +15552,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>105</v>
       </c>
@@ -15554,7 +15575,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
         <v>105</v>
       </c>
@@ -15577,7 +15598,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="33" t="s">
         <v>105</v>
       </c>
@@ -15600,7 +15621,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
         <v>105</v>
       </c>
@@ -15623,7 +15644,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="32" t="s">
         <v>105</v>
       </c>
@@ -15646,7 +15667,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -15656,7 +15677,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="32" t="s">
         <v>114</v>
       </c>
@@ -15680,7 +15701,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>114</v>
       </c>
@@ -15705,7 +15726,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="32" t="s">
         <v>114</v>
       </c>
@@ -15728,7 +15749,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
         <v>114</v>
       </c>
@@ -15751,7 +15772,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="32" t="s">
         <v>114</v>
       </c>
@@ -15774,7 +15795,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="33" t="s">
         <v>114</v>
       </c>
@@ -15797,7 +15818,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="32" t="s">
         <v>114</v>
       </c>
@@ -15820,7 +15841,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="33" t="s">
         <v>114</v>
       </c>
@@ -15843,7 +15864,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="32" t="s">
         <v>114</v>
       </c>
@@ -15866,7 +15887,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="33" t="s">
         <v>114</v>
       </c>
@@ -15889,7 +15910,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="32" t="s">
         <v>114</v>
       </c>
@@ -15912,7 +15933,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="32" t="s">
         <v>114</v>
       </c>
@@ -15935,7 +15956,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -15945,7 +15966,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="32" t="s">
         <v>109</v>
       </c>
@@ -15968,7 +15989,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="32" t="s">
         <v>105</v>
       </c>
@@ -15991,7 +16012,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="38" t="s">
         <v>114</v>
       </c>
@@ -16014,7 +16035,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -16024,7 +16045,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="32" t="s">
         <v>109</v>
       </c>
@@ -16047,7 +16068,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="33" t="s">
         <v>109</v>
       </c>
@@ -16070,7 +16091,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="32" t="s">
         <v>109</v>
       </c>
@@ -16093,7 +16114,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="33" t="s">
         <v>109</v>
       </c>
@@ -16116,7 +16137,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="32" t="s">
         <v>109</v>
       </c>
@@ -16139,7 +16160,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="32" t="s">
         <v>109</v>
       </c>
@@ -16162,7 +16183,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="33" t="s">
         <v>109</v>
       </c>
@@ -16185,7 +16206,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="32" t="s">
         <v>109</v>
       </c>
@@ -16208,7 +16229,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A57" s="33" t="s">
         <v>109</v>
       </c>
@@ -16231,7 +16252,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="32" t="s">
         <v>109</v>
       </c>
@@ -16254,7 +16275,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="s">
         <v>109</v>
       </c>
@@ -16277,7 +16298,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="32" t="s">
         <v>109</v>
       </c>
@@ -16300,7 +16321,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="33" t="s">
         <v>109</v>
       </c>
@@ -16323,7 +16344,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -16333,7 +16354,7 @@
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="32" t="s">
         <v>105</v>
       </c>
@@ -16356,7 +16377,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="33" t="s">
         <v>105</v>
       </c>
@@ -16379,7 +16400,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="32" t="s">
         <v>105</v>
       </c>
@@ -16402,7 +16423,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="33" t="s">
         <v>105</v>
       </c>
@@ -16425,7 +16446,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="32" t="s">
         <v>105</v>
       </c>
@@ -16448,7 +16469,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="32" t="s">
         <v>105</v>
       </c>
@@ -16471,7 +16492,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="33" t="s">
         <v>105</v>
       </c>
@@ -16494,7 +16515,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="32" t="s">
         <v>105</v>
       </c>
@@ -16517,7 +16538,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="33" t="s">
         <v>105</v>
       </c>
@@ -16540,7 +16561,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="32" t="s">
         <v>105</v>
       </c>
@@ -16563,7 +16584,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="33" t="s">
         <v>105</v>
       </c>
@@ -16586,7 +16607,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="32" t="s">
         <v>105</v>
       </c>
@@ -16609,7 +16630,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="33" t="s">
         <v>105</v>
       </c>
@@ -16632,7 +16653,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -16642,7 +16663,7 @@
       <c r="F76" s="30"/>
       <c r="G76" s="31"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="32" t="s">
         <v>114</v>
       </c>
@@ -16665,7 +16686,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="33" t="s">
         <v>114</v>
       </c>
@@ -16688,7 +16709,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="32" t="s">
         <v>114</v>
       </c>
@@ -16711,7 +16732,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="33" t="s">
         <v>114</v>
       </c>
@@ -16734,7 +16755,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="32" t="s">
         <v>114</v>
       </c>
@@ -16757,7 +16778,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="32" t="s">
         <v>114</v>
       </c>
@@ -16780,7 +16801,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="33" t="s">
         <v>114</v>
       </c>
@@ -16803,7 +16824,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="32" t="s">
         <v>114</v>
       </c>
@@ -16826,7 +16847,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="33" t="s">
         <v>114</v>
       </c>
@@ -16849,7 +16870,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="32" t="s">
         <v>114</v>
       </c>
@@ -16872,7 +16893,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="33" t="s">
         <v>114</v>
       </c>
@@ -16895,7 +16916,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="32" t="s">
         <v>114</v>
       </c>
@@ -16918,7 +16939,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="33" t="s">
         <v>114</v>
       </c>
@@ -16956,12 +16977,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17002,7 +17023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17043,7 +17064,7 @@
         <v>7.5051369863013695E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17084,7 +17105,7 @@
         <v>0.45255796882634303</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17125,7 +17146,7 @@
         <v>6.2549233288808403E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17166,7 +17187,7 @@
         <v>1.5052975614548401</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17207,7 +17228,7 @@
         <v>9.0422374429223698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17248,7 +17269,7 @@
         <v>7.5045615347050301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17289,7 +17310,7 @@
         <v>3.2373195740855901E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17330,7 +17351,7 @@
         <v>0.112170033510623</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17371,7 +17392,7 @@
         <v>0.13251764473730199</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17412,7 +17433,7 @@
         <v>9.0627195293291204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17453,7 +17474,7 @@
         <v>9.0196313138344295E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17494,7 +17515,7 @@
         <v>0.143159113753899</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17535,7 +17556,7 @@
         <v>0.10316120676872401</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17576,7 +17597,7 @@
         <v>8.8919330289193299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17617,7 +17638,7 @@
         <v>0.104359857576634</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17658,7 +17679,7 @@
         <v>6.6402541005538801E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17699,7 +17720,7 @@
         <v>0.66825318875216799</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17740,7 +17761,7 @@
         <v>6.7212328767123297E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17781,7 +17802,7 @@
         <v>5.8388567987470399E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17822,7 +17843,7 @@
         <v>4.8794584261943399E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17863,7 +17884,7 @@
         <v>6.9705277866978901E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -17904,7 +17925,7 @@
         <v>0.100567418678171</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -17945,7 +17966,7 @@
         <v>6.8944308925102102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -17986,7 +18007,7 @@
         <v>5.9040638752358897E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18027,7 +18048,7 @@
         <v>0.220198275095671</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18068,7 +18089,7 @@
         <v>6.8778139627583307E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18109,7 +18130,7 @@
         <v>4.2328767123287703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18150,7 +18171,7 @@
         <v>7.2518315131287606E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18191,7 +18212,7 @@
         <v>4.65144570452133E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18232,7 +18253,7 @@
         <v>0.45983560612562002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18273,7 +18294,7 @@
         <v>4.7947345890410997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18314,7 +18335,7 @@
         <v>4.6985228618266699E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18355,7 +18376,7 @@
         <v>5.1032329364559198E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18396,7 +18417,7 @@
         <v>5.3657823067608502E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18437,7 +18458,7 @@
         <v>6.8787509731139299E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18478,7 +18499,7 @@
         <v>2.36315789189348E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18519,7 +18540,7 @@
         <v>4.4737576657325098E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18560,7 +18581,7 @@
         <v>0.145588074596397</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18613,12 +18634,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18659,7 +18680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18700,7 +18721,7 @@
         <v>9.4570753703752605E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18741,7 +18762,7 @@
         <v>0.41882471081785599</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18782,7 +18803,7 @@
         <v>1.7227618659613701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18823,7 +18844,7 @@
         <v>0.183575067201909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18864,7 +18885,7 @@
         <v>2.0352386019458902E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -18905,7 +18926,7 @@
         <v>2.5069945114006401E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -18946,7 +18967,7 @@
         <v>2.3488908827814098E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -18987,7 +19008,7 @@
         <v>7.8978154557043795E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19028,7 +19049,7 @@
         <v>4.8787825956958103E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19069,7 +19090,7 @@
         <v>0.15828050607333199</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19110,7 +19131,7 @@
         <v>0.14698298838932999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19151,7 +19172,7 @@
         <v>3.7307426022765301E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19192,7 +19213,7 @@
         <v>2.4658929270483999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19233,7 +19254,7 @@
         <v>0.31784775894057798</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19274,7 +19295,7 @@
         <v>3.7537381358533697E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19315,7 +19336,7 @@
         <v>0.113204385544111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19356,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19397,7 +19418,7 @@
         <v>3.5032805879028399E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19438,7 +19459,7 @@
         <v>2.2872893208017001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19479,7 +19500,7 @@
         <v>4.4978376179101401E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19520,7 +19541,7 @@
         <v>4.9050090196469498E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19561,7 +19582,7 @@
         <v>7.0893554801410602E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19602,7 +19623,7 @@
         <v>7.3631430941555998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19643,7 +19664,7 @@
         <v>0.119017735973187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19684,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19725,7 +19746,7 @@
         <v>0.47278411842156098</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19766,7 +19787,7 @@
         <v>4.5630448521753401E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19807,7 +19828,7 @@
         <v>0.13766734761320301</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19848,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -19889,7 +19910,7 @@
         <v>3.9151690301129402E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -19930,7 +19951,7 @@
         <v>0.200825091733705</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -19971,7 +19992,7 @@
         <v>4.92788432018662E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20012,7 +20033,7 @@
         <v>7.0854130591549894E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20053,7 +20074,7 @@
         <v>0.100420210433235</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20094,7 +20115,7 @@
         <v>0.13720876081054401</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>77</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A823DF-6DC7-48AE-AABA-359BF7F001A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB46D3D7-A6EE-48B8-8D99-4EDECE320029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="819" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="295">
   <si>
     <t>IE</t>
   </si>
@@ -2811,23 +2811,23 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="43" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="43" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="43" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="43" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="43" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.19921875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.19921875" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.19921875" style="43" customWidth="1"/>
     <col min="13" max="13" width="10" style="43" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="43" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="43"/>
+    <col min="14" max="14" width="11.46484375" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.46484375" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -2855,7 +2855,7 @@
       <c r="Y1" s="42"/>
       <c r="Z1" s="42"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2883,7 +2883,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2911,7 +2911,7 @@
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2939,7 +2939,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -2967,7 +2967,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -2995,7 +2995,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -3023,7 +3023,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -3051,7 +3051,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -3079,7 +3079,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -3107,7 +3107,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -3135,7 +3135,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -3163,7 +3163,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -3191,7 +3191,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -3219,7 +3219,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -3247,7 +3247,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="58" t="s">
         <v>277</v>
       </c>
@@ -3277,7 +3277,7 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -3305,7 +3305,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -3333,7 +3333,7 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="49" t="s">
         <v>278</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="Y19" s="42"/>
       <c r="Z19" s="42"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="49" t="s">
         <v>279</v>
       </c>
@@ -3397,7 +3397,7 @@
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="49" t="s">
         <v>280</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="Y21" s="42"/>
       <c r="Z21" s="42"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="49"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -3457,7 +3457,7 @@
       <c r="Y22" s="42"/>
       <c r="Z22" s="42"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="49" t="s">
         <v>281</v>
       </c>
@@ -3489,7 +3489,7 @@
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="49"/>
       <c r="B24" s="57" t="s">
         <v>291</v>
@@ -3519,7 +3519,7 @@
       <c r="Y24" s="42"/>
       <c r="Z24" s="42"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="49"/>
       <c r="B25" s="57" t="s">
         <v>292</v>
@@ -3549,7 +3549,7 @@
       <c r="Y25" s="42"/>
       <c r="Z25" s="42"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="49" t="s">
         <v>282</v>
       </c>
@@ -3581,7 +3581,7 @@
       <c r="Y26" s="42"/>
       <c r="Z26" s="42"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="49"/>
       <c r="B27" s="57" t="s">
         <v>292</v>
@@ -3611,7 +3611,7 @@
       <c r="Y27" s="42"/>
       <c r="Z27" s="42"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="49"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -3639,7 +3639,7 @@
       <c r="Y28" s="42"/>
       <c r="Z28" s="42"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="49" t="s">
         <v>283</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="Y29" s="42"/>
       <c r="Z29" s="42"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="49" t="s">
         <v>284</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="Y30" s="42"/>
       <c r="Z30" s="42"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="49" t="s">
         <v>286</v>
       </c>
@@ -3735,7 +3735,7 @@
       <c r="Y31" s="42"/>
       <c r="Z31" s="42"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="55"/>
       <c r="B32" s="56" t="s">
         <v>288</v>
@@ -3765,7 +3765,7 @@
       <c r="Y32" s="42"/>
       <c r="Z32" s="42"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -3793,7 +3793,7 @@
       <c r="Y33" s="42"/>
       <c r="Z33" s="42"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -3821,7 +3821,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -3849,7 +3849,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="41"/>
@@ -3877,7 +3877,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -3905,7 +3905,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="41"/>
@@ -3933,7 +3933,7 @@
       <c r="Y38" s="42"/>
       <c r="Z38" s="42"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="41"/>
       <c r="B39" s="41"/>
       <c r="C39" s="41"/>
@@ -3961,7 +3961,7 @@
       <c r="Y39" s="42"/>
       <c r="Z39" s="42"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="41"/>
       <c r="B40" s="41"/>
       <c r="C40" s="41"/>
@@ -3989,7 +3989,7 @@
       <c r="Y40" s="42"/>
       <c r="Z40" s="42"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="41"/>
       <c r="B41" s="41"/>
       <c r="C41" s="41"/>
@@ -4017,7 +4017,7 @@
       <c r="Y41" s="42"/>
       <c r="Z41" s="42"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="41"/>
       <c r="B42" s="41"/>
       <c r="C42" s="41"/>
@@ -4045,7 +4045,7 @@
       <c r="Y42" s="42"/>
       <c r="Z42" s="42"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -4073,7 +4073,7 @@
       <c r="Y43" s="42"/>
       <c r="Z43" s="42"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -4101,7 +4101,7 @@
       <c r="Y44" s="42"/>
       <c r="Z44" s="42"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -4129,7 +4129,7 @@
       <c r="Y45" s="42"/>
       <c r="Z45" s="42"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -4157,7 +4157,7 @@
       <c r="Y46" s="42"/>
       <c r="Z46" s="42"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -4185,7 +4185,7 @@
       <c r="Y47" s="42"/>
       <c r="Z47" s="42"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -4213,7 +4213,7 @@
       <c r="Y48" s="42"/>
       <c r="Z48" s="42"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -4241,7 +4241,7 @@
       <c r="Y49" s="42"/>
       <c r="Z49" s="42"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -4269,7 +4269,7 @@
       <c r="Y50" s="42"/>
       <c r="Z50" s="42"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42"/>
@@ -4297,7 +4297,7 @@
       <c r="Y51" s="42"/>
       <c r="Z51" s="42"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42"/>
@@ -4325,7 +4325,7 @@
       <c r="Y52" s="42"/>
       <c r="Z52" s="42"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42"/>
@@ -4353,7 +4353,7 @@
       <c r="Y53" s="42"/>
       <c r="Z53" s="42"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42"/>
@@ -4381,7 +4381,7 @@
       <c r="Y54" s="42"/>
       <c r="Z54" s="42"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42"/>
@@ -4409,7 +4409,7 @@
       <c r="Y55" s="42"/>
       <c r="Z55" s="42"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42"/>
@@ -4437,7 +4437,7 @@
       <c r="Y56" s="42"/>
       <c r="Z56" s="42"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42"/>
@@ -4465,7 +4465,7 @@
       <c r="Y57" s="42"/>
       <c r="Z57" s="42"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -4493,7 +4493,7 @@
       <c r="Y58" s="42"/>
       <c r="Z58" s="42"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42"/>
@@ -4521,7 +4521,7 @@
       <c r="Y59" s="42"/>
       <c r="Z59" s="42"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42"/>
@@ -4549,7 +4549,7 @@
       <c r="Y60" s="42"/>
       <c r="Z60" s="42"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42"/>
@@ -4577,7 +4577,7 @@
       <c r="Y61" s="42"/>
       <c r="Z61" s="42"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42"/>
@@ -4605,7 +4605,7 @@
       <c r="Y62" s="42"/>
       <c r="Z62" s="42"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42"/>
@@ -4633,7 +4633,7 @@
       <c r="Y63" s="42"/>
       <c r="Z63" s="42"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42"/>
@@ -4661,7 +4661,7 @@
       <c r="Y64" s="42"/>
       <c r="Z64" s="42"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42"/>
@@ -4689,7 +4689,7 @@
       <c r="Y65" s="42"/>
       <c r="Z65" s="42"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
@@ -4717,7 +4717,7 @@
       <c r="Y66" s="42"/>
       <c r="Z66" s="42"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
@@ -4745,7 +4745,7 @@
       <c r="Y67" s="42"/>
       <c r="Z67" s="42"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
@@ -4773,7 +4773,7 @@
       <c r="Y68" s="42"/>
       <c r="Z68" s="42"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
@@ -4801,7 +4801,7 @@
       <c r="Y69" s="42"/>
       <c r="Z69" s="42"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
@@ -4829,7 +4829,7 @@
       <c r="Y70" s="42"/>
       <c r="Z70" s="42"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42"/>
@@ -4857,7 +4857,7 @@
       <c r="Y71" s="42"/>
       <c r="Z71" s="42"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42"/>
@@ -4885,7 +4885,7 @@
       <c r="Y72" s="42"/>
       <c r="Z72" s="42"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -4913,7 +4913,7 @@
       <c r="Y73" s="42"/>
       <c r="Z73" s="42"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42"/>
@@ -4941,7 +4941,7 @@
       <c r="Y74" s="42"/>
       <c r="Z74" s="42"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42"/>
@@ -4969,7 +4969,7 @@
       <c r="Y75" s="42"/>
       <c r="Z75" s="42"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42"/>
@@ -4997,7 +4997,7 @@
       <c r="Y76" s="42"/>
       <c r="Z76" s="42"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
@@ -5025,7 +5025,7 @@
       <c r="Y77" s="42"/>
       <c r="Z77" s="42"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
@@ -5053,7 +5053,7 @@
       <c r="Y78" s="42"/>
       <c r="Z78" s="42"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
@@ -5081,7 +5081,7 @@
       <c r="Y79" s="42"/>
       <c r="Z79" s="42"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
@@ -5109,7 +5109,7 @@
       <c r="Y80" s="42"/>
       <c r="Z80" s="42"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42"/>
@@ -5137,7 +5137,7 @@
       <c r="Y81" s="42"/>
       <c r="Z81" s="42"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42"/>
@@ -5165,7 +5165,7 @@
       <c r="Y82" s="42"/>
       <c r="Z82" s="42"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42"/>
@@ -5193,7 +5193,7 @@
       <c r="Y83" s="42"/>
       <c r="Z83" s="42"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42"/>
@@ -5221,7 +5221,7 @@
       <c r="Y84" s="42"/>
       <c r="Z84" s="42"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42"/>
@@ -5249,7 +5249,7 @@
       <c r="Y85" s="42"/>
       <c r="Z85" s="42"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42"/>
@@ -5277,7 +5277,7 @@
       <c r="Y86" s="42"/>
       <c r="Z86" s="42"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42"/>
@@ -5305,7 +5305,7 @@
       <c r="Y87" s="42"/>
       <c r="Z87" s="42"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42"/>
@@ -5333,7 +5333,7 @@
       <c r="Y88" s="42"/>
       <c r="Z88" s="42"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42"/>
@@ -5361,7 +5361,7 @@
       <c r="Y89" s="42"/>
       <c r="Z89" s="42"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42"/>
@@ -5389,7 +5389,7 @@
       <c r="Y90" s="42"/>
       <c r="Z90" s="42"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42"/>
@@ -5417,7 +5417,7 @@
       <c r="Y91" s="42"/>
       <c r="Z91" s="42"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42"/>
@@ -5445,7 +5445,7 @@
       <c r="Y92" s="42"/>
       <c r="Z92" s="42"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42"/>
@@ -5473,7 +5473,7 @@
       <c r="Y93" s="42"/>
       <c r="Z93" s="42"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -5501,7 +5501,7 @@
       <c r="Y94" s="42"/>
       <c r="Z94" s="42"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
@@ -5529,7 +5529,7 @@
       <c r="Y95" s="42"/>
       <c r="Z95" s="42"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -5557,7 +5557,7 @@
       <c r="Y96" s="42"/>
       <c r="Z96" s="42"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42"/>
@@ -5585,7 +5585,7 @@
       <c r="Y97" s="42"/>
       <c r="Z97" s="42"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -5613,7 +5613,7 @@
       <c r="Y98" s="42"/>
       <c r="Z98" s="42"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42"/>
@@ -5671,12 +5671,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8804,9 +8804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8900,9 +8900,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>0.210589220688259</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>0.40167254943293601</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9078,9 +9078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9176,12 +9176,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>0.52409544244472495</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>0.74385546670439195</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9357,9 +9357,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9451,11 +9451,13 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9537,7 +9539,7 @@
         <v>1.2457230310998201E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>1.06776419273959E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9633,9 +9635,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9676,7 +9678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9731,9 +9733,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9774,7 +9776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9831,16 +9833,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="60.26953125" customWidth="1"/>
+    <col min="1" max="1" width="11.53125" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" customWidth="1"/>
+    <col min="5" max="5" width="60.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -9857,7 +9859,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>44237</v>
       </c>
@@ -9872,7 +9874,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>44232</v>
       </c>
@@ -9883,8 +9885,8 @@
         <v>238</v>
       </c>
       <c r="D5" s="35" t="str">
-        <f>ADDRESS(ROW(AF!A3),COLUMN(AF!A3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J3),COLUMN(AF!J3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J15),COLUMN(AF!J15),4,1)</f>
-        <v>A3,J3,J15</v>
+        <f>ADDRESS(ROW(AF!A3),COLUMN(AF!A3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J3),COLUMN(AF!J3),4,1)&amp;","&amp;ADDRESS(ROW(AF!J17),COLUMN(AF!J17),4,1)</f>
+        <v>A3,J3,J17</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>239</v>
@@ -9905,40 +9907,40 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.53125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.53125" style="8" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.19921875" style="8" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="8"/>
+    <col min="29" max="29" width="5.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="C3" s="9" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10052,12 +10054,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -10172,7 +10174,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -10289,7 +10291,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
@@ -10406,7 +10408,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -10414,7 +10416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
@@ -10422,7 +10424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
@@ -10446,7 +10448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>23</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -10462,7 +10464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>27</v>
       </c>
@@ -10470,7 +10472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>29</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>31</v>
       </c>
@@ -10486,7 +10488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>33</v>
       </c>
@@ -10494,7 +10496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>35</v>
       </c>
@@ -10502,7 +10504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -10510,7 +10512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>39</v>
       </c>
@@ -10518,7 +10520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>41</v>
       </c>
@@ -10526,7 +10528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>43</v>
       </c>
@@ -10534,7 +10536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>45</v>
       </c>
@@ -10542,7 +10544,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
@@ -10550,7 +10552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -10558,7 +10560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>51</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
         <v>53</v>
       </c>
@@ -10574,7 +10576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>55</v>
       </c>
@@ -10582,7 +10584,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>57</v>
       </c>
@@ -10590,7 +10592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>59</v>
       </c>
@@ -10598,7 +10600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
         <v>61</v>
       </c>
@@ -10606,7 +10608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
@@ -10614,7 +10616,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>65</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>67</v>
       </c>
@@ -10672,43 +10674,43 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" customWidth="1"/>
+    <col min="8" max="8" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.53125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.46484375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10732,7 +10734,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10778,7 +10780,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10810,7 +10812,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10830,7 +10832,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -10864,22 +10866,22 @@
   </sheetPr>
   <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="16"/>
-    <col min="6" max="6" width="12.81640625" style="16" customWidth="1"/>
-    <col min="7" max="15" width="9.1796875" style="16"/>
-    <col min="16" max="16" width="11.453125" style="16" customWidth="1"/>
-    <col min="17" max="25" width="9.1796875" style="16"/>
-    <col min="26" max="26" width="11.7265625" style="16" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="16"/>
+    <col min="1" max="5" width="9.19921875" style="16"/>
+    <col min="6" max="6" width="12.796875" style="16" customWidth="1"/>
+    <col min="7" max="15" width="9.19921875" style="16"/>
+    <col min="16" max="16" width="11.46484375" style="16" customWidth="1"/>
+    <col min="17" max="25" width="9.19921875" style="16"/>
+    <col min="26" max="26" width="11.73046875" style="16" customWidth="1"/>
+    <col min="27" max="16384" width="9.19921875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>91</v>
       </c>
@@ -10890,7 +10892,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
         <v>85</v>
       </c>
@@ -10925,7 +10927,7 @@
       <c r="AC3" s="18"/>
       <c r="AD3" s="18"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="19" t="s">
         <v>68</v>
       </c>
@@ -11008,7 +11010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
@@ -11067,7 +11069,7 @@
       <c r="AC5" s="28"/>
       <c r="AD5" s="28"/>
     </row>
-    <row r="6" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="20"/>
@@ -11097,7 +11099,7 @@
       <c r="AC6" s="28"/>
       <c r="AD6" s="28"/>
     </row>
-    <row r="8" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>87</v>
       </c>
@@ -11121,7 +11123,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
     </row>
-    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="19" t="s">
         <v>68</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B10" s="26" t="s">
         <v>77</v>
       </c>
@@ -11217,7 +11219,7 @@
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
     </row>
-    <row r="13" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>108</v>
       </c>
@@ -11241,7 +11243,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>68</v>
       </c>
@@ -11297,7 +11299,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B15" s="26" t="s">
         <v>77</v>
       </c>
@@ -11337,7 +11339,7 @@
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
     </row>
-    <row r="18" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
@@ -11361,7 +11363,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="19" t="s">
         <v>68</v>
       </c>
@@ -11417,7 +11419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B20" s="26" t="s">
         <v>77</v>
       </c>
@@ -11457,7 +11459,7 @@
       <c r="S20" s="28"/>
       <c r="T20" s="28"/>
     </row>
-    <row r="23" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
         <v>119</v>
       </c>
@@ -11481,7 +11483,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="19" t="s">
         <v>68</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B25" s="26" t="s">
         <v>77</v>
       </c>
@@ -11577,7 +11579,7 @@
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
     </row>
-    <row r="28" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="L28" s="17" t="s">
         <v>173</v>
       </c>
@@ -11590,7 +11592,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L29" s="19" t="s">
         <v>68</v>
       </c>
@@ -11619,7 +11621,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="L30" s="26" t="s">
         <v>77</v>
       </c>
@@ -11640,7 +11642,7 @@
       <c r="S30" s="28"/>
       <c r="T30" s="28"/>
     </row>
-    <row r="33" spans="12:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:20" ht="14.25" x14ac:dyDescent="0.35">
       <c r="L33" s="17" t="s">
         <v>174</v>
       </c>
@@ -11653,7 +11655,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L34" s="19" t="s">
         <v>68</v>
       </c>
@@ -11682,7 +11684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="12:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="L35" s="26" t="s">
         <v>77</v>
       </c>
@@ -11717,37 +11719,37 @@
   </sheetPr>
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="22"/>
-    <col min="10" max="10" width="13.1796875" style="22" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="12.265625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="37.796875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="22.73046875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.265625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.265625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="22"/>
+    <col min="10" max="10" width="13.19921875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="22" customWidth="1"/>
     <col min="12" max="12" width="13" style="22" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="22"/>
+    <col min="13" max="16384" width="9.19921875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>243</v>
       </c>
@@ -11755,7 +11757,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
@@ -11787,7 +11789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>248</v>
       </c>
@@ -11803,7 +11805,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>1</v>
       </c>
@@ -11838,7 +11840,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
@@ -11865,15 +11867,15 @@
         <v>78</v>
       </c>
       <c r="K7" s="33" t="str">
-        <f>FillTable!R10</f>
-        <v>R-RSDCK*</v>
+        <f>FillTable!R10&amp;"ELC*"</f>
+        <v>R-RSDCK*ELC*</v>
       </c>
       <c r="L7" s="33">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.1270833191729201E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <v>1.2457230310998201E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>1</v>
       </c>
@@ -11900,15 +11902,15 @@
         <v>78</v>
       </c>
       <c r="K8" s="32" t="str">
-        <f>FillTable!R15</f>
-        <v>R-RSDCW*</v>
+        <f>FillTable!R10&amp;"GAS*"</f>
+        <v>R-RSDCK*GAS*</v>
       </c>
       <c r="L8" s="32">
-        <f>AVERAGEIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K8,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
-        <v>6.7195931921959296E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K8,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>1.06776419273959E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>244</v>
       </c>
@@ -11935,15 +11937,15 @@
         <v>78</v>
       </c>
       <c r="K9" s="33" t="str">
-        <f>FillTable!R20</f>
-        <v>R-RSDCD*</v>
+        <f>FillTable!R10&amp;"LPG*"</f>
+        <v>R-RSDCK*LPG*</v>
       </c>
       <c r="L9" s="33">
-        <f>AVERAGEIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K9,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
-        <v>1.18630136986301E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K9,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
+        <v>1.06776273367935E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>244</v>
       </c>
@@ -11970,15 +11972,15 @@
         <v>78</v>
       </c>
       <c r="K10" s="32" t="str">
-        <f>FillTable!R25</f>
-        <v>R-RSDDW*</v>
+        <f>FillTable!R15</f>
+        <v>R-RSDCW*</v>
       </c>
       <c r="L10" s="32">
-        <f>AVERAGEIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K10,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
-        <v>1.0896637608966401E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS('BY-RSD-CW'!$L$2:$L$100,'BY-RSD-CW'!$C$2:$C$100,AF!K10,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>6.7195931921959296E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="33" t="s">
         <v>244</v>
       </c>
@@ -12005,15 +12007,15 @@
         <v>78</v>
       </c>
       <c r="K11" s="33" t="str">
-        <f>FillTable!R30</f>
-        <v>R-RSDOE*</v>
+        <f>FillTable!R20</f>
+        <v>R-RSDCD*</v>
       </c>
       <c r="L11" s="33">
-        <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K11,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
-        <v>0.956481782990526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS('BY-RSD-CD'!$L$2:$L$100,'BY-RSD-CD'!$C$2:$C$100,AF!K11,'BY-RSD-CD'!$A$2:$A$100,"BASE")</f>
+        <v>1.18630136986301E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>244</v>
       </c>
@@ -12037,18 +12039,18 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f>FillTable!R35</f>
-        <v>R-RSDOA*</v>
-      </c>
-      <c r="L12" s="32" t="e">
-        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K12,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f>FillTable!R25</f>
+        <v>R-RSDDW*</v>
+      </c>
+      <c r="L12" s="32">
+        <f>AVERAGEIFS('BY-RSD-DW'!$L$2:$L$100,'BY-RSD-DW'!$C$2:$C$100,AF!K12,'BY-RSD-DW'!$A$2:$A$100,"BASE")</f>
+        <v>1.0896637608966401E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
@@ -12071,8 +12073,19 @@
         <f>"R-S*_"&amp;F13&amp;"_"&amp;G13&amp;"*"</f>
         <v>R-S*_Apt_PEA*</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J13" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="33" t="str">
+        <f>FillTable!R30</f>
+        <v>R-RSDOE*</v>
+      </c>
+      <c r="L13" s="33">
+        <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K13,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
+        <v>0.956481782990526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>1</v>
       </c>
@@ -12095,8 +12108,19 @@
         <f>"R-S*_"&amp;F14&amp;"_"&amp;G14&amp;"*"</f>
         <v>R-S*_Apt_SMF*</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="32" t="str">
+        <f>FillTable!R35</f>
+        <v>R-RSDOA*</v>
+      </c>
+      <c r="L14" s="32" t="e">
+        <f>AVERAGEIFS('BY-RSD-RF'!$L$2:$L$100,'BY-RSD-RF'!$C$2:$C$100,AF!K14,'BY-RSD-RF'!$A$2:$A$100,"BASE")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
         <v>244</v>
       </c>
@@ -12119,11 +12143,8 @@
         <f>"R-S*_"&amp;F15&amp;"_"&amp;G15&amp;"*"</f>
         <v>R-S*_Apt_WOO*</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>1</v>
       </c>
@@ -12146,17 +12167,8 @@
         <f>"R-S*_"&amp;F16&amp;"_"&amp;G16&amp;"*"</f>
         <v>R-S*_Apt_HET*</v>
       </c>
-      <c r="J16" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
         <v>112</v>
       </c>
@@ -12167,13 +12179,11 @@
       <c r="F17" s="30"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
-      <c r="J17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J17" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="32" t="s">
         <v>1</v>
       </c>
@@ -12196,18 +12206,17 @@
         <f t="shared" ref="H18:H21" si="2">"R-S*_"&amp;F18&amp;"_"&amp;G18&amp;"*"</f>
         <v>R-S*_Att_COA*</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" s="32">
-        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K18,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.52409544244472495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="33" t="s">
         <v>1</v>
       </c>
@@ -12230,18 +12239,13 @@
         <f t="shared" si="2"/>
         <v>R-S*_Att_BDL*</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="33">
-        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K19,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.74385546670439195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J19" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="32" t="s">
         <v>1</v>
       </c>
@@ -12268,14 +12272,14 @@
         <v>78</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L20" s="32">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>1.2252857065417899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.52409544244472495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
         <v>244</v>
       </c>
@@ -12302,14 +12306,14 @@
         <v>78</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L21" s="33">
-        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K21,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.210589220688259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K21,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>0.74385546670439195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="32" t="s">
         <v>244</v>
       </c>
@@ -12336,14 +12340,14 @@
         <v>78</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L22" s="32">
-        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K22,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.40167254943293601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K22,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
+        <v>1.2252857065417899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="33" t="s">
         <v>244</v>
       </c>
@@ -12370,14 +12374,14 @@
         <v>78</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L23" s="33">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.49731941804468899</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.210589220688259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="33" t="s">
         <v>244</v>
       </c>
@@ -12392,11 +12396,18 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J24" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" s="32">
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K24,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>0.40167254943293601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>244</v>
       </c>
@@ -12419,8 +12430,18 @@
         <f>"R-S*_"&amp;F23&amp;"_"&amp;G25&amp;"*"</f>
         <v>R-S*_Att_GAS*</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="J25" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="33">
+        <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K25,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
+        <v>0.49731941804468899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
@@ -12444,7 +12465,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
         <v>1</v>
       </c>
@@ -12468,7 +12489,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="33" t="s">
         <v>244</v>
       </c>
@@ -12492,7 +12513,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
         <v>244</v>
       </c>
@@ -12508,7 +12529,7 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="32" t="s">
         <v>1</v>
       </c>
@@ -12532,7 +12553,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A31" s="29" t="s">
         <v>113</v>
       </c>
@@ -12544,7 +12565,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="32" t="s">
         <v>1</v>
       </c>
@@ -12568,7 +12589,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>1</v>
       </c>
@@ -12593,7 +12614,7 @@
       </c>
       <c r="I33" s="25"/>
     </row>
-    <row r="34" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="32" t="s">
         <v>1</v>
       </c>
@@ -12617,7 +12638,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
         <v>244</v>
       </c>
@@ -12641,7 +12662,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="32" t="s">
         <v>244</v>
       </c>
@@ -12665,7 +12686,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="33" t="s">
         <v>244</v>
       </c>
@@ -12689,7 +12710,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="33" t="s">
         <v>244</v>
       </c>
@@ -12705,7 +12726,7 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="32" t="s">
         <v>244</v>
       </c>
@@ -12729,7 +12750,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="33" t="s">
         <v>1</v>
       </c>
@@ -12753,7 +12774,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="32" t="s">
         <v>1</v>
       </c>
@@ -12777,7 +12798,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="33" t="s">
         <v>244</v>
       </c>
@@ -12801,7 +12822,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="33" t="s">
         <v>244</v>
       </c>
@@ -12817,7 +12838,7 @@
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
     </row>
-    <row r="44" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="32" t="s">
         <v>1</v>
       </c>
@@ -12841,7 +12862,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>251</v>
       </c>
@@ -12852,7 +12873,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
     </row>
-    <row r="46" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="32" t="s">
         <v>1</v>
       </c>
@@ -12879,7 +12900,7 @@
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="33" t="s">
         <v>1</v>
       </c>
@@ -12906,7 +12927,7 @@
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="32" t="s">
         <v>1</v>
       </c>
@@ -12933,7 +12954,7 @@
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="33" t="s">
         <v>198</v>
       </c>
@@ -12960,7 +12981,7 @@
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="32" t="s">
         <v>198</v>
       </c>
@@ -12987,7 +13008,7 @@
         <v>R-S*_Apt_ELC*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="33" t="s">
         <v>198</v>
       </c>
@@ -13014,7 +13035,7 @@
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="32" t="s">
         <v>198</v>
       </c>
@@ -13041,7 +13062,7 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="33" t="s">
         <v>1</v>
       </c>
@@ -13068,7 +13089,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="32" t="s">
         <v>1</v>
       </c>
@@ -13095,7 +13116,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="33" t="s">
         <v>198</v>
       </c>
@@ -13122,7 +13143,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="32" t="s">
         <v>198</v>
       </c>
@@ -13149,7 +13170,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
         <v>250</v>
       </c>
@@ -13161,7 +13182,7 @@
       <c r="G57" s="30"/>
       <c r="H57" s="30"/>
     </row>
-    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="32" t="s">
         <v>1</v>
       </c>
@@ -13188,7 +13209,7 @@
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="s">
         <v>1</v>
       </c>
@@ -13215,7 +13236,7 @@
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="32" t="s">
         <v>1</v>
       </c>
@@ -13242,7 +13263,7 @@
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="33" t="s">
         <v>198</v>
       </c>
@@ -13269,7 +13290,7 @@
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="32" t="s">
         <v>198</v>
       </c>
@@ -13296,7 +13317,7 @@
         <v>R-S*_Att_ELC*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="33" t="s">
         <v>198</v>
       </c>
@@ -13323,7 +13344,7 @@
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="33" t="s">
         <v>198</v>
       </c>
@@ -13342,7 +13363,7 @@
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
     </row>
-    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="32" t="s">
         <v>198</v>
       </c>
@@ -13369,7 +13390,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="33" t="s">
         <v>1</v>
       </c>
@@ -13396,7 +13417,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="32" t="s">
         <v>1</v>
       </c>
@@ -13423,7 +13444,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="33" t="s">
         <v>198</v>
       </c>
@@ -13450,7 +13471,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="33" t="s">
         <v>198</v>
       </c>
@@ -13469,7 +13490,7 @@
       <c r="G69" s="33"/>
       <c r="H69" s="33"/>
     </row>
-    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="32" t="s">
         <v>198</v>
       </c>
@@ -13496,7 +13517,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
         <v>249</v>
       </c>
@@ -13508,7 +13529,7 @@
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
     </row>
-    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="32" t="s">
         <v>1</v>
       </c>
@@ -13535,7 +13556,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="33" t="s">
         <v>1</v>
       </c>
@@ -13562,7 +13583,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="32" t="s">
         <v>1</v>
       </c>
@@ -13589,7 +13610,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="33" t="s">
         <v>198</v>
       </c>
@@ -13616,7 +13637,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="32" t="s">
         <v>198</v>
       </c>
@@ -13643,7 +13664,7 @@
         <v>R-S*_Det_ELC*</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="33" t="s">
         <v>198</v>
       </c>
@@ -13670,7 +13691,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="33" t="s">
         <v>198</v>
       </c>
@@ -13689,7 +13710,7 @@
       <c r="G78" s="33"/>
       <c r="H78" s="33"/>
     </row>
-    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="32" t="s">
         <v>198</v>
       </c>
@@ -13716,7 +13737,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="33" t="s">
         <v>1</v>
       </c>
@@ -13743,7 +13764,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="32" t="s">
         <v>1</v>
       </c>
@@ -13770,7 +13791,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="33" t="s">
         <v>198</v>
       </c>
@@ -13797,7 +13818,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="33" t="s">
         <v>198</v>
       </c>
@@ -13816,7 +13837,7 @@
       <c r="G83" s="33"/>
       <c r="H83" s="33"/>
     </row>
-    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="32" t="s">
         <v>198</v>
       </c>
@@ -13843,7 +13864,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
         <v>115</v>
       </c>
@@ -13854,7 +13875,7 @@
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
     </row>
-    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="32" t="s">
         <v>1</v>
       </c>
@@ -13878,7 +13899,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="33" t="s">
         <v>1</v>
       </c>
@@ -13902,7 +13923,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="32" t="s">
         <v>1</v>
       </c>
@@ -13926,7 +13947,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="33" t="s">
         <v>1</v>
       </c>
@@ -13950,7 +13971,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="32" t="s">
         <v>244</v>
       </c>
@@ -13974,7 +13995,7 @@
         <v>R-WH_Apt_ELC*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="33" t="s">
         <v>1</v>
       </c>
@@ -13998,7 +14019,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="32" t="s">
         <v>1</v>
       </c>
@@ -14022,7 +14043,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A93" s="33" t="s">
         <v>1</v>
       </c>
@@ -14046,7 +14067,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A94" s="32" t="s">
         <v>1</v>
       </c>
@@ -14070,7 +14091,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A95" s="33" t="s">
         <v>1</v>
       </c>
@@ -14094,7 +14115,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A96" s="32" t="s">
         <v>1</v>
       </c>
@@ -14118,7 +14139,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A97" s="32" t="s">
         <v>244</v>
       </c>
@@ -14142,7 +14163,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A98" s="29" t="s">
         <v>116</v>
       </c>
@@ -14154,7 +14175,7 @@
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
     </row>
-    <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A99" s="32" t="s">
         <v>1</v>
       </c>
@@ -14178,7 +14199,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="33" t="s">
         <v>1</v>
       </c>
@@ -14202,7 +14223,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A101" s="32" t="s">
         <v>1</v>
       </c>
@@ -14226,7 +14247,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A102" s="33" t="s">
         <v>1</v>
       </c>
@@ -14250,7 +14271,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A103" s="32" t="s">
         <v>244</v>
       </c>
@@ -14274,7 +14295,7 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A104" s="33" t="s">
         <v>1</v>
       </c>
@@ -14298,7 +14319,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A105" s="32" t="s">
         <v>1</v>
       </c>
@@ -14322,7 +14343,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A106" s="33" t="s">
         <v>1</v>
       </c>
@@ -14346,7 +14367,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
@@ -14370,7 +14391,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A108" s="33" t="s">
         <v>1</v>
       </c>
@@ -14394,7 +14415,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A109" s="32" t="s">
         <v>1</v>
       </c>
@@ -14418,7 +14439,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A110" s="32" t="s">
         <v>244</v>
       </c>
@@ -14442,7 +14463,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A111" s="29" t="s">
         <v>117</v>
       </c>
@@ -14454,7 +14475,7 @@
       <c r="G111" s="30"/>
       <c r="H111" s="30"/>
     </row>
-    <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A112" s="32" t="s">
         <v>1</v>
       </c>
@@ -14478,7 +14499,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A113" s="33" t="s">
         <v>1</v>
       </c>
@@ -14502,7 +14523,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A114" s="32" t="s">
         <v>1</v>
       </c>
@@ -14526,7 +14547,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A115" s="33" t="s">
         <v>1</v>
       </c>
@@ -14550,7 +14571,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A116" s="32" t="s">
         <v>244</v>
       </c>
@@ -14574,7 +14595,7 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A117" s="33" t="s">
         <v>1</v>
       </c>
@@ -14598,7 +14619,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A118" s="32" t="s">
         <v>1</v>
       </c>
@@ -14622,7 +14643,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A119" s="33" t="s">
         <v>1</v>
       </c>
@@ -14646,7 +14667,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A120" s="32" t="s">
         <v>1</v>
       </c>
@@ -14670,7 +14691,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A121" s="33" t="s">
         <v>1</v>
       </c>
@@ -14694,7 +14715,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A122" s="32" t="s">
         <v>1</v>
       </c>
@@ -14718,7 +14739,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A123" s="32" t="s">
         <v>244</v>
       </c>
@@ -14742,7 +14763,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A124" s="29" t="s">
         <v>246</v>
       </c>
@@ -14754,7 +14775,7 @@
       <c r="G124" s="30"/>
       <c r="H124" s="30"/>
     </row>
-    <row r="125" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A125" s="32" t="s">
         <v>78</v>
       </c>
@@ -14778,7 +14799,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A126" s="32" t="s">
         <v>78</v>
       </c>
@@ -14802,7 +14823,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A127" s="32" t="s">
         <v>78</v>
       </c>
@@ -14826,7 +14847,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A128" s="29" t="s">
         <v>247</v>
       </c>
@@ -14838,7 +14859,7 @@
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
     </row>
-    <row r="129" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A129" s="32" t="s">
         <v>245</v>
       </c>
@@ -14865,7 +14886,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A130" s="32" t="s">
         <v>245</v>
       </c>
@@ -14892,7 +14913,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A131" s="38" t="s">
         <v>245</v>
       </c>
@@ -14919,7 +14940,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A132" s="29" t="s">
         <v>252</v>
       </c>
@@ -14931,7 +14952,7 @@
       <c r="G132" s="30"/>
       <c r="H132" s="30"/>
     </row>
-    <row r="133" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A133" s="32" t="s">
         <v>245</v>
       </c>
@@ -14958,7 +14979,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A134" s="32" t="s">
         <v>245</v>
       </c>
@@ -14985,7 +15006,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A135" s="38" t="s">
         <v>245</v>
       </c>
@@ -15029,32 +15050,32 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="22"/>
-    <col min="5" max="5" width="11.1796875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="22"/>
+    <col min="1" max="1" width="13.73046875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.53125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="22"/>
+    <col min="5" max="5" width="11.19921875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="23.53125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="18.46484375" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="E3" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24" t="s">
         <v>79</v>
       </c>
@@ -15074,7 +15095,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -15084,7 +15105,7 @@
       <c r="F5" s="30"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>109</v>
       </c>
@@ -15107,7 +15128,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="33" t="s">
         <v>109</v>
       </c>
@@ -15130,7 +15151,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="32" t="s">
         <v>109</v>
       </c>
@@ -15153,7 +15174,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="33" t="s">
         <v>109</v>
       </c>
@@ -15176,7 +15197,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>109</v>
       </c>
@@ -15199,7 +15220,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="33" t="s">
         <v>109</v>
       </c>
@@ -15222,7 +15243,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
@@ -15245,7 +15266,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="33" t="s">
         <v>109</v>
       </c>
@@ -15268,7 +15289,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>109</v>
       </c>
@@ -15291,7 +15312,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="33" t="s">
         <v>109</v>
       </c>
@@ -15314,7 +15335,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="32" t="s">
         <v>109</v>
       </c>
@@ -15337,7 +15358,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="32" t="s">
         <v>109</v>
       </c>
@@ -15360,7 +15381,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -15370,7 +15391,7 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="32" t="s">
         <v>105</v>
       </c>
@@ -15393,7 +15414,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="33" t="s">
         <v>105</v>
       </c>
@@ -15416,7 +15437,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="32" t="s">
         <v>105</v>
       </c>
@@ -15439,7 +15460,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="33" t="s">
         <v>105</v>
       </c>
@@ -15462,7 +15483,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="32" t="s">
         <v>105</v>
       </c>
@@ -15485,7 +15506,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="33" t="s">
         <v>105</v>
       </c>
@@ -15508,7 +15529,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
         <v>105</v>
       </c>
@@ -15531,7 +15552,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="33" t="s">
         <v>105</v>
       </c>
@@ -15554,7 +15575,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="32" t="s">
         <v>105</v>
       </c>
@@ -15577,7 +15598,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="33" t="s">
         <v>105</v>
       </c>
@@ -15600,7 +15621,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="32" t="s">
         <v>105</v>
       </c>
@@ -15623,7 +15644,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="32" t="s">
         <v>105</v>
       </c>
@@ -15646,7 +15667,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -15656,7 +15677,7 @@
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
     </row>
-    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A32" s="32" t="s">
         <v>114</v>
       </c>
@@ -15680,7 +15701,7 @@
       </c>
       <c r="H32" s="25"/>
     </row>
-    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>114</v>
       </c>
@@ -15705,7 +15726,7 @@
       </c>
       <c r="H33" s="25"/>
     </row>
-    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A34" s="32" t="s">
         <v>114</v>
       </c>
@@ -15728,7 +15749,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="33" t="s">
         <v>114</v>
       </c>
@@ -15751,7 +15772,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="32" t="s">
         <v>114</v>
       </c>
@@ -15774,7 +15795,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="33" t="s">
         <v>114</v>
       </c>
@@ -15797,7 +15818,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A38" s="32" t="s">
         <v>114</v>
       </c>
@@ -15820,7 +15841,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A39" s="33" t="s">
         <v>114</v>
       </c>
@@ -15843,7 +15864,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="32" t="s">
         <v>114</v>
       </c>
@@ -15866,7 +15887,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A41" s="33" t="s">
         <v>114</v>
       </c>
@@ -15889,7 +15910,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A42" s="32" t="s">
         <v>114</v>
       </c>
@@ -15912,7 +15933,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="32" t="s">
         <v>114</v>
       </c>
@@ -15935,7 +15956,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -15945,7 +15966,7 @@
       <c r="F44" s="30"/>
       <c r="G44" s="31"/>
     </row>
-    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="32" t="s">
         <v>109</v>
       </c>
@@ -15968,7 +15989,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="32" t="s">
         <v>105</v>
       </c>
@@ -15991,7 +16012,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="38" t="s">
         <v>114</v>
       </c>
@@ -16014,7 +16035,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -16024,7 +16045,7 @@
       <c r="F48" s="30"/>
       <c r="G48" s="31"/>
     </row>
-    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A49" s="32" t="s">
         <v>109</v>
       </c>
@@ -16047,7 +16068,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="33" t="s">
         <v>109</v>
       </c>
@@ -16070,7 +16091,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="32" t="s">
         <v>109</v>
       </c>
@@ -16093,7 +16114,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="33" t="s">
         <v>109</v>
       </c>
@@ -16116,7 +16137,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A53" s="32" t="s">
         <v>109</v>
       </c>
@@ -16139,7 +16160,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A54" s="32" t="s">
         <v>109</v>
       </c>
@@ -16162,7 +16183,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A55" s="33" t="s">
         <v>109</v>
       </c>
@@ -16185,7 +16206,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A56" s="32" t="s">
         <v>109</v>
       </c>
@@ -16208,7 +16229,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A57" s="33" t="s">
         <v>109</v>
       </c>
@@ -16231,7 +16252,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A58" s="32" t="s">
         <v>109</v>
       </c>
@@ -16254,7 +16275,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="s">
         <v>109</v>
       </c>
@@ -16277,7 +16298,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="32" t="s">
         <v>109</v>
       </c>
@@ -16300,7 +16321,7 @@
         <v>*0.3983844218765</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="33" t="s">
         <v>109</v>
       </c>
@@ -16323,7 +16344,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -16333,7 +16354,7 @@
       <c r="F62" s="30"/>
       <c r="G62" s="31"/>
     </row>
-    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="32" t="s">
         <v>105</v>
       </c>
@@ -16356,7 +16377,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="33" t="s">
         <v>105</v>
       </c>
@@ -16379,7 +16400,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="32" t="s">
         <v>105</v>
       </c>
@@ -16402,7 +16423,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="33" t="s">
         <v>105</v>
       </c>
@@ -16425,7 +16446,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="32" t="s">
         <v>105</v>
       </c>
@@ -16448,7 +16469,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="32" t="s">
         <v>105</v>
       </c>
@@ -16471,7 +16492,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="33" t="s">
         <v>105</v>
       </c>
@@ -16494,7 +16515,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="32" t="s">
         <v>105</v>
       </c>
@@ -16517,7 +16538,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="33" t="s">
         <v>105</v>
       </c>
@@ -16540,7 +16561,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="32" t="s">
         <v>105</v>
       </c>
@@ -16563,7 +16584,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="33" t="s">
         <v>105</v>
       </c>
@@ -16586,7 +16607,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="32" t="s">
         <v>105</v>
       </c>
@@ -16609,7 +16630,7 @@
         <v>*0.609499730599684</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="33" t="s">
         <v>105</v>
       </c>
@@ -16632,7 +16653,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.35">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -16642,7 +16663,7 @@
       <c r="F76" s="30"/>
       <c r="G76" s="31"/>
     </row>
-    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="32" t="s">
         <v>114</v>
       </c>
@@ -16665,7 +16686,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="33" t="s">
         <v>114</v>
       </c>
@@ -16688,7 +16709,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="32" t="s">
         <v>114</v>
       </c>
@@ -16711,7 +16732,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="33" t="s">
         <v>114</v>
       </c>
@@ -16734,7 +16755,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="32" t="s">
         <v>114</v>
       </c>
@@ -16757,7 +16778,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="32" t="s">
         <v>114</v>
       </c>
@@ -16780,7 +16801,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="33" t="s">
         <v>114</v>
       </c>
@@ -16803,7 +16824,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="32" t="s">
         <v>114</v>
       </c>
@@ -16826,7 +16847,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="33" t="s">
         <v>114</v>
       </c>
@@ -16849,7 +16870,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="32" t="s">
         <v>114</v>
       </c>
@@ -16872,7 +16893,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="33" t="s">
         <v>114</v>
       </c>
@@ -16895,7 +16916,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A88" s="32" t="s">
         <v>114</v>
       </c>
@@ -16918,7 +16939,7 @@
         <v>*0.65865731206453</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="33" t="s">
         <v>114</v>
       </c>
@@ -16956,12 +16977,12 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17002,7 +17023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17043,7 +17064,7 @@
         <v>7.5051369863013695E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17084,7 +17105,7 @@
         <v>0.45255796882634303</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17125,7 +17146,7 @@
         <v>6.2549233288808403E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17166,7 +17187,7 @@
         <v>1.5052975614548401</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17207,7 +17228,7 @@
         <v>9.0422374429223698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17248,7 +17269,7 @@
         <v>7.5045615347050301E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17289,7 +17310,7 @@
         <v>3.2373195740855901E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17330,7 +17351,7 @@
         <v>0.112170033510623</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17371,7 +17392,7 @@
         <v>0.13251764473730199</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17412,7 +17433,7 @@
         <v>9.0627195293291204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17453,7 +17474,7 @@
         <v>9.0196313138344295E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17494,7 +17515,7 @@
         <v>0.143159113753899</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17535,7 +17556,7 @@
         <v>0.10316120676872401</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17576,7 +17597,7 @@
         <v>8.8919330289193299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17617,7 +17638,7 @@
         <v>0.104359857576634</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17658,7 +17679,7 @@
         <v>6.6402541005538801E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17699,7 +17720,7 @@
         <v>0.66825318875216799</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17740,7 +17761,7 @@
         <v>6.7212328767123297E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17781,7 +17802,7 @@
         <v>5.8388567987470399E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17822,7 +17843,7 @@
         <v>4.8794584261943399E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17863,7 +17884,7 @@
         <v>6.9705277866978901E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -17904,7 +17925,7 @@
         <v>0.100567418678171</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -17945,7 +17966,7 @@
         <v>6.8944308925102102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -17986,7 +18007,7 @@
         <v>5.9040638752358897E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18027,7 +18048,7 @@
         <v>0.220198275095671</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18068,7 +18089,7 @@
         <v>6.8778139627583307E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18109,7 +18130,7 @@
         <v>4.2328767123287703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18150,7 +18171,7 @@
         <v>7.2518315131287606E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18191,7 +18212,7 @@
         <v>4.65144570452133E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18232,7 +18253,7 @@
         <v>0.45983560612562002</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18273,7 +18294,7 @@
         <v>4.7947345890410997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18314,7 +18335,7 @@
         <v>4.6985228618266699E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18355,7 +18376,7 @@
         <v>5.1032329364559198E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18396,7 +18417,7 @@
         <v>5.3657823067608502E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18437,7 +18458,7 @@
         <v>6.8787509731139299E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18478,7 +18499,7 @@
         <v>2.36315789189348E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18519,7 +18540,7 @@
         <v>4.4737576657325098E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18560,7 +18581,7 @@
         <v>0.145588074596397</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18613,12 +18634,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18659,7 +18680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18700,7 +18721,7 @@
         <v>9.4570753703752605E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18741,7 +18762,7 @@
         <v>0.41882471081785599</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18782,7 +18803,7 @@
         <v>1.7227618659613701E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18823,7 +18844,7 @@
         <v>0.183575067201909</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18864,7 +18885,7 @@
         <v>2.0352386019458902E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -18905,7 +18926,7 @@
         <v>2.5069945114006401E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -18946,7 +18967,7 @@
         <v>2.3488908827814098E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -18987,7 +19008,7 @@
         <v>7.8978154557043795E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19028,7 +19049,7 @@
         <v>4.8787825956958103E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19069,7 +19090,7 @@
         <v>0.15828050607333199</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19110,7 +19131,7 @@
         <v>0.14698298838932999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19151,7 +19172,7 @@
         <v>3.7307426022765301E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19192,7 +19213,7 @@
         <v>2.4658929270483999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19233,7 +19254,7 @@
         <v>0.31784775894057798</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19274,7 +19295,7 @@
         <v>3.7537381358533697E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19315,7 +19336,7 @@
         <v>0.113204385544111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19356,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19397,7 +19418,7 @@
         <v>3.5032805879028399E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19438,7 +19459,7 @@
         <v>2.2872893208017001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19479,7 +19500,7 @@
         <v>4.4978376179101401E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19520,7 +19541,7 @@
         <v>4.9050090196469498E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19561,7 +19582,7 @@
         <v>7.0893554801410602E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19602,7 +19623,7 @@
         <v>7.3631430941555998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19643,7 +19664,7 @@
         <v>0.119017735973187</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19684,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19725,7 +19746,7 @@
         <v>0.47278411842156098</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19766,7 +19787,7 @@
         <v>4.5630448521753401E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19807,7 +19828,7 @@
         <v>0.13766734761320301</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19848,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -19889,7 +19910,7 @@
         <v>3.9151690301129402E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -19930,7 +19951,7 @@
         <v>0.200825091733705</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -19971,7 +19992,7 @@
         <v>4.92788432018662E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20012,7 +20033,7 @@
         <v>7.0854130591549894E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20053,7 +20074,7 @@
         <v>0.100420210433235</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20094,7 +20115,7 @@
         <v>0.13720876081054401</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>77</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB46D3D7-A6EE-48B8-8D99-4EDECE320029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B4313-94CA-478D-80F8-5CCE4176A4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="819" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -32,9 +27,6 @@
     <sheet name="BY-RSD-RF" sheetId="50" r:id="rId17"/>
     <sheet name="BY-RSD-OE" sheetId="59" r:id="rId18"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId19"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -74,7 +66,6 @@
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
     <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
@@ -135,7 +126,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Alessandro Chiodi</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="D123" authorId="0" shapeId="0" xr:uid="{252C524F-867C-494B-8549-0779FBA2A96C}">
@@ -148,7 +139,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -172,7 +163,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -196,7 +187,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -220,7 +211,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -244,7 +235,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -268,7 +259,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -292,7 +283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -313,7 +304,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Alessandro Chiodi</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="E15" authorId="0" shapeId="0" xr:uid="{5E2488D4-DAF1-46AB-A539-E1B33B9CF9CE}">
@@ -395,7 +386,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -419,7 +410,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -443,7 +434,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -467,7 +458,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -492,7 +483,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -517,7 +508,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Alessandro Chiodi:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -559,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2708" uniqueCount="296">
   <si>
     <t>IE</t>
   </si>
@@ -1462,6 +1453,9 @@
   </si>
   <si>
     <t>New Technologies - Transformation</t>
+  </si>
+  <si>
+    <t>1.0.0-s.1</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2054,7 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -2261,7 +2255,7 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
@@ -2350,141 +2344,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2811,7 +2670,9 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3643,8 +3504,8 @@
       <c r="A29" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="53">
-        <v>1</v>
+      <c r="B29" s="53" t="s">
+        <v>295</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -8794,6 +8655,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8890,6 +8752,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9068,6 +8931,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9164,6 +9028,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9347,6 +9212,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9443,6 +9309,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9623,6 +9490,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9721,6 +9589,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9819,6 +9688,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10855,6 +10725,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -11719,7 +11590,7 @@
   </sheetPr>
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -15035,7 +14906,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16964,7 +16836,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18624,6 +18497,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20158,5 +20032,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1952212-204A-4F46-B4DD-349E4C47EE10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37381B77-B952-479C-A22D-197977AF52FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{371D79B6-28D1-48B3-8874-3F3F5715CCCB}"/>
   </bookViews>
   <sheets>
@@ -35,6 +35,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -1492,7 +1493,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1969,6 +1970,12 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1976,12 +1983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="10" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2454,62 +2455,160 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
       <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
       <sheetData sheetId="39" refreshError="1"/>
       <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
-      <sheetData sheetId="54" refreshError="1"/>
-      <sheetData sheetId="55" refreshError="1"/>
-      <sheetData sheetId="56" refreshError="1"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Regions"/>
+      <sheetName val="TechSelection"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>IE-CW</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>IE-D</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>IE-KE</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>IE-KK</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>IE-LS</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>IE-LD</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>IE-LH</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>IE-MH</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>IE-OY</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>IE-WH</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>IE-WX</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>IE-WW</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>IE-CE</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>IE-CO</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>IE-KY</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>IE-LK</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>IE-TA</v>
+          </cell>
+          <cell r="V3" t="str">
+            <v>IE-WD</v>
+          </cell>
+          <cell r="W3" t="str">
+            <v>IE-G</v>
+          </cell>
+          <cell r="X3" t="str">
+            <v>IE-LM</v>
+          </cell>
+          <cell r="Y3" t="str">
+            <v>IE-MO</v>
+          </cell>
+          <cell r="Z3" t="str">
+            <v>IE-RN</v>
+          </cell>
+          <cell r="AA3" t="str">
+            <v>IE-SO</v>
+          </cell>
+          <cell r="AB3" t="str">
+            <v>IE-CN</v>
+          </cell>
+          <cell r="AC3" t="str">
+            <v>IE-DL</v>
+          </cell>
+          <cell r="AD3" t="str">
+            <v>IE-MN</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3277,12 +3376,12 @@
       <c r="Z15" s="41"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="G16" s="44"/>
@@ -3366,11 +3465,11 @@
       <c r="A19" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="60" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="50"/>
@@ -3398,11 +3497,11 @@
       <c r="A20" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="60" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="49"/>
       <c r="F20" s="49"/>
       <c r="G20" s="50"/>
@@ -3490,11 +3589,11 @@
       <c r="A23" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
@@ -3520,11 +3619,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -3550,11 +3649,11 @@
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -3582,11 +3681,11 @@
       <c r="A26" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="60" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -3612,11 +3711,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="60" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
@@ -3704,11 +3803,11 @@
       <c r="A30" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="53"/>
       <c r="F30" s="53"/>
       <c r="G30" s="41"/>
@@ -3736,11 +3835,11 @@
       <c r="A31" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
       <c r="G31" s="41"/>
@@ -10706,50 +10805,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B3:AA7"/>
+  <dimension ref="B3:AH7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:O2"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="27" width="5.7109375" style="2" customWidth="1"/>
+    <col min="28" max="34" width="5.7109375" customWidth="1"/>
     <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10773,7 +10848,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10797,29 +10872,111 @@
         <v>IE</v>
       </c>
       <c r="I4" s="7" t="str">
-        <f>Regions!D3</f>
-        <v>National</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+        <f>[2]Regions!E3</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>[2]Regions!F3</f>
+        <v>IE-D</v>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f>[2]Regions!G3</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="L4" s="7" t="str">
+        <f>[2]Regions!H3</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="M4" s="7" t="str">
+        <f>[2]Regions!I3</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="N4" s="7" t="str">
+        <f>[2]Regions!J3</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="O4" s="7" t="str">
+        <f>[2]Regions!K3</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="P4" s="7" t="str">
+        <f>[2]Regions!L3</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="Q4" s="7" t="str">
+        <f>[2]Regions!M3</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="R4" s="7" t="str">
+        <f>[2]Regions!N3</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="S4" s="7" t="str">
+        <f>[2]Regions!O3</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="T4" s="7" t="str">
+        <f>[2]Regions!P3</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="U4" s="7" t="str">
+        <f>[2]Regions!Q3</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="V4" s="7" t="str">
+        <f>[2]Regions!R3</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="W4" s="7" t="str">
+        <f>[2]Regions!S3</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="X4" s="7" t="str">
+        <f>[2]Regions!T3</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="Y4" s="7" t="str">
+        <f>[2]Regions!U3</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="Z4" s="7" t="str">
+        <f>[2]Regions!V3</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="AA4" s="7" t="str">
+        <f>[2]Regions!W3</f>
+        <v>IE-G</v>
+      </c>
+      <c r="AB4" s="7" t="str">
+        <f>[2]Regions!X3</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="AC4" s="7" t="str">
+        <f>[2]Regions!Y3</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="AD4" s="7" t="str">
+        <f>[2]Regions!Z3</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AE4" s="7" t="str">
+        <f>[2]Regions!AA3</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AF4" s="7" t="str">
+        <f>[2]Regions!AB3</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AG4" s="7" t="str">
+        <f>[2]Regions!AC3</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AH4" s="7" t="str">
+        <f>[2]Regions!AD3</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10829,29 +10986,86 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="8">
         <v>1</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8">
+        <v>1</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8">
+        <v>1</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.2">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10871,7 +11085,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:34" x14ac:dyDescent="0.2">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -11759,8 +11973,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -11855,7 +12069,7 @@
         <v>R-SH*Apt_COA*</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="59">
+      <c r="D6" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.41882471081785599</v>
       </c>
@@ -11890,7 +12104,7 @@
         <v>R-SH*Apt_BDL*</v>
       </c>
       <c r="C7" s="33"/>
-      <c r="D7" s="60">
+      <c r="D7" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.4570753703752605E-3</v>
       </c>
@@ -11925,7 +12139,7 @@
         <v>R-SH*Apt_ETH*</v>
       </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="59">
+      <c r="D8" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.0352386019458902E-5</v>
       </c>
@@ -11960,7 +12174,7 @@
         <v>R-SH*Apt_LPG*</v>
       </c>
       <c r="C9" s="33"/>
-      <c r="D9" s="60">
+      <c r="D9" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.8787825956958103E-2</v>
       </c>
@@ -11995,7 +12209,7 @@
         <v>R-*_Apt*HPN*</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="59">
+      <c r="D10" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.183575067201909</v>
       </c>
@@ -12030,7 +12244,7 @@
         <v>R-S*_Apt_ELC_N1,-R-SC*</v>
       </c>
       <c r="C11" s="33"/>
-      <c r="D11" s="60">
+      <c r="D11" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.7227618659613701E-2</v>
       </c>
@@ -12065,7 +12279,7 @@
         <v>R-SH*Apt_KER*</v>
       </c>
       <c r="C12" s="32"/>
-      <c r="D12" s="59">
+      <c r="D12" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.8978154557043795E-2</v>
       </c>
@@ -12100,7 +12314,7 @@
         <v>R-SH*Apt_GAS*</v>
       </c>
       <c r="C13" s="33"/>
-      <c r="D13" s="60">
+      <c r="D13" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.5069945114006401E-2</v>
       </c>
@@ -12124,7 +12338,7 @@
         <v>R-SH*Apt_PEA*</v>
       </c>
       <c r="C14" s="32"/>
-      <c r="D14" s="59">
+      <c r="D14" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.15828050607333199</v>
       </c>
@@ -12148,7 +12362,7 @@
         <v>R-SH*Apt_SMF*</v>
       </c>
       <c r="C15" s="33"/>
-      <c r="D15" s="60">
+      <c r="D15" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.14698298838932999</v>
       </c>
@@ -12175,7 +12389,7 @@
         <v>R-SH*Apt_WOO*</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="59">
+      <c r="D16" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.7307426022765301E-2</v>
       </c>
@@ -12208,7 +12422,7 @@
         <v>R-SH*Apt_HET*</v>
       </c>
       <c r="C17" s="33"/>
-      <c r="D17" s="60">
+      <c r="D17" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.3488908827814098E-3</v>
       </c>
@@ -12259,7 +12473,7 @@
         <v>R-SH*Att_COA*</v>
       </c>
       <c r="C19" s="32"/>
-      <c r="D19" s="59">
+      <c r="D19" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.31784775894057798</v>
       </c>
@@ -12293,7 +12507,7 @@
         <v>R-SH*Att_BDL*</v>
       </c>
       <c r="C20" s="33"/>
-      <c r="D20" s="60">
+      <c r="D20" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.4658929270483999E-2</v>
       </c>
@@ -12327,7 +12541,7 @@
         <v>R-SH*Att_ETH*</v>
       </c>
       <c r="C21" s="32"/>
-      <c r="D21" s="59">
+      <c r="D21" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
       </c>
@@ -12361,7 +12575,7 @@
         <v>R-SH*Att_LPG*</v>
       </c>
       <c r="C22" s="33"/>
-      <c r="D22" s="60">
+      <c r="D22" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.9050090196469498E-2</v>
       </c>
@@ -12395,7 +12609,7 @@
         <v>R-*_Att*HPN*</v>
       </c>
       <c r="C23" s="32"/>
-      <c r="D23" s="59">
+      <c r="D23" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113204385544111</v>
       </c>
@@ -12429,7 +12643,7 @@
         <v>R-S*_Att_ELC_N1,-R-SC*</v>
       </c>
       <c r="C24" s="33"/>
-      <c r="D24" s="60">
+      <c r="D24" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.7537381358533697E-2</v>
       </c>
@@ -12456,7 +12670,7 @@
         <v>R-SH*Att_KER*</v>
       </c>
       <c r="C25" s="32"/>
-      <c r="D25" s="59">
+      <c r="D25" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.4978376179101401E-2</v>
       </c>
@@ -12479,7 +12693,7 @@
         <v>273</v>
       </c>
       <c r="C26" s="33"/>
-      <c r="D26" s="60">
+      <c r="D26" s="57">
         <f>D25</f>
         <v>4.4978376179101401E-2</v>
       </c>
@@ -12496,7 +12710,7 @@
         <v>R-SH*Att_GAS*</v>
       </c>
       <c r="C27" s="32"/>
-      <c r="D27" s="59">
+      <c r="D27" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.5032805879028399E-2</v>
       </c>
@@ -12520,7 +12734,7 @@
         <v>R-SH*Att_PEA*</v>
       </c>
       <c r="C28" s="33"/>
-      <c r="D28" s="60">
+      <c r="D28" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.0893554801410602E-2</v>
       </c>
@@ -12544,7 +12758,7 @@
         <v>R-SH*Att_SMF*</v>
       </c>
       <c r="C29" s="32"/>
-      <c r="D29" s="59">
+      <c r="D29" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.3631430941555998E-2</v>
       </c>
@@ -12568,7 +12782,7 @@
         <v>R-SH*Att_WOO*</v>
       </c>
       <c r="C30" s="33"/>
-      <c r="D30" s="60">
+      <c r="D30" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.119017735973187</v>
       </c>
@@ -12591,7 +12805,7 @@
         <v>269</v>
       </c>
       <c r="C31" s="32"/>
-      <c r="D31" s="59">
+      <c r="D31" s="56">
         <f>D30</f>
         <v>0.119017735973187</v>
       </c>
@@ -12608,7 +12822,7 @@
         <v>R-SH*Att_HET*</v>
       </c>
       <c r="C32" s="33"/>
-      <c r="D32" s="60">
+      <c r="D32" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.2872893208017001E-2</v>
       </c>
@@ -12645,7 +12859,7 @@
         <v>R-SH*Det_COA*</v>
       </c>
       <c r="C34" s="32"/>
-      <c r="D34" s="59">
+      <c r="D34" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.47278411842156098</v>
       </c>
@@ -12669,7 +12883,7 @@
         <v>R-SH*Det_BDL*</v>
       </c>
       <c r="C35" s="33"/>
-      <c r="D35" s="60">
+      <c r="D35" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
       </c>
@@ -12693,7 +12907,7 @@
         <v>R-SH*Det_ETH*</v>
       </c>
       <c r="C36" s="32"/>
-      <c r="D36" s="59">
+      <c r="D36" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
       </c>
@@ -12717,7 +12931,7 @@
         <v>R-SH*Det_LPG*</v>
       </c>
       <c r="C37" s="33"/>
-      <c r="D37" s="60">
+      <c r="D37" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.0854130591549894E-2</v>
       </c>
@@ -12741,7 +12955,7 @@
         <v>R-*_Det*HPN*</v>
       </c>
       <c r="C38" s="32"/>
-      <c r="D38" s="59">
+      <c r="D38" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13766734761320301</v>
       </c>
@@ -12765,7 +12979,7 @@
         <v>R-S*_Det_ELC_N1,-R-SC*</v>
       </c>
       <c r="C39" s="33"/>
-      <c r="D39" s="60">
+      <c r="D39" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.5630448521753401E-2</v>
       </c>
@@ -12789,7 +13003,7 @@
         <v>R-SH*Det_KER*</v>
       </c>
       <c r="C40" s="32"/>
-      <c r="D40" s="59">
+      <c r="D40" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.92788432018662E-2</v>
       </c>
@@ -12812,7 +13026,7 @@
         <v>274</v>
       </c>
       <c r="C41" s="33"/>
-      <c r="D41" s="60">
+      <c r="D41" s="57">
         <f>D40</f>
         <v>4.92788432018662E-2</v>
       </c>
@@ -12829,7 +13043,7 @@
         <v>R-SH*Det_GAS*</v>
       </c>
       <c r="C42" s="32"/>
-      <c r="D42" s="59">
+      <c r="D42" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.9151690301129402E-2</v>
       </c>
@@ -12853,7 +13067,7 @@
         <v>R-SH*Det_PEA*</v>
       </c>
       <c r="C43" s="33"/>
-      <c r="D43" s="60">
+      <c r="D43" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.100420210433235</v>
       </c>
@@ -12877,7 +13091,7 @@
         <v>R-SH*Det_SMF*</v>
       </c>
       <c r="C44" s="32"/>
-      <c r="D44" s="59">
+      <c r="D44" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13720876081054401</v>
       </c>
@@ -12901,7 +13115,7 @@
         <v>R-SH*Det_WOO*</v>
       </c>
       <c r="C45" s="33"/>
-      <c r="D45" s="60">
+      <c r="D45" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.6348966878171502E-2</v>
       </c>
@@ -12924,7 +13138,7 @@
         <v>270</v>
       </c>
       <c r="C46" s="32"/>
-      <c r="D46" s="59">
+      <c r="D46" s="56">
         <f>D45</f>
         <v>9.6348966878171502E-2</v>
       </c>
@@ -12941,7 +13155,7 @@
         <v>R-SH*Det_HET*</v>
       </c>
       <c r="C47" s="33"/>
-      <c r="D47" s="60">
+      <c r="D47" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.200825091733705</v>
       </c>
@@ -12978,7 +13192,7 @@
       <c r="C49" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D49" s="56">
         <f>D6</f>
         <v>0.41882471081785599</v>
       </c>
@@ -13004,7 +13218,7 @@
       <c r="C50" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="57">
         <f t="shared" ref="D50:D59" si="9">D7</f>
         <v>9.4570753703752605E-3</v>
       </c>
@@ -13030,7 +13244,7 @@
       <c r="C51" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D51" s="56">
         <f t="shared" si="9"/>
         <v>2.0352386019458902E-5</v>
       </c>
@@ -13056,7 +13270,7 @@
       <c r="C52" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52" s="57">
         <f t="shared" si="9"/>
         <v>4.8787825956958103E-2</v>
       </c>
@@ -13082,7 +13296,7 @@
       <c r="C53" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D53" s="59">
+      <c r="D53" s="56">
         <f>D10</f>
         <v>0.183575067201909</v>
       </c>
@@ -13108,7 +13322,7 @@
       <c r="C54" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="57">
         <f t="shared" si="9"/>
         <v>1.7227618659613701E-2</v>
       </c>
@@ -13134,7 +13348,7 @@
       <c r="C55" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D55" s="59">
+      <c r="D55" s="56">
         <f t="shared" si="9"/>
         <v>7.8978154557043795E-2</v>
       </c>
@@ -13160,7 +13374,7 @@
       <c r="C56" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D56" s="60">
+      <c r="D56" s="57">
         <f t="shared" si="9"/>
         <v>2.5069945114006401E-2</v>
       </c>
@@ -13186,7 +13400,7 @@
       <c r="C57" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D57" s="59">
+      <c r="D57" s="56">
         <f t="shared" si="9"/>
         <v>0.15828050607333199</v>
       </c>
@@ -13212,7 +13426,7 @@
       <c r="C58" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D58" s="60">
+      <c r="D58" s="57">
         <f t="shared" si="9"/>
         <v>0.14698298838932999</v>
       </c>
@@ -13238,7 +13452,7 @@
       <c r="C59" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="D59" s="59">
+      <c r="D59" s="56">
         <f t="shared" si="9"/>
         <v>3.7307426022765301E-2</v>
       </c>
@@ -13264,7 +13478,7 @@
       <c r="C60" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D60" s="60">
+      <c r="D60" s="57">
         <f>D17</f>
         <v>2.3488908827814098E-3</v>
       </c>
@@ -13302,7 +13516,7 @@
       <c r="C62" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="59">
+      <c r="D62" s="56">
         <f>D19</f>
         <v>0.31784775894057798</v>
       </c>
@@ -13328,7 +13542,7 @@
       <c r="C63" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D63" s="60">
+      <c r="D63" s="57">
         <f t="shared" ref="D63:D75" si="13">D20</f>
         <v>2.4658929270483999E-2</v>
       </c>
@@ -13354,7 +13568,7 @@
       <c r="C64" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D64" s="59">
+      <c r="D64" s="56">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -13380,7 +13594,7 @@
       <c r="C65" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D65" s="60">
+      <c r="D65" s="57">
         <f t="shared" si="13"/>
         <v>4.9050090196469498E-2</v>
       </c>
@@ -13406,7 +13620,7 @@
       <c r="C66" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D66" s="59">
+      <c r="D66" s="56">
         <f t="shared" si="13"/>
         <v>0.113204385544111</v>
       </c>
@@ -13432,7 +13646,7 @@
       <c r="C67" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D67" s="60">
+      <c r="D67" s="57">
         <f t="shared" si="13"/>
         <v>3.7537381358533697E-2</v>
       </c>
@@ -13458,7 +13672,7 @@
       <c r="C68" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D68" s="59">
+      <c r="D68" s="56">
         <f t="shared" si="13"/>
         <v>4.4978376179101401E-2</v>
       </c>
@@ -13483,7 +13697,7 @@
       <c r="C69" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D69" s="60">
+      <c r="D69" s="57">
         <f t="shared" si="13"/>
         <v>4.4978376179101401E-2</v>
       </c>
@@ -13502,7 +13716,7 @@
       <c r="C70" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D70" s="59">
+      <c r="D70" s="56">
         <f t="shared" si="13"/>
         <v>3.5032805879028399E-2</v>
       </c>
@@ -13528,7 +13742,7 @@
       <c r="C71" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D71" s="60">
+      <c r="D71" s="57">
         <f t="shared" si="13"/>
         <v>7.0893554801410602E-2</v>
       </c>
@@ -13554,7 +13768,7 @@
       <c r="C72" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D72" s="59">
+      <c r="D72" s="56">
         <f t="shared" si="13"/>
         <v>7.3631430941555998E-2</v>
       </c>
@@ -13580,7 +13794,7 @@
       <c r="C73" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D73" s="60">
+      <c r="D73" s="57">
         <f t="shared" si="13"/>
         <v>0.119017735973187</v>
       </c>
@@ -13605,7 +13819,7 @@
       <c r="C74" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="59">
+      <c r="D74" s="56">
         <f t="shared" si="13"/>
         <v>0.119017735973187</v>
       </c>
@@ -13624,7 +13838,7 @@
       <c r="C75" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="60">
+      <c r="D75" s="57">
         <f t="shared" si="13"/>
         <v>2.2872893208017001E-2</v>
       </c>
@@ -13662,7 +13876,7 @@
       <c r="C77" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D77" s="59">
+      <c r="D77" s="56">
         <f>D34</f>
         <v>0.47278411842156098</v>
       </c>
@@ -13673,7 +13887,7 @@
         <v>82</v>
       </c>
       <c r="H77" s="32" t="str">
-        <f t="shared" ref="H77:H81" si="16">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
+        <f t="shared" ref="H77:H80" si="16">"R-S*_"&amp;F77&amp;"_"&amp;G77&amp;"*"</f>
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
@@ -13688,7 +13902,7 @@
       <c r="C78" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D78" s="60">
+      <c r="D78" s="57">
         <f t="shared" ref="D78:D90" si="17">D35</f>
         <v>0</v>
       </c>
@@ -13714,7 +13928,7 @@
       <c r="C79" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D79" s="59">
+      <c r="D79" s="56">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -13740,7 +13954,7 @@
       <c r="C80" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D80" s="60">
+      <c r="D80" s="57">
         <f t="shared" si="17"/>
         <v>7.0854130591549894E-2</v>
       </c>
@@ -13766,7 +13980,7 @@
       <c r="C81" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D81" s="59">
+      <c r="D81" s="56">
         <f t="shared" si="17"/>
         <v>0.13766734761320301</v>
       </c>
@@ -13790,7 +14004,7 @@
         <v>R-S*_Det_ELC_N1,-R-SC*</v>
       </c>
       <c r="C82" s="33"/>
-      <c r="D82" s="60">
+      <c r="D82" s="57">
         <f t="shared" si="17"/>
         <v>4.5630448521753401E-2</v>
       </c>
@@ -13816,7 +14030,7 @@
       <c r="C83" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D83" s="59">
+      <c r="D83" s="56">
         <f t="shared" si="17"/>
         <v>4.92788432018662E-2</v>
       </c>
@@ -13841,7 +14055,7 @@
       <c r="C84" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D84" s="60">
+      <c r="D84" s="57">
         <f t="shared" si="17"/>
         <v>4.92788432018662E-2</v>
       </c>
@@ -13860,7 +14074,7 @@
       <c r="C85" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D85" s="59">
+      <c r="D85" s="56">
         <f t="shared" si="17"/>
         <v>3.9151690301129402E-2</v>
       </c>
@@ -13886,7 +14100,7 @@
       <c r="C86" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D86" s="60">
+      <c r="D86" s="57">
         <f t="shared" si="17"/>
         <v>0.100420210433235</v>
       </c>
@@ -13912,7 +14126,7 @@
       <c r="C87" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D87" s="59">
+      <c r="D87" s="56">
         <f t="shared" si="17"/>
         <v>0.13720876081054401</v>
       </c>
@@ -13938,7 +14152,7 @@
       <c r="C88" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D88" s="60">
+      <c r="D88" s="57">
         <f t="shared" si="17"/>
         <v>9.6348966878171502E-2</v>
       </c>
@@ -13963,7 +14177,7 @@
       <c r="C89" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="D89" s="59">
+      <c r="D89" s="56">
         <f t="shared" si="17"/>
         <v>9.6348966878171502E-2</v>
       </c>
@@ -13982,7 +14196,7 @@
       <c r="C90" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D90" s="60">
+      <c r="D90" s="57">
         <f t="shared" si="17"/>
         <v>0.200825091733705</v>
       </c>
@@ -14017,7 +14231,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
       <c r="C92" s="32"/>
-      <c r="D92" s="59">
+      <c r="D92" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.45255796882634303</v>
       </c>
@@ -14041,7 +14255,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
       <c r="C93" s="33"/>
-      <c r="D93" s="60">
+      <c r="D93" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.5051369863013695E-2</v>
       </c>
@@ -14065,7 +14279,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
       <c r="C94" s="32"/>
-      <c r="D94" s="59">
+      <c r="D94" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.0422374429223698E-2</v>
       </c>
@@ -14089,7 +14303,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
       <c r="C95" s="33"/>
-      <c r="D95" s="60">
+      <c r="D95" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13251764473730199</v>
       </c>
@@ -14113,7 +14327,7 @@
         <v>R-WH_Apt_ELC*</v>
       </c>
       <c r="C96" s="32"/>
-      <c r="D96" s="59">
+      <c r="D96" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.2549233288808403E-2</v>
       </c>
@@ -14137,7 +14351,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
       <c r="C97" s="33"/>
-      <c r="D97" s="60">
+      <c r="D97" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.112170033510623</v>
       </c>
@@ -14161,7 +14375,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
       <c r="C98" s="32"/>
-      <c r="D98" s="59">
+      <c r="D98" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.5045615347050301E-2</v>
       </c>
@@ -14185,7 +14399,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
       <c r="C99" s="33"/>
-      <c r="D99" s="60">
+      <c r="D99" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.0627195293291204E-2</v>
       </c>
@@ -14209,7 +14423,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
       <c r="C100" s="32"/>
-      <c r="D100" s="59">
+      <c r="D100" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.0196313138344295E-2</v>
       </c>
@@ -14233,7 +14447,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
       <c r="C101" s="33"/>
-      <c r="D101" s="60">
+      <c r="D101" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.10316120676872401</v>
       </c>
@@ -14257,7 +14471,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="C102" s="32"/>
-      <c r="D102" s="59">
+      <c r="D102" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.2373195740855901E-3</v>
       </c>
@@ -14281,7 +14495,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
       <c r="C103" s="32"/>
-      <c r="D103" s="59">
+      <c r="D103" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.143159113753899</v>
       </c>
@@ -14317,7 +14531,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
       <c r="C105" s="32"/>
-      <c r="D105" s="59">
+      <c r="D105" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.104359857576634</v>
       </c>
@@ -14341,7 +14555,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
       <c r="C106" s="33"/>
-      <c r="D106" s="60">
+      <c r="D106" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>8.8919330289193299E-2</v>
       </c>
@@ -14365,7 +14579,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
       <c r="C107" s="32"/>
-      <c r="D107" s="59">
+      <c r="D107" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.7212328767123297E-2</v>
       </c>
@@ -14389,7 +14603,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
       <c r="C108" s="33"/>
-      <c r="D108" s="60">
+      <c r="D108" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.100567418678171</v>
       </c>
@@ -14413,7 +14627,7 @@
         <v>R-WH_Att_ELC*</v>
       </c>
       <c r="C109" s="32"/>
-      <c r="D109" s="59">
+      <c r="D109" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.6402541005538801E-2</v>
       </c>
@@ -14437,7 +14651,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
       <c r="C110" s="33"/>
-      <c r="D110" s="60">
+      <c r="D110" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.9705277866978901E-2</v>
       </c>
@@ -14461,7 +14675,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
       <c r="C111" s="32"/>
-      <c r="D111" s="59">
+      <c r="D111" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.8388567987470399E-2</v>
       </c>
@@ -14485,7 +14699,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
       <c r="C112" s="33"/>
-      <c r="D112" s="60">
+      <c r="D112" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.8944308925102102E-2</v>
       </c>
@@ -14509,7 +14723,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
       <c r="C113" s="32"/>
-      <c r="D113" s="59">
+      <c r="D113" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.9040638752358897E-2</v>
       </c>
@@ -14533,7 +14747,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
       <c r="C114" s="33"/>
-      <c r="D114" s="60">
+      <c r="D114" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.8778139627583307E-2</v>
       </c>
@@ -14557,7 +14771,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="C115" s="32"/>
-      <c r="D115" s="59">
+      <c r="D115" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.8794584261943399E-3</v>
       </c>
@@ -14581,7 +14795,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
       <c r="C116" s="33"/>
-      <c r="D116" s="60">
+      <c r="D116" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.220198275095671</v>
       </c>
@@ -14617,7 +14831,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
       <c r="C118" s="32"/>
-      <c r="D118" s="59">
+      <c r="D118" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.2518315131287606E-2</v>
       </c>
@@ -14641,7 +14855,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
       <c r="C119" s="33"/>
-      <c r="D119" s="60">
+      <c r="D119" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.2328767123287703E-2</v>
       </c>
@@ -14665,7 +14879,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
       <c r="C120" s="32"/>
-      <c r="D120" s="59">
+      <c r="D120" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.7947345890410997E-2</v>
       </c>
@@ -14689,7 +14903,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
       <c r="C121" s="33"/>
-      <c r="D121" s="60">
+      <c r="D121" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>6.8787509731139299E-2</v>
       </c>
@@ -14713,7 +14927,7 @@
         <v>R-WH_Det_ELC*</v>
       </c>
       <c r="C122" s="32"/>
-      <c r="D122" s="59">
+      <c r="D122" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.65144570452133E-2</v>
       </c>
@@ -14737,7 +14951,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
       <c r="C123" s="33"/>
-      <c r="D123" s="60">
+      <c r="D123" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.3657823067608502E-2</v>
       </c>
@@ -14761,7 +14975,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
       <c r="C124" s="32"/>
-      <c r="D124" s="59">
+      <c r="D124" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H124,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.6985228618266699E-2</v>
       </c>
@@ -14785,7 +14999,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
       <c r="C125" s="33"/>
-      <c r="D125" s="60">
+      <c r="D125" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H125,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.36315789189348E-2</v>
       </c>
@@ -14809,7 +15023,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
       <c r="C126" s="32"/>
-      <c r="D126" s="59">
+      <c r="D126" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H126,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.4737576657325098E-2</v>
       </c>
@@ -14833,7 +15047,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
       <c r="C127" s="33"/>
-      <c r="D127" s="60">
+      <c r="D127" s="57">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H127,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.7798878941989297E-2</v>
       </c>
@@ -14857,7 +15071,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="C128" s="32"/>
-      <c r="D128" s="59">
+      <c r="D128" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H128,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>5.1032329364559198E-3</v>
       </c>
@@ -14881,7 +15095,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
       <c r="C129" s="33"/>
-      <c r="D129" s="61">
+      <c r="D129" s="58">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H129,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.145588074596397</v>
       </c>
@@ -14917,7 +15131,7 @@
         <v>R-SC_Apt_ELC_N1</v>
       </c>
       <c r="C131" s="32"/>
-      <c r="D131" s="59">
+      <c r="D131" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.183575067201909</v>
       </c>
@@ -14941,7 +15155,7 @@
         <v>R-SC_Att_ELC_N1</v>
       </c>
       <c r="C132" s="33"/>
-      <c r="D132" s="60">
+      <c r="D132" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H132,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113204385544111</v>
       </c>
@@ -14965,7 +15179,7 @@
         <v>R-SC_Det_ELC_N1</v>
       </c>
       <c r="C133" s="32"/>
-      <c r="D133" s="59">
+      <c r="D133" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13766734761320301</v>
       </c>
@@ -14986,7 +15200,7 @@
       </c>
       <c r="B134" s="30"/>
       <c r="C134" s="31"/>
-      <c r="D134" s="62"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="30"/>
       <c r="F134" s="30"/>
       <c r="G134" s="30"/>
@@ -15004,7 +15218,7 @@
         <f>"RSDSC_"&amp;F135</f>
         <v>RSDSC_Apt</v>
       </c>
-      <c r="D135" s="59">
+      <c r="D135" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.183575067201909</v>
       </c>
@@ -15031,7 +15245,7 @@
         <f>"RSDSC_"&amp;F136</f>
         <v>RSDSC_Att</v>
       </c>
-      <c r="D136" s="60">
+      <c r="D136" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H136,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113204385544111</v>
       </c>
@@ -15058,7 +15272,7 @@
         <f>"RSDSC_"&amp;F137</f>
         <v>RSDSC_Det</v>
       </c>
-      <c r="D137" s="59">
+      <c r="D137" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H137,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13766734761320301</v>
       </c>
@@ -15079,7 +15293,7 @@
       </c>
       <c r="B138" s="30"/>
       <c r="C138" s="31"/>
-      <c r="D138" s="62"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="30"/>
       <c r="F138" s="30"/>
       <c r="G138" s="30"/>
@@ -15096,7 +15310,7 @@
       <c r="C139" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D139" s="59">
+      <c r="D139" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H139,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.183575067201909</v>
       </c>
@@ -15122,7 +15336,7 @@
       <c r="C140" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="D140" s="60">
+      <c r="D140" s="57">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H140,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113204385544111</v>
       </c>
@@ -15148,7 +15362,7 @@
       <c r="C141" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="D141" s="59">
+      <c r="D141" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H141,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13766734761320301</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57CC1F5-708A-41B5-A73C-394C6B27011D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B26B9A-E78C-4C3F-991D-A491F0B27905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{371D79B6-28D1-48B3-8874-3F3F5715CCCB}"/>
+    <workbookView xWindow="5985" yWindow="2595" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{371D79B6-28D1-48B3-8874-3F3F5715CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -561,7 +561,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="305">
   <si>
     <t>IE</t>
   </si>
@@ -1982,6 +1982,10 @@
     <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1990,10 +1994,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2465,62 +2465,62 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
       <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
       <sheetData sheetId="39" refreshError="1"/>
       <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2535,93 +2535,15 @@
       <sheetName val="TechSelection"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="C3" t="str">
             <v>IE</v>
           </cell>
-          <cell r="E3" t="str">
-            <v>IE-CW</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>IE-D</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>IE-KE</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>IE-KK</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>IE-LS</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>IE-LD</v>
-          </cell>
-          <cell r="K3" t="str">
-            <v>IE-LH</v>
-          </cell>
-          <cell r="L3" t="str">
-            <v>IE-MH</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>IE-OY</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>IE-WH</v>
-          </cell>
-          <cell r="O3" t="str">
-            <v>IE-WX</v>
-          </cell>
-          <cell r="P3" t="str">
-            <v>IE-WW</v>
-          </cell>
-          <cell r="Q3" t="str">
-            <v>IE-CE</v>
-          </cell>
-          <cell r="R3" t="str">
-            <v>IE-CO</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>IE-KY</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v>IE-LK</v>
-          </cell>
-          <cell r="U3" t="str">
-            <v>IE-TA</v>
-          </cell>
-          <cell r="V3" t="str">
-            <v>IE-WD</v>
-          </cell>
-          <cell r="W3" t="str">
-            <v>IE-G</v>
-          </cell>
-          <cell r="X3" t="str">
-            <v>IE-LM</v>
-          </cell>
-          <cell r="Y3" t="str">
-            <v>IE-MO</v>
-          </cell>
-          <cell r="Z3" t="str">
-            <v>IE-RN</v>
-          </cell>
-          <cell r="AA3" t="str">
-            <v>IE-SO</v>
-          </cell>
-          <cell r="AB3" t="str">
-            <v>IE-CN</v>
-          </cell>
-          <cell r="AC3" t="str">
-            <v>IE-DL</v>
-          </cell>
-          <cell r="AD3" t="str">
-            <v>IE-MN</v>
-          </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3389,12 +3311,12 @@
       <c r="Z15" s="40"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="62" t="s">
         <v>277</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="43"/>
@@ -3478,11 +3400,11 @@
       <c r="A19" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="48"/>
       <c r="F19" s="48"/>
       <c r="G19" s="49"/>
@@ -3510,11 +3432,11 @@
       <c r="A20" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
       <c r="G20" s="49"/>
@@ -3602,11 +3524,11 @@
       <c r="A23" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
@@ -3632,11 +3554,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -3662,11 +3584,11 @@
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
@@ -3694,11 +3616,11 @@
       <c r="A26" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="40"/>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -3724,11 +3646,11 @@
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
@@ -3816,11 +3738,11 @@
       <c r="A30" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="63" t="s">
         <v>285</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
       <c r="G30" s="40"/>
@@ -3848,11 +3770,11 @@
       <c r="A31" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="52"/>
       <c r="F31" s="52"/>
       <c r="G31" s="40"/>
@@ -10042,16 +9964,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="63">
+      <c r="A6" s="60">
         <v>44726</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="59" t="s">
         <v>304</v>
       </c>
     </row>
@@ -10834,10 +10756,12 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AH7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="B3" sqref="B3:AH5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10910,109 +10834,83 @@
         <f>[2]Regions!C3</f>
         <v>IE</v>
       </c>
-      <c r="I4" s="6" t="str">
-        <f>[2]Regions!E3</f>
-        <v>IE-CW</v>
-      </c>
-      <c r="J4" s="6" t="str">
-        <f>[2]Regions!F3</f>
-        <v>IE-D</v>
-      </c>
-      <c r="K4" s="6" t="str">
-        <f>[2]Regions!G3</f>
-        <v>IE-KE</v>
-      </c>
-      <c r="L4" s="6" t="str">
-        <f>[2]Regions!H3</f>
-        <v>IE-KK</v>
-      </c>
-      <c r="M4" s="6" t="str">
-        <f>[2]Regions!I3</f>
-        <v>IE-LS</v>
-      </c>
-      <c r="N4" s="6" t="str">
-        <f>[2]Regions!J3</f>
-        <v>IE-LD</v>
-      </c>
-      <c r="O4" s="6" t="str">
-        <f>[2]Regions!K3</f>
-        <v>IE-LH</v>
-      </c>
-      <c r="P4" s="6" t="str">
-        <f>[2]Regions!L3</f>
-        <v>IE-MH</v>
-      </c>
-      <c r="Q4" s="6" t="str">
-        <f>[2]Regions!M3</f>
-        <v>IE-OY</v>
-      </c>
-      <c r="R4" s="6" t="str">
-        <f>[2]Regions!N3</f>
-        <v>IE-WH</v>
-      </c>
-      <c r="S4" s="6" t="str">
-        <f>[2]Regions!O3</f>
-        <v>IE-WX</v>
-      </c>
-      <c r="T4" s="6" t="str">
-        <f>[2]Regions!P3</f>
-        <v>IE-WW</v>
-      </c>
-      <c r="U4" s="6" t="str">
-        <f>[2]Regions!Q3</f>
-        <v>IE-CE</v>
-      </c>
-      <c r="V4" s="6" t="str">
-        <f>[2]Regions!R3</f>
-        <v>IE-CO</v>
-      </c>
-      <c r="W4" s="6" t="str">
-        <f>[2]Regions!S3</f>
-        <v>IE-KY</v>
-      </c>
-      <c r="X4" s="6" t="str">
-        <f>[2]Regions!T3</f>
-        <v>IE-LK</v>
-      </c>
-      <c r="Y4" s="6" t="str">
-        <f>[2]Regions!U3</f>
-        <v>IE-TA</v>
-      </c>
-      <c r="Z4" s="6" t="str">
-        <f>[2]Regions!V3</f>
-        <v>IE-WD</v>
-      </c>
-      <c r="AA4" s="6" t="str">
-        <f>[2]Regions!W3</f>
-        <v>IE-G</v>
-      </c>
-      <c r="AB4" s="6" t="str">
-        <f>[2]Regions!X3</f>
-        <v>IE-LM</v>
-      </c>
-      <c r="AC4" s="6" t="str">
-        <f>[2]Regions!Y3</f>
-        <v>IE-MO</v>
-      </c>
-      <c r="AD4" s="6" t="str">
-        <f>[2]Regions!Z3</f>
-        <v>IE-RN</v>
-      </c>
-      <c r="AE4" s="6" t="str">
-        <f>[2]Regions!AA3</f>
-        <v>IE-SO</v>
-      </c>
-      <c r="AF4" s="6" t="str">
-        <f>[2]Regions!AB3</f>
-        <v>IE-CN</v>
-      </c>
-      <c r="AG4" s="6" t="str">
-        <f>[2]Regions!AC3</f>
-        <v>IE-DL</v>
-      </c>
-      <c r="AH4" s="6" t="str">
-        <f>[2]Regions!AD3</f>
-        <v>IE-MN</v>
+      <c r="I4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.2">
@@ -11162,7 +11060,7 @@
   </sheetPr>
   <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
@@ -15436,7 +15334,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="1">
+    <sheetView topLeftCell="A3" workbookViewId="1">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B26B9A-E78C-4C3F-991D-A491F0B27905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A959307-0502-4A74-887A-90EA90FA5D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2595" windowWidth="21600" windowHeight="11385" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="6330" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{371D79B6-28D1-48B3-8874-3F3F5715CCCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -2874,7 +2873,6 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5733,7 +5731,6 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8867,7 +8864,6 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8964,7 +8960,6 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9143,7 +9138,6 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9242,7 +9236,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9424,7 +9417,6 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9521,7 +9513,6 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9702,7 +9693,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9801,7 +9791,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9902,7 +9891,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9991,7 +9979,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10757,10 +10744,7 @@
   <dimension ref="B3:AH7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B3" sqref="B3:AH5"/>
+      <selection activeCell="H4" sqref="H4:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11063,7 +11047,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11917,7 +11900,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15334,9 +15316,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
-    <sheetView topLeftCell="A3" workbookViewId="1">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17258,7 +17237,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18916,7 +18894,6 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A959307-0502-4A74-887A-90EA90FA5D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEBEEC-0EAF-4211-9AD5-0F5AC502020F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -34,7 +34,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -2525,29 +2524,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Regions"/>
-      <sheetName val="TechSelection"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>IE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10743,8 +10719,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:AH5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10815,7 +10791,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5" t="str">
-        <f>[2]Regions!C3</f>
+        <f>Regions!C3</f>
         <v>IE</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -11897,8 +11873,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12543,8 +12519,8 @@
         <v>83</v>
       </c>
       <c r="H23" s="31" t="str">
-        <f>"R-SH*"&amp;F23&amp;"_"&amp;G23&amp;"*X1"</f>
-        <v>R-SH*Att_ELC*X1</v>
+        <f>"R-SH_"&amp;F23&amp;"_"&amp;G23&amp;"_X1"</f>
+        <v>R-SH_Att_ELC_X1</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>78</v>
@@ -12577,8 +12553,8 @@
         <v>83</v>
       </c>
       <c r="H24" s="32" t="str">
-        <f>"R-SH*"&amp;F23&amp;"_"&amp;G23&amp;"*X0"</f>
-        <v>R-SH*Att_ELC*X0</v>
+        <f>"R-SH_"&amp;F23&amp;"_"&amp;G23&amp;"_X0"</f>
+        <v>R-SH_Att_ELC_X0</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="32"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCEBEEC-0EAF-4211-9AD5-0F5AC502020F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5D3BD3-B114-4D56-8570-A7630AE15376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11873,8 +11873,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12139,8 +12139,8 @@
         <v>244</v>
       </c>
       <c r="B11" s="32" t="str">
-        <f>"R-S*_"&amp;F11&amp;"_"&amp;G11&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Apt_ELC_N1,-R-SC*</v>
+        <f>"R-S*_"&amp;F11&amp;"_"&amp;G11&amp;"_N1"</f>
+        <v>R-S*_Apt_ELC_N1</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="56">
@@ -12538,8 +12538,8 @@
         <v>244</v>
       </c>
       <c r="B24" s="32" t="str">
-        <f>"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Att_ELC_N1,-R-SC*</v>
+        <f>"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"_N1"&amp;""</f>
+        <v>R-S*_Att_ELC_N1</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="56">
@@ -12874,8 +12874,8 @@
         <v>244</v>
       </c>
       <c r="B39" s="32" t="str">
-        <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Det_ELC_N1,-R-SC*</v>
+        <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"_N1"</f>
+        <v>R-S*_Det_ELC_N1</v>
       </c>
       <c r="C39" s="32"/>
       <c r="D39" s="56">
@@ -13215,8 +13215,8 @@
         <v>198</v>
       </c>
       <c r="B54" s="32" t="str">
-        <f>"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Apt_ELC_N1,-R-SC*</v>
+        <f>"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"_N1"</f>
+        <v>R-S*_Apt_ELC_N1</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>296</v>
@@ -13539,8 +13539,8 @@
         <v>198</v>
       </c>
       <c r="B67" s="32" t="str">
-        <f>"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Att_ELC_N1,-R-SC*</v>
+        <f>"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"_N1"</f>
+        <v>R-S*_Att_ELC_N1</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>298</v>
@@ -13899,8 +13899,8 @@
         <v>198</v>
       </c>
       <c r="B82" s="32" t="str">
-        <f>"R-S*_"&amp;F82&amp;"_"&amp;G82&amp;"_N1"&amp;",-R-SC*"</f>
-        <v>R-S*_Det_ELC_N1,-R-SC*</v>
+        <f>"R-S*_"&amp;F82&amp;"_"&amp;G82&amp;"_N1"</f>
+        <v>R-S*_Det_ELC_N1</v>
       </c>
       <c r="C82" s="32"/>
       <c r="D82" s="56">

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5D3BD3-B114-4D56-8570-A7630AE15376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA90090-913C-4C31-9DA2-368A1F6798CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="305">
   <si>
     <t>IE</t>
   </si>
@@ -11873,8 +11873,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11967,7 +11967,9 @@
         <f>"R-SH*"&amp;F6&amp;"_"&amp;G6&amp;"*"</f>
         <v>R-SH*Apt_COA*</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D6" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.41882471081785599</v>
@@ -12002,7 +12004,9 @@
         <f>"R-SH*"&amp;F7&amp;"_"&amp;G7&amp;"*"</f>
         <v>R-SH*Apt_BDL*</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D7" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.4570753703752605E-3</v>
@@ -12037,7 +12041,9 @@
         <f>"R-SH*"&amp;F8&amp;"_"&amp;G8&amp;"*"</f>
         <v>R-SH*Apt_ETH*</v>
       </c>
-      <c r="C8" s="31"/>
+      <c r="C8" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D8" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.0352386019458902E-5</v>
@@ -12072,7 +12078,9 @@
         <f>"R-SH*"&amp;F9&amp;"_"&amp;G9&amp;"*"</f>
         <v>R-SH*Apt_LPG*</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D9" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.8787825956958103E-2</v>
@@ -12107,7 +12115,9 @@
         <f>"R-*_"&amp;F10&amp;"*"&amp;"HPN*"</f>
         <v>R-*_Apt*HPN*</v>
       </c>
-      <c r="C10" s="31"/>
+      <c r="C10" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D10" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.183575067201909</v>
@@ -12142,7 +12152,9 @@
         <f>"R-S*_"&amp;F11&amp;"_"&amp;G11&amp;"_N1"</f>
         <v>R-S*_Apt_ELC_N1</v>
       </c>
-      <c r="C11" s="32"/>
+      <c r="C11" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D11" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>1.7227618659613701E-2</v>
@@ -12177,7 +12189,9 @@
         <f t="shared" ref="B12:B17" si="1">"R-SH*"&amp;F12&amp;"_"&amp;G12&amp;"*"</f>
         <v>R-SH*Apt_KER*</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D12" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.8978154557043795E-2</v>
@@ -12212,7 +12226,9 @@
         <f t="shared" si="1"/>
         <v>R-SH*Apt_GAS*</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D13" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.5069945114006401E-2</v>
@@ -12236,7 +12252,9 @@
         <f t="shared" si="1"/>
         <v>R-SH*Apt_PEA*</v>
       </c>
-      <c r="C14" s="31"/>
+      <c r="C14" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D14" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.15828050607333199</v>
@@ -12260,7 +12278,9 @@
         <f t="shared" si="1"/>
         <v>R-SH*Apt_SMF*</v>
       </c>
-      <c r="C15" s="32"/>
+      <c r="C15" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D15" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.14698298838932999</v>
@@ -12287,7 +12307,9 @@
         <f t="shared" si="1"/>
         <v>R-SH*Apt_WOO*</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D16" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.7307426022765301E-2</v>
@@ -12320,7 +12342,9 @@
         <f t="shared" si="1"/>
         <v>R-SH*Apt_HET*</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="32" t="s">
+        <v>296</v>
+      </c>
       <c r="D17" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.3488908827814098E-3</v>
@@ -12371,7 +12395,9 @@
         <f>"R-SH*"&amp;F19&amp;"_"&amp;G19&amp;"*"</f>
         <v>R-SH*Att_COA*</v>
       </c>
-      <c r="C19" s="31"/>
+      <c r="C19" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="D19" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.31784775894057798</v>
@@ -12405,7 +12431,9 @@
         <f>"R-SH*"&amp;F20&amp;"_"&amp;G20&amp;"*"</f>
         <v>R-SH*Att_BDL*</v>
       </c>
-      <c r="C20" s="32"/>
+      <c r="C20" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="D20" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.4658929270483999E-2</v>
@@ -12439,7 +12467,9 @@
         <f>"R-SH*"&amp;F21&amp;"_"&amp;G21&amp;"*"</f>
         <v>R-SH*Att_ETH*</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="D21" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
@@ -12473,7 +12503,9 @@
         <f>"R-SH*"&amp;F22&amp;"_"&amp;G22&amp;"*"</f>
         <v>R-SH*Att_LPG*</v>
       </c>
-      <c r="C22" s="32"/>
+      <c r="C22" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="D22" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.9050090196469498E-2</v>
@@ -12507,7 +12539,9 @@
         <f>"R-*_"&amp;F23&amp;"*"&amp;"HPN*"</f>
         <v>R-*_Att*HPN*</v>
       </c>
-      <c r="C23" s="31"/>
+      <c r="C23" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="D23" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113204385544111</v>
@@ -12541,7 +12575,9 @@
         <f>"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"_N1"&amp;""</f>
         <v>R-S*_Att_ELC_N1</v>
       </c>
-      <c r="C24" s="32"/>
+      <c r="C24" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="D24" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.7537381358533697E-2</v>
@@ -12568,7 +12604,9 @@
         <f t="shared" ref="B25:B32" si="3">"R-SH*"&amp;F25&amp;"_"&amp;G25&amp;"*"</f>
         <v>R-SH*Att_KER*</v>
       </c>
-      <c r="C25" s="31"/>
+      <c r="C25" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="D25" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.4978376179101401E-2</v>
@@ -12591,7 +12629,9 @@
       <c r="B26" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="32"/>
+      <c r="C26" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="D26" s="56">
         <f>D25</f>
         <v>4.4978376179101401E-2</v>
@@ -12608,7 +12648,9 @@
         <f t="shared" si="3"/>
         <v>R-SH*Att_GAS*</v>
       </c>
-      <c r="C27" s="31"/>
+      <c r="C27" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="D27" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.5032805879028399E-2</v>
@@ -12632,7 +12674,9 @@
         <f t="shared" si="3"/>
         <v>R-SH*Att_PEA*</v>
       </c>
-      <c r="C28" s="32"/>
+      <c r="C28" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="D28" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.0893554801410602E-2</v>
@@ -12656,7 +12700,9 @@
         <f t="shared" si="3"/>
         <v>R-SH*Att_SMF*</v>
       </c>
-      <c r="C29" s="31"/>
+      <c r="C29" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.3631430941555998E-2</v>
@@ -12680,7 +12726,9 @@
         <f>"R-SH*"&amp;F30&amp;"_"&amp;G30&amp;"*"</f>
         <v>R-SH*Att_WOO*</v>
       </c>
-      <c r="C30" s="32"/>
+      <c r="C30" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="D30" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.119017735973187</v>
@@ -12703,7 +12751,9 @@
       <c r="B31" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="D31" s="55">
         <f>D30</f>
         <v>0.119017735973187</v>
@@ -12720,7 +12770,9 @@
         <f t="shared" si="3"/>
         <v>R-SH*Att_HET*</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>2.2872893208017001E-2</v>
@@ -12757,7 +12809,9 @@
         <f>"R-SH*"&amp;F34&amp;"_"&amp;G34&amp;"*"</f>
         <v>R-SH*Det_COA*</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D34" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.47278411842156098</v>
@@ -12781,7 +12835,9 @@
         <f>"R-SH*"&amp;F35&amp;"_"&amp;G35&amp;"*"</f>
         <v>R-SH*Det_BDL*</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D35" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
@@ -12805,7 +12861,9 @@
         <f>"R-SH*"&amp;F36&amp;"_"&amp;G36&amp;"*"</f>
         <v>R-SH*Det_ETH*</v>
       </c>
-      <c r="C36" s="31"/>
+      <c r="C36" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D36" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0</v>
@@ -12829,7 +12887,9 @@
         <f>"R-SH*"&amp;F37&amp;"_"&amp;G37&amp;"*"</f>
         <v>R-SH*Det_LPG*</v>
       </c>
-      <c r="C37" s="32"/>
+      <c r="C37" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D37" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>7.0854130591549894E-2</v>
@@ -12853,7 +12913,9 @@
         <f>"R-*_"&amp;F38&amp;"*"&amp;"HPN*"</f>
         <v>R-*_Det*HPN*</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13766734761320301</v>
@@ -12877,7 +12939,9 @@
         <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"_N1"</f>
         <v>R-S*_Det_ELC_N1</v>
       </c>
-      <c r="C39" s="32"/>
+      <c r="C39" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D39" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.5630448521753401E-2</v>
@@ -12901,7 +12965,9 @@
         <f t="shared" ref="B40:B47" si="6">"R-SH*"&amp;F40&amp;"_"&amp;G40&amp;"*"</f>
         <v>R-SH*Det_KER*</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D40" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>4.92788432018662E-2</v>
@@ -12924,7 +12990,9 @@
       <c r="B41" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="C41" s="32"/>
+      <c r="C41" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D41" s="56">
         <f>D40</f>
         <v>4.92788432018662E-2</v>
@@ -12941,7 +13009,9 @@
         <f t="shared" si="6"/>
         <v>R-SH*Det_GAS*</v>
       </c>
-      <c r="C42" s="31"/>
+      <c r="C42" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D42" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>3.9151690301129402E-2</v>
@@ -12965,7 +13035,9 @@
         <f t="shared" si="6"/>
         <v>R-SH*Det_PEA*</v>
       </c>
-      <c r="C43" s="32"/>
+      <c r="C43" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D43" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.100420210433235</v>
@@ -12989,7 +13061,9 @@
         <f t="shared" si="6"/>
         <v>R-SH*Det_SMF*</v>
       </c>
-      <c r="C44" s="31"/>
+      <c r="C44" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D44" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13720876081054401</v>
@@ -13013,7 +13087,9 @@
         <f t="shared" si="6"/>
         <v>R-SH*Det_WOO*</v>
       </c>
-      <c r="C45" s="32"/>
+      <c r="C45" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D45" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>9.6348966878171502E-2</v>
@@ -13036,7 +13112,9 @@
       <c r="B46" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="C46" s="31"/>
+      <c r="C46" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D46" s="55">
         <f>D45</f>
         <v>9.6348966878171502E-2</v>
@@ -13053,7 +13131,9 @@
         <f t="shared" si="6"/>
         <v>R-SH*Det_HET*</v>
       </c>
-      <c r="C47" s="32"/>
+      <c r="C47" s="32" t="s">
+        <v>300</v>
+      </c>
       <c r="D47" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.200825091733705</v>
@@ -15029,7 +15109,10 @@
         <f>"R-SC_"&amp;F131&amp;"_"&amp;G131&amp;"_N1"</f>
         <v>R-SC_Apt_ELC_N1</v>
       </c>
-      <c r="C131" s="31"/>
+      <c r="C131" s="31" t="str">
+        <f>"RSDSC_"&amp;F131</f>
+        <v>RSDSC_Apt</v>
+      </c>
       <c r="D131" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.183575067201909</v>
@@ -15053,7 +15136,10 @@
         <f>"R-SC_"&amp;F132&amp;"_"&amp;G132&amp;"_N1"</f>
         <v>R-SC_Att_ELC_N1</v>
       </c>
-      <c r="C132" s="32"/>
+      <c r="C132" s="32" t="str">
+        <f>"RSDSC_"&amp;F132</f>
+        <v>RSDSC_Att</v>
+      </c>
       <c r="D132" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H132,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.113204385544111</v>
@@ -15077,7 +15163,10 @@
         <f>"R-SC_"&amp;F133&amp;"_"&amp;G133&amp;"_N1"</f>
         <v>R-SC_Det_ELC_N1</v>
       </c>
-      <c r="C133" s="31"/>
+      <c r="C133" s="31" t="str">
+        <f>"RSDSC_"&amp;F133</f>
+        <v>RSDSC_Det</v>
+      </c>
       <c r="D133" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
         <v>0.13766734761320301</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D2A61B-7574-49B0-B845-35E38C0093A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15A9C0-107C-4B94-83D9-6446F0FB244A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16961,8 +16961,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17200,8 +17200,8 @@
         <v>244</v>
       </c>
       <c r="B10" s="31" t="str">
-        <f>"R-*_"&amp;F10&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Apt*HPN*</v>
+        <f>"R-S*_"&amp;F10&amp;"*"&amp;"HPN*"</f>
+        <v>R-S*_Apt*HPN*</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>296</v>
@@ -17237,8 +17237,8 @@
         <v>244</v>
       </c>
       <c r="B11" s="32" t="str">
-        <f>"R-S*_"&amp;F11&amp;"_"&amp;G11&amp;"_N1"</f>
-        <v>R-S*_Apt_ELC_N1</v>
+        <f>"R-S*_"&amp;F11&amp;"_"&amp;G11&amp;"_N1"&amp;",-R-SC*"</f>
+        <v>R-S*_Apt_ELC_N1,-R-SC*</v>
       </c>
       <c r="C11" s="32" t="s">
         <v>296</v>
@@ -17624,8 +17624,8 @@
         <v>244</v>
       </c>
       <c r="B23" s="31" t="str">
-        <f>"R-*_"&amp;F23&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Att*HPN*</v>
+        <f>"R-S*_"&amp;F23&amp;"*"&amp;"HPN*"</f>
+        <v>R-S*_Att*HPN*</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>298</v>
@@ -17660,8 +17660,8 @@
         <v>244</v>
       </c>
       <c r="B24" s="32" t="str">
-        <f>"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"_N1"&amp;""</f>
-        <v>R-S*_Att_ELC_N1</v>
+        <f>"R-S*_"&amp;F24&amp;"_"&amp;G24&amp;"_N1"&amp;",-R-SC*"</f>
+        <v>R-S*_Att_ELC_N1,-R-SC*</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>298</v>
@@ -17998,8 +17998,8 @@
         <v>244</v>
       </c>
       <c r="B38" s="31" t="str">
-        <f>"R-*_"&amp;F38&amp;"*"&amp;"HPN*"</f>
-        <v>R-*_Det*HPN*</v>
+        <f>"R-S*_"&amp;F38&amp;"*"&amp;"HPN*"</f>
+        <v>R-S*_Det*HPN*</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>300</v>
@@ -18024,8 +18024,8 @@
         <v>244</v>
       </c>
       <c r="B39" s="32" t="str">
-        <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"_N1"</f>
-        <v>R-S*_Det_ELC_N1</v>
+        <f>"R-S*_"&amp;F39&amp;"_"&amp;G39&amp;"_N1"&amp;",-R-SC*"</f>
+        <v>R-S*_Det_ELC_N1,-R-SC*</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>300</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15A9C0-107C-4B94-83D9-6446F0FB244A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473C6000-386E-4F93-B15C-9438BDBD0C00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16961,8 +16961,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18383,8 +18383,8 @@
         <v>198</v>
       </c>
       <c r="B54" s="32" t="str">
-        <f>"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"_N1"</f>
-        <v>R-S*_Apt_ELC_N1</v>
+        <f>"R-S*_"&amp;F54&amp;"_"&amp;G54&amp;"_N1"&amp;",-R-SC*"</f>
+        <v>R-S*_Apt_ELC_N1,-R-SC*</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>296</v>
@@ -18707,8 +18707,8 @@
         <v>198</v>
       </c>
       <c r="B67" s="32" t="str">
-        <f>"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"_N1"</f>
-        <v>R-S*_Att_ELC_N1</v>
+        <f>"R-S*_"&amp;F67&amp;"_"&amp;G67&amp;"_N1"&amp;",-R-SC*"</f>
+        <v>R-S*_Att_ELC_N1,-R-SC*</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>298</v>
@@ -19067,8 +19067,8 @@
         <v>198</v>
       </c>
       <c r="B82" s="32" t="str">
-        <f>"R-S*_"&amp;F82&amp;"_"&amp;G82&amp;"_N1"</f>
-        <v>R-S*_Det_ELC_N1</v>
+        <f>"R-S*_"&amp;F82&amp;"_"&amp;G82&amp;"_N1"&amp;",-R-SC*"</f>
+        <v>R-S*_Det_ELC_N1,-R-SC*</v>
       </c>
       <c r="C82" s="31" t="s">
         <v>300</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\times-ireland-model-ILED\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF60D87-E273-42CE-AB0A-4F4370453A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3131966B-E8E1-45C8-9F02-CC7919EC9D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25260" yWindow="2772" windowWidth="14400" windowHeight="7356" tabRatio="819" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4121C59A-C3BC-4714-9E31-31608A84AC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308F661-8C72-417A-8165-567B850378B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="345" windowWidth="21600" windowHeight="11295" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="302">
   <si>
     <t>IE</t>
   </si>
@@ -11736,9 +11736,7 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13786,7 +13784,9 @@
         <f>"R-S*_"&amp;F82&amp;"_"&amp;G82&amp;"_N1"&amp;",-R-SC*"</f>
         <v>R-S*_Det_ELC_N1,-R-SC*</v>
       </c>
-      <c r="C82" s="31"/>
+      <c r="C82" s="31" t="s">
+        <v>300</v>
+      </c>
       <c r="D82" s="54">
         <f t="shared" si="17"/>
         <v>4.5630448521753401E-2</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcf850925e8c42cd/Desktop/times-ireland-model/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308F661-8C72-417A-8165-567B850378B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22861" documentId="13_ncr:1_{0308F661-8C72-417A-8165-567B850378B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4022A17-C8F4-4FE9-94AE-17BB4F791827}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -2322,7 +2322,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2833,21 +2833,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="39" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="39" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="39" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="39" customWidth="1"/>
+    <col min="1" max="4" width="21.6640625" style="39" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="39" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="39" customWidth="1"/>
     <col min="13" max="13" width="10" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="39"/>
+    <col min="14" max="14" width="11.44140625" style="39" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="39" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -2875,7 +2875,7 @@
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2903,7 +2903,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -2931,7 +2931,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -2959,7 +2959,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2987,7 +2987,7 @@
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -3015,7 +3015,7 @@
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3043,7 +3043,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -3071,7 +3071,7 @@
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3099,7 +3099,7 @@
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -3127,7 +3127,7 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -3155,7 +3155,7 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -3183,7 +3183,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -3211,7 +3211,7 @@
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -3239,7 +3239,7 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3267,7 +3267,7 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>277</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -3325,7 +3325,7 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -3353,7 +3353,7 @@
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>278</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>279</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>280</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -3477,7 +3477,7 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>281</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="57" t="s">
         <v>291</v>
@@ -3539,7 +3539,7 @@
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="57" t="s">
         <v>292</v>
@@ -3569,7 +3569,7 @@
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>282</v>
       </c>
@@ -3601,7 +3601,7 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="57" t="s">
         <v>292</v>
@@ -3631,7 +3631,7 @@
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -3659,7 +3659,7 @@
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45" t="s">
         <v>283</v>
       </c>
@@ -3691,7 +3691,7 @@
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>284</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>286</v>
       </c>
@@ -3755,7 +3755,7 @@
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="51"/>
       <c r="B32" s="52" t="s">
         <v>288</v>
@@ -3785,7 +3785,7 @@
       <c r="Y32" s="38"/>
       <c r="Z32" s="38"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -3813,7 +3813,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -3841,7 +3841,7 @@
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -3869,7 +3869,7 @@
       <c r="Y35" s="38"/>
       <c r="Z35" s="38"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -3897,7 +3897,7 @@
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -3925,7 +3925,7 @@
       <c r="Y37" s="38"/>
       <c r="Z37" s="38"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -3953,7 +3953,7 @@
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -3981,7 +3981,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -4009,7 +4009,7 @@
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -4037,7 +4037,7 @@
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -4065,7 +4065,7 @@
       <c r="Y42" s="38"/>
       <c r="Z42" s="38"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
@@ -4093,7 +4093,7 @@
       <c r="Y43" s="38"/>
       <c r="Z43" s="38"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -4121,7 +4121,7 @@
       <c r="Y44" s="38"/>
       <c r="Z44" s="38"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -4149,7 +4149,7 @@
       <c r="Y45" s="38"/>
       <c r="Z45" s="38"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -4177,7 +4177,7 @@
       <c r="Y46" s="38"/>
       <c r="Z46" s="38"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
@@ -4205,7 +4205,7 @@
       <c r="Y47" s="38"/>
       <c r="Z47" s="38"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
@@ -4233,7 +4233,7 @@
       <c r="Y48" s="38"/>
       <c r="Z48" s="38"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -4261,7 +4261,7 @@
       <c r="Y49" s="38"/>
       <c r="Z49" s="38"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -4289,7 +4289,7 @@
       <c r="Y50" s="38"/>
       <c r="Z50" s="38"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
@@ -4317,7 +4317,7 @@
       <c r="Y51" s="38"/>
       <c r="Z51" s="38"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -4345,7 +4345,7 @@
       <c r="Y52" s="38"/>
       <c r="Z52" s="38"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -4373,7 +4373,7 @@
       <c r="Y53" s="38"/>
       <c r="Z53" s="38"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
@@ -4401,7 +4401,7 @@
       <c r="Y54" s="38"/>
       <c r="Z54" s="38"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
@@ -4429,7 +4429,7 @@
       <c r="Y55" s="38"/>
       <c r="Z55" s="38"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -4457,7 +4457,7 @@
       <c r="Y56" s="38"/>
       <c r="Z56" s="38"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -4485,7 +4485,7 @@
       <c r="Y57" s="38"/>
       <c r="Z57" s="38"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -4513,7 +4513,7 @@
       <c r="Y58" s="38"/>
       <c r="Z58" s="38"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -4541,7 +4541,7 @@
       <c r="Y59" s="38"/>
       <c r="Z59" s="38"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -4569,7 +4569,7 @@
       <c r="Y60" s="38"/>
       <c r="Z60" s="38"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -4597,7 +4597,7 @@
       <c r="Y61" s="38"/>
       <c r="Z61" s="38"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -4625,7 +4625,7 @@
       <c r="Y62" s="38"/>
       <c r="Z62" s="38"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -4653,7 +4653,7 @@
       <c r="Y63" s="38"/>
       <c r="Z63" s="38"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -4681,7 +4681,7 @@
       <c r="Y64" s="38"/>
       <c r="Z64" s="38"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
@@ -4709,7 +4709,7 @@
       <c r="Y65" s="38"/>
       <c r="Z65" s="38"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -4737,7 +4737,7 @@
       <c r="Y66" s="38"/>
       <c r="Z66" s="38"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -4765,7 +4765,7 @@
       <c r="Y67" s="38"/>
       <c r="Z67" s="38"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
@@ -4793,7 +4793,7 @@
       <c r="Y68" s="38"/>
       <c r="Z68" s="38"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
@@ -4821,7 +4821,7 @@
       <c r="Y69" s="38"/>
       <c r="Z69" s="38"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -4849,7 +4849,7 @@
       <c r="Y70" s="38"/>
       <c r="Z70" s="38"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -4877,7 +4877,7 @@
       <c r="Y71" s="38"/>
       <c r="Z71" s="38"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -4905,7 +4905,7 @@
       <c r="Y72" s="38"/>
       <c r="Z72" s="38"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
@@ -4933,7 +4933,7 @@
       <c r="Y73" s="38"/>
       <c r="Z73" s="38"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
@@ -4961,7 +4961,7 @@
       <c r="Y74" s="38"/>
       <c r="Z74" s="38"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -4989,7 +4989,7 @@
       <c r="Y75" s="38"/>
       <c r="Z75" s="38"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -5017,7 +5017,7 @@
       <c r="Y76" s="38"/>
       <c r="Z76" s="38"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -5045,7 +5045,7 @@
       <c r="Y77" s="38"/>
       <c r="Z77" s="38"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -5073,7 +5073,7 @@
       <c r="Y78" s="38"/>
       <c r="Z78" s="38"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -5101,7 +5101,7 @@
       <c r="Y79" s="38"/>
       <c r="Z79" s="38"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -5129,7 +5129,7 @@
       <c r="Y80" s="38"/>
       <c r="Z80" s="38"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -5157,7 +5157,7 @@
       <c r="Y81" s="38"/>
       <c r="Z81" s="38"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -5185,7 +5185,7 @@
       <c r="Y82" s="38"/>
       <c r="Z82" s="38"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -5213,7 +5213,7 @@
       <c r="Y83" s="38"/>
       <c r="Z83" s="38"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -5241,7 +5241,7 @@
       <c r="Y84" s="38"/>
       <c r="Z84" s="38"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -5269,7 +5269,7 @@
       <c r="Y85" s="38"/>
       <c r="Z85" s="38"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -5297,7 +5297,7 @@
       <c r="Y86" s="38"/>
       <c r="Z86" s="38"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -5325,7 +5325,7 @@
       <c r="Y87" s="38"/>
       <c r="Z87" s="38"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -5353,7 +5353,7 @@
       <c r="Y88" s="38"/>
       <c r="Z88" s="38"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -5381,7 +5381,7 @@
       <c r="Y89" s="38"/>
       <c r="Z89" s="38"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -5409,7 +5409,7 @@
       <c r="Y90" s="38"/>
       <c r="Z90" s="38"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -5437,7 +5437,7 @@
       <c r="Y91" s="38"/>
       <c r="Z91" s="38"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -5465,7 +5465,7 @@
       <c r="Y92" s="38"/>
       <c r="Z92" s="38"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -5493,7 +5493,7 @@
       <c r="Y93" s="38"/>
       <c r="Z93" s="38"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
@@ -5521,7 +5521,7 @@
       <c r="Y94" s="38"/>
       <c r="Z94" s="38"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -5549,7 +5549,7 @@
       <c r="Y95" s="38"/>
       <c r="Z95" s="38"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
@@ -5577,7 +5577,7 @@
       <c r="Y96" s="38"/>
       <c r="Z96" s="38"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -5605,7 +5605,7 @@
       <c r="Y97" s="38"/>
       <c r="Z97" s="38"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
@@ -5633,7 +5633,7 @@
       <c r="Y98" s="38"/>
       <c r="Z98" s="38"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
@@ -5691,12 +5691,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8824,9 +8824,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8920,9 +8920,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8998,13 +8998,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.12635353241295499</v>
+        <v>0.12716586319930701</v>
       </c>
       <c r="M2">
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.12716586319930701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9039,13 +9039,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.24100352965976199</v>
+        <v>0.24175608869574</v>
       </c>
       <c r="M3">
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.24175608869574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9080,10 +9080,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.29839165082681302</v>
+        <v>0.29872122806778101</v>
       </c>
       <c r="M4">
-        <v>0.29839165082681302</v>
+        <v>0.29872122806778101</v>
       </c>
     </row>
   </sheetData>
@@ -9098,9 +9098,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9196,12 +9196,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9277,13 +9277,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.20963817697789</v>
+        <v>0.21098594733224099</v>
       </c>
       <c r="M2">
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.21098594733224099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9318,13 +9318,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.29754218668175703</v>
+        <v>0.29847129365993402</v>
       </c>
       <c r="M3">
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.29847129365993402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9359,10 +9359,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.49011428261671702</v>
+        <v>0.49065561985780998</v>
       </c>
       <c r="M4">
-        <v>0.49011428261671702</v>
+        <v>0.49065561985780998</v>
       </c>
     </row>
   </sheetData>
@@ -9377,9 +9377,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9473,9 +9473,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9551,13 +9551,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>1.2457230310998201E-2</v>
+        <v>1.21865123037202E-2</v>
       </c>
       <c r="M2">
-        <v>1.2457230310998201E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.21865123037202E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9592,13 +9592,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>1.06776419273959E-2</v>
+        <v>1.04455975746106E-2</v>
       </c>
       <c r="M3">
-        <v>1.06776419273959E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.04455975746106E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9633,10 +9633,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.06776273367935E-2</v>
+        <v>1.0445583301088201E-2</v>
       </c>
       <c r="M4">
-        <v>1.06776273367935E-2</v>
+        <v>1.0445583301088201E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9653,9 +9653,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9751,9 +9751,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9829,10 +9829,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.956481782990526</v>
+        <v>0.93569571451266098</v>
       </c>
       <c r="M2">
-        <v>0.956481782990526</v>
+        <v>0.93569571451266098</v>
       </c>
     </row>
   </sheetData>
@@ -9851,16 +9851,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>44237</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>44232</v>
       </c>
@@ -9925,39 +9925,39 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10071,12 +10071,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -10529,7 +10529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>49</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>53</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>57</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>59</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
@@ -10625,7 +10625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>63</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>65</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -10667,7 +10667,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -10691,43 +10691,43 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10751,7 +10751,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10797,7 +10797,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10829,7 +10829,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10849,7 +10849,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -10887,18 +10887,18 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="15"/>
-    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="15"/>
-    <col min="16" max="16" width="11.42578125" style="15" customWidth="1"/>
-    <col min="17" max="25" width="9.140625" style="15"/>
-    <col min="26" max="26" width="11.7109375" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="5" width="9.109375" style="15"/>
+    <col min="6" max="6" width="12.88671875" style="15" customWidth="1"/>
+    <col min="7" max="15" width="9.109375" style="15"/>
+    <col min="16" max="16" width="11.44140625" style="15" customWidth="1"/>
+    <col min="17" max="25" width="9.109375" style="15"/>
+    <col min="26" max="26" width="11.6640625" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:30" ht="23.4" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>91</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>85</v>
       </c>
@@ -10944,7 +10944,7 @@
       <c r="AC3" s="17"/>
       <c r="AD3" s="17"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>68</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>77</v>
       </c>
@@ -11086,7 +11086,7 @@
       <c r="AC5" s="26"/>
       <c r="AD5" s="26"/>
     </row>
-    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="19"/>
@@ -11116,7 +11116,7 @@
       <c r="AC6" s="26"/>
       <c r="AD6" s="26"/>
     </row>
-    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>87</v>
       </c>
@@ -11140,7 +11140,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>68</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>77</v>
       </c>
@@ -11236,7 +11236,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>108</v>
       </c>
@@ -11260,7 +11260,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>68</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
         <v>77</v>
       </c>
@@ -11356,7 +11356,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
     </row>
-    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>118</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>68</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>77</v>
       </c>
@@ -11476,7 +11476,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>119</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>68</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="24" t="s">
         <v>77</v>
       </c>
@@ -11596,7 +11596,7 @@
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
     </row>
-    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L28" s="16" t="s">
         <v>173</v>
       </c>
@@ -11609,7 +11609,7 @@
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29" s="18" t="s">
         <v>68</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="L30" s="24" t="s">
         <v>77</v>
       </c>
@@ -11659,7 +11659,7 @@
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
     </row>
-    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:20" ht="14.4" x14ac:dyDescent="0.25">
       <c r="L33" s="16" t="s">
         <v>174</v>
       </c>
@@ -11672,7 +11672,7 @@
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L34" s="18" t="s">
         <v>68</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="L35" s="24" t="s">
         <v>77</v>
       </c>
@@ -11738,33 +11738,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
-    <col min="10" max="10" width="13.140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="21"/>
+    <col min="10" max="10" width="13.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" style="21" customWidth="1"/>
     <col min="12" max="12" width="13" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>243</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>70</v>
       </c>
@@ -11804,7 +11804,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>248</v>
       </c>
@@ -11820,7 +11820,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
@@ -11831,7 +11831,7 @@
       <c r="C6" s="30"/>
       <c r="D6" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>109</v>
@@ -11855,7 +11855,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
@@ -11866,7 +11866,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>109</v>
@@ -11887,10 +11887,10 @@
       </c>
       <c r="L7" s="31">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.2457230310998201E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.21865123037202E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
@@ -11901,7 +11901,7 @@
       <c r="C8" s="30"/>
       <c r="D8" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>109</v>
@@ -11922,10 +11922,10 @@
       </c>
       <c r="L8" s="30">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K8,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.06776419273959E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.04455975746106E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>244</v>
       </c>
@@ -11936,7 +11936,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>109</v>
@@ -11957,10 +11957,10 @@
       </c>
       <c r="L9" s="31">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K9,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.06776273367935E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.0445583301088201E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>244</v>
       </c>
@@ -11971,7 +11971,7 @@
       <c r="C10" s="30"/>
       <c r="D10" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>109</v>
@@ -11995,7 +11995,7 @@
         <v>6.7195931921959296E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>244</v>
       </c>
@@ -12006,7 +12006,7 @@
       <c r="C11" s="31"/>
       <c r="D11" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>109</v>
@@ -12030,7 +12030,7 @@
         <v>1.18630136986301E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>244</v>
       </c>
@@ -12041,7 +12041,7 @@
       <c r="C12" s="30"/>
       <c r="D12" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>109</v>
@@ -12065,7 +12065,7 @@
         <v>1.0896637608966401E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>244</v>
       </c>
@@ -12076,7 +12076,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>109</v>
@@ -12097,10 +12097,10 @@
       </c>
       <c r="L13" s="31">
         <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K13,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
-        <v>0.956481782990526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.93569571451266098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>1</v>
       </c>
@@ -12111,7 +12111,7 @@
       <c r="C14" s="30"/>
       <c r="D14" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>109</v>
@@ -12135,7 +12135,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
@@ -12146,7 +12146,7 @@
       <c r="C15" s="31"/>
       <c r="D15" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>109</v>
@@ -12159,7 +12159,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>244</v>
       </c>
@@ -12170,7 +12170,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>109</v>
@@ -12183,7 +12183,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="C17" s="31"/>
       <c r="D17" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>109</v>
@@ -12210,7 +12210,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>112</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>1</v>
       </c>
@@ -12242,7 +12242,7 @@
       <c r="C19" s="30"/>
       <c r="D19" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>105</v>
@@ -12260,7 +12260,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>1</v>
       </c>
@@ -12271,7 +12271,7 @@
       <c r="C20" s="31"/>
       <c r="D20" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>105</v>
@@ -12291,10 +12291,10 @@
       </c>
       <c r="L20" s="30">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.21098594733224099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>1</v>
       </c>
@@ -12325,10 +12325,10 @@
       </c>
       <c r="L21" s="31">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K21,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.29847129365993402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>244</v>
       </c>
@@ -12339,7 +12339,7 @@
       <c r="C22" s="31"/>
       <c r="D22" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>105</v>
@@ -12359,10 +12359,10 @@
       </c>
       <c r="L22" s="30">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K22,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.49011428261671702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.49065561985780998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>244</v>
       </c>
@@ -12373,7 +12373,7 @@
       <c r="C23" s="30"/>
       <c r="D23" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>105</v>
@@ -12393,10 +12393,10 @@
       </c>
       <c r="L23" s="31">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.12716586319930701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>244</v>
       </c>
@@ -12407,7 +12407,7 @@
       <c r="C24" s="31"/>
       <c r="D24" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>105</v>
@@ -12427,10 +12427,10 @@
       </c>
       <c r="L24" s="30">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K24,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.24175608869574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>244</v>
       </c>
@@ -12441,7 +12441,7 @@
       <c r="C25" s="30"/>
       <c r="D25" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>105</v>
@@ -12461,10 +12461,10 @@
       </c>
       <c r="L25" s="31">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K25,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.29839165082681302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.29872122806778101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>244</v>
       </c>
@@ -12474,7 +12474,7 @@
       <c r="C26" s="31"/>
       <c r="D26" s="54">
         <f>D25</f>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -12483,7 +12483,7 @@
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>244</v>
       </c>
@@ -12494,7 +12494,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>105</v>
@@ -12507,7 +12507,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>1</v>
       </c>
@@ -12518,7 +12518,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>105</v>
@@ -12531,7 +12531,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>1</v>
       </c>
@@ -12542,7 +12542,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>105</v>
@@ -12555,7 +12555,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>244</v>
       </c>
@@ -12566,7 +12566,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>105</v>
@@ -12579,7 +12579,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>244</v>
       </c>
@@ -12589,13 +12589,13 @@
       <c r="C31" s="30"/>
       <c r="D31" s="53">
         <f>D30</f>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>1</v>
       </c>
@@ -12606,7 +12606,7 @@
       <c r="C32" s="31"/>
       <c r="D32" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>105</v>
@@ -12619,7 +12619,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>113</v>
       </c>
@@ -12631,7 +12631,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>1</v>
       </c>
@@ -12642,7 +12642,7 @@
       <c r="C34" s="30"/>
       <c r="D34" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>114</v>
@@ -12655,7 +12655,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>1</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>1</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>244</v>
       </c>
@@ -12714,7 +12714,7 @@
       <c r="C37" s="31"/>
       <c r="D37" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>114</v>
@@ -12727,7 +12727,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>244</v>
       </c>
@@ -12738,7 +12738,7 @@
       <c r="C38" s="30"/>
       <c r="D38" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F38" s="30" t="s">
         <v>114</v>
@@ -12751,7 +12751,7 @@
         <v>R-SH*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>244</v>
       </c>
@@ -12762,7 +12762,7 @@
       <c r="C39" s="31"/>
       <c r="D39" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>114</v>
@@ -12775,7 +12775,7 @@
         <v>R-SH*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>244</v>
       </c>
@@ -12786,7 +12786,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>114</v>
@@ -12799,7 +12799,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>244</v>
       </c>
@@ -12809,13 +12809,13 @@
       <c r="C41" s="31"/>
       <c r="D41" s="54">
         <f>D40</f>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>244</v>
       </c>
@@ -12826,7 +12826,7 @@
       <c r="C42" s="30"/>
       <c r="D42" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
       <c r="F42" s="30" t="s">
         <v>114</v>
@@ -12839,7 +12839,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>1</v>
       </c>
@@ -12850,7 +12850,7 @@
       <c r="C43" s="31"/>
       <c r="D43" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>114</v>
@@ -12863,7 +12863,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
         <v>1</v>
       </c>
@@ -12874,7 +12874,7 @@
       <c r="C44" s="30"/>
       <c r="D44" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>114</v>
@@ -12887,7 +12887,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>244</v>
       </c>
@@ -12898,7 +12898,7 @@
       <c r="C45" s="31"/>
       <c r="D45" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>114</v>
@@ -12911,7 +12911,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
         <v>244</v>
       </c>
@@ -12921,13 +12921,13 @@
       <c r="C46" s="30"/>
       <c r="D46" s="53">
         <f>D45</f>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>1</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="C47" s="31"/>
       <c r="D47" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>114</v>
@@ -12951,7 +12951,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>251</v>
       </c>
@@ -12962,7 +12962,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>1</v>
       </c>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="D49" s="53">
         <f>D6</f>
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
       <c r="F49" s="30" t="s">
         <v>109</v>
@@ -12988,7 +12988,7 @@
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>1</v>
       </c>
@@ -13001,7 +13001,7 @@
       </c>
       <c r="D50" s="54">
         <f t="shared" ref="D50:D59" si="9">D7</f>
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>109</v>
@@ -13014,7 +13014,7 @@
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>1</v>
       </c>
@@ -13027,7 +13027,7 @@
       </c>
       <c r="D51" s="53">
         <f t="shared" si="9"/>
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
       <c r="F51" s="30" t="s">
         <v>109</v>
@@ -13040,7 +13040,7 @@
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>198</v>
       </c>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="D52" s="54">
         <f t="shared" si="9"/>
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>109</v>
@@ -13066,7 +13066,7 @@
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>198</v>
       </c>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="D53" s="53">
         <f>D10</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F53" s="30" t="s">
         <v>109</v>
@@ -13092,7 +13092,7 @@
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>198</v>
       </c>
@@ -13105,7 +13105,7 @@
       </c>
       <c r="D54" s="54">
         <f t="shared" si="9"/>
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
       <c r="F54" s="31" t="s">
         <v>109</v>
@@ -13118,7 +13118,7 @@
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>198</v>
       </c>
@@ -13131,7 +13131,7 @@
       </c>
       <c r="D55" s="53">
         <f t="shared" si="9"/>
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>109</v>
@@ -13144,7 +13144,7 @@
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>198</v>
       </c>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="D56" s="54">
         <f t="shared" si="9"/>
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>109</v>
@@ -13170,7 +13170,7 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>1</v>
       </c>
@@ -13183,7 +13183,7 @@
       </c>
       <c r="D57" s="53">
         <f t="shared" si="9"/>
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>109</v>
@@ -13196,7 +13196,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>1</v>
       </c>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="D58" s="54">
         <f t="shared" si="9"/>
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>109</v>
@@ -13222,7 +13222,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="s">
         <v>198</v>
       </c>
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D59" s="53">
         <f t="shared" si="9"/>
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
       <c r="F59" s="30" t="s">
         <v>109</v>
@@ -13248,7 +13248,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
         <v>198</v>
       </c>
@@ -13261,7 +13261,7 @@
       </c>
       <c r="D60" s="54">
         <f>D17</f>
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>109</v>
@@ -13274,7 +13274,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>250</v>
       </c>
@@ -13286,7 +13286,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
         <v>1</v>
       </c>
@@ -13299,7 +13299,7 @@
       </c>
       <c r="D62" s="53">
         <f>D19</f>
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
       <c r="F62" s="30" t="s">
         <v>105</v>
@@ -13312,7 +13312,7 @@
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>1</v>
       </c>
@@ -13325,7 +13325,7 @@
       </c>
       <c r="D63" s="54">
         <f t="shared" ref="D63:D75" si="13">D20</f>
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>105</v>
@@ -13338,7 +13338,7 @@
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="30" t="s">
         <v>1</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="31" t="s">
         <v>198</v>
       </c>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="D65" s="54">
         <f t="shared" si="13"/>
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
       <c r="F65" s="31" t="s">
         <v>105</v>
@@ -13390,7 +13390,7 @@
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="30" t="s">
         <v>198</v>
       </c>
@@ -13403,7 +13403,7 @@
       </c>
       <c r="D66" s="53">
         <f t="shared" si="13"/>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F66" s="30" t="s">
         <v>105</v>
@@ -13416,7 +13416,7 @@
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
         <v>198</v>
       </c>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="D67" s="54">
         <f t="shared" si="13"/>
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>105</v>
@@ -13442,7 +13442,7 @@
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
         <v>198</v>
       </c>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="D68" s="53">
         <f t="shared" si="13"/>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F68" s="30" t="s">
         <v>105</v>
@@ -13468,7 +13468,7 @@
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>198</v>
       </c>
@@ -13480,13 +13480,13 @@
       </c>
       <c r="D69" s="54">
         <f t="shared" si="13"/>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
         <v>198</v>
       </c>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="D70" s="53">
         <f t="shared" si="13"/>
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
       <c r="F70" s="30" t="s">
         <v>105</v>
@@ -13512,7 +13512,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>1</v>
       </c>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="D71" s="54">
         <f t="shared" si="13"/>
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>105</v>
@@ -13538,7 +13538,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="30" t="s">
         <v>1</v>
       </c>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="D72" s="53">
         <f t="shared" si="13"/>
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
       <c r="F72" s="30" t="s">
         <v>105</v>
@@ -13564,7 +13564,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>198</v>
       </c>
@@ -13577,7 +13577,7 @@
       </c>
       <c r="D73" s="54">
         <f t="shared" si="13"/>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>105</v>
@@ -13590,7 +13590,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="30" t="s">
         <v>198</v>
       </c>
@@ -13602,13 +13602,13 @@
       </c>
       <c r="D74" s="53">
         <f t="shared" si="13"/>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>198</v>
       </c>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="D75" s="54">
         <f t="shared" si="13"/>
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>105</v>
@@ -13634,7 +13634,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>249</v>
       </c>
@@ -13646,7 +13646,7 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="s">
         <v>1</v>
       </c>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="D77" s="53">
         <f>D34</f>
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>114</v>
@@ -13672,7 +13672,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>1</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="30" t="s">
         <v>1</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>198</v>
       </c>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="D80" s="54">
         <f t="shared" si="17"/>
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>114</v>
@@ -13750,7 +13750,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
         <v>198</v>
       </c>
@@ -13763,7 +13763,7 @@
       </c>
       <c r="D81" s="53">
         <f t="shared" si="17"/>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>114</v>
@@ -13776,7 +13776,7 @@
         <v>R-SW*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="31" t="s">
         <v>198</v>
       </c>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="D82" s="54">
         <f t="shared" si="17"/>
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
       <c r="F82" s="31" t="s">
         <v>114</v>
@@ -13802,7 +13802,7 @@
         <v>R-SW*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="30" t="s">
         <v>198</v>
       </c>
@@ -13815,7 +13815,7 @@
       </c>
       <c r="D83" s="53">
         <f t="shared" si="17"/>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>114</v>
@@ -13828,7 +13828,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="31" t="s">
         <v>198</v>
       </c>
@@ -13840,13 +13840,13 @@
       </c>
       <c r="D84" s="54">
         <f t="shared" si="17"/>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="31"/>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="30" t="s">
         <v>198</v>
       </c>
@@ -13859,7 +13859,7 @@
       </c>
       <c r="D85" s="53">
         <f t="shared" si="17"/>
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
       <c r="F85" s="30" t="s">
         <v>114</v>
@@ -13872,7 +13872,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="31" t="s">
         <v>1</v>
       </c>
@@ -13885,7 +13885,7 @@
       </c>
       <c r="D86" s="54">
         <f t="shared" si="17"/>
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
       <c r="F86" s="31" t="s">
         <v>114</v>
@@ -13898,7 +13898,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
         <v>1</v>
       </c>
@@ -13911,7 +13911,7 @@
       </c>
       <c r="D87" s="53">
         <f t="shared" si="17"/>
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>114</v>
@@ -13924,7 +13924,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="31" t="s">
         <v>198</v>
       </c>
@@ -13937,7 +13937,7 @@
       </c>
       <c r="D88" s="54">
         <f t="shared" si="17"/>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F88" s="31" t="s">
         <v>114</v>
@@ -13950,7 +13950,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="30" t="s">
         <v>198</v>
       </c>
@@ -13962,13 +13962,13 @@
       </c>
       <c r="D89" s="53">
         <f t="shared" si="17"/>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="31" t="s">
         <v>198</v>
       </c>
@@ -13981,7 +13981,7 @@
       </c>
       <c r="D90" s="54">
         <f t="shared" si="17"/>
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
       <c r="F90" s="31" t="s">
         <v>114</v>
@@ -13994,7 +13994,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>115</v>
       </c>
@@ -14005,7 +14005,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
         <v>1</v>
       </c>
@@ -14016,7 +14016,7 @@
       <c r="C92" s="30"/>
       <c r="D92" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.45255796882634303</v>
+        <v>0.42342871317737102</v>
       </c>
       <c r="F92" s="30" t="s">
         <v>109</v>
@@ -14029,7 +14029,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>1</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
         <v>1</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="31" t="s">
         <v>1</v>
       </c>
@@ -14088,7 +14088,7 @@
       <c r="C95" s="31"/>
       <c r="D95" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13251764473730199</v>
+        <v>0.12792665468435199</v>
       </c>
       <c r="F95" s="31" t="s">
         <v>109</v>
@@ -14101,7 +14101,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="30" t="s">
         <v>244</v>
       </c>
@@ -14112,7 +14112,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.2549233288808403E-2</v>
+        <v>5.3377456313566302E-2</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>109</v>
@@ -14125,7 +14125,7 @@
         <v>R-WH_Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="31" t="s">
         <v>1</v>
       </c>
@@ -14136,7 +14136,7 @@
       <c r="C97" s="31"/>
       <c r="D97" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.112170033510623</v>
+        <v>0.11252568167857099</v>
       </c>
       <c r="F97" s="31" t="s">
         <v>109</v>
@@ -14149,7 +14149,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="30" t="s">
         <v>1</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="C98" s="30"/>
       <c r="D98" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.5045615347050301E-2</v>
+        <v>6.0645497051149098E-2</v>
       </c>
       <c r="F98" s="30" t="s">
         <v>109</v>
@@ -14173,7 +14173,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="31" t="s">
         <v>1</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="30" t="s">
         <v>1</v>
       </c>
@@ -14208,7 +14208,7 @@
       <c r="C100" s="30"/>
       <c r="D100" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0196313138344295E-2</v>
+        <v>8.67381932124731E-2</v>
       </c>
       <c r="F100" s="30" t="s">
         <v>109</v>
@@ -14221,7 +14221,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="31" t="s">
         <v>1</v>
       </c>
@@ -14232,7 +14232,7 @@
       <c r="C101" s="31"/>
       <c r="D101" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.10316120676872401</v>
+        <v>9.9394310243560199E-2</v>
       </c>
       <c r="F101" s="31" t="s">
         <v>109</v>
@@ -14245,7 +14245,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
         <v>1</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="30" t="s">
         <v>244</v>
       </c>
@@ -14280,7 +14280,7 @@
       <c r="C103" s="30"/>
       <c r="D103" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.143159113753899</v>
+        <v>0.13976565562716001</v>
       </c>
       <c r="F103" s="30" t="s">
         <v>109</v>
@@ -14293,7 +14293,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>116</v>
       </c>
@@ -14305,7 +14305,7 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="30" t="s">
         <v>1</v>
       </c>
@@ -14316,7 +14316,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.104359857576634</v>
+        <v>0.10081773520747001</v>
       </c>
       <c r="F105" s="30" t="s">
         <v>105</v>
@@ -14329,7 +14329,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="31" t="s">
         <v>1</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
         <v>1</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="31" t="s">
         <v>1</v>
       </c>
@@ -14388,7 +14388,7 @@
       <c r="C108" s="31"/>
       <c r="D108" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100567418678171</v>
+        <v>9.73639647341112E-2</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>105</v>
@@ -14401,7 +14401,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
         <v>244</v>
       </c>
@@ -14412,7 +14412,7 @@
       <c r="C109" s="30"/>
       <c r="D109" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.6402541005538801E-2</v>
+        <v>6.2077936363827101E-2</v>
       </c>
       <c r="F109" s="30" t="s">
         <v>105</v>
@@ -14425,7 +14425,7 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="31" t="s">
         <v>1</v>
       </c>
@@ -14436,7 +14436,7 @@
       <c r="C110" s="31"/>
       <c r="D110" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.9705277866978901E-2</v>
+        <v>6.9903120588175702E-2</v>
       </c>
       <c r="F110" s="31" t="s">
         <v>105</v>
@@ -14449,7 +14449,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="30" t="s">
         <v>1</v>
       </c>
@@ -14460,7 +14460,7 @@
       <c r="C111" s="30"/>
       <c r="D111" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8388567987470399E-2</v>
+        <v>4.9806776874505597E-2</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>105</v>
@@ -14473,7 +14473,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="31" t="s">
         <v>1</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="30" t="s">
         <v>1</v>
       </c>
@@ -14508,7 +14508,7 @@
       <c r="C113" s="30"/>
       <c r="D113" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9040638752358897E-2</v>
+        <v>5.7147241043066198E-2</v>
       </c>
       <c r="F113" s="30" t="s">
         <v>105</v>
@@ -14521,7 +14521,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="31" t="s">
         <v>1</v>
       </c>
@@ -14532,7 +14532,7 @@
       <c r="C114" s="31"/>
       <c r="D114" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8778139627583307E-2</v>
+        <v>6.6620869969995597E-2</v>
       </c>
       <c r="F114" s="31" t="s">
         <v>105</v>
@@ -14545,7 +14545,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="30" t="s">
         <v>1</v>
       </c>
@@ -14569,7 +14569,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="31" t="s">
         <v>244</v>
       </c>
@@ -14580,7 +14580,7 @@
       <c r="C116" s="31"/>
       <c r="D116" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.220198275095671</v>
+        <v>0.21413130493478699</v>
       </c>
       <c r="F116" s="31" t="s">
         <v>105</v>
@@ -14593,7 +14593,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>117</v>
       </c>
@@ -14605,7 +14605,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="30" t="s">
         <v>1</v>
       </c>
@@ -14616,7 +14616,7 @@
       <c r="C118" s="30"/>
       <c r="D118" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.2518315131287606E-2</v>
+        <v>7.0651721487066402E-2</v>
       </c>
       <c r="F118" s="30" t="s">
         <v>114</v>
@@ -14629,7 +14629,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="31" t="s">
         <v>1</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="30" t="s">
         <v>1</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="31" t="s">
         <v>1</v>
       </c>
@@ -14688,7 +14688,7 @@
       <c r="C121" s="31"/>
       <c r="D121" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8787509731139299E-2</v>
+        <v>6.7402586104361395E-2</v>
       </c>
       <c r="F121" s="31" t="s">
         <v>114</v>
@@ -14701,7 +14701,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="30" t="s">
         <v>244</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="C122" s="30"/>
       <c r="D122" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.65144570452133E-2</v>
+        <v>4.4735473424353099E-2</v>
       </c>
       <c r="F122" s="30" t="s">
         <v>114</v>
@@ -14725,7 +14725,7 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="31" t="s">
         <v>1</v>
       </c>
@@ -14736,7 +14736,7 @@
       <c r="C123" s="31"/>
       <c r="D123" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.3657823067608502E-2</v>
+        <v>5.37114750791833E-2</v>
       </c>
       <c r="F123" s="31" t="s">
         <v>114</v>
@@ -14749,7 +14749,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="30" t="s">
         <v>1</v>
       </c>
@@ -14760,7 +14760,7 @@
       <c r="C124" s="30"/>
       <c r="D124" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H124,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6985228618266699E-2</v>
+        <v>4.2554933846820402E-2</v>
       </c>
       <c r="F124" s="30" t="s">
         <v>114</v>
@@ -14773,7 +14773,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="31" t="s">
         <v>1</v>
       </c>
@@ -14784,7 +14784,7 @@
       <c r="C125" s="31"/>
       <c r="D125" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H125,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.36315789189348E-2</v>
+        <v>2.3589745043839899E-2</v>
       </c>
       <c r="F125" s="31" t="s">
         <v>114</v>
@@ -14797,7 +14797,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="30" t="s">
         <v>1</v>
       </c>
@@ -14808,7 +14808,7 @@
       <c r="C126" s="30"/>
       <c r="D126" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H126,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4737576657325098E-2</v>
+        <v>4.3752307505030202E-2</v>
       </c>
       <c r="F126" s="30" t="s">
         <v>114</v>
@@ -14821,7 +14821,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="31" t="s">
         <v>1</v>
       </c>
@@ -14832,7 +14832,7 @@
       <c r="C127" s="31"/>
       <c r="D127" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H127,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
       <c r="F127" s="31" t="s">
         <v>114</v>
@@ -14845,7 +14845,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A128" s="30" t="s">
         <v>1</v>
       </c>
@@ -14869,7 +14869,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="31" t="s">
         <v>244</v>
       </c>
@@ -14880,7 +14880,7 @@
       <c r="C129" s="31"/>
       <c r="D129" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H129,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.145588074596397</v>
+        <v>0.14341496381045399</v>
       </c>
       <c r="F129" s="31" t="s">
         <v>114</v>
@@ -14893,7 +14893,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>246</v>
       </c>
@@ -14905,7 +14905,7 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="30" t="s">
         <v>78</v>
       </c>
@@ -14916,7 +14916,7 @@
       <c r="C131" s="30"/>
       <c r="D131" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F131" s="30" t="s">
         <v>109</v>
@@ -14929,7 +14929,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A132" s="31" t="s">
         <v>78</v>
       </c>
@@ -14940,7 +14940,7 @@
       <c r="C132" s="31"/>
       <c r="D132" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H132,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F132" s="31" t="s">
         <v>105</v>
@@ -14953,7 +14953,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="30" t="s">
         <v>78</v>
       </c>
@@ -14964,7 +14964,7 @@
       <c r="C133" s="30"/>
       <c r="D133" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F133" s="30" t="s">
         <v>114</v>
@@ -14977,7 +14977,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>247</v>
       </c>
@@ -14989,7 +14989,7 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
     </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="30" t="s">
         <v>245</v>
       </c>
@@ -15003,7 +15003,7 @@
       </c>
       <c r="D135" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F135" s="30" t="s">
         <v>109</v>
@@ -15016,7 +15016,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="31" t="s">
         <v>245</v>
       </c>
@@ -15030,7 +15030,7 @@
       </c>
       <c r="D136" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H136,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F136" s="31" t="s">
         <v>105</v>
@@ -15043,7 +15043,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="30" t="s">
         <v>245</v>
       </c>
@@ -15057,7 +15057,7 @@
       </c>
       <c r="D137" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H137,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F137" s="30" t="s">
         <v>114</v>
@@ -15070,7 +15070,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>252</v>
       </c>
@@ -15082,7 +15082,7 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
     </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="30" t="s">
         <v>245</v>
       </c>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="D139" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H139,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F139" s="30" t="s">
         <v>109</v>
@@ -15108,7 +15108,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A140" s="31" t="s">
         <v>245</v>
       </c>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="D140" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H140,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F140" s="31" t="s">
         <v>105</v>
@@ -15134,7 +15134,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="30" t="s">
         <v>245</v>
       </c>
@@ -15147,7 +15147,7 @@
       </c>
       <c r="D141" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H141,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F141" s="30" t="s">
         <v>114</v>
@@ -15177,32 +15177,32 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="13.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="21"/>
+    <col min="5" max="5" width="11.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="E3" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>79</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -15232,7 +15232,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>109</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>109</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>109</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>109</v>
       </c>
@@ -15324,7 +15324,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>109</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>109</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>109</v>
       </c>
@@ -15393,7 +15393,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>109</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>109</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>109</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>109</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>109</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -15517,7 +15517,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>105</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>105</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>105</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>105</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>105</v>
       </c>
@@ -15632,7 +15632,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>105</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>105</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>105</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>105</v>
       </c>
@@ -15724,7 +15724,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>105</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>105</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>105</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -15802,7 +15802,7 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>114</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>114</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>114</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>114</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>114</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>114</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
         <v>114</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>114</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
         <v>114</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>114</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
         <v>114</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="30" t="s">
         <v>114</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -16087,7 +16087,7 @@
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="30" t="s">
         <v>109</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
         <v>105</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
         <v>114</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -16166,7 +16166,7 @@
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>109</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>109</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="30" t="s">
         <v>109</v>
       </c>
@@ -16235,7 +16235,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>109</v>
       </c>
@@ -16258,7 +16258,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>109</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>109</v>
       </c>
@@ -16304,7 +16304,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>109</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="30" t="s">
         <v>109</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>109</v>
       </c>
@@ -16373,7 +16373,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="30" t="s">
         <v>109</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
         <v>109</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="30" t="s">
         <v>109</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
         <v>109</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -16474,7 +16474,7 @@
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="s">
         <v>105</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>105</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
         <v>105</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="31" t="s">
         <v>105</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
         <v>105</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
         <v>105</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="31" t="s">
         <v>105</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
         <v>105</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="31" t="s">
         <v>105</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="30" t="s">
         <v>105</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>105</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="30" t="s">
         <v>105</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="31" t="s">
         <v>105</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -16782,7 +16782,7 @@
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="s">
         <v>114</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
         <v>114</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="30" t="s">
         <v>114</v>
       </c>
@@ -16851,7 +16851,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
         <v>114</v>
       </c>
@@ -16874,7 +16874,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
         <v>114</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
         <v>114</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="31" t="s">
         <v>114</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="30" t="s">
         <v>114</v>
       </c>
@@ -16966,7 +16966,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="31" t="s">
         <v>114</v>
       </c>
@@ -16989,7 +16989,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="30" t="s">
         <v>114</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="31" t="s">
         <v>114</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="30" t="s">
         <v>114</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="31" t="s">
         <v>114</v>
       </c>
@@ -17095,12 +17095,12 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>7.5051369863013695E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17217,13 +17217,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.45255796882634303</v>
+        <v>0.42342871317737102</v>
       </c>
       <c r="M3">
-        <v>0.45255796882634303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.42342871317737102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17258,13 +17258,13 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>6.2549233288808403E-2</v>
+        <v>5.3377456313566302E-2</v>
       </c>
       <c r="M4">
-        <v>6.2549233288808403E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.3377456313566302E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17299,13 +17299,13 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>1.5052975614548401</v>
+        <v>1.4717633763921301</v>
       </c>
       <c r="M5">
-        <v>1.5052975614548401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.4717633763921301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>9.0422374429223698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17381,13 +17381,13 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>7.5045615347050301E-2</v>
+        <v>6.0645497051149098E-2</v>
       </c>
       <c r="M7">
-        <v>7.5045615347050301E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.0645497051149098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>3.2373195740855901E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17463,13 +17463,13 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>0.112170033510623</v>
+        <v>0.11252568167857099</v>
       </c>
       <c r="M9">
-        <v>0.112170033510623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.11252568167857099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17504,13 +17504,13 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>0.13251764473730199</v>
+        <v>0.12792665468435199</v>
       </c>
       <c r="M10">
-        <v>0.13251764473730199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.12792665468435199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17551,7 +17551,7 @@
         <v>9.0627195293291204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17586,13 +17586,13 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>9.0196313138344295E-2</v>
+        <v>8.67381932124731E-2</v>
       </c>
       <c r="M12">
-        <v>9.0196313138344295E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.67381932124731E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17627,13 +17627,13 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>0.143159113753899</v>
+        <v>0.13976565562716001</v>
       </c>
       <c r="M13">
-        <v>0.143159113753899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13976565562716001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17668,13 +17668,13 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>0.10316120676872401</v>
+        <v>9.9394310243560199E-2</v>
       </c>
       <c r="M14">
-        <v>0.10316120676872401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.9394310243560199E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>8.8919330289193299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17750,13 +17750,13 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>0.104359857576634</v>
+        <v>0.10081773520747001</v>
       </c>
       <c r="M16">
-        <v>0.104359857576634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.10081773520747001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17791,13 +17791,13 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>6.6402541005538801E-2</v>
+        <v>6.2077936363827101E-2</v>
       </c>
       <c r="M17">
-        <v>6.6402541005538801E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.2077936363827101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17832,13 +17832,13 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>0.66825318875216799</v>
+        <v>0.66299984214582297</v>
       </c>
       <c r="M18">
-        <v>0.66825318875216799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.66299984214582297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>6.7212328767123297E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17914,13 +17914,13 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>5.8388567987470399E-2</v>
+        <v>4.9806776874505597E-2</v>
       </c>
       <c r="M20">
-        <v>5.8388567987470399E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.9806776874505597E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>4.8794584261943399E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17996,13 +17996,13 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>6.9705277866978901E-2</v>
+        <v>6.9903120588175702E-2</v>
       </c>
       <c r="M22">
-        <v>6.9705277866978901E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.9903120588175702E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -18037,13 +18037,13 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>0.100567418678171</v>
+        <v>9.73639647341112E-2</v>
       </c>
       <c r="M23">
-        <v>0.100567418678171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.73639647341112E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>6.8944308925102102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -18119,13 +18119,13 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>5.9040638752358897E-2</v>
+        <v>5.7147241043066198E-2</v>
       </c>
       <c r="M25">
-        <v>5.9040638752358897E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.7147241043066198E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18160,13 +18160,13 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>0.220198275095671</v>
+        <v>0.21413130493478699</v>
       </c>
       <c r="M26">
-        <v>0.220198275095671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.21413130493478699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18201,13 +18201,13 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>6.8778139627583307E-2</v>
+        <v>6.6620869969995597E-2</v>
       </c>
       <c r="M27">
-        <v>6.8778139627583307E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.6620869969995597E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18248,7 +18248,7 @@
         <v>4.2328767123287703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18283,13 +18283,13 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>7.2518315131287606E-2</v>
+        <v>7.0651721487066402E-2</v>
       </c>
       <c r="M29">
-        <v>7.2518315131287606E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.0651721487066402E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18324,13 +18324,13 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>4.65144570452133E-2</v>
+        <v>4.4735473424353099E-2</v>
       </c>
       <c r="M30">
-        <v>4.65144570452133E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.4735473424353099E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18365,13 +18365,13 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>0.45983560612562002</v>
+        <v>0.458133885220118</v>
       </c>
       <c r="M31">
-        <v>0.45983560612562002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.458133885220118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>4.7947345890410997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18447,13 +18447,13 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.6985228618266699E-2</v>
+        <v>4.2554933846820402E-2</v>
       </c>
       <c r="M33">
-        <v>4.6985228618266699E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.2554933846820402E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>5.1032329364559198E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18529,13 +18529,13 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>5.3657823067608502E-2</v>
+        <v>5.37114750791833E-2</v>
       </c>
       <c r="M35">
-        <v>5.3657823067608502E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.37114750791833E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18570,13 +18570,13 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>6.8787509731139299E-2</v>
+        <v>6.7402586104361395E-2</v>
       </c>
       <c r="M36">
-        <v>6.8787509731139299E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.7402586104361395E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18611,13 +18611,13 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>2.36315789189348E-2</v>
+        <v>2.3589745043839899E-2</v>
       </c>
       <c r="M37">
-        <v>2.36315789189348E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.3589745043839899E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18652,13 +18652,13 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>4.4737576657325098E-2</v>
+        <v>4.3752307505030202E-2</v>
       </c>
       <c r="M38">
-        <v>4.4737576657325098E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.3752307505030202E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18693,13 +18693,13 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>0.145588074596397</v>
+        <v>0.14341496381045399</v>
       </c>
       <c r="M39">
-        <v>0.145588074596397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.14341496381045399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18734,10 +18734,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
       <c r="M40">
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18752,12 +18752,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18833,13 +18833,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
       <c r="M2">
-        <v>9.4570753703752605E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.6640000122913006E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18874,13 +18874,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
       <c r="M3">
-        <v>0.41882471081785599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.40654789002485697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18915,13 +18915,13 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
       <c r="M4">
-        <v>1.7227618659613701E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.3931119040235E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18956,13 +18956,13 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="M5">
-        <v>0.183575067201909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.18130269923092601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18997,13 +18997,13 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
       <c r="M6">
-        <v>2.0352386019458902E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.0797704474084602E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -19038,13 +19038,13 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
       <c r="M7">
-        <v>2.5069945114006401E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.5618485673577399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -19079,13 +19079,13 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
       <c r="M8">
-        <v>2.3488908827814098E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.4002855672672599E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -19120,13 +19120,13 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
       <c r="M9">
-        <v>7.8978154557043795E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.5994529972598895E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19161,13 +19161,13 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
       <c r="M10">
-        <v>4.8787825956958103E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.7559865677763699E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19202,13 +19202,13 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
       <c r="M11">
-        <v>0.15828050607333199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.161743747694956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19243,13 +19243,13 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
       <c r="M12">
-        <v>0.14698298838932999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.14274595375996399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19284,13 +19284,13 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
       <c r="M13">
-        <v>3.7307426022765301E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.6221240391349503E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19325,13 +19325,13 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
       <c r="M14">
-        <v>2.4658929270483999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.53147717385124E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19366,13 +19366,13 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
       <c r="M15">
-        <v>0.31784775894057798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.30984484845142601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19407,13 +19407,13 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
       <c r="M16">
-        <v>3.7537381358533697E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.5156391297092499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19448,13 +19448,13 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="M17">
-        <v>0.113204385544111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.11404303534564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19495,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19530,13 +19530,13 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
       <c r="M19">
-        <v>3.5032805879028399E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.5964557684536103E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19571,13 +19571,13 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
       <c r="M20">
-        <v>2.2872893208017001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.3481233276961201E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19612,13 +19612,13 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="M21">
-        <v>4.4978376179101401E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.3705701165065197E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19653,13 +19653,13 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
       <c r="M22">
-        <v>4.9050090196469498E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.8109166237074001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19694,13 +19694,13 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
       <c r="M23">
-        <v>7.0893554801410602E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.27790788417393E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19735,13 +19735,13 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
       <c r="M24">
-        <v>7.3631430941555998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.2438724233275797E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19776,13 +19776,13 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="M25">
-        <v>0.119017735973187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.11656908094434699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19858,13 +19858,13 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
       <c r="M27">
-        <v>0.47278411842156098</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.46414376338591401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19899,13 +19899,13 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
       <c r="M28">
-        <v>4.5630448521753401E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.3843217634644903E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19940,13 +19940,13 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="M29">
-        <v>0.13766734761320301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.138319067250922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -20022,13 +20022,13 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
       <c r="M31">
-        <v>3.9151690301129402E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.96720040920054E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -20063,13 +20063,13 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
       <c r="M32">
-        <v>0.200825091733705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.203493994761373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -20104,13 +20104,13 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="M33">
-        <v>4.92788432018662E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.8157354051402902E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20145,13 +20145,13 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
       <c r="M34">
-        <v>7.0854130591549894E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.97946718860816E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20186,13 +20186,13 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
       <c r="M35">
-        <v>0.100420210433235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.101539467044872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20227,13 +20227,13 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
       <c r="M36">
-        <v>0.13720876081054401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13495608652757701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -20268,10 +20268,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="M37">
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8FA0C6-C0A3-436F-B0D4-DFD6AB583EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B1B6A-CFB2-4D1C-A8DC-7DFE3030E934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -2007,7 +2007,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15033,8 +15033,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15076,116 +15076,116 @@
       </c>
       <c r="D3" s="7" t="str" cm="1">
         <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
-        <v>National</v>
+        <v>*National</v>
       </c>
       <c r="E3" s="7" t="str" cm="1">
         <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
-        <v>IE-CW</v>
+        <v>*IE-CW</v>
       </c>
       <c r="F3" s="7" t="str" cm="1">
         <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
-        <v>IE-D</v>
+        <v>*IE-D</v>
       </c>
       <c r="G3" s="7" t="str" cm="1">
         <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
-        <v>IE-KE</v>
+        <v>*IE-KE</v>
       </c>
       <c r="H3" s="7" t="str" cm="1">
         <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
-        <v>IE-KK</v>
+        <v>*IE-KK</v>
       </c>
       <c r="I3" s="7" t="str" cm="1">
         <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
-        <v>IE-LS</v>
+        <v>*IE-LS</v>
       </c>
       <c r="J3" s="7" t="str" cm="1">
         <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
-        <v>IE-LD</v>
+        <v>*IE-LD</v>
       </c>
       <c r="K3" s="7" t="str" cm="1">
         <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
-        <v>IE-LH</v>
+        <v>*IE-LH</v>
       </c>
       <c r="L3" s="7" t="str" cm="1">
         <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
-        <v>IE-MH</v>
+        <v>*IE-MH</v>
       </c>
       <c r="M3" s="7" t="str" cm="1">
         <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
-        <v>IE-OY</v>
+        <v>*IE-OY</v>
       </c>
       <c r="N3" s="7" t="str" cm="1">
         <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
-        <v>IE-WH</v>
+        <v>*IE-WH</v>
       </c>
       <c r="O3" s="7" t="str" cm="1">
         <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
-        <v>IE-WX</v>
+        <v>*IE-WX</v>
       </c>
       <c r="P3" s="7" t="str" cm="1">
         <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
-        <v>IE-WW</v>
+        <v>*IE-WW</v>
       </c>
       <c r="Q3" s="7" t="str" cm="1">
         <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
-        <v>IE-CE</v>
+        <v>*IE-CE</v>
       </c>
       <c r="R3" s="7" t="str" cm="1">
         <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
-        <v>IE-CO</v>
+        <v>*IE-CO</v>
       </c>
       <c r="S3" s="7" t="str" cm="1">
         <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
-        <v>IE-KY</v>
+        <v>*IE-KY</v>
       </c>
       <c r="T3" s="7" t="str" cm="1">
         <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
-        <v>IE-LK</v>
+        <v>*IE-LK</v>
       </c>
       <c r="U3" s="7" t="str" cm="1">
         <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
-        <v>IE-TA</v>
+        <v>*IE-TA</v>
       </c>
       <c r="V3" s="7" t="str" cm="1">
         <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
-        <v>IE-WD</v>
+        <v>*IE-WD</v>
       </c>
       <c r="W3" s="7" t="str" cm="1">
         <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
-        <v>IE-G</v>
+        <v>*IE-G</v>
       </c>
       <c r="X3" s="7" t="str" cm="1">
         <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
-        <v>IE-LM</v>
+        <v>*IE-LM</v>
       </c>
       <c r="Y3" s="7" t="str" cm="1">
         <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
-        <v>IE-MO</v>
+        <v>*IE-MO</v>
       </c>
       <c r="Z3" s="7" t="str" cm="1">
         <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
-        <v>IE-RN</v>
+        <v>*IE-RN</v>
       </c>
       <c r="AA3" s="7" t="str" cm="1">
         <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
-        <v>IE-SO</v>
+        <v>*IE-SO</v>
       </c>
       <c r="AB3" s="7" t="str" cm="1">
         <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
-        <v>IE-CN</v>
+        <v>*IE-CN</v>
       </c>
       <c r="AC3" s="7" t="str" cm="1">
         <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
-        <v>IE-DL</v>
+        <v>*IE-DL</v>
       </c>
       <c r="AD3" s="7" t="str" cm="1">
         <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
-        <v>IE-MN</v>
+        <v>*IE-MN</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
@@ -15864,107 +15864,107 @@
       </c>
       <c r="I4" s="6" t="str">
         <f>Regions!E3</f>
-        <v>IE-CW</v>
+        <v>*IE-CW</v>
       </c>
       <c r="J4" s="6" t="str">
         <f>Regions!F3</f>
-        <v>IE-D</v>
+        <v>*IE-D</v>
       </c>
       <c r="K4" s="6" t="str">
         <f>Regions!G3</f>
-        <v>IE-KE</v>
+        <v>*IE-KE</v>
       </c>
       <c r="L4" s="6" t="str">
         <f>Regions!H3</f>
-        <v>IE-KK</v>
+        <v>*IE-KK</v>
       </c>
       <c r="M4" s="6" t="str">
         <f>Regions!I3</f>
-        <v>IE-LS</v>
+        <v>*IE-LS</v>
       </c>
       <c r="N4" s="6" t="str">
         <f>Regions!J3</f>
-        <v>IE-LD</v>
+        <v>*IE-LD</v>
       </c>
       <c r="O4" s="6" t="str">
         <f>Regions!K3</f>
-        <v>IE-LH</v>
+        <v>*IE-LH</v>
       </c>
       <c r="P4" s="6" t="str">
         <f>Regions!L3</f>
-        <v>IE-MH</v>
+        <v>*IE-MH</v>
       </c>
       <c r="Q4" s="6" t="str">
         <f>Regions!M3</f>
-        <v>IE-OY</v>
+        <v>*IE-OY</v>
       </c>
       <c r="R4" s="6" t="str">
         <f>Regions!N3</f>
-        <v>IE-WH</v>
+        <v>*IE-WH</v>
       </c>
       <c r="S4" s="6" t="str">
         <f>Regions!O3</f>
-        <v>IE-WX</v>
+        <v>*IE-WX</v>
       </c>
       <c r="T4" s="6" t="str">
         <f>Regions!P3</f>
-        <v>IE-WW</v>
+        <v>*IE-WW</v>
       </c>
       <c r="U4" s="6" t="str">
         <f>Regions!Q3</f>
-        <v>IE-CE</v>
+        <v>*IE-CE</v>
       </c>
       <c r="V4" s="6" t="str">
         <f>Regions!R3</f>
-        <v>IE-CO</v>
+        <v>*IE-CO</v>
       </c>
       <c r="W4" s="6" t="str">
         <f>Regions!S3</f>
-        <v>IE-KY</v>
+        <v>*IE-KY</v>
       </c>
       <c r="X4" s="6" t="str">
         <f>Regions!T3</f>
-        <v>IE-LK</v>
+        <v>*IE-LK</v>
       </c>
       <c r="Y4" s="6" t="str">
         <f>Regions!U3</f>
-        <v>IE-TA</v>
+        <v>*IE-TA</v>
       </c>
       <c r="Z4" s="6" t="str">
         <f>Regions!V3</f>
-        <v>IE-WD</v>
+        <v>*IE-WD</v>
       </c>
       <c r="AA4" s="6" t="str">
         <f>Regions!W3</f>
-        <v>IE-G</v>
+        <v>*IE-G</v>
       </c>
       <c r="AB4" s="6" t="str">
         <f>Regions!X3</f>
-        <v>IE-LM</v>
+        <v>*IE-LM</v>
       </c>
       <c r="AC4" s="6" t="str">
         <f>Regions!Y3</f>
-        <v>IE-MO</v>
+        <v>*IE-MO</v>
       </c>
       <c r="AD4" s="6" t="str">
         <f>Regions!Z3</f>
-        <v>IE-RN</v>
+        <v>*IE-RN</v>
       </c>
       <c r="AE4" s="6" t="str">
         <f>Regions!AA3</f>
-        <v>IE-SO</v>
+        <v>*IE-SO</v>
       </c>
       <c r="AF4" s="6" t="str">
         <f>Regions!AB3</f>
-        <v>IE-CN</v>
+        <v>*IE-CN</v>
       </c>
       <c r="AG4" s="6" t="str">
         <f>Regions!AC3</f>
-        <v>IE-DL</v>
+        <v>*IE-DL</v>
       </c>
       <c r="AH4" s="6" t="str">
         <f>Regions!AD3</f>
-        <v>IE-MN</v>
+        <v>*IE-MN</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.2">
@@ -16963,7 +16963,7 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B8744C-59FF-4A24-A4DC-55C956E0DD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFC9ABB-E3D3-4203-A167-AC0EDD5F5E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" tabRatio="819" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -1398,18 +1398,6 @@
     <t>R-SW_Det_FPL*</t>
   </si>
   <si>
-    <t>R-SH_Att_HVO*</t>
-  </si>
-  <si>
-    <t>R-SH_Det_HVO*</t>
-  </si>
-  <si>
-    <t>R-SW_Att_HVO*</t>
-  </si>
-  <si>
-    <t>R-SW_Det_HVO*</t>
-  </si>
-  <si>
     <t>TIMES-Ireland Model</t>
   </si>
   <si>
@@ -1492,6 +1480,18 @@
   </si>
   <si>
     <t>Added Regions</t>
+  </si>
+  <si>
+    <t>R-SH_Att_BDL*</t>
+  </si>
+  <si>
+    <t>R-SH_Det_BDL*</t>
+  </si>
+  <si>
+    <t>R-SW_Att_BDL*</t>
+  </si>
+  <si>
+    <t>R-SW_Det_BDL*</t>
   </si>
 </sst>
 </file>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
@@ -3356,10 +3356,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
@@ -3513,7 +3513,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="57" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="57"/>
@@ -3543,7 +3543,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="57" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="57"/>
@@ -3605,7 +3605,7 @@
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="57" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="57"/>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B29" s="47">
         <v>1</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C31" s="57"/>
       <c r="D31" s="57"/>
@@ -3759,7 +3759,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="50" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="49"/>
@@ -15004,13 +15004,13 @@
         <v>44726</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -15025,7 +15025,7 @@
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15790,7 +15790,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -16810,8 +16810,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16905,7 +16905,7 @@
         <v>R-SH*Apt_COA*</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D6" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -16942,7 +16942,7 @@
         <v>R-SH*Apt_BDL*</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D7" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -16979,7 +16979,7 @@
         <v>R-SH*Apt_ETH*</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D8" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17016,7 +17016,7 @@
         <v>R-SH*Apt_LPG*</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D9" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17053,7 +17053,7 @@
         <v>R-S*_Apt*HPN*</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D10" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17090,7 +17090,7 @@
         <v>R-S*_Apt_ELC_N1,-R-SC*</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D11" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17127,7 +17127,7 @@
         <v>R-SH*Apt_KER*</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D12" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17164,7 +17164,7 @@
         <v>R-SH*Apt_GAS*</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D13" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17201,7 +17201,7 @@
         <v>R-SH*Apt_PEA*</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D14" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17238,7 +17238,7 @@
         <v>R-SH*Apt_SMF*</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D15" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17264,7 +17264,7 @@
         <v>R-SH*Apt_WOO*</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D16" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17290,7 +17290,7 @@
         <v>R-SH*Apt_HET*</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D17" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17340,7 +17340,7 @@
         <v>R-SH*Att_COA*</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D19" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17371,7 +17371,7 @@
         <v>R-SH*Att_BDL*</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D20" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17407,7 +17407,7 @@
         <v>R-SH*Att_ETH*</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D21" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17443,7 +17443,7 @@
         <v>R-SH*Att_LPG*</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D22" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17479,7 +17479,7 @@
         <v>R-S*_Att*HPN*</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D23" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17515,7 +17515,7 @@
         <v>R-S*_Att_ELC_N1,-R-SC*</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D24" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17551,7 +17551,7 @@
         <v>R-SH*Att_KER*</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D25" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17583,10 +17583,10 @@
         <v>244</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D26" s="52">
         <f>D25</f>
@@ -17605,7 +17605,7 @@
         <v>R-SH*Att_GAS*</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D27" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17631,7 +17631,7 @@
         <v>R-SH*Att_PEA*</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D28" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17657,7 +17657,7 @@
         <v>R-SH*Att_SMF*</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D29" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17683,7 +17683,7 @@
         <v>R-SH*Att_WOO*</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D30" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17708,7 +17708,7 @@
         <v>269</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D31" s="51">
         <f>D30</f>
@@ -17727,7 +17727,7 @@
         <v>R-SH*Att_HET*</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D32" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17765,7 +17765,7 @@
         <v>R-SH*Det_COA*</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D34" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17791,7 +17791,7 @@
         <v>R-SH*Det_BDL*</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D35" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17817,7 +17817,7 @@
         <v>R-SH*Det_ETH*</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D36" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17843,7 +17843,7 @@
         <v>R-SH*Det_LPG*</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D37" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17869,7 +17869,7 @@
         <v>R-S*_Det*HPN*</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D38" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17895,7 +17895,7 @@
         <v>R-S*_Det_ELC_N1,-R-SC*</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D39" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17921,7 +17921,7 @@
         <v>R-SH*Det_KER*</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D40" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17943,10 +17943,10 @@
         <v>244</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D41" s="52">
         <f>D40</f>
@@ -17965,7 +17965,7 @@
         <v>R-SH*Det_GAS*</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D42" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -17991,7 +17991,7 @@
         <v>R-SH*Det_PEA*</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D43" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -18017,7 +18017,7 @@
         <v>R-SH*Det_SMF*</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D44" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -18043,7 +18043,7 @@
         <v>R-SH*Det_WOO*</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D45" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -18068,7 +18068,7 @@
         <v>270</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D46" s="51">
         <f>D45</f>
@@ -18087,7 +18087,7 @@
         <v>R-SH*Det_HET*</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D47" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -18124,7 +18124,7 @@
         <v>R-SW*Apt_COA*</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D49" s="51">
         <f>D6</f>
@@ -18150,7 +18150,7 @@
         <v>R-SW*Apt_BDL*</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D50" s="52">
         <f t="shared" ref="D50:D59" si="9">D7</f>
@@ -18176,7 +18176,7 @@
         <v>R-SW*Apt_ETH*</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D51" s="51">
         <f t="shared" si="9"/>
@@ -18202,7 +18202,7 @@
         <v>R-SW*Apt_LPG*</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D52" s="52">
         <f t="shared" si="9"/>
@@ -18228,7 +18228,7 @@
         <v>R-*_Apt*HPN*</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D53" s="51">
         <f>D10</f>
@@ -18254,7 +18254,7 @@
         <v>R-S*_Apt_ELC_N1,-R-SC*</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D54" s="52">
         <f t="shared" si="9"/>
@@ -18280,7 +18280,7 @@
         <v>R-SW*Apt_KER*</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D55" s="51">
         <f t="shared" si="9"/>
@@ -18306,7 +18306,7 @@
         <v>R-SW*Apt_GAS*</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D56" s="52">
         <f t="shared" si="9"/>
@@ -18332,7 +18332,7 @@
         <v>R-SW*Apt_PEA*</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D57" s="51">
         <f t="shared" si="9"/>
@@ -18358,7 +18358,7 @@
         <v>R-SW*Apt_SMF*</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D58" s="52">
         <f t="shared" si="9"/>
@@ -18384,7 +18384,7 @@
         <v>R-SW*Apt_WOO*</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D59" s="51">
         <f t="shared" si="9"/>
@@ -18410,7 +18410,7 @@
         <v>R-SW*Apt_HET*</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D60" s="52">
         <f>D17</f>
@@ -18448,7 +18448,7 @@
         <v>R-SW*Att_COA*</v>
       </c>
       <c r="C62" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D62" s="51">
         <f>D19</f>
@@ -18474,7 +18474,7 @@
         <v>R-SW*Att_BDL*</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D63" s="52">
         <f t="shared" ref="D63:D75" si="13">D20</f>
@@ -18500,7 +18500,7 @@
         <v>R-SW*Att_ETH*</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D64" s="51">
         <f t="shared" si="13"/>
@@ -18526,7 +18526,7 @@
         <v>R-SW*Att_LPG*</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D65" s="52">
         <f t="shared" si="13"/>
@@ -18552,7 +18552,7 @@
         <v>R-*_Att*HPN*</v>
       </c>
       <c r="C66" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D66" s="51">
         <f t="shared" si="13"/>
@@ -18578,7 +18578,7 @@
         <v>R-S*_Att_ELC_N1,-R-SC*</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D67" s="52">
         <f t="shared" si="13"/>
@@ -18604,7 +18604,7 @@
         <v>R-SW*Att_KER*</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D68" s="51">
         <f t="shared" si="13"/>
@@ -18626,10 +18626,10 @@
         <v>198</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D69" s="52">
         <f t="shared" si="13"/>
@@ -18648,7 +18648,7 @@
         <v>R-SW*Att_GAS*</v>
       </c>
       <c r="C70" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D70" s="51">
         <f t="shared" si="13"/>
@@ -18674,7 +18674,7 @@
         <v>R-SW*Att_PEA*</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D71" s="52">
         <f t="shared" si="13"/>
@@ -18700,7 +18700,7 @@
         <v>R-SW*Att_SMF*</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D72" s="51">
         <f t="shared" si="13"/>
@@ -18726,7 +18726,7 @@
         <v>R-SW*Att_WOO*</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D73" s="52">
         <f t="shared" si="13"/>
@@ -18751,7 +18751,7 @@
         <v>271</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D74" s="51">
         <f t="shared" si="13"/>
@@ -18770,7 +18770,7 @@
         <v>R-SW*Att_HET*</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D75" s="52">
         <f t="shared" si="13"/>
@@ -18808,7 +18808,7 @@
         <v>R-SW*Det_COA*</v>
       </c>
       <c r="C77" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D77" s="51">
         <f>D34</f>
@@ -18834,7 +18834,7 @@
         <v>R-SW*Det_BDL*</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D78" s="52">
         <f t="shared" ref="D78:D90" si="17">D35</f>
@@ -18860,7 +18860,7 @@
         <v>R-SW*Det_ETH*</v>
       </c>
       <c r="C79" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D79" s="51">
         <f t="shared" si="17"/>
@@ -18886,7 +18886,7 @@
         <v>R-SW*Det_LPG*</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D80" s="52">
         <f t="shared" si="17"/>
@@ -18912,7 +18912,7 @@
         <v>R-*_Det*HPN*</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D81" s="51">
         <f t="shared" si="17"/>
@@ -18938,7 +18938,7 @@
         <v>R-S*_Det_ELC_N1,-R-SC*</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D82" s="52">
         <f t="shared" si="17"/>
@@ -18964,7 +18964,7 @@
         <v>R-SW*Det_KER*</v>
       </c>
       <c r="C83" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D83" s="51">
         <f t="shared" si="17"/>
@@ -18986,10 +18986,10 @@
         <v>198</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D84" s="52">
         <f t="shared" si="17"/>
@@ -19008,7 +19008,7 @@
         <v>R-SW*Det_GAS*</v>
       </c>
       <c r="C85" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D85" s="51">
         <f t="shared" si="17"/>
@@ -19034,7 +19034,7 @@
         <v>R-SW*Det_PEA*</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D86" s="52">
         <f t="shared" si="17"/>
@@ -19060,7 +19060,7 @@
         <v>R-SW*Det_SMF*</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D87" s="51">
         <f t="shared" si="17"/>
@@ -19086,7 +19086,7 @@
         <v>R-SW*Det_WOO*</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D88" s="52">
         <f t="shared" si="17"/>
@@ -19111,7 +19111,7 @@
         <v>272</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D89" s="51">
         <f t="shared" si="17"/>
@@ -19130,7 +19130,7 @@
         <v>R-SW*Det_HET*</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D90" s="52">
         <f t="shared" si="17"/>
@@ -20253,7 +20253,7 @@
         <v>R-HC_Apt_ELC_HPN*</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D139" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H139,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -20279,7 +20279,7 @@
         <v>R-HC_Att_ELC_HPN*</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D140" s="52">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H140,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -20305,7 +20305,7 @@
         <v>R-HC_Det_ELC_HPN*</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D141" s="51">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H141,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
@@ -20643,7 +20643,7 @@
         <v>R-S*_Apt_*HET*</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -20928,7 +20928,7 @@
         <v>R-S*_Att_*HET*</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -21213,7 +21213,7 @@
         <v>R-S*_Det_*HET*</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -21600,7 +21600,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -21908,7 +21908,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -22216,7 +22216,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0308F661-8C72-417A-8165-567B850378B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED6975-CA46-4840-9799-CAAE80DA0CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="4110" windowWidth="19200" windowHeight="11170" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -2322,7 +2322,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2373,7 +2373,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -2508,9 +2508,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2548,9 +2548,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2583,26 +2583,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2635,26 +2618,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2833,21 +2799,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="39" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="39" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="39" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="39" customWidth="1"/>
+    <col min="1" max="4" width="21.6328125" style="39" customWidth="1"/>
+    <col min="5" max="6" width="14.08984375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" style="39" customWidth="1"/>
+    <col min="8" max="10" width="8.08984375" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" style="39" customWidth="1"/>
     <col min="13" max="13" width="10" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="39"/>
+    <col min="14" max="14" width="11.453125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="39" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -2875,7 +2841,7 @@
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2903,7 +2869,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -2931,7 +2897,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -2959,7 +2925,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2987,7 +2953,7 @@
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -3015,7 +2981,7 @@
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3043,7 +3009,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -3071,7 +3037,7 @@
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3099,7 +3065,7 @@
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -3127,7 +3093,7 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -3155,7 +3121,7 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -3183,7 +3149,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -3211,7 +3177,7 @@
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -3239,7 +3205,7 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3267,7 +3233,7 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58" t="s">
         <v>277</v>
       </c>
@@ -3297,7 +3263,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -3325,7 +3291,7 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -3353,7 +3319,7 @@
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="45" t="s">
         <v>278</v>
       </c>
@@ -3385,7 +3351,7 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="45" t="s">
         <v>279</v>
       </c>
@@ -3417,7 +3383,7 @@
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="45" t="s">
         <v>280</v>
       </c>
@@ -3449,7 +3415,7 @@
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="45"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -3477,7 +3443,7 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="45" t="s">
         <v>281</v>
       </c>
@@ -3509,7 +3475,7 @@
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="45"/>
       <c r="B24" s="57" t="s">
         <v>291</v>
@@ -3539,7 +3505,7 @@
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="45"/>
       <c r="B25" s="57" t="s">
         <v>292</v>
@@ -3569,7 +3535,7 @@
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="45" t="s">
         <v>282</v>
       </c>
@@ -3601,7 +3567,7 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="45"/>
       <c r="B27" s="57" t="s">
         <v>292</v>
@@ -3631,7 +3597,7 @@
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="45"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -3659,7 +3625,7 @@
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="45" t="s">
         <v>283</v>
       </c>
@@ -3691,7 +3657,7 @@
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45" t="s">
         <v>284</v>
       </c>
@@ -3723,7 +3689,7 @@
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="45" t="s">
         <v>286</v>
       </c>
@@ -3755,7 +3721,7 @@
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="51"/>
       <c r="B32" s="52" t="s">
         <v>288</v>
@@ -3785,7 +3751,7 @@
       <c r="Y32" s="38"/>
       <c r="Z32" s="38"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -3813,7 +3779,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -3841,7 +3807,7 @@
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -3869,7 +3835,7 @@
       <c r="Y35" s="38"/>
       <c r="Z35" s="38"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -3897,7 +3863,7 @@
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -3925,7 +3891,7 @@
       <c r="Y37" s="38"/>
       <c r="Z37" s="38"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -3953,7 +3919,7 @@
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -3981,7 +3947,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -4009,7 +3975,7 @@
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -4037,7 +4003,7 @@
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -4065,7 +4031,7 @@
       <c r="Y42" s="38"/>
       <c r="Z42" s="38"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
@@ -4093,7 +4059,7 @@
       <c r="Y43" s="38"/>
       <c r="Z43" s="38"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -4121,7 +4087,7 @@
       <c r="Y44" s="38"/>
       <c r="Z44" s="38"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -4149,7 +4115,7 @@
       <c r="Y45" s="38"/>
       <c r="Z45" s="38"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -4177,7 +4143,7 @@
       <c r="Y46" s="38"/>
       <c r="Z46" s="38"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
@@ -4205,7 +4171,7 @@
       <c r="Y47" s="38"/>
       <c r="Z47" s="38"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
@@ -4233,7 +4199,7 @@
       <c r="Y48" s="38"/>
       <c r="Z48" s="38"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -4261,7 +4227,7 @@
       <c r="Y49" s="38"/>
       <c r="Z49" s="38"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -4289,7 +4255,7 @@
       <c r="Y50" s="38"/>
       <c r="Z50" s="38"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
@@ -4317,7 +4283,7 @@
       <c r="Y51" s="38"/>
       <c r="Z51" s="38"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -4345,7 +4311,7 @@
       <c r="Y52" s="38"/>
       <c r="Z52" s="38"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -4373,7 +4339,7 @@
       <c r="Y53" s="38"/>
       <c r="Z53" s="38"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
@@ -4401,7 +4367,7 @@
       <c r="Y54" s="38"/>
       <c r="Z54" s="38"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
@@ -4429,7 +4395,7 @@
       <c r="Y55" s="38"/>
       <c r="Z55" s="38"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -4457,7 +4423,7 @@
       <c r="Y56" s="38"/>
       <c r="Z56" s="38"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -4485,7 +4451,7 @@
       <c r="Y57" s="38"/>
       <c r="Z57" s="38"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -4513,7 +4479,7 @@
       <c r="Y58" s="38"/>
       <c r="Z58" s="38"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -4541,7 +4507,7 @@
       <c r="Y59" s="38"/>
       <c r="Z59" s="38"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -4569,7 +4535,7 @@
       <c r="Y60" s="38"/>
       <c r="Z60" s="38"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -4597,7 +4563,7 @@
       <c r="Y61" s="38"/>
       <c r="Z61" s="38"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -4625,7 +4591,7 @@
       <c r="Y62" s="38"/>
       <c r="Z62" s="38"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -4653,7 +4619,7 @@
       <c r="Y63" s="38"/>
       <c r="Z63" s="38"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -4681,7 +4647,7 @@
       <c r="Y64" s="38"/>
       <c r="Z64" s="38"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
@@ -4709,7 +4675,7 @@
       <c r="Y65" s="38"/>
       <c r="Z65" s="38"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -4737,7 +4703,7 @@
       <c r="Y66" s="38"/>
       <c r="Z66" s="38"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -4765,7 +4731,7 @@
       <c r="Y67" s="38"/>
       <c r="Z67" s="38"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
@@ -4793,7 +4759,7 @@
       <c r="Y68" s="38"/>
       <c r="Z68" s="38"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
@@ -4821,7 +4787,7 @@
       <c r="Y69" s="38"/>
       <c r="Z69" s="38"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -4849,7 +4815,7 @@
       <c r="Y70" s="38"/>
       <c r="Z70" s="38"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -4877,7 +4843,7 @@
       <c r="Y71" s="38"/>
       <c r="Z71" s="38"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -4905,7 +4871,7 @@
       <c r="Y72" s="38"/>
       <c r="Z72" s="38"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
@@ -4933,7 +4899,7 @@
       <c r="Y73" s="38"/>
       <c r="Z73" s="38"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
@@ -4961,7 +4927,7 @@
       <c r="Y74" s="38"/>
       <c r="Z74" s="38"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -4989,7 +4955,7 @@
       <c r="Y75" s="38"/>
       <c r="Z75" s="38"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -5017,7 +4983,7 @@
       <c r="Y76" s="38"/>
       <c r="Z76" s="38"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -5045,7 +5011,7 @@
       <c r="Y77" s="38"/>
       <c r="Z77" s="38"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -5073,7 +5039,7 @@
       <c r="Y78" s="38"/>
       <c r="Z78" s="38"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -5101,7 +5067,7 @@
       <c r="Y79" s="38"/>
       <c r="Z79" s="38"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -5129,7 +5095,7 @@
       <c r="Y80" s="38"/>
       <c r="Z80" s="38"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -5157,7 +5123,7 @@
       <c r="Y81" s="38"/>
       <c r="Z81" s="38"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -5185,7 +5151,7 @@
       <c r="Y82" s="38"/>
       <c r="Z82" s="38"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -5213,7 +5179,7 @@
       <c r="Y83" s="38"/>
       <c r="Z83" s="38"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -5241,7 +5207,7 @@
       <c r="Y84" s="38"/>
       <c r="Z84" s="38"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -5269,7 +5235,7 @@
       <c r="Y85" s="38"/>
       <c r="Z85" s="38"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -5297,7 +5263,7 @@
       <c r="Y86" s="38"/>
       <c r="Z86" s="38"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -5325,7 +5291,7 @@
       <c r="Y87" s="38"/>
       <c r="Z87" s="38"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -5353,7 +5319,7 @@
       <c r="Y88" s="38"/>
       <c r="Z88" s="38"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -5381,7 +5347,7 @@
       <c r="Y89" s="38"/>
       <c r="Z89" s="38"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -5409,7 +5375,7 @@
       <c r="Y90" s="38"/>
       <c r="Z90" s="38"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -5437,7 +5403,7 @@
       <c r="Y91" s="38"/>
       <c r="Z91" s="38"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -5465,7 +5431,7 @@
       <c r="Y92" s="38"/>
       <c r="Z92" s="38"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -5493,7 +5459,7 @@
       <c r="Y93" s="38"/>
       <c r="Z93" s="38"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
@@ -5521,7 +5487,7 @@
       <c r="Y94" s="38"/>
       <c r="Z94" s="38"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -5549,7 +5515,7 @@
       <c r="Y95" s="38"/>
       <c r="Z95" s="38"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
@@ -5577,7 +5543,7 @@
       <c r="Y96" s="38"/>
       <c r="Z96" s="38"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -5605,7 +5571,7 @@
       <c r="Y97" s="38"/>
       <c r="Z97" s="38"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
@@ -5633,7 +5599,7 @@
       <c r="Y98" s="38"/>
       <c r="Z98" s="38"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
@@ -5691,12 +5657,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5737,7 +5703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5778,7 +5744,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5819,7 +5785,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5860,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5901,7 +5867,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5942,7 +5908,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5983,7 +5949,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -6024,7 +5990,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6065,7 +6031,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6106,7 +6072,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6147,7 +6113,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6188,7 +6154,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6229,7 +6195,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6270,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6311,7 +6277,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6352,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6393,7 +6359,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6434,7 +6400,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6475,7 +6441,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6516,7 +6482,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6557,7 +6523,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6598,7 +6564,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6639,7 +6605,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6680,7 +6646,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6721,7 +6687,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6762,7 +6728,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6803,7 +6769,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6844,7 +6810,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6885,7 +6851,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6926,7 +6892,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6967,7 +6933,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -7008,7 +6974,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7049,7 +7015,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7090,7 +7056,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7131,7 +7097,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7172,7 +7138,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7213,7 +7179,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7254,7 +7220,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7295,7 +7261,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7336,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7377,7 +7343,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7418,7 +7384,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7459,7 +7425,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7500,7 +7466,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7541,7 +7507,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7582,7 +7548,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7623,7 +7589,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7664,7 +7630,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7705,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7746,7 +7712,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7787,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7828,7 +7794,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7869,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7910,7 +7876,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7951,7 +7917,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7992,7 +7958,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8033,7 +7999,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8074,7 +8040,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8115,7 +8081,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8156,7 +8122,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8197,7 +8163,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8238,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8279,7 +8245,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8320,7 +8286,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8361,7 +8327,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8402,7 +8368,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8443,7 +8409,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8484,7 +8450,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8525,7 +8491,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8566,7 +8532,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8607,7 +8573,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8648,7 +8614,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8689,7 +8655,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8730,7 +8696,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8771,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8824,9 +8790,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8867,7 +8833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8920,9 +8886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8963,7 +8929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8998,13 +8964,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.12635353241295499</v>
+        <v>0.12716586319930701</v>
       </c>
       <c r="M2">
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.12716586319930701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9039,13 +9005,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.24100352965976199</v>
+        <v>0.24175608869574</v>
       </c>
       <c r="M3">
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.24175608869574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9080,10 +9046,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.29839165082681302</v>
+        <v>0.29872122806778101</v>
       </c>
       <c r="M4">
-        <v>0.29839165082681302</v>
+        <v>0.29872122806778101</v>
       </c>
     </row>
   </sheetData>
@@ -9098,9 +9064,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9141,7 +9107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9196,12 +9162,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9242,7 +9208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9277,13 +9243,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.20963817697789</v>
+        <v>0.21098594733224099</v>
       </c>
       <c r="M2">
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.21098594733224099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9318,13 +9284,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.29754218668175703</v>
+        <v>0.29847129365993402</v>
       </c>
       <c r="M3">
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.29847129365993402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9359,10 +9325,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>0.49011428261671702</v>
+        <v>0.49065561985780998</v>
       </c>
       <c r="M4">
-        <v>0.49011428261671702</v>
+        <v>0.49065561985780998</v>
       </c>
     </row>
   </sheetData>
@@ -9377,9 +9343,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9420,7 +9386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9473,9 +9439,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9516,7 +9482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9551,13 +9517,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>1.2457230310998201E-2</v>
+        <v>1.21865123037202E-2</v>
       </c>
       <c r="M2">
-        <v>1.2457230310998201E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.21865123037202E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9592,13 +9558,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>1.06776419273959E-2</v>
+        <v>1.04455975746106E-2</v>
       </c>
       <c r="M3">
-        <v>1.06776419273959E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.04455975746106E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9633,10 +9599,10 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.06776273367935E-2</v>
+        <v>1.0445583301088201E-2</v>
       </c>
       <c r="M4">
-        <v>1.06776273367935E-2</v>
+        <v>1.0445583301088201E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9653,9 +9619,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9696,7 +9662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9751,9 +9717,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9794,7 +9760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9829,10 +9795,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.956481782990526</v>
+        <v>0.93569571451266098</v>
       </c>
       <c r="M2">
-        <v>0.956481782990526</v>
+        <v>0.93569571451266098</v>
       </c>
     </row>
   </sheetData>
@@ -9851,16 +9817,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="60.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -9877,7 +9843,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>44237</v>
       </c>
@@ -9892,7 +9858,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>44232</v>
       </c>
@@ -9925,39 +9891,39 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.08984375" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10071,12 +10037,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10191,7 +10157,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -10308,7 +10274,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -10425,7 +10391,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -10433,7 +10399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -10441,7 +10407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -10449,7 +10415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
@@ -10457,7 +10423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -10465,7 +10431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
@@ -10473,7 +10439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -10481,7 +10447,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
@@ -10489,7 +10455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
@@ -10497,7 +10463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -10505,7 +10471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
@@ -10513,7 +10479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -10521,7 +10487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -10529,7 +10495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -10537,7 +10503,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
@@ -10545,7 +10511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
@@ -10553,7 +10519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
@@ -10561,7 +10527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
@@ -10569,7 +10535,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>49</v>
       </c>
@@ -10577,7 +10543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
@@ -10585,7 +10551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>53</v>
       </c>
@@ -10593,7 +10559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
@@ -10601,7 +10567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>57</v>
       </c>
@@ -10609,7 +10575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>59</v>
       </c>
@@ -10617,7 +10583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
@@ -10625,7 +10591,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>63</v>
       </c>
@@ -10633,7 +10599,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>65</v>
       </c>
@@ -10641,7 +10607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -10667,7 +10633,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -10691,43 +10657,43 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.36328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" customWidth="1"/>
+    <col min="8" max="8" width="2.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10751,7 +10717,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10797,7 +10763,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10829,7 +10795,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10849,7 +10815,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -10887,18 +10853,18 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="15"/>
-    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" style="15"/>
-    <col min="16" max="16" width="11.42578125" style="15" customWidth="1"/>
-    <col min="17" max="25" width="9.140625" style="15"/>
-    <col min="26" max="26" width="11.7109375" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="5" width="9.08984375" style="15"/>
+    <col min="6" max="6" width="12.90625" style="15" customWidth="1"/>
+    <col min="7" max="15" width="9.08984375" style="15"/>
+    <col min="16" max="16" width="11.453125" style="15" customWidth="1"/>
+    <col min="17" max="25" width="9.08984375" style="15"/>
+    <col min="26" max="26" width="11.6328125" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="9.08984375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:30" ht="23.5" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>91</v>
       </c>
@@ -10909,7 +10875,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>85</v>
       </c>
@@ -10944,7 +10910,7 @@
       <c r="AC3" s="17"/>
       <c r="AD3" s="17"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>68</v>
       </c>
@@ -11027,7 +10993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="24" t="s">
         <v>77</v>
       </c>
@@ -11086,7 +11052,7 @@
       <c r="AC5" s="26"/>
       <c r="AD5" s="26"/>
     </row>
-    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="19"/>
@@ -11116,7 +11082,7 @@
       <c r="AC6" s="26"/>
       <c r="AD6" s="26"/>
     </row>
-    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>87</v>
       </c>
@@ -11140,7 +11106,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>68</v>
       </c>
@@ -11196,7 +11162,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="24" t="s">
         <v>77</v>
       </c>
@@ -11236,7 +11202,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>108</v>
       </c>
@@ -11260,7 +11226,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>68</v>
       </c>
@@ -11316,7 +11282,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="24" t="s">
         <v>77</v>
       </c>
@@ -11356,7 +11322,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
     </row>
-    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>118</v>
       </c>
@@ -11380,7 +11346,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>68</v>
       </c>
@@ -11436,7 +11402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="24" t="s">
         <v>77</v>
       </c>
@@ -11476,7 +11442,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>119</v>
       </c>
@@ -11500,7 +11466,7 @@
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
     </row>
-    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>68</v>
       </c>
@@ -11556,7 +11522,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="24" t="s">
         <v>77</v>
       </c>
@@ -11596,7 +11562,7 @@
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
     </row>
-    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="L28" s="16" t="s">
         <v>173</v>
       </c>
@@ -11609,7 +11575,7 @@
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29" s="18" t="s">
         <v>68</v>
       </c>
@@ -11638,7 +11604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="L30" s="24" t="s">
         <v>77</v>
       </c>
@@ -11659,7 +11625,7 @@
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
     </row>
-    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="12:20" ht="14.5" x14ac:dyDescent="0.25">
       <c r="L33" s="16" t="s">
         <v>174</v>
       </c>
@@ -11672,7 +11638,7 @@
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L34" s="18" t="s">
         <v>68</v>
       </c>
@@ -11701,7 +11667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:20" ht="14.5" x14ac:dyDescent="0.35">
       <c r="L35" s="24" t="s">
         <v>77</v>
       </c>
@@ -11738,33 +11704,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
-    <col min="10" max="10" width="13.140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.90625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.36328125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="21"/>
+    <col min="10" max="10" width="13.08984375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" style="21" customWidth="1"/>
     <col min="12" max="12" width="13" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="13" max="16384" width="9.08984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>243</v>
       </c>
@@ -11772,7 +11738,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>70</v>
       </c>
@@ -11804,7 +11770,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>248</v>
       </c>
@@ -11820,7 +11786,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
@@ -11831,7 +11797,7 @@
       <c r="C6" s="30"/>
       <c r="D6" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>109</v>
@@ -11855,7 +11821,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
@@ -11866,7 +11832,7 @@
       <c r="C7" s="31"/>
       <c r="D7" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
       <c r="F7" s="31" t="s">
         <v>109</v>
@@ -11887,10 +11853,10 @@
       </c>
       <c r="L7" s="31">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K7,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.2457230310998201E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.21865123037202E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
@@ -11901,7 +11867,7 @@
       <c r="C8" s="30"/>
       <c r="D8" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>109</v>
@@ -11922,10 +11888,10 @@
       </c>
       <c r="L8" s="30">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K8,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.06776419273959E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.04455975746106E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>244</v>
       </c>
@@ -11936,7 +11902,7 @@
       <c r="C9" s="31"/>
       <c r="D9" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>109</v>
@@ -11957,10 +11923,10 @@
       </c>
       <c r="L9" s="31">
         <f>AVERAGEIFS('BY-RSD-CK'!$L$2:$L$100,'BY-RSD-CK'!$C$2:$C$100,AF!K9,'BY-RSD-CK'!$A$2:$A$100,"BASE")</f>
-        <v>1.06776273367935E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>1.0445583301088201E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>244</v>
       </c>
@@ -11971,7 +11937,7 @@
       <c r="C10" s="30"/>
       <c r="D10" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H10,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>109</v>
@@ -11995,7 +11961,7 @@
         <v>6.7195931921959296E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>244</v>
       </c>
@@ -12006,7 +11972,7 @@
       <c r="C11" s="31"/>
       <c r="D11" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H11,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>109</v>
@@ -12030,7 +11996,7 @@
         <v>1.18630136986301E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
         <v>244</v>
       </c>
@@ -12041,7 +12007,7 @@
       <c r="C12" s="30"/>
       <c r="D12" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B12,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
       <c r="F12" s="30" t="s">
         <v>109</v>
@@ -12065,7 +12031,7 @@
         <v>1.0896637608966401E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>244</v>
       </c>
@@ -12076,7 +12042,7 @@
       <c r="C13" s="31"/>
       <c r="D13" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B13,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>109</v>
@@ -12097,10 +12063,10 @@
       </c>
       <c r="L13" s="31">
         <f>AVERAGEIFS('BY-RSD-OE'!$L$2:$L$100,'BY-RSD-OE'!$C$2:$C$100,AF!K13,'BY-RSD-OE'!$A$2:$A$100,"BASE")</f>
-        <v>0.956481782990526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.93569571451266098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
         <v>1</v>
       </c>
@@ -12111,7 +12077,7 @@
       <c r="C14" s="30"/>
       <c r="D14" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B14,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>109</v>
@@ -12135,7 +12101,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
@@ -12146,7 +12112,7 @@
       <c r="C15" s="31"/>
       <c r="D15" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
       <c r="F15" s="31" t="s">
         <v>109</v>
@@ -12159,7 +12125,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>244</v>
       </c>
@@ -12170,7 +12136,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>109</v>
@@ -12183,7 +12149,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
@@ -12194,7 +12160,7 @@
       <c r="C17" s="31"/>
       <c r="D17" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
       <c r="F17" s="31" t="s">
         <v>109</v>
@@ -12210,7 +12176,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>112</v>
       </c>
@@ -12231,7 +12197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>1</v>
       </c>
@@ -12242,7 +12208,7 @@
       <c r="C19" s="30"/>
       <c r="D19" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H19,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>105</v>
@@ -12260,7 +12226,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>1</v>
       </c>
@@ -12271,7 +12237,7 @@
       <c r="C20" s="31"/>
       <c r="D20" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
       <c r="F20" s="31" t="s">
         <v>105</v>
@@ -12291,10 +12257,10 @@
       </c>
       <c r="L20" s="30">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K20,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.20963817697789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.21098594733224099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>1</v>
       </c>
@@ -12325,10 +12291,10 @@
       </c>
       <c r="L21" s="31">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K21,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.29754218668175703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.29847129365993402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>244</v>
       </c>
@@ -12339,7 +12305,7 @@
       <c r="C22" s="31"/>
       <c r="D22" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H22,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>105</v>
@@ -12359,10 +12325,10 @@
       </c>
       <c r="L22" s="30">
         <f>AVERAGEIFS('BY-RSD-LT'!$L$2:$L$100,'BY-RSD-LT'!$C$2:$C$100,AF!K22,'BY-RSD-LT'!$A$2:$A$100,"BASE")</f>
-        <v>0.49011428261671702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.49065561985780998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>244</v>
       </c>
@@ -12373,7 +12339,7 @@
       <c r="C23" s="30"/>
       <c r="D23" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H23,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>105</v>
@@ -12393,10 +12359,10 @@
       </c>
       <c r="L23" s="31">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K23,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12635353241295499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.12716586319930701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>244</v>
       </c>
@@ -12407,7 +12373,7 @@
       <c r="C24" s="31"/>
       <c r="D24" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H24,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
       <c r="F24" s="31" t="s">
         <v>105</v>
@@ -12427,10 +12393,10 @@
       </c>
       <c r="L24" s="30">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K24,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.24100352965976199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.24175608869574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>244</v>
       </c>
@@ -12441,7 +12407,7 @@
       <c r="C25" s="30"/>
       <c r="D25" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H25,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>105</v>
@@ -12461,10 +12427,10 @@
       </c>
       <c r="L25" s="31">
         <f>AVERAGEIFS('BY-RSD-PF'!$L$2:$L$100,'BY-RSD-PF'!$C$2:$C$100,AF!K25,'BY-RSD-PF'!$A$2:$A$100,"BASE")</f>
-        <v>0.29839165082681302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+        <v>0.29872122806778101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>244</v>
       </c>
@@ -12474,7 +12440,7 @@
       <c r="C26" s="31"/>
       <c r="D26" s="54">
         <f>D25</f>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
@@ -12483,7 +12449,7 @@
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
         <v>244</v>
       </c>
@@ -12494,7 +12460,7 @@
       <c r="C27" s="30"/>
       <c r="D27" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H27,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>105</v>
@@ -12507,7 +12473,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>1</v>
       </c>
@@ -12518,7 +12484,7 @@
       <c r="C28" s="31"/>
       <c r="D28" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H28,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>105</v>
@@ -12531,7 +12497,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>1</v>
       </c>
@@ -12542,7 +12508,7 @@
       <c r="C29" s="30"/>
       <c r="D29" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H29,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>105</v>
@@ -12555,7 +12521,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
         <v>244</v>
       </c>
@@ -12566,7 +12532,7 @@
       <c r="C30" s="31"/>
       <c r="D30" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>105</v>
@@ -12579,7 +12545,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>244</v>
       </c>
@@ -12589,13 +12555,13 @@
       <c r="C31" s="30"/>
       <c r="D31" s="53">
         <f>D30</f>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>1</v>
       </c>
@@ -12606,7 +12572,7 @@
       <c r="C32" s="31"/>
       <c r="D32" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>105</v>
@@ -12619,7 +12585,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>113</v>
       </c>
@@ -12631,7 +12597,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>1</v>
       </c>
@@ -12642,7 +12608,7 @@
       <c r="C34" s="30"/>
       <c r="D34" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H34,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>114</v>
@@ -12655,7 +12621,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>1</v>
       </c>
@@ -12679,7 +12645,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>1</v>
       </c>
@@ -12703,7 +12669,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>244</v>
       </c>
@@ -12714,7 +12680,7 @@
       <c r="C37" s="31"/>
       <c r="D37" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H37,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>114</v>
@@ -12727,7 +12693,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="30" t="s">
         <v>244</v>
       </c>
@@ -12738,7 +12704,7 @@
       <c r="C38" s="30"/>
       <c r="D38" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H38,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F38" s="30" t="s">
         <v>114</v>
@@ -12751,7 +12717,7 @@
         <v>R-SH*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>244</v>
       </c>
@@ -12762,7 +12728,7 @@
       <c r="C39" s="31"/>
       <c r="D39" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H39,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>114</v>
@@ -12775,7 +12741,7 @@
         <v>R-SH*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="30" t="s">
         <v>244</v>
       </c>
@@ -12786,7 +12752,7 @@
       <c r="C40" s="30"/>
       <c r="D40" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H40,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>114</v>
@@ -12799,7 +12765,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>244</v>
       </c>
@@ -12809,13 +12775,13 @@
       <c r="C41" s="31"/>
       <c r="D41" s="54">
         <f>D40</f>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
         <v>244</v>
       </c>
@@ -12826,7 +12792,7 @@
       <c r="C42" s="30"/>
       <c r="D42" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H42,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
       <c r="F42" s="30" t="s">
         <v>114</v>
@@ -12839,7 +12805,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>1</v>
       </c>
@@ -12850,7 +12816,7 @@
       <c r="C43" s="31"/>
       <c r="D43" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H43,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>114</v>
@@ -12863,7 +12829,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
         <v>1</v>
       </c>
@@ -12874,7 +12840,7 @@
       <c r="C44" s="30"/>
       <c r="D44" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H44,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>114</v>
@@ -12887,7 +12853,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
         <v>244</v>
       </c>
@@ -12898,7 +12864,7 @@
       <c r="C45" s="31"/>
       <c r="D45" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H45,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F45" s="31" t="s">
         <v>114</v>
@@ -12911,7 +12877,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="30" t="s">
         <v>244</v>
       </c>
@@ -12921,13 +12887,13 @@
       <c r="C46" s="30"/>
       <c r="D46" s="53">
         <f>D45</f>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
         <v>1</v>
       </c>
@@ -12938,7 +12904,7 @@
       <c r="C47" s="31"/>
       <c r="D47" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>114</v>
@@ -12951,7 +12917,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
         <v>251</v>
       </c>
@@ -12962,7 +12928,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
         <v>1</v>
       </c>
@@ -12975,7 +12941,7 @@
       </c>
       <c r="D49" s="53">
         <f>D6</f>
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
       <c r="F49" s="30" t="s">
         <v>109</v>
@@ -12988,7 +12954,7 @@
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>1</v>
       </c>
@@ -13001,7 +12967,7 @@
       </c>
       <c r="D50" s="54">
         <f t="shared" ref="D50:D59" si="9">D7</f>
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
       <c r="F50" s="31" t="s">
         <v>109</v>
@@ -13014,7 +12980,7 @@
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>1</v>
       </c>
@@ -13027,7 +12993,7 @@
       </c>
       <c r="D51" s="53">
         <f t="shared" si="9"/>
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
       <c r="F51" s="30" t="s">
         <v>109</v>
@@ -13040,7 +13006,7 @@
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>198</v>
       </c>
@@ -13053,7 +13019,7 @@
       </c>
       <c r="D52" s="54">
         <f t="shared" si="9"/>
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
       <c r="F52" s="31" t="s">
         <v>109</v>
@@ -13066,7 +13032,7 @@
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
         <v>198</v>
       </c>
@@ -13079,7 +13045,7 @@
       </c>
       <c r="D53" s="53">
         <f>D10</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F53" s="30" t="s">
         <v>109</v>
@@ -13092,7 +13058,7 @@
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
         <v>198</v>
       </c>
@@ -13105,7 +13071,7 @@
       </c>
       <c r="D54" s="54">
         <f t="shared" si="9"/>
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
       <c r="F54" s="31" t="s">
         <v>109</v>
@@ -13118,7 +13084,7 @@
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="30" t="s">
         <v>198</v>
       </c>
@@ -13131,7 +13097,7 @@
       </c>
       <c r="D55" s="53">
         <f t="shared" si="9"/>
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>109</v>
@@ -13144,7 +13110,7 @@
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
         <v>198</v>
       </c>
@@ -13157,7 +13123,7 @@
       </c>
       <c r="D56" s="54">
         <f t="shared" si="9"/>
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>109</v>
@@ -13170,7 +13136,7 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="30" t="s">
         <v>1</v>
       </c>
@@ -13183,7 +13149,7 @@
       </c>
       <c r="D57" s="53">
         <f t="shared" si="9"/>
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
       <c r="F57" s="30" t="s">
         <v>109</v>
@@ -13196,7 +13162,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>1</v>
       </c>
@@ -13209,7 +13175,7 @@
       </c>
       <c r="D58" s="54">
         <f t="shared" si="9"/>
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>109</v>
@@ -13222,7 +13188,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
         <v>198</v>
       </c>
@@ -13235,7 +13201,7 @@
       </c>
       <c r="D59" s="53">
         <f t="shared" si="9"/>
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
       <c r="F59" s="30" t="s">
         <v>109</v>
@@ -13248,7 +13214,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>198</v>
       </c>
@@ -13261,7 +13227,7 @@
       </c>
       <c r="D60" s="54">
         <f>D17</f>
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>109</v>
@@ -13274,7 +13240,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A61" s="27" t="s">
         <v>250</v>
       </c>
@@ -13286,7 +13252,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="30" t="s">
         <v>1</v>
       </c>
@@ -13299,7 +13265,7 @@
       </c>
       <c r="D62" s="53">
         <f>D19</f>
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
       <c r="F62" s="30" t="s">
         <v>105</v>
@@ -13312,7 +13278,7 @@
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>1</v>
       </c>
@@ -13325,7 +13291,7 @@
       </c>
       <c r="D63" s="54">
         <f t="shared" ref="D63:D75" si="13">D20</f>
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
       <c r="F63" s="31" t="s">
         <v>105</v>
@@ -13338,7 +13304,7 @@
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="30" t="s">
         <v>1</v>
       </c>
@@ -13364,7 +13330,7 @@
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="31" t="s">
         <v>198</v>
       </c>
@@ -13377,7 +13343,7 @@
       </c>
       <c r="D65" s="54">
         <f t="shared" si="13"/>
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
       <c r="F65" s="31" t="s">
         <v>105</v>
@@ -13390,7 +13356,7 @@
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="30" t="s">
         <v>198</v>
       </c>
@@ -13403,7 +13369,7 @@
       </c>
       <c r="D66" s="53">
         <f t="shared" si="13"/>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F66" s="30" t="s">
         <v>105</v>
@@ -13416,7 +13382,7 @@
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="31" t="s">
         <v>198</v>
       </c>
@@ -13429,7 +13395,7 @@
       </c>
       <c r="D67" s="54">
         <f t="shared" si="13"/>
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
       <c r="F67" s="31" t="s">
         <v>105</v>
@@ -13442,7 +13408,7 @@
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="30" t="s">
         <v>198</v>
       </c>
@@ -13455,7 +13421,7 @@
       </c>
       <c r="D68" s="53">
         <f t="shared" si="13"/>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F68" s="30" t="s">
         <v>105</v>
@@ -13468,7 +13434,7 @@
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>198</v>
       </c>
@@ -13480,13 +13446,13 @@
       </c>
       <c r="D69" s="54">
         <f t="shared" si="13"/>
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="30" t="s">
         <v>198</v>
       </c>
@@ -13499,7 +13465,7 @@
       </c>
       <c r="D70" s="53">
         <f t="shared" si="13"/>
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
       <c r="F70" s="30" t="s">
         <v>105</v>
@@ -13512,7 +13478,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="31" t="s">
         <v>1</v>
       </c>
@@ -13525,7 +13491,7 @@
       </c>
       <c r="D71" s="54">
         <f t="shared" si="13"/>
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
       <c r="F71" s="31" t="s">
         <v>105</v>
@@ -13538,7 +13504,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="30" t="s">
         <v>1</v>
       </c>
@@ -13551,7 +13517,7 @@
       </c>
       <c r="D72" s="53">
         <f t="shared" si="13"/>
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
       <c r="F72" s="30" t="s">
         <v>105</v>
@@ -13564,7 +13530,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
         <v>198</v>
       </c>
@@ -13577,7 +13543,7 @@
       </c>
       <c r="D73" s="54">
         <f t="shared" si="13"/>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F73" s="31" t="s">
         <v>105</v>
@@ -13590,7 +13556,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="30" t="s">
         <v>198</v>
       </c>
@@ -13602,13 +13568,13 @@
       </c>
       <c r="D74" s="53">
         <f t="shared" si="13"/>
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
         <v>198</v>
       </c>
@@ -13621,7 +13587,7 @@
       </c>
       <c r="D75" s="54">
         <f t="shared" si="13"/>
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
       <c r="F75" s="31" t="s">
         <v>105</v>
@@ -13634,7 +13600,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>249</v>
       </c>
@@ -13646,7 +13612,7 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="30" t="s">
         <v>1</v>
       </c>
@@ -13659,7 +13625,7 @@
       </c>
       <c r="D77" s="53">
         <f>D34</f>
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
       <c r="F77" s="30" t="s">
         <v>114</v>
@@ -13672,7 +13638,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>1</v>
       </c>
@@ -13698,7 +13664,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="30" t="s">
         <v>1</v>
       </c>
@@ -13724,7 +13690,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>198</v>
       </c>
@@ -13737,7 +13703,7 @@
       </c>
       <c r="D80" s="54">
         <f t="shared" si="17"/>
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
       <c r="F80" s="31" t="s">
         <v>114</v>
@@ -13750,7 +13716,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="30" t="s">
         <v>198</v>
       </c>
@@ -13763,7 +13729,7 @@
       </c>
       <c r="D81" s="53">
         <f t="shared" si="17"/>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F81" s="30" t="s">
         <v>114</v>
@@ -13776,7 +13742,7 @@
         <v>R-SW*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="31" t="s">
         <v>198</v>
       </c>
@@ -13789,7 +13755,7 @@
       </c>
       <c r="D82" s="54">
         <f t="shared" si="17"/>
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
       <c r="F82" s="31" t="s">
         <v>114</v>
@@ -13802,7 +13768,7 @@
         <v>R-SW*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="30" t="s">
         <v>198</v>
       </c>
@@ -13815,7 +13781,7 @@
       </c>
       <c r="D83" s="53">
         <f t="shared" si="17"/>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F83" s="30" t="s">
         <v>114</v>
@@ -13828,7 +13794,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="31" t="s">
         <v>198</v>
       </c>
@@ -13840,13 +13806,13 @@
       </c>
       <c r="D84" s="54">
         <f t="shared" si="17"/>
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="31"/>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="30" t="s">
         <v>198</v>
       </c>
@@ -13859,7 +13825,7 @@
       </c>
       <c r="D85" s="53">
         <f t="shared" si="17"/>
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
       <c r="F85" s="30" t="s">
         <v>114</v>
@@ -13872,7 +13838,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="31" t="s">
         <v>1</v>
       </c>
@@ -13885,7 +13851,7 @@
       </c>
       <c r="D86" s="54">
         <f t="shared" si="17"/>
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
       <c r="F86" s="31" t="s">
         <v>114</v>
@@ -13898,7 +13864,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="30" t="s">
         <v>1</v>
       </c>
@@ -13911,7 +13877,7 @@
       </c>
       <c r="D87" s="53">
         <f t="shared" si="17"/>
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
       <c r="F87" s="30" t="s">
         <v>114</v>
@@ -13924,7 +13890,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
         <v>198</v>
       </c>
@@ -13937,7 +13903,7 @@
       </c>
       <c r="D88" s="54">
         <f t="shared" si="17"/>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F88" s="31" t="s">
         <v>114</v>
@@ -13950,7 +13916,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="30" t="s">
         <v>198</v>
       </c>
@@ -13962,13 +13928,13 @@
       </c>
       <c r="D89" s="53">
         <f t="shared" si="17"/>
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A90" s="31" t="s">
         <v>198</v>
       </c>
@@ -13981,7 +13947,7 @@
       </c>
       <c r="D90" s="54">
         <f t="shared" si="17"/>
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
       <c r="F90" s="31" t="s">
         <v>114</v>
@@ -13994,7 +13960,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A91" s="27" t="s">
         <v>115</v>
       </c>
@@ -14005,7 +13971,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="30" t="s">
         <v>1</v>
       </c>
@@ -14016,7 +13982,7 @@
       <c r="C92" s="30"/>
       <c r="D92" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.45255796882634303</v>
+        <v>0.42342871317737102</v>
       </c>
       <c r="F92" s="30" t="s">
         <v>109</v>
@@ -14029,7 +13995,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A93" s="31" t="s">
         <v>1</v>
       </c>
@@ -14053,7 +14019,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A94" s="30" t="s">
         <v>1</v>
       </c>
@@ -14077,7 +14043,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="31" t="s">
         <v>1</v>
       </c>
@@ -14088,7 +14054,7 @@
       <c r="C95" s="31"/>
       <c r="D95" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13251764473730199</v>
+        <v>0.12792665468435199</v>
       </c>
       <c r="F95" s="31" t="s">
         <v>109</v>
@@ -14101,7 +14067,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="30" t="s">
         <v>244</v>
       </c>
@@ -14112,7 +14078,7 @@
       <c r="C96" s="30"/>
       <c r="D96" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H96,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.2549233288808403E-2</v>
+        <v>5.3377456313566302E-2</v>
       </c>
       <c r="F96" s="30" t="s">
         <v>109</v>
@@ -14125,7 +14091,7 @@
         <v>R-WH_Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A97" s="31" t="s">
         <v>1</v>
       </c>
@@ -14136,7 +14102,7 @@
       <c r="C97" s="31"/>
       <c r="D97" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.112170033510623</v>
+        <v>0.11252568167857099</v>
       </c>
       <c r="F97" s="31" t="s">
         <v>109</v>
@@ -14149,7 +14115,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="30" t="s">
         <v>1</v>
       </c>
@@ -14160,7 +14126,7 @@
       <c r="C98" s="30"/>
       <c r="D98" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H98,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.5045615347050301E-2</v>
+        <v>6.0645497051149098E-2</v>
       </c>
       <c r="F98" s="30" t="s">
         <v>109</v>
@@ -14173,7 +14139,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="31" t="s">
         <v>1</v>
       </c>
@@ -14197,7 +14163,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="30" t="s">
         <v>1</v>
       </c>
@@ -14208,7 +14174,7 @@
       <c r="C100" s="30"/>
       <c r="D100" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>9.0196313138344295E-2</v>
+        <v>8.67381932124731E-2</v>
       </c>
       <c r="F100" s="30" t="s">
         <v>109</v>
@@ -14221,7 +14187,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="31" t="s">
         <v>1</v>
       </c>
@@ -14232,7 +14198,7 @@
       <c r="C101" s="31"/>
       <c r="D101" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.10316120676872401</v>
+        <v>9.9394310243560199E-2</v>
       </c>
       <c r="F101" s="31" t="s">
         <v>109</v>
@@ -14245,7 +14211,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="30" t="s">
         <v>1</v>
       </c>
@@ -14269,7 +14235,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A103" s="30" t="s">
         <v>244</v>
       </c>
@@ -14280,7 +14246,7 @@
       <c r="C103" s="30"/>
       <c r="D103" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H103,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.143159113753899</v>
+        <v>0.13976565562716001</v>
       </c>
       <c r="F103" s="30" t="s">
         <v>109</v>
@@ -14293,7 +14259,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A104" s="27" t="s">
         <v>116</v>
       </c>
@@ -14305,7 +14271,7 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A105" s="30" t="s">
         <v>1</v>
       </c>
@@ -14316,7 +14282,7 @@
       <c r="C105" s="30"/>
       <c r="D105" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H105,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.104359857576634</v>
+        <v>0.10081773520747001</v>
       </c>
       <c r="F105" s="30" t="s">
         <v>105</v>
@@ -14329,7 +14295,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A106" s="31" t="s">
         <v>1</v>
       </c>
@@ -14353,7 +14319,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A107" s="30" t="s">
         <v>1</v>
       </c>
@@ -14377,7 +14343,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A108" s="31" t="s">
         <v>1</v>
       </c>
@@ -14388,7 +14354,7 @@
       <c r="C108" s="31"/>
       <c r="D108" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.100567418678171</v>
+        <v>9.73639647341112E-2</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>105</v>
@@ -14401,7 +14367,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="30" t="s">
         <v>244</v>
       </c>
@@ -14412,7 +14378,7 @@
       <c r="C109" s="30"/>
       <c r="D109" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H109,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.6402541005538801E-2</v>
+        <v>6.2077936363827101E-2</v>
       </c>
       <c r="F109" s="30" t="s">
         <v>105</v>
@@ -14425,7 +14391,7 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A110" s="31" t="s">
         <v>1</v>
       </c>
@@ -14436,7 +14402,7 @@
       <c r="C110" s="31"/>
       <c r="D110" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H110,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.9705277866978901E-2</v>
+        <v>6.9903120588175702E-2</v>
       </c>
       <c r="F110" s="31" t="s">
         <v>105</v>
@@ -14449,7 +14415,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="30" t="s">
         <v>1</v>
       </c>
@@ -14460,7 +14426,7 @@
       <c r="C111" s="30"/>
       <c r="D111" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H111,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.8388567987470399E-2</v>
+        <v>4.9806776874505597E-2</v>
       </c>
       <c r="F111" s="30" t="s">
         <v>105</v>
@@ -14473,7 +14439,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="31" t="s">
         <v>1</v>
       </c>
@@ -14497,7 +14463,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A113" s="30" t="s">
         <v>1</v>
       </c>
@@ -14508,7 +14474,7 @@
       <c r="C113" s="30"/>
       <c r="D113" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H113,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.9040638752358897E-2</v>
+        <v>5.7147241043066198E-2</v>
       </c>
       <c r="F113" s="30" t="s">
         <v>105</v>
@@ -14521,7 +14487,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A114" s="31" t="s">
         <v>1</v>
       </c>
@@ -14532,7 +14498,7 @@
       <c r="C114" s="31"/>
       <c r="D114" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8778139627583307E-2</v>
+        <v>6.6620869969995597E-2</v>
       </c>
       <c r="F114" s="31" t="s">
         <v>105</v>
@@ -14545,7 +14511,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="30" t="s">
         <v>1</v>
       </c>
@@ -14569,7 +14535,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="31" t="s">
         <v>244</v>
       </c>
@@ -14580,7 +14546,7 @@
       <c r="C116" s="31"/>
       <c r="D116" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H116,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.220198275095671</v>
+        <v>0.21413130493478699</v>
       </c>
       <c r="F116" s="31" t="s">
         <v>105</v>
@@ -14593,7 +14559,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>117</v>
       </c>
@@ -14605,7 +14571,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="30" t="s">
         <v>1</v>
       </c>
@@ -14616,7 +14582,7 @@
       <c r="C118" s="30"/>
       <c r="D118" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>7.2518315131287606E-2</v>
+        <v>7.0651721487066402E-2</v>
       </c>
       <c r="F118" s="30" t="s">
         <v>114</v>
@@ -14629,7 +14595,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="31" t="s">
         <v>1</v>
       </c>
@@ -14653,7 +14619,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="30" t="s">
         <v>1</v>
       </c>
@@ -14677,7 +14643,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="31" t="s">
         <v>1</v>
       </c>
@@ -14688,7 +14654,7 @@
       <c r="C121" s="31"/>
       <c r="D121" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>6.8787509731139299E-2</v>
+        <v>6.7402586104361395E-2</v>
       </c>
       <c r="F121" s="31" t="s">
         <v>114</v>
@@ -14701,7 +14667,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A122" s="30" t="s">
         <v>244</v>
       </c>
@@ -14712,7 +14678,7 @@
       <c r="C122" s="30"/>
       <c r="D122" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.65144570452133E-2</v>
+        <v>4.4735473424353099E-2</v>
       </c>
       <c r="F122" s="30" t="s">
         <v>114</v>
@@ -14725,7 +14691,7 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A123" s="31" t="s">
         <v>1</v>
       </c>
@@ -14736,7 +14702,7 @@
       <c r="C123" s="31"/>
       <c r="D123" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H123,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.3657823067608502E-2</v>
+        <v>5.37114750791833E-2</v>
       </c>
       <c r="F123" s="31" t="s">
         <v>114</v>
@@ -14749,7 +14715,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A124" s="30" t="s">
         <v>1</v>
       </c>
@@ -14760,7 +14726,7 @@
       <c r="C124" s="30"/>
       <c r="D124" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H124,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.6985228618266699E-2</v>
+        <v>4.2554933846820402E-2</v>
       </c>
       <c r="F124" s="30" t="s">
         <v>114</v>
@@ -14773,7 +14739,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="31" t="s">
         <v>1</v>
       </c>
@@ -14784,7 +14750,7 @@
       <c r="C125" s="31"/>
       <c r="D125" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H125,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.36315789189348E-2</v>
+        <v>2.3589745043839899E-2</v>
       </c>
       <c r="F125" s="31" t="s">
         <v>114</v>
@@ -14797,7 +14763,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A126" s="30" t="s">
         <v>1</v>
       </c>
@@ -14808,7 +14774,7 @@
       <c r="C126" s="30"/>
       <c r="D126" s="53">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H126,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>4.4737576657325098E-2</v>
+        <v>4.3752307505030202E-2</v>
       </c>
       <c r="F126" s="30" t="s">
         <v>114</v>
@@ -14821,7 +14787,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="31" t="s">
         <v>1</v>
       </c>
@@ -14832,7 +14798,7 @@
       <c r="C127" s="31"/>
       <c r="D127" s="54">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H127,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
       <c r="F127" s="31" t="s">
         <v>114</v>
@@ -14845,7 +14811,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="30" t="s">
         <v>1</v>
       </c>
@@ -14869,7 +14835,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A129" s="31" t="s">
         <v>244</v>
       </c>
@@ -14880,7 +14846,7 @@
       <c r="C129" s="31"/>
       <c r="D129" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H129,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.145588074596397</v>
+        <v>0.14341496381045399</v>
       </c>
       <c r="F129" s="31" t="s">
         <v>114</v>
@@ -14893,7 +14859,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>246</v>
       </c>
@@ -14905,7 +14871,7 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="30" t="s">
         <v>78</v>
       </c>
@@ -14916,7 +14882,7 @@
       <c r="C131" s="30"/>
       <c r="D131" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H131,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F131" s="30" t="s">
         <v>109</v>
@@ -14929,7 +14895,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A132" s="31" t="s">
         <v>78</v>
       </c>
@@ -14940,7 +14906,7 @@
       <c r="C132" s="31"/>
       <c r="D132" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H132,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F132" s="31" t="s">
         <v>105</v>
@@ -14953,7 +14919,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A133" s="30" t="s">
         <v>78</v>
       </c>
@@ -14964,7 +14930,7 @@
       <c r="C133" s="30"/>
       <c r="D133" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H133,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F133" s="30" t="s">
         <v>114</v>
@@ -14977,7 +14943,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>247</v>
       </c>
@@ -14989,7 +14955,7 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
     </row>
-    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="30" t="s">
         <v>245</v>
       </c>
@@ -15003,7 +14969,7 @@
       </c>
       <c r="D135" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H135,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F135" s="30" t="s">
         <v>109</v>
@@ -15016,7 +14982,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="31" t="s">
         <v>245</v>
       </c>
@@ -15030,7 +14996,7 @@
       </c>
       <c r="D136" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H136,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F136" s="31" t="s">
         <v>105</v>
@@ -15043,7 +15009,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="30" t="s">
         <v>245</v>
       </c>
@@ -15057,7 +15023,7 @@
       </c>
       <c r="D137" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H137,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F137" s="30" t="s">
         <v>114</v>
@@ -15070,7 +15036,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>252</v>
       </c>
@@ -15082,7 +15048,7 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
     </row>
-    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A139" s="30" t="s">
         <v>245</v>
       </c>
@@ -15095,7 +15061,7 @@
       </c>
       <c r="D139" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H139,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="F139" s="30" t="s">
         <v>109</v>
@@ -15108,7 +15074,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="31" t="s">
         <v>245</v>
       </c>
@@ -15121,7 +15087,7 @@
       </c>
       <c r="D140" s="54">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H140,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="F140" s="31" t="s">
         <v>105</v>
@@ -15134,7 +15100,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="30" t="s">
         <v>245</v>
       </c>
@@ -15147,7 +15113,7 @@
       </c>
       <c r="D141" s="53">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H141,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="F141" s="30" t="s">
         <v>114</v>
@@ -15177,32 +15143,32 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21"/>
-    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="13.6328125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" style="21"/>
+    <col min="5" max="5" width="11.08984375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23.54296875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="E3" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>79</v>
       </c>
@@ -15222,7 +15188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -15232,7 +15198,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>109</v>
       </c>
@@ -15255,7 +15221,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>109</v>
       </c>
@@ -15278,7 +15244,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>109</v>
       </c>
@@ -15301,7 +15267,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
         <v>109</v>
       </c>
@@ -15324,7 +15290,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>109</v>
       </c>
@@ -15347,7 +15313,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>109</v>
       </c>
@@ -15370,7 +15336,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
         <v>109</v>
       </c>
@@ -15393,7 +15359,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="31" t="s">
         <v>109</v>
       </c>
@@ -15416,7 +15382,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
         <v>109</v>
       </c>
@@ -15439,7 +15405,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>109</v>
       </c>
@@ -15462,7 +15428,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
         <v>109</v>
       </c>
@@ -15484,7 +15450,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>109</v>
       </c>
@@ -15507,7 +15473,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -15517,7 +15483,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>105</v>
       </c>
@@ -15540,7 +15506,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>105</v>
       </c>
@@ -15563,7 +15529,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
         <v>105</v>
       </c>
@@ -15586,7 +15552,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="31" t="s">
         <v>105</v>
       </c>
@@ -15609,7 +15575,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
         <v>105</v>
       </c>
@@ -15632,7 +15598,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
         <v>105</v>
       </c>
@@ -15655,7 +15621,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>105</v>
       </c>
@@ -15678,7 +15644,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
         <v>105</v>
       </c>
@@ -15701,7 +15667,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
         <v>105</v>
       </c>
@@ -15724,7 +15690,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
         <v>105</v>
       </c>
@@ -15747,7 +15713,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>105</v>
       </c>
@@ -15769,7 +15735,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>105</v>
       </c>
@@ -15792,7 +15758,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -15802,7 +15768,7 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
         <v>114</v>
       </c>
@@ -15825,7 +15791,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
         <v>114</v>
       </c>
@@ -15848,7 +15814,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
         <v>114</v>
       </c>
@@ -15871,7 +15837,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
         <v>114</v>
       </c>
@@ -15894,7 +15860,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
         <v>114</v>
       </c>
@@ -15917,7 +15883,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="31" t="s">
         <v>114</v>
       </c>
@@ -15940,7 +15906,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="30" t="s">
         <v>114</v>
       </c>
@@ -15963,7 +15929,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>114</v>
       </c>
@@ -15986,7 +15952,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="30" t="s">
         <v>114</v>
       </c>
@@ -16009,7 +15975,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
         <v>114</v>
       </c>
@@ -16032,7 +15998,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
         <v>114</v>
       </c>
@@ -16054,7 +16020,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
         <v>114</v>
       </c>
@@ -16077,7 +16043,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -16087,7 +16053,7 @@
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="30" t="s">
         <v>109</v>
       </c>
@@ -16110,7 +16076,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="30" t="s">
         <v>105</v>
       </c>
@@ -16133,7 +16099,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>114</v>
       </c>
@@ -16156,7 +16122,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -16166,7 +16132,7 @@
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
         <v>109</v>
       </c>
@@ -16189,7 +16155,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>109</v>
       </c>
@@ -16212,7 +16178,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
         <v>109</v>
       </c>
@@ -16235,7 +16201,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
         <v>109</v>
       </c>
@@ -16258,7 +16224,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
         <v>109</v>
       </c>
@@ -16281,7 +16247,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="30" t="s">
         <v>109</v>
       </c>
@@ -16304,7 +16270,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
         <v>109</v>
       </c>
@@ -16327,7 +16293,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="30" t="s">
         <v>109</v>
       </c>
@@ -16350,7 +16316,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
         <v>109</v>
       </c>
@@ -16373,7 +16339,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
         <v>109</v>
       </c>
@@ -16396,7 +16362,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
         <v>109</v>
       </c>
@@ -16419,7 +16385,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="30" t="s">
         <v>109</v>
       </c>
@@ -16441,7 +16407,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
         <v>109</v>
       </c>
@@ -16464,7 +16430,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -16474,7 +16440,7 @@
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
     </row>
-    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="30" t="s">
         <v>105</v>
       </c>
@@ -16497,7 +16463,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="31" t="s">
         <v>105</v>
       </c>
@@ -16520,7 +16486,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="30" t="s">
         <v>105</v>
       </c>
@@ -16543,7 +16509,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="31" t="s">
         <v>105</v>
       </c>
@@ -16566,7 +16532,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="30" t="s">
         <v>105</v>
       </c>
@@ -16589,7 +16555,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="30" t="s">
         <v>105</v>
       </c>
@@ -16612,7 +16578,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="31" t="s">
         <v>105</v>
       </c>
@@ -16635,7 +16601,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="30" t="s">
         <v>105</v>
       </c>
@@ -16658,7 +16624,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="31" t="s">
         <v>105</v>
       </c>
@@ -16681,7 +16647,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="30" t="s">
         <v>105</v>
       </c>
@@ -16704,7 +16670,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="31" t="s">
         <v>105</v>
       </c>
@@ -16727,7 +16693,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="30" t="s">
         <v>105</v>
       </c>
@@ -16749,7 +16715,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="31" t="s">
         <v>105</v>
       </c>
@@ -16772,7 +16738,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -16782,7 +16748,7 @@
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
     </row>
-    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="30" t="s">
         <v>114</v>
       </c>
@@ -16805,7 +16771,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="31" t="s">
         <v>114</v>
       </c>
@@ -16828,7 +16794,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="30" t="s">
         <v>114</v>
       </c>
@@ -16851,7 +16817,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="31" t="s">
         <v>114</v>
       </c>
@@ -16874,7 +16840,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="30" t="s">
         <v>114</v>
       </c>
@@ -16897,7 +16863,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="30" t="s">
         <v>114</v>
       </c>
@@ -16920,7 +16886,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="31" t="s">
         <v>114</v>
       </c>
@@ -16943,7 +16909,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="30" t="s">
         <v>114</v>
       </c>
@@ -16966,7 +16932,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="31" t="s">
         <v>114</v>
       </c>
@@ -16989,7 +16955,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A86" s="30" t="s">
         <v>114</v>
       </c>
@@ -17012,7 +16978,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A87" s="31" t="s">
         <v>114</v>
       </c>
@@ -17035,7 +17001,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A88" s="30" t="s">
         <v>114</v>
       </c>
@@ -17057,7 +17023,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A89" s="31" t="s">
         <v>114</v>
       </c>
@@ -17095,12 +17061,12 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17141,7 +17107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17182,7 +17148,7 @@
         <v>7.5051369863013695E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17217,13 +17183,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.45255796882634303</v>
+        <v>0.42342871317737102</v>
       </c>
       <c r="M3">
-        <v>0.45255796882634303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.42342871317737102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17258,13 +17224,13 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>6.2549233288808403E-2</v>
+        <v>5.3377456313566302E-2</v>
       </c>
       <c r="M4">
-        <v>6.2549233288808403E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.3377456313566302E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17299,13 +17265,13 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>1.5052975614548401</v>
+        <v>1.4717633763921301</v>
       </c>
       <c r="M5">
-        <v>1.5052975614548401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.4717633763921301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17346,7 +17312,7 @@
         <v>9.0422374429223698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17381,13 +17347,13 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>7.5045615347050301E-2</v>
+        <v>6.0645497051149098E-2</v>
       </c>
       <c r="M7">
-        <v>7.5045615347050301E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.0645497051149098E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17428,7 +17394,7 @@
         <v>3.2373195740855901E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17463,13 +17429,13 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>0.112170033510623</v>
+        <v>0.11252568167857099</v>
       </c>
       <c r="M9">
-        <v>0.112170033510623</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.11252568167857099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17504,13 +17470,13 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>0.13251764473730199</v>
+        <v>0.12792665468435199</v>
       </c>
       <c r="M10">
-        <v>0.13251764473730199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.12792665468435199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17551,7 +17517,7 @@
         <v>9.0627195293291204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17586,13 +17552,13 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>9.0196313138344295E-2</v>
+        <v>8.67381932124731E-2</v>
       </c>
       <c r="M12">
-        <v>9.0196313138344295E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.67381932124731E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17627,13 +17593,13 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>0.143159113753899</v>
+        <v>0.13976565562716001</v>
       </c>
       <c r="M13">
-        <v>0.143159113753899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13976565562716001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17668,13 +17634,13 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>0.10316120676872401</v>
+        <v>9.9394310243560199E-2</v>
       </c>
       <c r="M14">
-        <v>0.10316120676872401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.9394310243560199E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17715,7 +17681,7 @@
         <v>8.8919330289193299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17750,13 +17716,13 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>0.104359857576634</v>
+        <v>0.10081773520747001</v>
       </c>
       <c r="M16">
-        <v>0.104359857576634</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.10081773520747001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17791,13 +17757,13 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>6.6402541005538801E-2</v>
+        <v>6.2077936363827101E-2</v>
       </c>
       <c r="M17">
-        <v>6.6402541005538801E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.2077936363827101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17832,13 +17798,13 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>0.66825318875216799</v>
+        <v>0.66299984214582297</v>
       </c>
       <c r="M18">
-        <v>0.66825318875216799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.66299984214582297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17879,7 +17845,7 @@
         <v>6.7212328767123297E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17914,13 +17880,13 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>5.8388567987470399E-2</v>
+        <v>4.9806776874505597E-2</v>
       </c>
       <c r="M20">
-        <v>5.8388567987470399E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.9806776874505597E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17961,7 +17927,7 @@
         <v>4.8794584261943399E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17996,13 +17962,13 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>6.9705277866978901E-2</v>
+        <v>6.9903120588175702E-2</v>
       </c>
       <c r="M22">
-        <v>6.9705277866978901E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.9903120588175702E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -18037,13 +18003,13 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>0.100567418678171</v>
+        <v>9.73639647341112E-2</v>
       </c>
       <c r="M23">
-        <v>0.100567418678171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.73639647341112E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -18084,7 +18050,7 @@
         <v>6.8944308925102102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -18119,13 +18085,13 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>5.9040638752358897E-2</v>
+        <v>5.7147241043066198E-2</v>
       </c>
       <c r="M25">
-        <v>5.9040638752358897E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.7147241043066198E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18160,13 +18126,13 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>0.220198275095671</v>
+        <v>0.21413130493478699</v>
       </c>
       <c r="M26">
-        <v>0.220198275095671</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.21413130493478699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18201,13 +18167,13 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>6.8778139627583307E-2</v>
+        <v>6.6620869969995597E-2</v>
       </c>
       <c r="M27">
-        <v>6.8778139627583307E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.6620869969995597E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18248,7 +18214,7 @@
         <v>4.2328767123287703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18283,13 +18249,13 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>7.2518315131287606E-2</v>
+        <v>7.0651721487066402E-2</v>
       </c>
       <c r="M29">
-        <v>7.2518315131287606E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.0651721487066402E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18324,13 +18290,13 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>4.65144570452133E-2</v>
+        <v>4.4735473424353099E-2</v>
       </c>
       <c r="M30">
-        <v>4.65144570452133E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.4735473424353099E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18365,13 +18331,13 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>0.45983560612562002</v>
+        <v>0.458133885220118</v>
       </c>
       <c r="M31">
-        <v>0.45983560612562002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.458133885220118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18412,7 +18378,7 @@
         <v>4.7947345890410997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18447,13 +18413,13 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.6985228618266699E-2</v>
+        <v>4.2554933846820402E-2</v>
       </c>
       <c r="M33">
-        <v>4.6985228618266699E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.2554933846820402E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18494,7 +18460,7 @@
         <v>5.1032329364559198E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18529,13 +18495,13 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>5.3657823067608502E-2</v>
+        <v>5.37114750791833E-2</v>
       </c>
       <c r="M35">
-        <v>5.3657823067608502E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>5.37114750791833E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18570,13 +18536,13 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>6.8787509731139299E-2</v>
+        <v>6.7402586104361395E-2</v>
       </c>
       <c r="M36">
-        <v>6.8787509731139299E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.7402586104361395E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18611,13 +18577,13 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>2.36315789189348E-2</v>
+        <v>2.3589745043839899E-2</v>
       </c>
       <c r="M37">
-        <v>2.36315789189348E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.3589745043839899E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18652,13 +18618,13 @@
         <v>131</v>
       </c>
       <c r="L38">
-        <v>4.4737576657325098E-2</v>
+        <v>4.3752307505030202E-2</v>
       </c>
       <c r="M38">
-        <v>4.4737576657325098E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.3752307505030202E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18693,13 +18659,13 @@
         <v>131</v>
       </c>
       <c r="L39">
-        <v>0.145588074596397</v>
+        <v>0.14341496381045399</v>
       </c>
       <c r="M39">
-        <v>0.145588074596397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.14341496381045399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18734,10 +18700,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
       <c r="M40">
-        <v>5.7798878941989297E-2</v>
+        <v>5.6573502855343599E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18752,12 +18718,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18798,7 +18764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18833,13 +18799,13 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>9.4570753703752605E-3</v>
+        <v>9.6640000122913006E-3</v>
       </c>
       <c r="M2">
-        <v>9.4570753703752605E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.6640000122913006E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18874,13 +18840,13 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.41882471081785599</v>
+        <v>0.40654789002485697</v>
       </c>
       <c r="M3">
-        <v>0.41882471081785599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.40654789002485697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18915,13 +18881,13 @@
         <v>131</v>
       </c>
       <c r="L4">
-        <v>1.7227618659613701E-2</v>
+        <v>1.3931119040235E-2</v>
       </c>
       <c r="M4">
-        <v>1.7227618659613701E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.3931119040235E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18956,13 +18922,13 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>0.183575067201909</v>
+        <v>0.18130269923092601</v>
       </c>
       <c r="M5">
-        <v>0.183575067201909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.18130269923092601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18997,13 +18963,13 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>2.0352386019458902E-5</v>
+        <v>2.0797704474084602E-5</v>
       </c>
       <c r="M6">
-        <v>2.0352386019458902E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.0797704474084602E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -19038,13 +19004,13 @@
         <v>131</v>
       </c>
       <c r="L7">
-        <v>2.5069945114006401E-2</v>
+        <v>2.5618485673577399E-2</v>
       </c>
       <c r="M7">
-        <v>2.5069945114006401E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.5618485673577399E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -19079,13 +19045,13 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>2.3488908827814098E-3</v>
+        <v>2.4002855672672599E-3</v>
       </c>
       <c r="M8">
-        <v>2.3488908827814098E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.4002855672672599E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -19120,13 +19086,13 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>7.8978154557043795E-2</v>
+        <v>7.5994529972598895E-2</v>
       </c>
       <c r="M9">
-        <v>7.8978154557043795E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.5994529972598895E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19161,13 +19127,13 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>4.8787825956958103E-2</v>
+        <v>4.7559865677763699E-2</v>
       </c>
       <c r="M10">
-        <v>4.8787825956958103E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.7559865677763699E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19202,13 +19168,13 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>0.15828050607333199</v>
+        <v>0.161743747694956</v>
       </c>
       <c r="M11">
-        <v>0.15828050607333199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.161743747694956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19243,13 +19209,13 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>0.14698298838932999</v>
+        <v>0.14274595375996399</v>
       </c>
       <c r="M12">
-        <v>0.14698298838932999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.14274595375996399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19284,13 +19250,13 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>3.7307426022765301E-2</v>
+        <v>3.6221240391349503E-2</v>
       </c>
       <c r="M13">
-        <v>3.7307426022765301E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.6221240391349503E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19325,13 +19291,13 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>2.4658929270483999E-2</v>
+        <v>2.53147717385124E-2</v>
       </c>
       <c r="M14">
-        <v>2.4658929270483999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.53147717385124E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19366,13 +19332,13 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.31784775894057798</v>
+        <v>0.30984484845142601</v>
       </c>
       <c r="M15">
-        <v>0.31784775894057798</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.30984484845142601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19407,13 +19373,13 @@
         <v>131</v>
       </c>
       <c r="L16">
-        <v>3.7537381358533697E-2</v>
+        <v>3.5156391297092499E-2</v>
       </c>
       <c r="M16">
-        <v>3.7537381358533697E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.5156391297092499E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19448,13 +19414,13 @@
         <v>131</v>
       </c>
       <c r="L17">
-        <v>0.113204385544111</v>
+        <v>0.11404303534564</v>
       </c>
       <c r="M17">
-        <v>0.113204385544111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.11404303534564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19495,7 +19461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19530,13 +19496,13 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>3.5032805879028399E-2</v>
+        <v>3.5964557684536103E-2</v>
       </c>
       <c r="M19">
-        <v>3.5032805879028399E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.5964557684536103E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19571,13 +19537,13 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>2.2872893208017001E-2</v>
+        <v>2.3481233276961201E-2</v>
       </c>
       <c r="M20">
-        <v>2.2872893208017001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>2.3481233276961201E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19612,13 +19578,13 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>4.4978376179101401E-2</v>
+        <v>4.3705701165065197E-2</v>
       </c>
       <c r="M21">
-        <v>4.4978376179101401E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.3705701165065197E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19653,13 +19619,13 @@
         <v>131</v>
       </c>
       <c r="L22">
-        <v>4.9050090196469498E-2</v>
+        <v>4.8109166237074001E-2</v>
       </c>
       <c r="M22">
-        <v>4.9050090196469498E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.8109166237074001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19694,13 +19660,13 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>7.0893554801410602E-2</v>
+        <v>7.27790788417393E-2</v>
       </c>
       <c r="M23">
-        <v>7.0893554801410602E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.27790788417393E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19735,13 +19701,13 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>7.3631430941555998E-2</v>
+        <v>7.2438724233275797E-2</v>
       </c>
       <c r="M24">
-        <v>7.3631430941555998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7.2438724233275797E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19776,13 +19742,13 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>0.119017735973187</v>
+        <v>0.11656908094434699</v>
       </c>
       <c r="M25">
-        <v>0.119017735973187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.11656908094434699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19823,7 +19789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19858,13 +19824,13 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.47278411842156098</v>
+        <v>0.46414376338591401</v>
       </c>
       <c r="M27">
-        <v>0.47278411842156098</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.46414376338591401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19899,13 +19865,13 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>4.5630448521753401E-2</v>
+        <v>4.3843217634644903E-2</v>
       </c>
       <c r="M28">
-        <v>4.5630448521753401E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.3843217634644903E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19940,13 +19906,13 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>0.13766734761320301</v>
+        <v>0.138319067250922</v>
       </c>
       <c r="M29">
-        <v>0.13766734761320301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.138319067250922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19987,7 +19953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -20022,13 +19988,13 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>3.9151690301129402E-2</v>
+        <v>3.96720040920054E-2</v>
       </c>
       <c r="M31">
-        <v>3.9151690301129402E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>3.96720040920054E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -20063,13 +20029,13 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.200825091733705</v>
+        <v>0.203493994761373</v>
       </c>
       <c r="M32">
-        <v>0.200825091733705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.203493994761373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -20104,13 +20070,13 @@
         <v>131</v>
       </c>
       <c r="L33">
-        <v>4.92788432018662E-2</v>
+        <v>4.8157354051402902E-2</v>
       </c>
       <c r="M33">
-        <v>4.92788432018662E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4.8157354051402902E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20145,13 +20111,13 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>7.0854130591549894E-2</v>
+        <v>6.97946718860816E-2</v>
       </c>
       <c r="M34">
-        <v>7.0854130591549894E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>6.97946718860816E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20186,13 +20152,13 @@
         <v>131</v>
       </c>
       <c r="L35">
-        <v>0.100420210433235</v>
+        <v>0.101539467044872</v>
       </c>
       <c r="M35">
-        <v>0.100420210433235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.101539467044872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20227,13 +20193,13 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.13720876081054401</v>
+        <v>0.13495608652757701</v>
       </c>
       <c r="M36">
-        <v>0.13720876081054401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.13495608652757701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -20268,10 +20234,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
       <c r="M37">
-        <v>9.6348966878171502E-2</v>
+        <v>9.4687203541950801E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ED6975-CA46-4840-9799-CAAE80DA0CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F6FD6F-E404-4315-BD1B-1E1D75E86CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="4110" windowWidth="19200" windowHeight="11170" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1815" windowWidth="19200" windowHeight="11175" tabRatio="819" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="65" r:id="rId1"/>
@@ -2322,7 +2322,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2799,21 +2799,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6328125" style="39" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" style="39" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" style="39" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" style="39" customWidth="1"/>
+    <col min="1" max="4" width="21.5703125" style="39" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="39" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="39" customWidth="1"/>
     <col min="13" max="13" width="10" style="39" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="39" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="39"/>
+    <col min="14" max="14" width="11.42578125" style="39" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="39" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="37"/>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -2841,7 +2841,7 @@
       <c r="Y1" s="38"/>
       <c r="Z1" s="38"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -2869,7 +2869,7 @@
       <c r="Y2" s="38"/>
       <c r="Z2" s="38"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -2897,7 +2897,7 @@
       <c r="Y3" s="38"/>
       <c r="Z3" s="38"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -2925,7 +2925,7 @@
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -2953,7 +2953,7 @@
       <c r="Y5" s="38"/>
       <c r="Z5" s="38"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -2981,7 +2981,7 @@
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -3009,7 +3009,7 @@
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -3037,7 +3037,7 @@
       <c r="Y8" s="38"/>
       <c r="Z8" s="38"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -3065,7 +3065,7 @@
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -3093,7 +3093,7 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -3121,7 +3121,7 @@
       <c r="Y11" s="38"/>
       <c r="Z11" s="38"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -3149,7 +3149,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -3177,7 +3177,7 @@
       <c r="Y13" s="38"/>
       <c r="Z13" s="38"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -3205,7 +3205,7 @@
       <c r="Y14" s="38"/>
       <c r="Z14" s="38"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -3233,7 +3233,7 @@
       <c r="Y15" s="38"/>
       <c r="Z15" s="38"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>277</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -3291,7 +3291,7 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -3319,7 +3319,7 @@
       <c r="Y18" s="38"/>
       <c r="Z18" s="38"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>278</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>279</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>280</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="Y21" s="38"/>
       <c r="Z21" s="38"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -3443,7 +3443,7 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>281</v>
       </c>
@@ -3475,7 +3475,7 @@
       <c r="Y23" s="38"/>
       <c r="Z23" s="38"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="57" t="s">
         <v>291</v>
@@ -3505,7 +3505,7 @@
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="57" t="s">
         <v>292</v>
@@ -3535,7 +3535,7 @@
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>282</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="57" t="s">
         <v>292</v>
@@ -3597,7 +3597,7 @@
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -3625,7 +3625,7 @@
       <c r="Y28" s="38"/>
       <c r="Z28" s="38"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>283</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="Y29" s="38"/>
       <c r="Z29" s="38"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>284</v>
       </c>
@@ -3689,7 +3689,7 @@
       <c r="Y30" s="38"/>
       <c r="Z30" s="38"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>286</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="Y31" s="38"/>
       <c r="Z31" s="38"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="52" t="s">
         <v>288</v>
@@ -3751,7 +3751,7 @@
       <c r="Y32" s="38"/>
       <c r="Z32" s="38"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
@@ -3779,7 +3779,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="37"/>
       <c r="C34" s="37"/>
@@ -3807,7 +3807,7 @@
       <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -3835,7 +3835,7 @@
       <c r="Y35" s="38"/>
       <c r="Z35" s="38"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -3863,7 +3863,7 @@
       <c r="Y36" s="38"/>
       <c r="Z36" s="38"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -3891,7 +3891,7 @@
       <c r="Y37" s="38"/>
       <c r="Z37" s="38"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -3919,7 +3919,7 @@
       <c r="Y38" s="38"/>
       <c r="Z38" s="38"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -3947,7 +3947,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -3975,7 +3975,7 @@
       <c r="Y40" s="38"/>
       <c r="Z40" s="38"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="37"/>
       <c r="C41" s="37"/>
@@ -4003,7 +4003,7 @@
       <c r="Y41" s="38"/>
       <c r="Z41" s="38"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -4031,7 +4031,7 @@
       <c r="Y42" s="38"/>
       <c r="Z42" s="38"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38"/>
@@ -4059,7 +4059,7 @@
       <c r="Y43" s="38"/>
       <c r="Z43" s="38"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -4087,7 +4087,7 @@
       <c r="Y44" s="38"/>
       <c r="Z44" s="38"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
@@ -4115,7 +4115,7 @@
       <c r="Y45" s="38"/>
       <c r="Z45" s="38"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
       <c r="C46" s="38"/>
@@ -4143,7 +4143,7 @@
       <c r="Y46" s="38"/>
       <c r="Z46" s="38"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="38"/>
@@ -4171,7 +4171,7 @@
       <c r="Y47" s="38"/>
       <c r="Z47" s="38"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38"/>
@@ -4199,7 +4199,7 @@
       <c r="Y48" s="38"/>
       <c r="Z48" s="38"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38"/>
@@ -4227,7 +4227,7 @@
       <c r="Y49" s="38"/>
       <c r="Z49" s="38"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38"/>
@@ -4255,7 +4255,7 @@
       <c r="Y50" s="38"/>
       <c r="Z50" s="38"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
@@ -4283,7 +4283,7 @@
       <c r="Y51" s="38"/>
       <c r="Z51" s="38"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -4311,7 +4311,7 @@
       <c r="Y52" s="38"/>
       <c r="Z52" s="38"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -4339,7 +4339,7 @@
       <c r="Y53" s="38"/>
       <c r="Z53" s="38"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
@@ -4367,7 +4367,7 @@
       <c r="Y54" s="38"/>
       <c r="Z54" s="38"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
@@ -4395,7 +4395,7 @@
       <c r="Y55" s="38"/>
       <c r="Z55" s="38"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="38"/>
       <c r="C56" s="38"/>
@@ -4423,7 +4423,7 @@
       <c r="Y56" s="38"/>
       <c r="Z56" s="38"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="38"/>
       <c r="C57" s="38"/>
@@ -4451,7 +4451,7 @@
       <c r="Y57" s="38"/>
       <c r="Z57" s="38"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="38"/>
       <c r="C58" s="38"/>
@@ -4479,7 +4479,7 @@
       <c r="Y58" s="38"/>
       <c r="Z58" s="38"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="38"/>
@@ -4507,7 +4507,7 @@
       <c r="Y59" s="38"/>
       <c r="Z59" s="38"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="38"/>
       <c r="C60" s="38"/>
@@ -4535,7 +4535,7 @@
       <c r="Y60" s="38"/>
       <c r="Z60" s="38"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="38"/>
       <c r="C61" s="38"/>
@@ -4563,7 +4563,7 @@
       <c r="Y61" s="38"/>
       <c r="Z61" s="38"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="38"/>
       <c r="C62" s="38"/>
@@ -4591,7 +4591,7 @@
       <c r="Y62" s="38"/>
       <c r="Z62" s="38"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="38"/>
       <c r="C63" s="38"/>
@@ -4619,7 +4619,7 @@
       <c r="Y63" s="38"/>
       <c r="Z63" s="38"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="38"/>
       <c r="C64" s="38"/>
@@ -4647,7 +4647,7 @@
       <c r="Y64" s="38"/>
       <c r="Z64" s="38"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="38"/>
       <c r="C65" s="38"/>
@@ -4675,7 +4675,7 @@
       <c r="Y65" s="38"/>
       <c r="Z65" s="38"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="38"/>
       <c r="C66" s="38"/>
@@ -4703,7 +4703,7 @@
       <c r="Y66" s="38"/>
       <c r="Z66" s="38"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="38"/>
       <c r="C67" s="38"/>
@@ -4731,7 +4731,7 @@
       <c r="Y67" s="38"/>
       <c r="Z67" s="38"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="38"/>
       <c r="C68" s="38"/>
@@ -4759,7 +4759,7 @@
       <c r="Y68" s="38"/>
       <c r="Z68" s="38"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="38"/>
       <c r="C69" s="38"/>
@@ -4787,7 +4787,7 @@
       <c r="Y69" s="38"/>
       <c r="Z69" s="38"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="38"/>
       <c r="C70" s="38"/>
@@ -4815,7 +4815,7 @@
       <c r="Y70" s="38"/>
       <c r="Z70" s="38"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
@@ -4843,7 +4843,7 @@
       <c r="Y71" s="38"/>
       <c r="Z71" s="38"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="38"/>
       <c r="C72" s="38"/>
@@ -4871,7 +4871,7 @@
       <c r="Y72" s="38"/>
       <c r="Z72" s="38"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="38"/>
@@ -4899,7 +4899,7 @@
       <c r="Y73" s="38"/>
       <c r="Z73" s="38"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="38"/>
       <c r="C74" s="38"/>
@@ -4927,7 +4927,7 @@
       <c r="Y74" s="38"/>
       <c r="Z74" s="38"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="38"/>
       <c r="C75" s="38"/>
@@ -4955,7 +4955,7 @@
       <c r="Y75" s="38"/>
       <c r="Z75" s="38"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="38"/>
       <c r="C76" s="38"/>
@@ -4983,7 +4983,7 @@
       <c r="Y76" s="38"/>
       <c r="Z76" s="38"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="38"/>
       <c r="C77" s="38"/>
@@ -5011,7 +5011,7 @@
       <c r="Y77" s="38"/>
       <c r="Z77" s="38"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="38"/>
       <c r="C78" s="38"/>
@@ -5039,7 +5039,7 @@
       <c r="Y78" s="38"/>
       <c r="Z78" s="38"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -5067,7 +5067,7 @@
       <c r="Y79" s="38"/>
       <c r="Z79" s="38"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -5095,7 +5095,7 @@
       <c r="Y80" s="38"/>
       <c r="Z80" s="38"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="38"/>
@@ -5123,7 +5123,7 @@
       <c r="Y81" s="38"/>
       <c r="Z81" s="38"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -5151,7 +5151,7 @@
       <c r="Y82" s="38"/>
       <c r="Z82" s="38"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -5179,7 +5179,7 @@
       <c r="Y83" s="38"/>
       <c r="Z83" s="38"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="38"/>
@@ -5207,7 +5207,7 @@
       <c r="Y84" s="38"/>
       <c r="Z84" s="38"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -5235,7 +5235,7 @@
       <c r="Y85" s="38"/>
       <c r="Z85" s="38"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="38"/>
       <c r="C86" s="38"/>
@@ -5263,7 +5263,7 @@
       <c r="Y86" s="38"/>
       <c r="Z86" s="38"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -5291,7 +5291,7 @@
       <c r="Y87" s="38"/>
       <c r="Z87" s="38"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="38"/>
       <c r="C88" s="38"/>
@@ -5319,7 +5319,7 @@
       <c r="Y88" s="38"/>
       <c r="Z88" s="38"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="38"/>
       <c r="C89" s="38"/>
@@ -5347,7 +5347,7 @@
       <c r="Y89" s="38"/>
       <c r="Z89" s="38"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="38"/>
       <c r="C90" s="38"/>
@@ -5375,7 +5375,7 @@
       <c r="Y90" s="38"/>
       <c r="Z90" s="38"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="38"/>
       <c r="C91" s="38"/>
@@ -5403,7 +5403,7 @@
       <c r="Y91" s="38"/>
       <c r="Z91" s="38"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="38"/>
       <c r="C92" s="38"/>
@@ -5431,7 +5431,7 @@
       <c r="Y92" s="38"/>
       <c r="Z92" s="38"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -5459,7 +5459,7 @@
       <c r="Y93" s="38"/>
       <c r="Z93" s="38"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="38"/>
       <c r="C94" s="38"/>
@@ -5487,7 +5487,7 @@
       <c r="Y94" s="38"/>
       <c r="Z94" s="38"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -5515,7 +5515,7 @@
       <c r="Y95" s="38"/>
       <c r="Z95" s="38"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="38"/>
       <c r="C96" s="38"/>
@@ -5543,7 +5543,7 @@
       <c r="Y96" s="38"/>
       <c r="Z96" s="38"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -5571,7 +5571,7 @@
       <c r="Y97" s="38"/>
       <c r="Z97" s="38"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
@@ -5599,7 +5599,7 @@
       <c r="Y98" s="38"/>
       <c r="Z98" s="38"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
@@ -5657,12 +5657,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>0.72928609692169399</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>0.59018803418803401</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>3.07019607843137</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0.810268817204301</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>0.39838442187649997</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>0.81016216216216197</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>0.80677902621722797</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>0.58177777777777795</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>0.68804511278195502</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0.55798087905732696</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>3.1157627118644098</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>0.81729411764705895</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>0.60949973059968399</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0.81941558441558404</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>0.80707577433628297</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0.55092948717948698</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>0.57113772455089795</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>0.70400656814449902</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>0.619863294600137</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>0.99952095808383201</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>3.0897837837837798</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>0.82728758169934602</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>0.65865731206453004</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0.82280373831775699</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>0.82661774762699303</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>0.54578947368421105</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>0.61474226804123699</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -8790,9 +8790,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8886,9 +8886,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>0.12716586319930701</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>0.24175608869574</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9064,9 +9064,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9162,12 +9162,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>0.21098594733224099</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>0.29847129365993402</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9343,9 +9343,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9439,9 +9439,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>1.21865123037202E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>1.04455975746106E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -9619,9 +9619,9 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9717,9 +9717,9 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -9817,16 +9817,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="60.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>232</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="33">
         <v>44237</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>44232</v>
       </c>
@@ -9891,39 +9891,37 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" customWidth="1"/>
-    <col min="25" max="25" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="8" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -10037,12 +10035,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10157,7 +10155,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -10274,7 +10272,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -10391,7 +10389,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
@@ -10399,7 +10397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -10407,7 +10405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>17</v>
       </c>
@@ -10415,7 +10413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
@@ -10423,7 +10421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -10431,7 +10429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>23</v>
       </c>
@@ -10439,7 +10437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -10447,7 +10445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
@@ -10455,7 +10453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
@@ -10463,7 +10461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
@@ -10471,7 +10469,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
@@ -10479,7 +10477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -10487,7 +10485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
@@ -10495,7 +10493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -10503,7 +10501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
@@ -10511,7 +10509,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
@@ -10519,7 +10517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
@@ -10527,7 +10525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
@@ -10535,7 +10533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>49</v>
       </c>
@@ -10543,7 +10541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
@@ -10551,7 +10549,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>53</v>
       </c>
@@ -10559,7 +10557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
@@ -10567,7 +10565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
         <v>57</v>
       </c>
@@ -10575,7 +10573,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
         <v>59</v>
       </c>
@@ -10583,7 +10581,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
@@ -10591,7 +10589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
         <v>63</v>
       </c>
@@ -10599,7 +10597,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>65</v>
       </c>
@@ -10607,7 +10605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -10633,7 +10631,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -10657,43 +10655,37 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" customWidth="1"/>
-    <col min="8" max="8" width="2.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="3.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="2.6328125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="2.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -10717,7 +10709,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -10763,7 +10755,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10795,7 +10787,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -10815,7 +10807,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -10853,18 +10845,18 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.08984375" style="15"/>
-    <col min="6" max="6" width="12.90625" style="15" customWidth="1"/>
-    <col min="7" max="15" width="9.08984375" style="15"/>
-    <col min="16" max="16" width="11.453125" style="15" customWidth="1"/>
-    <col min="17" max="25" width="9.08984375" style="15"/>
-    <col min="26" max="26" width="11.6328125" style="15" customWidth="1"/>
-    <col min="27" max="16384" width="9.08984375" style="15"/>
+    <col min="1" max="5" width="9.140625" style="15"/>
+    <col min="6" max="6" width="12.85546875" style="15" customWidth="1"/>
+    <col min="7" max="15" width="9.140625" style="15"/>
+    <col min="16" max="16" width="11.42578125" style="15" customWidth="1"/>
+    <col min="17" max="25" width="9.140625" style="15"/>
+    <col min="26" max="26" width="11.5703125" style="15" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B1" s="14" t="s">
         <v>91</v>
       </c>
@@ -10875,7 +10867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>85</v>
       </c>
@@ -10910,7 +10902,7 @@
       <c r="AC3" s="17"/>
       <c r="AD3" s="17"/>
     </row>
-    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>68</v>
       </c>
@@ -10993,7 +10985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>77</v>
       </c>
@@ -11052,7 +11044,7 @@
       <c r="AC5" s="26"/>
       <c r="AD5" s="26"/>
     </row>
-    <row r="6" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="19"/>
@@ -11082,7 +11074,7 @@
       <c r="AC6" s="26"/>
       <c r="AD6" s="26"/>
     </row>
-    <row r="8" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>87</v>
       </c>
@@ -11106,7 +11098,7 @@
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
     </row>
-    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>68</v>
       </c>
@@ -11162,7 +11154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>77</v>
       </c>
@@ -11202,7 +11194,7 @@
       <c r="S10" s="26"/>
       <c r="T10" s="26"/>
     </row>
-    <row r="13" spans="2:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:30" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
         <v>108</v>
       </c>
@@ -11226,7 +11218,7 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
     </row>
-    <row r="14" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>68</v>
       </c>
@@ -11282,7 +11274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="2:30" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>77</v>
       </c>
@@ -11322,7 +11314,7 @@
       <c r="S15" s="26"/>
       <c r="T15" s="26"/>
     </row>
-    <row r="18" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
         <v>118</v>
       </c>
@@ -11346,7 +11338,7 @@
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
     </row>
-    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>68</v>
       </c>
@@ -11402,7 +11394,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>77</v>
       </c>
@@ -11442,7 +11434,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="23" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
         <v>119</v>
       </c>
@@ -11466,7 +11458,7 @@
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
     </row>
-    <row r="24" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>68</v>
       </c>
@@ -11522,7 +11514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
         <v>77</v>
       </c>
@@ -11562,7 +11554,7 @@
       <c r="S25" s="26"/>
       <c r="T25" s="26"/>
     </row>
-    <row r="28" spans="2:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" ht="15" x14ac:dyDescent="0.2">
       <c r="L28" s="16" t="s">
         <v>173</v>
       </c>
@@ -11575,7 +11567,7 @@
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
     </row>
-    <row r="29" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L29" s="18" t="s">
         <v>68</v>
       </c>
@@ -11604,7 +11596,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="2:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:20" ht="15" x14ac:dyDescent="0.25">
       <c r="L30" s="24" t="s">
         <v>77</v>
       </c>
@@ -11625,7 +11617,7 @@
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
     </row>
-    <row r="33" spans="12:20" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:20" ht="15" x14ac:dyDescent="0.2">
       <c r="L33" s="16" t="s">
         <v>174</v>
       </c>
@@ -11638,7 +11630,7 @@
       <c r="S33" s="17"/>
       <c r="T33" s="17"/>
     </row>
-    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L34" s="18" t="s">
         <v>68</v>
       </c>
@@ -11667,7 +11659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="12:20" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="12:20" ht="15" x14ac:dyDescent="0.25">
       <c r="L35" s="24" t="s">
         <v>77</v>
       </c>
@@ -11704,33 +11696,33 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="37.90625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.36328125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="21"/>
-    <col min="10" max="10" width="13.08984375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="21"/>
+    <col min="10" max="10" width="13.140625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="21" customWidth="1"/>
     <col min="12" max="12" width="13" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="21"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>243</v>
       </c>
@@ -11738,7 +11730,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>70</v>
       </c>
@@ -11770,7 +11762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>248</v>
       </c>
@@ -11786,7 +11778,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
@@ -11821,7 +11813,7 @@
         <v>0.117199391171994</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
@@ -11856,7 +11848,7 @@
         <v>1.21865123037202E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
@@ -11891,7 +11883,7 @@
         <v>1.04455975746106E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>244</v>
       </c>
@@ -11926,7 +11918,7 @@
         <v>1.0445583301088201E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>244</v>
       </c>
@@ -11961,7 +11953,7 @@
         <v>6.7195931921959296E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>244</v>
       </c>
@@ -11996,7 +11988,7 @@
         <v>1.18630136986301E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>244</v>
       </c>
@@ -12031,7 +12023,7 @@
         <v>1.0896637608966401E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>244</v>
       </c>
@@ -12066,7 +12058,7 @@
         <v>0.93569571451266098</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>1</v>
       </c>
@@ -12101,7 +12093,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>1</v>
       </c>
@@ -12125,7 +12117,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>244</v>
       </c>
@@ -12149,7 +12141,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>1</v>
       </c>
@@ -12176,7 +12168,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>112</v>
       </c>
@@ -12197,7 +12189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>1</v>
       </c>
@@ -12226,7 +12218,7 @@
       <c r="K19" s="28"/>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>1</v>
       </c>
@@ -12260,7 +12252,7 @@
         <v>0.21098594733224099</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>1</v>
       </c>
@@ -12294,7 +12286,7 @@
         <v>0.29847129365993402</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>244</v>
       </c>
@@ -12328,7 +12320,7 @@
         <v>0.49065561985780998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>244</v>
       </c>
@@ -12362,7 +12354,7 @@
         <v>0.12716586319930701</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>244</v>
       </c>
@@ -12396,7 +12388,7 @@
         <v>0.24175608869574</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>244</v>
       </c>
@@ -12430,7 +12422,7 @@
         <v>0.29872122806778101</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>244</v>
       </c>
@@ -12449,7 +12441,7 @@
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>244</v>
       </c>
@@ -12473,7 +12465,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>1</v>
       </c>
@@ -12497,7 +12489,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>1</v>
       </c>
@@ -12521,7 +12513,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>244</v>
       </c>
@@ -12545,7 +12537,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>244</v>
       </c>
@@ -12561,7 +12553,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>1</v>
       </c>
@@ -12585,7 +12577,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>113</v>
       </c>
@@ -12597,7 +12589,7 @@
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>1</v>
       </c>
@@ -12621,7 +12613,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>1</v>
       </c>
@@ -12645,7 +12637,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>1</v>
       </c>
@@ -12669,7 +12661,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>244</v>
       </c>
@@ -12693,7 +12685,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>244</v>
       </c>
@@ -12717,7 +12709,7 @@
         <v>R-SH*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>244</v>
       </c>
@@ -12741,7 +12733,7 @@
         <v>R-SH*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>244</v>
       </c>
@@ -12765,7 +12757,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>244</v>
       </c>
@@ -12781,7 +12773,7 @@
       <c r="G41" s="31"/>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>244</v>
       </c>
@@ -12805,7 +12797,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>1</v>
       </c>
@@ -12829,7 +12821,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>1</v>
       </c>
@@ -12853,7 +12845,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
         <v>244</v>
       </c>
@@ -12877,7 +12869,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>244</v>
       </c>
@@ -12893,7 +12885,7 @@
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
     </row>
-    <row r="47" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>1</v>
       </c>
@@ -12917,7 +12909,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>251</v>
       </c>
@@ -12928,7 +12920,7 @@
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
     </row>
-    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>1</v>
       </c>
@@ -12954,7 +12946,7 @@
         <v>R-S*_Apt_COA*</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>1</v>
       </c>
@@ -12980,7 +12972,7 @@
         <v>R-S*_Apt_BDL*</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>1</v>
       </c>
@@ -13006,7 +12998,7 @@
         <v>R-S*_Apt_ETH*</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>198</v>
       </c>
@@ -13032,7 +13024,7 @@
         <v>R-S*_Apt_LPG*</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>198</v>
       </c>
@@ -13058,7 +13050,7 @@
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>198</v>
       </c>
@@ -13084,7 +13076,7 @@
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>198</v>
       </c>
@@ -13110,7 +13102,7 @@
         <v>R-S*_Apt_KER*</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
         <v>198</v>
       </c>
@@ -13136,7 +13128,7 @@
         <v>R-S*_Apt_GAS*</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>1</v>
       </c>
@@ -13162,7 +13154,7 @@
         <v>R-S*_Apt_PEA*</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>1</v>
       </c>
@@ -13188,7 +13180,7 @@
         <v>R-S*_Apt_SMF*</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>198</v>
       </c>
@@ -13214,7 +13206,7 @@
         <v>R-S*_Apt_WOO*</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
         <v>198</v>
       </c>
@@ -13240,7 +13232,7 @@
         <v>R-S*_Apt_HET*</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
         <v>250</v>
       </c>
@@ -13252,7 +13244,7 @@
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>1</v>
       </c>
@@ -13278,7 +13270,7 @@
         <v>R-S*_Att_COA*</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>1</v>
       </c>
@@ -13304,7 +13296,7 @@
         <v>R-S*_Att_BDL*</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>1</v>
       </c>
@@ -13330,7 +13322,7 @@
         <v>R-S*_Att_ETH*</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
         <v>198</v>
       </c>
@@ -13356,7 +13348,7 @@
         <v>R-S*_Att_LPG*</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>198</v>
       </c>
@@ -13382,7 +13374,7 @@
         <v>R-SW*Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
         <v>198</v>
       </c>
@@ -13408,7 +13400,7 @@
         <v>R-SW*Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>198</v>
       </c>
@@ -13434,7 +13426,7 @@
         <v>R-S*_Att_KER*</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>198</v>
       </c>
@@ -13452,7 +13444,7 @@
       <c r="G69" s="31"/>
       <c r="H69" s="31"/>
     </row>
-    <row r="70" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>198</v>
       </c>
@@ -13478,7 +13470,7 @@
         <v>R-S*_Att_GAS*</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>1</v>
       </c>
@@ -13504,7 +13496,7 @@
         <v>R-S*_Att_PEA*</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>1</v>
       </c>
@@ -13530,7 +13522,7 @@
         <v>R-S*_Att_SMF*</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>198</v>
       </c>
@@ -13556,7 +13548,7 @@
         <v>R-S*_Att_WOO*</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>198</v>
       </c>
@@ -13574,7 +13566,7 @@
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
     </row>
-    <row r="75" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>198</v>
       </c>
@@ -13600,7 +13592,7 @@
         <v>R-S*_Att_HET*</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>249</v>
       </c>
@@ -13612,7 +13604,7 @@
       <c r="G76" s="28"/>
       <c r="H76" s="28"/>
     </row>
-    <row r="77" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>1</v>
       </c>
@@ -13638,7 +13630,7 @@
         <v>R-S*_Det_COA*</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>1</v>
       </c>
@@ -13664,7 +13656,7 @@
         <v>R-S*_Det_BDL*</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>1</v>
       </c>
@@ -13690,7 +13682,7 @@
         <v>R-S*_Det_ETH*</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>198</v>
       </c>
@@ -13716,7 +13708,7 @@
         <v>R-S*_Det_LPG*</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>198</v>
       </c>
@@ -13742,7 +13734,7 @@
         <v>R-SW*Det_ELC*X1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
         <v>198</v>
       </c>
@@ -13768,7 +13760,7 @@
         <v>R-SW*Det_ELC*X0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>198</v>
       </c>
@@ -13794,7 +13786,7 @@
         <v>R-S*_Det_KER*</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="31" t="s">
         <v>198</v>
       </c>
@@ -13812,7 +13804,7 @@
       <c r="G84" s="31"/>
       <c r="H84" s="31"/>
     </row>
-    <row r="85" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>198</v>
       </c>
@@ -13838,7 +13830,7 @@
         <v>R-S*_Det_GAS*</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>1</v>
       </c>
@@ -13864,7 +13856,7 @@
         <v>R-S*_Det_PEA*</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>1</v>
       </c>
@@ -13890,7 +13882,7 @@
         <v>R-S*_Det_SMF*</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>198</v>
       </c>
@@ -13916,7 +13908,7 @@
         <v>R-S*_Det_WOO*</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>198</v>
       </c>
@@ -13934,7 +13926,7 @@
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
     </row>
-    <row r="90" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="31" t="s">
         <v>198</v>
       </c>
@@ -13960,7 +13952,7 @@
         <v>R-S*_Det_HET*</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>115</v>
       </c>
@@ -13971,7 +13963,7 @@
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>1</v>
       </c>
@@ -13995,7 +13987,7 @@
         <v>R-WH_Apt_COA*</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>1</v>
       </c>
@@ -14019,7 +14011,7 @@
         <v>R-WH_Apt_BDL*</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>1</v>
       </c>
@@ -14043,7 +14035,7 @@
         <v>R-WH_Apt_ETH*</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="31" t="s">
         <v>1</v>
       </c>
@@ -14067,7 +14059,7 @@
         <v>R-WH_Apt_LPG*</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>244</v>
       </c>
@@ -14091,7 +14083,7 @@
         <v>R-WH_Apt_ELC*X0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>1</v>
       </c>
@@ -14115,7 +14107,7 @@
         <v>R-WH_Apt_KER*</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>1</v>
       </c>
@@ -14139,7 +14131,7 @@
         <v>R-WH_Apt_GAS*</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="31" t="s">
         <v>1</v>
       </c>
@@ -14163,7 +14155,7 @@
         <v>R-WH_Apt_PEA*</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>1</v>
       </c>
@@ -14187,7 +14179,7 @@
         <v>R-WH_Apt_SMF*</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="31" t="s">
         <v>1</v>
       </c>
@@ -14211,7 +14203,7 @@
         <v>R-WH_Apt_WOO*</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>1</v>
       </c>
@@ -14235,7 +14227,7 @@
         <v>R-WH_Apt_HET*</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>244</v>
       </c>
@@ -14259,7 +14251,7 @@
         <v>R-WH_Apt_SOL*</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="27" t="s">
         <v>116</v>
       </c>
@@ -14271,7 +14263,7 @@
       <c r="G104" s="28"/>
       <c r="H104" s="28"/>
     </row>
-    <row r="105" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>1</v>
       </c>
@@ -14295,7 +14287,7 @@
         <v>R-WH_Att_COA*</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="31" t="s">
         <v>1</v>
       </c>
@@ -14319,7 +14311,7 @@
         <v>R-WH_Att_BDL*</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>1</v>
       </c>
@@ -14343,7 +14335,7 @@
         <v>R-WH_Att_ETH*</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="31" t="s">
         <v>1</v>
       </c>
@@ -14367,7 +14359,7 @@
         <v>R-WH_Att_LPG*</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>244</v>
       </c>
@@ -14391,7 +14383,7 @@
         <v>R-WH_Att_ELC*X0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="31" t="s">
         <v>1</v>
       </c>
@@ -14415,7 +14407,7 @@
         <v>R-WH_Att_KER*</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>1</v>
       </c>
@@ -14439,7 +14431,7 @@
         <v>R-WH_Att_GAS*</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
         <v>1</v>
       </c>
@@ -14463,7 +14455,7 @@
         <v>R-WH_Att_PEA*</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>1</v>
       </c>
@@ -14487,7 +14479,7 @@
         <v>R-WH_Att_SMF*</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
         <v>1</v>
       </c>
@@ -14511,7 +14503,7 @@
         <v>R-WH_Att_WOO*</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>1</v>
       </c>
@@ -14535,7 +14527,7 @@
         <v>R-WH_Att_HET*</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
         <v>244</v>
       </c>
@@ -14559,7 +14551,7 @@
         <v>R-WH_Att_SOL*</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>117</v>
       </c>
@@ -14571,7 +14563,7 @@
       <c r="G117" s="28"/>
       <c r="H117" s="28"/>
     </row>
-    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>1</v>
       </c>
@@ -14595,7 +14587,7 @@
         <v>R-WH_Det_COA*</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
         <v>1</v>
       </c>
@@ -14619,7 +14611,7 @@
         <v>R-WH_Det_BDL*</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>1</v>
       </c>
@@ -14643,7 +14635,7 @@
         <v>R-WH_Det_ETH*</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
         <v>1</v>
       </c>
@@ -14667,7 +14659,7 @@
         <v>R-WH_Det_LPG*</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>244</v>
       </c>
@@ -14691,7 +14683,7 @@
         <v>R-WH_Det_ELC*X0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
         <v>1</v>
       </c>
@@ -14715,7 +14707,7 @@
         <v>R-WH_Det_KER*</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>1</v>
       </c>
@@ -14739,7 +14731,7 @@
         <v>R-WH_Det_GAS*</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="31" t="s">
         <v>1</v>
       </c>
@@ -14763,7 +14755,7 @@
         <v>R-WH_Det_PEA*</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>1</v>
       </c>
@@ -14787,7 +14779,7 @@
         <v>R-WH_Det_SMF*</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>1</v>
       </c>
@@ -14811,7 +14803,7 @@
         <v>R-WH_Det_WOO*</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>1</v>
       </c>
@@ -14835,7 +14827,7 @@
         <v>R-WH_Det_HET*</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="31" t="s">
         <v>244</v>
       </c>
@@ -14859,7 +14851,7 @@
         <v>R-WH_Det_SOL*</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>246</v>
       </c>
@@ -14871,7 +14863,7 @@
       <c r="G130" s="28"/>
       <c r="H130" s="28"/>
     </row>
-    <row r="131" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>78</v>
       </c>
@@ -14895,7 +14887,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>78</v>
       </c>
@@ -14919,7 +14911,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>78</v>
       </c>
@@ -14943,7 +14935,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
         <v>247</v>
       </c>
@@ -14955,7 +14947,7 @@
       <c r="G134" s="28"/>
       <c r="H134" s="28"/>
     </row>
-    <row r="135" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>245</v>
       </c>
@@ -14982,7 +14974,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="31" t="s">
         <v>245</v>
       </c>
@@ -15009,7 +15001,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>245</v>
       </c>
@@ -15036,7 +15028,7 @@
         <v>R-SH_Det_ELC*X1</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="27" t="s">
         <v>252</v>
       </c>
@@ -15048,7 +15040,7 @@
       <c r="G138" s="28"/>
       <c r="H138" s="28"/>
     </row>
-    <row r="139" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>245</v>
       </c>
@@ -15074,7 +15066,7 @@
         <v>R-SH_Apt_ELC*X1</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="31" t="s">
         <v>245</v>
       </c>
@@ -15100,7 +15092,7 @@
         <v>R-SH_Att_ELC*X1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>245</v>
       </c>
@@ -15143,32 +15135,32 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" style="21"/>
-    <col min="5" max="5" width="11.08984375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.08984375" style="21"/>
+    <col min="1" max="1" width="13.5703125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="21"/>
+    <col min="5" max="5" width="11.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="E3" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>79</v>
       </c>
@@ -15188,7 +15180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -15198,7 +15190,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>109</v>
       </c>
@@ -15221,7 +15213,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>109</v>
       </c>
@@ -15244,7 +15236,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>109</v>
       </c>
@@ -15267,7 +15259,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>109</v>
       </c>
@@ -15290,7 +15282,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>109</v>
       </c>
@@ -15313,7 +15305,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>109</v>
       </c>
@@ -15336,7 +15328,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>109</v>
       </c>
@@ -15359,7 +15351,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>109</v>
       </c>
@@ -15382,7 +15374,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>109</v>
       </c>
@@ -15405,7 +15397,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>109</v>
       </c>
@@ -15428,7 +15420,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>109</v>
       </c>
@@ -15450,7 +15442,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>109</v>
       </c>
@@ -15473,7 +15465,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -15483,7 +15475,7 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
     </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>105</v>
       </c>
@@ -15506,7 +15498,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>105</v>
       </c>
@@ -15529,7 +15521,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>105</v>
       </c>
@@ -15552,7 +15544,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>105</v>
       </c>
@@ -15575,7 +15567,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>105</v>
       </c>
@@ -15598,7 +15590,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>105</v>
       </c>
@@ -15621,7 +15613,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>105</v>
       </c>
@@ -15644,7 +15636,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>105</v>
       </c>
@@ -15667,7 +15659,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>105</v>
       </c>
@@ -15690,7 +15682,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>105</v>
       </c>
@@ -15713,7 +15705,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>105</v>
       </c>
@@ -15735,7 +15727,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>105</v>
       </c>
@@ -15758,7 +15750,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -15768,7 +15760,7 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
     </row>
-    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>114</v>
       </c>
@@ -15791,7 +15783,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>114</v>
       </c>
@@ -15814,7 +15806,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>114</v>
       </c>
@@ -15837,7 +15829,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>114</v>
       </c>
@@ -15860,7 +15852,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>114</v>
       </c>
@@ -15883,7 +15875,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
         <v>114</v>
       </c>
@@ -15906,7 +15898,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>114</v>
       </c>
@@ -15929,7 +15921,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>114</v>
       </c>
@@ -15952,7 +15944,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>114</v>
       </c>
@@ -15975,7 +15967,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>114</v>
       </c>
@@ -15998,7 +15990,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>114</v>
       </c>
@@ -16020,7 +16012,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>114</v>
       </c>
@@ -16043,7 +16035,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
@@ -16053,7 +16045,7 @@
       <c r="F44" s="28"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>109</v>
       </c>
@@ -16076,7 +16068,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>105</v>
       </c>
@@ -16099,7 +16091,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>114</v>
       </c>
@@ -16122,7 +16114,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -16132,7 +16124,7 @@
       <c r="F48" s="28"/>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>109</v>
       </c>
@@ -16155,7 +16147,7 @@
         <v>*0.590188034188034</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
         <v>109</v>
       </c>
@@ -16178,7 +16170,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>109</v>
       </c>
@@ -16201,7 +16193,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
         <v>109</v>
       </c>
@@ -16224,7 +16216,7 @@
         <v>*0.806779026217228</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>109</v>
       </c>
@@ -16247,7 +16239,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>109</v>
       </c>
@@ -16270,7 +16262,7 @@
         <v>*3.07019607843137</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>109</v>
       </c>
@@ -16293,7 +16285,7 @@
         <v>*0.810162162162162</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>109</v>
       </c>
@@ -16316,7 +16308,7 @@
         <v>*0.810268817204301</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
         <v>109</v>
       </c>
@@ -16339,7 +16331,7 @@
         <v>*0.525</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>109</v>
       </c>
@@ -16362,7 +16354,7 @@
         <v>*0.581777777777778</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>109</v>
       </c>
@@ -16385,7 +16377,7 @@
         <v>*0.688045112781955</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>109</v>
       </c>
@@ -16407,7 +16399,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
         <v>109</v>
       </c>
@@ -16430,7 +16422,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
@@ -16440,7 +16432,7 @@
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
     </row>
-    <row r="63" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>105</v>
       </c>
@@ -16463,7 +16455,7 @@
         <v>*0.557980879057327</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>105</v>
       </c>
@@ -16486,7 +16478,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>105</v>
       </c>
@@ -16509,7 +16501,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
         <v>105</v>
       </c>
@@ -16532,7 +16524,7 @@
         <v>*0.807075774336283</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>105</v>
       </c>
@@ -16555,7 +16547,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>105</v>
       </c>
@@ -16578,7 +16570,7 @@
         <v>*3.11576271186441</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
         <v>105</v>
       </c>
@@ -16601,7 +16593,7 @@
         <v>*0.819415584415584</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>105</v>
       </c>
@@ -16624,7 +16616,7 @@
         <v>*0.817294117647059</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>105</v>
       </c>
@@ -16647,7 +16639,7 @@
         <v>*0.550929487179487</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>105</v>
       </c>
@@ -16670,7 +16662,7 @@
         <v>*0.571137724550898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="31" t="s">
         <v>105</v>
       </c>
@@ -16693,7 +16685,7 @@
         <v>*0.704006568144499</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>105</v>
       </c>
@@ -16715,7 +16707,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
         <v>105</v>
       </c>
@@ -16738,7 +16730,7 @@
         <v>*1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="28"/>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -16748,7 +16740,7 @@
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
     </row>
-    <row r="77" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>114</v>
       </c>
@@ -16771,7 +16763,7 @@
         <v>*0.619863294600137</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>114</v>
       </c>
@@ -16794,7 +16786,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>114</v>
       </c>
@@ -16817,7 +16809,7 @@
         <v>*0.9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
         <v>114</v>
       </c>
@@ -16840,7 +16832,7 @@
         <v>*0.826617747626993</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>114</v>
       </c>
@@ -16863,7 +16855,7 @@
         <v>*0.999520958083832</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>114</v>
       </c>
@@ -16886,7 +16878,7 @@
         <v>*3.08978378378378</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="31" t="s">
         <v>114</v>
       </c>
@@ -16909,7 +16901,7 @@
         <v>*0.822803738317757</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>114</v>
       </c>
@@ -16932,7 +16924,7 @@
         <v>*0.827287581699346</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
         <v>114</v>
       </c>
@@ -16955,7 +16947,7 @@
         <v>*0.545789473684211</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>114</v>
       </c>
@@ -16978,7 +16970,7 @@
         <v>*0.614742268041237</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
         <v>114</v>
       </c>
@@ -17001,7 +16993,7 @@
         <v>*0.729286096921694</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>114</v>
       </c>
@@ -17023,7 +17015,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
         <v>114</v>
       </c>
@@ -17061,12 +17053,12 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -17107,7 +17099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -17148,7 +17140,7 @@
         <v>7.5051369863013695E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -17189,7 +17181,7 @@
         <v>0.42342871317737102</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -17230,7 +17222,7 @@
         <v>5.3377456313566302E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -17271,7 +17263,7 @@
         <v>1.4717633763921301</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -17312,7 +17304,7 @@
         <v>9.0422374429223698E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -17353,7 +17345,7 @@
         <v>6.0645497051149098E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -17394,7 +17386,7 @@
         <v>3.2373195740855901E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -17435,7 +17427,7 @@
         <v>0.11252568167857099</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -17476,7 +17468,7 @@
         <v>0.12792665468435199</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -17517,7 +17509,7 @@
         <v>9.0627195293291204E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -17558,7 +17550,7 @@
         <v>8.67381932124731E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -17599,7 +17591,7 @@
         <v>0.13976565562716001</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -17640,7 +17632,7 @@
         <v>9.9394310243560199E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -17681,7 +17673,7 @@
         <v>8.8919330289193299E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -17722,7 +17714,7 @@
         <v>0.10081773520747001</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -17763,7 +17755,7 @@
         <v>6.2077936363827101E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -17804,7 +17796,7 @@
         <v>0.66299984214582297</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -17845,7 +17837,7 @@
         <v>6.7212328767123297E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -17886,7 +17878,7 @@
         <v>4.9806776874505597E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -17927,7 +17919,7 @@
         <v>4.8794584261943399E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -17968,7 +17960,7 @@
         <v>6.9903120588175702E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -18009,7 +18001,7 @@
         <v>9.73639647341112E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -18050,7 +18042,7 @@
         <v>6.8944308925102102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -18091,7 +18083,7 @@
         <v>5.7147241043066198E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -18132,7 +18124,7 @@
         <v>0.21413130493478699</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -18173,7 +18165,7 @@
         <v>6.6620869969995597E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -18214,7 +18206,7 @@
         <v>4.2328767123287703E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -18255,7 +18247,7 @@
         <v>7.0651721487066402E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -18296,7 +18288,7 @@
         <v>4.4735473424353099E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -18337,7 +18329,7 @@
         <v>0.458133885220118</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -18378,7 +18370,7 @@
         <v>4.7947345890410997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -18419,7 +18411,7 @@
         <v>4.2554933846820402E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -18460,7 +18452,7 @@
         <v>5.1032329364559198E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -18501,7 +18493,7 @@
         <v>5.37114750791833E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -18542,7 +18534,7 @@
         <v>6.7402586104361395E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -18583,7 +18575,7 @@
         <v>2.3589745043839899E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -18624,7 +18616,7 @@
         <v>4.3752307505030202E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -18665,7 +18657,7 @@
         <v>0.14341496381045399</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -18718,12 +18710,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -18764,7 +18756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -18805,7 +18797,7 @@
         <v>9.6640000122913006E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -18846,7 +18838,7 @@
         <v>0.40654789002485697</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -18887,7 +18879,7 @@
         <v>1.3931119040235E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -18928,7 +18920,7 @@
         <v>0.18130269923092601</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -18969,7 +18961,7 @@
         <v>2.0797704474084602E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -19010,7 +19002,7 @@
         <v>2.5618485673577399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -19051,7 +19043,7 @@
         <v>2.4002855672672599E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -19092,7 +19084,7 @@
         <v>7.5994529972598895E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -19133,7 +19125,7 @@
         <v>4.7559865677763699E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -19174,7 +19166,7 @@
         <v>0.161743747694956</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -19215,7 +19207,7 @@
         <v>0.14274595375996399</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -19256,7 +19248,7 @@
         <v>3.6221240391349503E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -19297,7 +19289,7 @@
         <v>2.53147717385124E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -19338,7 +19330,7 @@
         <v>0.30984484845142601</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -19379,7 +19371,7 @@
         <v>3.5156391297092499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -19420,7 +19412,7 @@
         <v>0.11404303534564</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -19461,7 +19453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -19502,7 +19494,7 @@
         <v>3.5964557684536103E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -19543,7 +19535,7 @@
         <v>2.3481233276961201E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -19584,7 +19576,7 @@
         <v>4.3705701165065197E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -19625,7 +19617,7 @@
         <v>4.8109166237074001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -19666,7 +19658,7 @@
         <v>7.27790788417393E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -19707,7 +19699,7 @@
         <v>7.2438724233275797E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -19748,7 +19740,7 @@
         <v>0.11656908094434699</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -19789,7 +19781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -19830,7 +19822,7 @@
         <v>0.46414376338591401</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -19871,7 +19863,7 @@
         <v>4.3843217634644903E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -19912,7 +19904,7 @@
         <v>0.138319067250922</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -19953,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -19994,7 +19986,7 @@
         <v>3.96720040920054E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -20035,7 +20027,7 @@
         <v>0.203493994761373</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -20076,7 +20068,7 @@
         <v>4.8157354051402902E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -20117,7 +20109,7 @@
         <v>6.97946718860816E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -20158,7 +20150,7 @@
         <v>0.101539467044872</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -20199,7 +20191,7 @@
         <v>0.13495608652757701</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1044,27 +1044,27 @@
     <t>R-RSDCW_X0</t>
   </si>
   <si>
+    <t>R-LT_Det_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
     <t>R-LT_Apt_X0</t>
   </si>
   <si>
-    <t>R-LT_Att_X0</t>
-  </si>
-  <si>
-    <t>R-LT_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDCD_X0</t>
   </si>
   <si>
+    <t>R-PF_Det_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
     <t>R-PF_Apt_X0</t>
   </si>
   <si>
-    <t>R-PF_Att_X0</t>
-  </si>
-  <si>
-    <t>R-PF_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDDW_X0</t>
   </si>
   <si>
@@ -1308,13 +1308,13 @@
     <t>*Space Heating (dual techs)</t>
   </si>
   <si>
+    <t>R-RSDCK_LPG_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_GAS_X0</t>
+  </si>
+  <si>
     <t>R-RSDCK_ELC_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_GAS_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_LPG_X0</t>
   </si>
   <si>
     <t>R-SH_Att_GAS_X0</t>
@@ -1590,7 +1590,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499900013208389"/>
+      <color theme="7" tint="-0.499889999628067"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1605,7 +1605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499900013208389"/>
+      <color theme="7" tint="-0.499889999628067"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1670,7 +1670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499100014567375"/>
+        <fgColor theme="0" tint="-0.0498999990522861"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,7 +1688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149920001626015"/>
+        <fgColor theme="0" tint="-0.149910002946854"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2157,7 +2157,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4608" t="8923" r="7736" b="12915"/>
+        <a:srcRect l="4606" t="8921" r="7734" b="12913"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2284,7 +2284,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1358" t="6553" r="4000" b="6326"/>
+        <a:srcRect l="1356" t="6552" r="3999" b="6324"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2327,7 +2327,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3988" t="26188" r="3988" b="26187"/>
+        <a:srcRect l="3987" t="26187" r="3987" b="26185"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8976,7 +8976,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9058,7 +9058,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9255,7 +9255,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9337,7 +9337,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9529,7 +9529,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9611,7 +9611,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1044,27 +1044,27 @@
     <t>R-RSDCW_X0</t>
   </si>
   <si>
+    <t>R-LT_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
     <t>R-LT_Det_X0</t>
   </si>
   <si>
-    <t>R-LT_Att_X0</t>
-  </si>
-  <si>
-    <t>R-LT_Apt_X0</t>
-  </si>
-  <si>
     <t>R-RSDCD_X0</t>
   </si>
   <si>
+    <t>R-PF_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
     <t>R-PF_Det_X0</t>
   </si>
   <si>
-    <t>R-PF_Att_X0</t>
-  </si>
-  <si>
-    <t>R-PF_Apt_X0</t>
-  </si>
-  <si>
     <t>R-RSDDW_X0</t>
   </si>
   <si>
@@ -1308,13 +1308,13 @@
     <t>*Space Heating (dual techs)</t>
   </si>
   <si>
+    <t>R-RSDCK_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_GAS_X0</t>
+  </si>
+  <si>
     <t>R-RSDCK_LPG_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_GAS_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_ELC_X0</t>
   </si>
   <si>
     <t>R-SH_Att_GAS_X0</t>
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.49974998831749"/>
+      <color theme="7" tint="-0.499680012464523"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.49974998831749"/>
+      <color theme="7" tint="-0.499680012464523"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0497599989175797"/>
+        <fgColor theme="0" tint="-0.0496900007128716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149770006537437"/>
+        <fgColor theme="0" tint="-0.149700000882149"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4588" t="8903" r="7716" b="12895"/>
+        <a:srcRect l="4577" t="8892" r="7705" b="12884"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1338" t="6533" r="3981" b="6306"/>
+        <a:srcRect l="1327" t="6523" r="3970" b="6295"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3968" t="26168" r="3968" b="26167"/>
+        <a:srcRect l="3958" t="26158" r="3958" b="26156"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8977,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9059,7 +9059,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9256,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9338,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9530,7 +9530,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9612,7 +9612,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499680012464523"/>
+      <color theme="7" tint="-0.499559998512268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499680012464523"/>
+      <color theme="7" tint="-0.499559998512268"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0496900007128716"/>
+        <fgColor theme="0" tint="-0.0495700016617775"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149700000882149"/>
+        <fgColor theme="0" tint="-0.149580001831055"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4577" t="8892" r="7705" b="12884"/>
+        <a:srcRect l="4559" t="8874" r="7687" b="12866"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1327" t="6523" r="3970" b="6295"/>
+        <a:srcRect l="1309" t="6504" r="3952" b="6277"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3958" t="26158" r="3958" b="26156"/>
+        <a:srcRect l="3939" t="26139" r="3939" b="26138"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1044,27 +1044,27 @@
     <t>R-RSDCW_X0</t>
   </si>
   <si>
+    <t>R-LT_Det_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
     <t>R-LT_Apt_X0</t>
   </si>
   <si>
-    <t>R-LT_Att_X0</t>
-  </si>
-  <si>
-    <t>R-LT_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDCD_X0</t>
   </si>
   <si>
+    <t>R-PF_Det_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
     <t>R-PF_Apt_X0</t>
   </si>
   <si>
-    <t>R-PF_Att_X0</t>
-  </si>
-  <si>
-    <t>R-PF_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDDW_X0</t>
   </si>
   <si>
@@ -1308,13 +1308,13 @@
     <t>*Space Heating (dual techs)</t>
   </si>
   <si>
+    <t>R-RSDCK_LPG_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_GAS_X0</t>
+  </si>
+  <si>
     <t>R-RSDCK_ELC_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_GAS_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_LPG_X0</t>
   </si>
   <si>
     <t>R-SH_Att_GAS_X0</t>
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499559998512268"/>
+      <color theme="7" tint="-0.499529987573624"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499559998512268"/>
+      <color theme="7" tint="-0.499529987573624"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495700016617775"/>
+        <fgColor theme="0" tint="-0.0495399981737137"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149580001831055"/>
+        <fgColor theme="0" tint="-0.149550005793571"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4559" t="8874" r="7687" b="12866"/>
+        <a:srcRect l="4554" t="8869" r="7682" b="12861"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1309" t="6504" r="3952" b="6277"/>
+        <a:srcRect l="1304" t="6500" r="3947" b="6272"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3939" t="26139" r="3939" b="26138"/>
+        <a:srcRect l="3935" t="26135" r="3935" b="26133"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8977,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9059,7 +9059,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9256,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9338,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9530,7 +9530,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9612,7 +9612,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499529987573624"/>
+      <color theme="7" tint="-0.499509990215302"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499529987573624"/>
+      <color theme="7" tint="-0.499509990215302"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495399981737137"/>
+        <fgColor theme="0" tint="-0.0495200008153915"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149550005793571"/>
+        <fgColor theme="0" tint="-0.149529993534088"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4554" t="8869" r="7682" b="12861"/>
+        <a:srcRect l="4551" t="8866" r="7679" b="12858"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1304" t="6500" r="3947" b="6272"/>
+        <a:srcRect l="1301" t="6497" r="3944" b="6269"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3935" t="26135" r="3935" b="26133"/>
+        <a:srcRect l="3932" t="26132" r="3932" b="26130"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1044,27 +1044,27 @@
     <t>R-RSDCW_X0</t>
   </si>
   <si>
+    <t>R-LT_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
     <t>R-LT_Det_X0</t>
   </si>
   <si>
-    <t>R-LT_Att_X0</t>
-  </si>
-  <si>
-    <t>R-LT_Apt_X0</t>
-  </si>
-  <si>
     <t>R-RSDCD_X0</t>
   </si>
   <si>
+    <t>R-PF_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
     <t>R-PF_Det_X0</t>
   </si>
   <si>
-    <t>R-PF_Att_X0</t>
-  </si>
-  <si>
-    <t>R-PF_Apt_X0</t>
-  </si>
-  <si>
     <t>R-RSDDW_X0</t>
   </si>
   <si>
@@ -1308,13 +1308,13 @@
     <t>*Space Heating (dual techs)</t>
   </si>
   <si>
+    <t>R-RSDCK_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_GAS_X0</t>
+  </si>
+  <si>
     <t>R-RSDCK_LPG_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_GAS_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_ELC_X0</t>
   </si>
   <si>
     <t>R-SH_Att_GAS_X0</t>
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499509990215302"/>
+      <color theme="7" tint="-0.499500006437302"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499509990215302"/>
+      <color theme="7" tint="-0.499500006437302"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495200008153915"/>
+        <fgColor theme="0" tint="-0.0495099984109402"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149529993534088"/>
+        <fgColor theme="0" tint="-0.149519994854927"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4551" t="8866" r="7679" b="12858"/>
+        <a:srcRect l="4550" t="8865" r="7678" b="12857"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1301" t="6497" r="3944" b="6269"/>
+        <a:srcRect l="1300" t="6495" r="3942" b="6268"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3932" t="26132" r="3932" b="26130"/>
+        <a:srcRect l="3930" t="26130" r="3930" b="26129"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8977,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9059,7 +9059,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9256,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9338,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9530,7 +9530,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9612,7 +9612,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499680012464523"/>
+      <color theme="7" tint="-0.499659985303879"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499680012464523"/>
+      <color theme="7" tint="-0.499659985303879"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0496900007128716"/>
+        <fgColor theme="0" tint="-0.0496699996292591"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149700000882149"/>
+        <fgColor theme="0" tint="-0.149680003523827"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4577" t="8892" r="7705" b="12884"/>
+        <a:srcRect l="4574" t="8889" r="7702" b="12881"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1327" t="6523" r="3970" b="6295"/>
+        <a:srcRect l="1324" t="6520" r="3967" b="6292"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3958" t="26158" r="3958" b="26156"/>
+        <a:srcRect l="3955" t="26155" r="3955" b="26153"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1044,27 +1044,27 @@
     <t>R-RSDCW_X0</t>
   </si>
   <si>
+    <t>R-LT_Det_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
     <t>R-LT_Apt_X0</t>
   </si>
   <si>
-    <t>R-LT_Att_X0</t>
-  </si>
-  <si>
-    <t>R-LT_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDCD_X0</t>
   </si>
   <si>
+    <t>R-PF_Det_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
     <t>R-PF_Apt_X0</t>
   </si>
   <si>
-    <t>R-PF_Att_X0</t>
-  </si>
-  <si>
-    <t>R-PF_Det_X0</t>
-  </si>
-  <si>
     <t>R-RSDDW_X0</t>
   </si>
   <si>
@@ -1308,13 +1308,13 @@
     <t>*Space Heating (dual techs)</t>
   </si>
   <si>
+    <t>R-RSDCK_LPG_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_GAS_X0</t>
+  </si>
+  <si>
     <t>R-RSDCK_ELC_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_GAS_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_LPG_X0</t>
   </si>
   <si>
     <t>R-SH_Att_GAS_X0</t>
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499500006437302"/>
+      <color theme="7" tint="-0.499449998140335"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499500006437302"/>
+      <color theme="7" tint="-0.499449998140335"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0495099984109402"/>
+        <fgColor theme="0" tint="-0.0494600012898445"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149519994854927"/>
+        <fgColor theme="0" tint="-0.149470001459122"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4550" t="8865" r="7678" b="12857"/>
+        <a:srcRect l="4542" t="8857" r="7670" b="12849"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1300" t="6495" r="3942" b="6268"/>
+        <a:srcRect l="1292" t="6488" r="3935" b="6260"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3930" t="26130" r="3930" b="26129"/>
+        <a:srcRect l="3923" t="26123" r="3923" b="26121"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8977,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9059,7 +9059,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9256,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9338,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9530,7 +9530,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9612,7 +9612,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499449998140335"/>
+      <color theme="7" tint="-0.499430000782013"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499449998140335"/>
+      <color theme="7" tint="-0.499430000782013"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0494600012898445"/>
+        <fgColor theme="0" tint="-0.0494400002062321"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149470001459122"/>
+        <fgColor theme="0" tint="-0.1494500041008"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4542" t="8857" r="7670" b="12849"/>
+        <a:srcRect l="4539" t="8854" r="7667" b="12846"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1292" t="6488" r="3935" b="6260"/>
+        <a:srcRect l="1289" t="6484" r="3932" b="6257"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3923" t="26123" r="3923" b="26121"/>
+        <a:srcRect l="3919" t="26119" r="3919" b="26118"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -11829,7 +11829,7 @@
       <c r="C6" s="33"/>
       <c r="D6" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B6,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.40654789002485697</v>
+        <v>0.12</v>
       </c>
       <c r="F6" s="33" t="s">
         <v>109</v>
@@ -11864,7 +11864,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B7,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0096640000122913006</v>
+        <v>0.12</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>109</v>
@@ -11899,7 +11899,7 @@
       <c r="C8" s="33"/>
       <c r="D8" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B8,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>2.0797704474084602E-05</v>
+        <v>0.12</v>
       </c>
       <c r="F8" s="33" t="s">
         <v>109</v>
@@ -11934,7 +11934,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B9,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.047559865677763699</v>
+        <v>0.12</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>109</v>
@@ -12144,7 +12144,7 @@
       <c r="C15" s="34"/>
       <c r="D15" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B15,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.14274595375996399</v>
+        <v>0.12</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>109</v>
@@ -12168,7 +12168,7 @@
       <c r="C16" s="33"/>
       <c r="D16" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B16,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.036221240391349503</v>
+        <v>0.12</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>109</v>
@@ -12192,7 +12192,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,B17,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0024002855672672599</v>
+        <v>0.12</v>
       </c>
       <c r="F17" s="34" t="s">
         <v>109</v>
@@ -12269,7 +12269,7 @@
       <c r="C20" s="34"/>
       <c r="D20" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H20,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0253147717385124</v>
+        <v>0.12</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>105</v>
@@ -12303,7 +12303,7 @@
       <c r="C21" s="33"/>
       <c r="D21" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H21,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>105</v>
@@ -12564,7 +12564,7 @@
       <c r="C30" s="34"/>
       <c r="D30" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H30,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.11656908094434699</v>
+        <v>0.12</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>105</v>
@@ -12587,7 +12587,7 @@
       <c r="C31" s="33"/>
       <c r="D31" s="55">
         <f>D30</f>
-        <v>0.11656908094434699</v>
+        <v>0.12</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -12604,7 +12604,7 @@
       <c r="C32" s="34"/>
       <c r="D32" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H32,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.023481233276961201</v>
+        <v>0.12</v>
       </c>
       <c r="F32" s="34" t="s">
         <v>105</v>
@@ -12664,7 +12664,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H35,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>114</v>
@@ -12688,7 +12688,7 @@
       <c r="C36" s="33"/>
       <c r="D36" s="55">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H36,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
       <c r="F36" s="33" t="s">
         <v>114</v>
@@ -12936,7 +12936,7 @@
       <c r="C47" s="34"/>
       <c r="D47" s="56">
         <f>AVERAGEIFS('BY-RSD-SH_AF'!$L$2:$L$100,'BY-RSD-SH_AF'!$C$2:$C$100,H47,'BY-RSD-SH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.203493994761373</v>
+        <v>0.12</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>114</v>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="D49" s="55">
         <f>D6</f>
-        <v>0.40654789002485697</v>
+        <v>0.12</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>109</v>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="D50" s="56">
         <f t="shared" si="9" ref="D50:D59">D7</f>
-        <v>0.0096640000122913006</v>
+        <v>0.12</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>109</v>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="D51" s="55">
         <f t="shared" si="9"/>
-        <v>2.0797704474084602E-05</v>
+        <v>0.12</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>109</v>
@@ -13051,7 +13051,7 @@
       </c>
       <c r="D52" s="56">
         <f t="shared" si="9"/>
-        <v>0.047559865677763699</v>
+        <v>0.12</v>
       </c>
       <c r="F52" s="34" t="s">
         <v>109</v>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="D58" s="56">
         <f t="shared" si="9"/>
-        <v>0.14274595375996399</v>
+        <v>0.12</v>
       </c>
       <c r="F58" s="34" t="s">
         <v>109</v>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="D59" s="55">
         <f t="shared" si="9"/>
-        <v>0.036221240391349503</v>
+        <v>0.12</v>
       </c>
       <c r="F59" s="33" t="s">
         <v>109</v>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="D60" s="56">
         <f>D17</f>
-        <v>0.0024002855672672599</v>
+        <v>0.12</v>
       </c>
       <c r="F60" s="34" t="s">
         <v>109</v>
@@ -13323,7 +13323,7 @@
       </c>
       <c r="D63" s="56">
         <f t="shared" si="13" ref="D63:D75">D20</f>
-        <v>0.0253147717385124</v>
+        <v>0.12</v>
       </c>
       <c r="F63" s="34" t="s">
         <v>105</v>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="D64" s="55">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F64" s="33" t="s">
         <v>105</v>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="D73" s="56">
         <f t="shared" si="13"/>
-        <v>0.11656908094434699</v>
+        <v>0.12</v>
       </c>
       <c r="F73" s="34" t="s">
         <v>105</v>
@@ -13600,7 +13600,7 @@
       </c>
       <c r="D74" s="55">
         <f t="shared" si="13"/>
-        <v>0.11656908094434699</v>
+        <v>0.12</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -13619,7 +13619,7 @@
       </c>
       <c r="D75" s="56">
         <f t="shared" si="13"/>
-        <v>0.023481233276961201</v>
+        <v>0.12</v>
       </c>
       <c r="F75" s="34" t="s">
         <v>105</v>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="D78" s="56">
         <f t="shared" si="17" ref="D78:D90">D35</f>
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
       <c r="F78" s="34" t="s">
         <v>114</v>
@@ -13709,7 +13709,7 @@
       </c>
       <c r="D79" s="55">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
       <c r="F79" s="33" t="s">
         <v>114</v>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="D90" s="56">
         <f t="shared" si="17"/>
-        <v>0.203493994761373</v>
+        <v>0.12</v>
       </c>
       <c r="F90" s="34" t="s">
         <v>114</v>
@@ -14014,7 +14014,7 @@
       <c r="C92" s="33"/>
       <c r="D92" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H92,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.42342871317737102</v>
+        <v>0.12</v>
       </c>
       <c r="F92" s="33" t="s">
         <v>109</v>
@@ -14038,7 +14038,7 @@
       <c r="C93" s="34"/>
       <c r="D93" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H93,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.075051369863013695</v>
+        <v>0.12</v>
       </c>
       <c r="F93" s="34" t="s">
         <v>109</v>
@@ -14062,7 +14062,7 @@
       <c r="C94" s="33"/>
       <c r="D94" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H94,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.090422374429223698</v>
+        <v>0.12</v>
       </c>
       <c r="F94" s="33" t="s">
         <v>109</v>
@@ -14086,7 +14086,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H95,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.12792665468435199</v>
+        <v>0.12</v>
       </c>
       <c r="F95" s="34" t="s">
         <v>109</v>
@@ -14134,7 +14134,7 @@
       <c r="C97" s="34"/>
       <c r="D97" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H97,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.11252568167857099</v>
+        <v>0.12</v>
       </c>
       <c r="F97" s="34" t="s">
         <v>109</v>
@@ -14182,7 +14182,7 @@
       <c r="C99" s="34"/>
       <c r="D99" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H99,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.090627195293291204</v>
+        <v>0.12</v>
       </c>
       <c r="F99" s="34" t="s">
         <v>109</v>
@@ -14206,7 +14206,7 @@
       <c r="C100" s="33"/>
       <c r="D100" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H100,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0867381932124731</v>
+        <v>0.12</v>
       </c>
       <c r="F100" s="33" t="s">
         <v>109</v>
@@ -14230,7 +14230,7 @@
       <c r="C101" s="34"/>
       <c r="D101" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H101,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.099394310243560199</v>
+        <v>0.12</v>
       </c>
       <c r="F101" s="34" t="s">
         <v>109</v>
@@ -14254,7 +14254,7 @@
       <c r="C102" s="33"/>
       <c r="D102" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H102,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0032373195740855901</v>
+        <v>0.12</v>
       </c>
       <c r="F102" s="33" t="s">
         <v>109</v>
@@ -14338,7 +14338,7 @@
       <c r="C106" s="34"/>
       <c r="D106" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H106,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.088919330289193299</v>
+        <v>0.12</v>
       </c>
       <c r="F106" s="34" t="s">
         <v>105</v>
@@ -14362,7 +14362,7 @@
       <c r="C107" s="33"/>
       <c r="D107" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H107,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.067212328767123297</v>
+        <v>0.12</v>
       </c>
       <c r="F107" s="33" t="s">
         <v>105</v>
@@ -14386,7 +14386,7 @@
       <c r="C108" s="34"/>
       <c r="D108" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H108,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0973639647341112</v>
+        <v>0.12</v>
       </c>
       <c r="F108" s="34" t="s">
         <v>105</v>
@@ -14482,7 +14482,7 @@
       <c r="C112" s="34"/>
       <c r="D112" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H112,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.068944308925102102</v>
+        <v>0.12</v>
       </c>
       <c r="F112" s="34" t="s">
         <v>105</v>
@@ -14530,7 +14530,7 @@
       <c r="C114" s="34"/>
       <c r="D114" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H114,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.066620869969995597</v>
+        <v>0.12</v>
       </c>
       <c r="F114" s="34" t="s">
         <v>105</v>
@@ -14554,7 +14554,7 @@
       <c r="C115" s="33"/>
       <c r="D115" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H115,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0048794584261943399</v>
+        <v>0.12</v>
       </c>
       <c r="F115" s="33" t="s">
         <v>105</v>
@@ -14614,7 +14614,7 @@
       <c r="C118" s="33"/>
       <c r="D118" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H118,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.070651721487066402</v>
+        <v>0.12</v>
       </c>
       <c r="F118" s="33" t="s">
         <v>114</v>
@@ -14638,7 +14638,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H119,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.042328767123287703</v>
+        <v>0.12</v>
       </c>
       <c r="F119" s="34" t="s">
         <v>114</v>
@@ -14662,7 +14662,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H120,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.047947345890410997</v>
+        <v>0.12</v>
       </c>
       <c r="F120" s="33" t="s">
         <v>114</v>
@@ -14686,7 +14686,7 @@
       <c r="C121" s="34"/>
       <c r="D121" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H121,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.067402586104361395</v>
+        <v>0.12</v>
       </c>
       <c r="F121" s="34" t="s">
         <v>114</v>
@@ -14710,7 +14710,7 @@
       <c r="C122" s="33"/>
       <c r="D122" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H122,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.044735473424353099</v>
+        <v>0.12</v>
       </c>
       <c r="F122" s="33" t="s">
         <v>114</v>
@@ -14782,7 +14782,7 @@
       <c r="C125" s="34"/>
       <c r="D125" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H125,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.023589745043839899</v>
+        <v>0.12</v>
       </c>
       <c r="F125" s="34" t="s">
         <v>114</v>
@@ -14830,7 +14830,7 @@
       <c r="C127" s="34"/>
       <c r="D127" s="56">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H127,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.056573502855343599</v>
+        <v>0.12</v>
       </c>
       <c r="F127" s="34" t="s">
         <v>114</v>
@@ -14854,7 +14854,7 @@
       <c r="C128" s="33"/>
       <c r="D128" s="55">
         <f>AVERAGEIFS('BY-RSD-WH_AF'!$L$2:$L$100,'BY-RSD-WH_AF'!$C$2:$C$100,H128,'BY-RSD-WH_AF'!$A$2:$A$100,"BASE")</f>
-        <v>0.0051032329364559198</v>
+        <v>0.12</v>
       </c>
       <c r="F128" s="33" t="s">
         <v>114</v>
@@ -17162,10 +17162,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.075051369863013695</v>
+        <v>0.12</v>
       </c>
       <c r="M2">
-        <v>0.075051369863013695</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75">
@@ -17203,10 +17203,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.42342871317737102</v>
+        <v>0.12</v>
       </c>
       <c r="M3">
-        <v>0.42342871317737102</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75">
@@ -17326,10 +17326,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>0.090422374429223698</v>
+        <v>0.12</v>
       </c>
       <c r="M6">
-        <v>0.090422374429223698</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75">
@@ -17408,10 +17408,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>0.0032373195740855901</v>
+        <v>0.12</v>
       </c>
       <c r="M8">
-        <v>0.0032373195740855901</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75">
@@ -17449,10 +17449,10 @@
         <v>131</v>
       </c>
       <c r="L9">
-        <v>0.11252568167857099</v>
+        <v>0.12</v>
       </c>
       <c r="M9">
-        <v>0.11252568167857099</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12.75">
@@ -17490,10 +17490,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>0.12792665468435199</v>
+        <v>0.12</v>
       </c>
       <c r="M10">
-        <v>0.12792665468435199</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75">
@@ -17531,10 +17531,10 @@
         <v>131</v>
       </c>
       <c r="L11">
-        <v>0.090627195293291204</v>
+        <v>0.12</v>
       </c>
       <c r="M11">
-        <v>0.090627195293291204</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12.75">
@@ -17572,10 +17572,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>0.0867381932124731</v>
+        <v>0.12</v>
       </c>
       <c r="M12">
-        <v>0.0867381932124731</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75">
@@ -17654,10 +17654,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>0.099394310243560199</v>
+        <v>0.12</v>
       </c>
       <c r="M14">
-        <v>0.099394310243560199</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75">
@@ -17695,10 +17695,10 @@
         <v>131</v>
       </c>
       <c r="L15">
-        <v>0.088919330289193299</v>
+        <v>0.12</v>
       </c>
       <c r="M15">
-        <v>0.088919330289193299</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="12.75">
@@ -17859,10 +17859,10 @@
         <v>131</v>
       </c>
       <c r="L19">
-        <v>0.067212328767123297</v>
+        <v>0.12</v>
       </c>
       <c r="M19">
-        <v>0.067212328767123297</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="12.75">
@@ -17941,10 +17941,10 @@
         <v>131</v>
       </c>
       <c r="L21">
-        <v>0.0048794584261943399</v>
+        <v>0.12</v>
       </c>
       <c r="M21">
-        <v>0.0048794584261943399</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="12.75">
@@ -18023,10 +18023,10 @@
         <v>131</v>
       </c>
       <c r="L23">
-        <v>0.0973639647341112</v>
+        <v>0.12</v>
       </c>
       <c r="M23">
-        <v>0.0973639647341112</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="12.75">
@@ -18064,10 +18064,10 @@
         <v>131</v>
       </c>
       <c r="L24">
-        <v>0.068944308925102102</v>
+        <v>0.12</v>
       </c>
       <c r="M24">
-        <v>0.068944308925102102</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="12.75">
@@ -18187,10 +18187,10 @@
         <v>131</v>
       </c>
       <c r="L27">
-        <v>0.066620869969995597</v>
+        <v>0.12</v>
       </c>
       <c r="M27">
-        <v>0.066620869969995597</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="12.75">
@@ -18228,10 +18228,10 @@
         <v>131</v>
       </c>
       <c r="L28">
-        <v>0.042328767123287703</v>
+        <v>0.12</v>
       </c>
       <c r="M28">
-        <v>0.042328767123287703</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="12.75">
@@ -18269,10 +18269,10 @@
         <v>131</v>
       </c>
       <c r="L29">
-        <v>0.070651721487066402</v>
+        <v>0.12</v>
       </c>
       <c r="M29">
-        <v>0.070651721487066402</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="12.75">
@@ -18310,10 +18310,10 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>0.044735473424353099</v>
+        <v>0.12</v>
       </c>
       <c r="M30">
-        <v>0.044735473424353099</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75">
@@ -18351,10 +18351,10 @@
         <v>131</v>
       </c>
       <c r="L31">
-        <v>0.458133885220118</v>
+        <v>0.12</v>
       </c>
       <c r="M31">
-        <v>0.458133885220118</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="12.75">
@@ -18392,10 +18392,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.047947345890410997</v>
+        <v>0.12</v>
       </c>
       <c r="M32">
-        <v>0.047947345890410997</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12.75">
@@ -18474,10 +18474,10 @@
         <v>131</v>
       </c>
       <c r="L34">
-        <v>0.0051032329364559198</v>
+        <v>0.12</v>
       </c>
       <c r="M34">
-        <v>0.0051032329364559198</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="12.75">
@@ -18556,10 +18556,10 @@
         <v>131</v>
       </c>
       <c r="L36">
-        <v>0.067402586104361395</v>
+        <v>0.12</v>
       </c>
       <c r="M36">
-        <v>0.067402586104361395</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="12.75">
@@ -18597,10 +18597,10 @@
         <v>131</v>
       </c>
       <c r="L37">
-        <v>0.023589745043839899</v>
+        <v>0.12</v>
       </c>
       <c r="M37">
-        <v>0.023589745043839899</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12.75">
@@ -18720,10 +18720,10 @@
         <v>131</v>
       </c>
       <c r="L40">
-        <v>0.056573502855343599</v>
+        <v>0.12</v>
       </c>
       <c r="M40">
-        <v>0.056573502855343599</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -18819,10 +18819,10 @@
         <v>131</v>
       </c>
       <c r="L2">
-        <v>0.0096640000122913006</v>
+        <v>0.12</v>
       </c>
       <c r="M2">
-        <v>0.0096640000122913006</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12.75">
@@ -18860,10 +18860,10 @@
         <v>131</v>
       </c>
       <c r="L3">
-        <v>0.40654789002485697</v>
+        <v>0.12</v>
       </c>
       <c r="M3">
-        <v>0.40654789002485697</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="12.75">
@@ -18983,10 +18983,10 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <v>2.0797704474084602E-05</v>
+        <v>0.12</v>
       </c>
       <c r="M6">
-        <v>2.0797704474084602E-05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12.75">
@@ -19065,10 +19065,10 @@
         <v>131</v>
       </c>
       <c r="L8">
-        <v>0.0024002855672672599</v>
+        <v>0.12</v>
       </c>
       <c r="M8">
-        <v>0.0024002855672672599</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75">
@@ -19147,10 +19147,10 @@
         <v>131</v>
       </c>
       <c r="L10">
-        <v>0.047559865677763699</v>
+        <v>0.12</v>
       </c>
       <c r="M10">
-        <v>0.047559865677763699</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12.75">
@@ -19229,10 +19229,10 @@
         <v>131</v>
       </c>
       <c r="L12">
-        <v>0.14274595375996399</v>
+        <v>0.12</v>
       </c>
       <c r="M12">
-        <v>0.14274595375996399</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12.75">
@@ -19270,10 +19270,10 @@
         <v>131</v>
       </c>
       <c r="L13">
-        <v>0.036221240391349503</v>
+        <v>0.12</v>
       </c>
       <c r="M13">
-        <v>0.036221240391349503</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="12.75">
@@ -19311,10 +19311,10 @@
         <v>131</v>
       </c>
       <c r="L14">
-        <v>0.0253147717385124</v>
+        <v>0.12</v>
       </c>
       <c r="M14">
-        <v>0.0253147717385124</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="12.75">
@@ -19475,10 +19475,10 @@
         <v>131</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="12.75">
@@ -19557,10 +19557,10 @@
         <v>131</v>
       </c>
       <c r="L20">
-        <v>0.023481233276961201</v>
+        <v>0.12</v>
       </c>
       <c r="M20">
-        <v>0.023481233276961201</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="12.75">
@@ -19762,10 +19762,10 @@
         <v>131</v>
       </c>
       <c r="L25">
-        <v>0.11656908094434699</v>
+        <v>0.12</v>
       </c>
       <c r="M25">
-        <v>0.11656908094434699</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="12.75">
@@ -19803,10 +19803,10 @@
         <v>131</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="12.75">
@@ -19967,10 +19967,10 @@
         <v>131</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.0697946718860816</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="12.75">
@@ -20049,10 +20049,10 @@
         <v>131</v>
       </c>
       <c r="L32">
-        <v>0.203493994761373</v>
+        <v>0.12</v>
       </c>
       <c r="M32">
-        <v>0.203493994761373</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12.75">

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1044,27 +1044,27 @@
     <t>R-RSDCW_X0</t>
   </si>
   <si>
+    <t>R-LT_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-LT_Att_X0</t>
+  </si>
+  <si>
     <t>R-LT_Det_X0</t>
   </si>
   <si>
-    <t>R-LT_Att_X0</t>
-  </si>
-  <si>
-    <t>R-LT_Apt_X0</t>
-  </si>
-  <si>
     <t>R-RSDCD_X0</t>
   </si>
   <si>
+    <t>R-PF_Apt_X0</t>
+  </si>
+  <si>
+    <t>R-PF_Att_X0</t>
+  </si>
+  <si>
     <t>R-PF_Det_X0</t>
   </si>
   <si>
-    <t>R-PF_Att_X0</t>
-  </si>
-  <si>
-    <t>R-PF_Apt_X0</t>
-  </si>
-  <si>
     <t>R-RSDDW_X0</t>
   </si>
   <si>
@@ -1308,13 +1308,13 @@
     <t>*Space Heating (dual techs)</t>
   </si>
   <si>
+    <t>R-RSDCK_ELC_X0</t>
+  </si>
+  <si>
+    <t>R-RSDCK_GAS_X0</t>
+  </si>
+  <si>
     <t>R-RSDCK_LPG_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_GAS_X0</t>
-  </si>
-  <si>
-    <t>R-RSDCK_ELC_X0</t>
   </si>
   <si>
     <t>R-SH_Att_GAS_X0</t>
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499430000782013"/>
+      <color theme="7" tint="-0.499419987201691"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499430000782013"/>
+      <color theme="7" tint="-0.499419987201691"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0494400002062321"/>
+        <fgColor theme="0" tint="-0.049430001527071"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1494500041008"/>
+        <fgColor theme="0" tint="-0.149440005421638"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4539" t="8854" r="7667" b="12846"/>
+        <a:srcRect l="4537" t="8853" r="7666" b="12844"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1289" t="6484" r="3932" b="6257"/>
+        <a:srcRect l="1287" t="6483" r="3930" b="6256"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3919" t="26119" r="3919" b="26118"/>
+        <a:srcRect l="3918" t="26118" r="3918" b="26116"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8977,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9059,7 +9059,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9256,7 +9256,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9338,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>
@@ -9530,7 +9530,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>131</v>
@@ -9612,7 +9612,7 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
         <v>131</v>

--- a/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_RSD_NewTechs_Trans.xlsx
@@ -1588,7 +1588,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.499419987201691"/>
+      <color theme="7" tint="-0.499379992485046"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1603,7 +1603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="7" tint="-0.499419987201691"/>
+      <color theme="7" tint="-0.499379992485046"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1680,7 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049430001527071"/>
+        <fgColor theme="0" tint="-0.0493899993598461"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149440005421638"/>
+        <fgColor theme="0" tint="-0.149399995803833"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,7 +2158,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect l="4537" t="8853" r="7666" b="12844"/>
+        <a:srcRect l="4531" t="8847" r="7659" b="12838"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2285,7 +2285,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId5"/>
-        <a:srcRect l="1287" t="6483" r="3930" b="6256"/>
+        <a:srcRect l="1281" t="6477" r="3924" b="6250"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2328,7 +2328,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId6"/>
-        <a:srcRect l="3918" t="26118" r="3918" b="26116"/>
+        <a:srcRect l="3912" t="26112" r="3912" b="26110"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -17285,10 +17285,10 @@
         <v>131</v>
       </c>
       <c r="L5">
-        <v>1.4717633763921301</v>
+        <v>0.49058779213070902</v>
       </c>
       <c r="M5">
-        <v>1.4717633763921301</v>
+        <v>0.49058779213070902</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12.75">
